--- a/dados/receitas_drinks.xlsx
+++ b/dados/receitas_drinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>drink</t>
   </si>
@@ -86,13 +86,13 @@
     <t>rum</t>
   </si>
   <si>
-    <t>Mint Julep</t>
+    <t>Mint julep</t>
   </si>
   <si>
     <t>id_006</t>
   </si>
   <si>
-    <t>Macerar a hortelã no copo e colocar todos os ingredientes. Cobrir o copo com gelo quebrado. Servir em copo baixo ou caneca com um pouco de angostura e folhas de hortelã</t>
+    <t>Macerar a hortelã no copo e colocar todos os ingredientes. Cobrir o copo com gelo quebrado. Servir em copo baixo ou caneca com um pouco de angostura e folhas de hortelã.</t>
   </si>
   <si>
     <t>Negroni</t>
@@ -185,9 +185,6 @@
     <t>limão</t>
   </si>
   <si>
-    <t>Mint julep</t>
-  </si>
-  <si>
     <t>folhas</t>
   </si>
   <si>
@@ -216,11 +213,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -246,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,15 +251,24 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -482,18 +488,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="36.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -504,116 +513,116 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -624,18 +633,2985 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="5"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="5"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="5"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="5"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="5"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="5"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="5"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="5"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="5"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="5"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="5"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="5"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="5"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="5"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="5"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="5"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="5"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="5"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="5"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="5"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="5"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="5"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="5"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="5"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="5"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="5"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="5"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="5"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="5"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="5"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="5"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="5"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="5"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="5"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="5"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="5"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="5"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="5"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="5"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="5"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="5"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="5"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="5"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="5"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="5"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="5"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="5"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="5"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="5"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="5"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="5"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="5"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="5"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="5"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="5"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="5"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="5"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="5"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="5"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="5"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="5"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="5"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="5"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="5"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="5"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="5"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="5"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="5"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="5"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="5"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="5"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="5"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="5"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="5"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="5"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="5"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="5"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="5"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="5"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="5"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="5"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="5"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="5"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="5"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="5"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="5"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="5"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="5"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="5"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="5"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="5"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="5"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="5"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="5"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="5"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="5"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="5"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="5"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="5"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="5"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="5"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="5"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="5"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="5"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="5"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="5"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="5"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="5"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="5"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="5"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="5"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="5"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="5"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="5"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="5"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="5"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="5"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="5"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="5"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="5"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="5"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="5"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="5"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="5"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="5"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="5"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="5"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="5"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="5"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="5"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="5"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="5"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="5"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="5"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="5"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="5"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="5"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="5"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="5"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="5"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="5"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="5"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="5"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="5"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="5"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="5"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="5"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="5"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="5"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="5"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="5"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="5"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="5"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="5"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="5"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="5"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="5"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="5"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="5"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="5"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="5"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="5"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="5"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="5"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="5"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="5"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="5"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="5"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="5"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="5"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="5"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="5"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="5"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="5"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="5"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="5"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="5"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="5"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="5"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="5"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="5"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="5"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="5"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="5"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="5"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="5"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="5"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="5"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="5"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="5"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="5"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="5"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="5"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="5"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="5"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="5"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="5"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="5"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="5"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="5"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="5"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="5"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="5"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="5"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="5"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="5"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="5"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="5"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="5"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="5"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="5"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="5"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="5"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="5"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="5"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="5"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="5"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="5"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="5"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="5"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="5"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="5"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="5"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="5"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="5"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="5"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="5"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="5"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="5"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="5"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="5"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="5"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="5"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="5"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="5"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="5"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="5"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="5"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="5"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="5"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="5"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="5"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="5"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="5"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="5"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="5"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="5"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="5"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="5"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="5"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="5"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="5"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="5"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="5"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="5"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="5"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="5"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="5"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="5"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="5"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="5"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="5"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="5"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="5"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="5"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="5"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="5"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="5"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="5"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="5"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="5"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="5"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="5"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="5"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="5"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="5"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="5"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="5"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="5"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="5"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="5"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="5"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="5"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="5"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="5"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="5"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="5"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="5"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="5"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="5"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="5"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="5"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="5"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="5"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="5"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="5"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="5"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="5"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="5"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="5"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="5"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="5"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="5"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="5"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="5"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="5"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="5"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="5"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="5"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="5"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="5"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="5"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="5"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="5"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="5"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="5"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="5"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="5"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="5"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="5"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="5"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="5"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="5"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="5"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="5"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="5"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="5"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="5"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="5"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="5"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="5"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="5"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="5"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="5"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="5"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="5"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="5"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="5"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="5"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="5"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="5"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="5"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="5"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="5"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="5"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="5"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="5"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="5"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="5"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="5"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="5"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="5"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="5"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="5"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="5"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="5"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="5"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="5"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="5"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="5"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="5"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="5"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="5"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="5"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="5"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="5"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="5"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="5"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="5"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="5"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="5"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="5"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="5"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="5"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="5"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="5"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="5"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="5"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="5"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="5"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="5"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="5"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="5"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="5"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="5"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="5"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="5"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="5"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="5"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="5"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="5"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="5"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="5"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="5"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="5"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="5"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="5"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="5"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="5"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="5"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="5"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="5"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="5"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="5"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="5"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="5"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="5"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="5"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="5"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="5"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="5"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="5"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="5"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="5"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="5"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="5"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="5"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="5"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="5"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="5"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="5"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="5"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="5"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="5"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="5"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="5"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="5"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="5"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="5"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="5"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="5"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="5"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="5"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="5"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="5"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="5"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="5"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="5"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="5"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="5"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="5"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="5"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="5"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="5"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="5"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="5"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="5"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="5"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="5"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="5"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="5"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="5"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="5"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="5"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="5"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="5"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="5"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="5"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="5"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="5"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="5"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="5"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="5"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="5"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="5"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="5"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="5"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="5"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="5"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="5"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="5"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="5"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="5"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="5"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="5"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="5"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="5"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="5"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="5"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="5"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="5"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="5"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="5"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="5"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="5"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="5"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="5"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="5"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="5"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="5"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="5"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="5"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="5"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="5"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="5"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="5"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="5"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="5"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="5"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="5"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="5"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="5"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="5"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="5"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="5"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="5"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="5"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="5"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="5"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="5"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="5"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="5"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="5"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="5"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="5"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="5"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="5"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="5"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="5"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="5"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="5"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="5"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="5"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="5"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="5"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="5"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="5"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="5"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="5"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="5"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="5"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="5"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="5"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="5"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="5"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="5"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="5"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="5"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="5"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="5"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="5"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="5"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="5"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="5"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="5"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="5"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="5"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="5"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="5"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="5"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="5"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="5"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="5"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="5"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="5"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="5"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="5"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="5"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="5"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -657,112 +3633,112 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>40.0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>30.0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>40.0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>10.0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
@@ -771,15 +3747,15 @@
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
@@ -788,81 +3764,81 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>1.0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="7"/>
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>2.0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>0.5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>1.0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -870,16 +3846,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>1.0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -887,67 +3863,67 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>0.5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>2.0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>120.0</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>2.0</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -955,3185 +3931,3185 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>1.0</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>0.25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>2.0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>1.0</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <v>1.0</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4">
         <v>1.0</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="E34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" s="5"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37">
-      <c r="C37" s="5"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38">
-      <c r="C38" s="5"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39">
-      <c r="C39" s="5"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40">
-      <c r="C40" s="5"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41">
-      <c r="C41" s="5"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42">
-      <c r="C42" s="5"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43">
-      <c r="C43" s="5"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44">
-      <c r="C44" s="5"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45">
-      <c r="C45" s="5"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47">
-      <c r="C47" s="5"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48">
-      <c r="C48" s="5"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49">
-      <c r="C49" s="5"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51">
-      <c r="C51" s="5"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52">
-      <c r="C52" s="5"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53">
-      <c r="C53" s="5"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54">
-      <c r="C54" s="5"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56">
-      <c r="C56" s="5"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57">
-      <c r="C57" s="5"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58">
-      <c r="C58" s="5"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59">
-      <c r="C59" s="5"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61">
-      <c r="C61" s="5"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62">
-      <c r="C62" s="5"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63">
-      <c r="C63" s="5"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64">
-      <c r="C64" s="5"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65">
-      <c r="C65" s="5"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66">
-      <c r="C66" s="5"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67">
-      <c r="C67" s="5"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68">
-      <c r="C68" s="5"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69">
-      <c r="C69" s="5"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70">
-      <c r="C70" s="5"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71">
-      <c r="C71" s="5"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72">
-      <c r="C72" s="5"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73">
-      <c r="C73" s="5"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74">
-      <c r="C74" s="5"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75">
-      <c r="C75" s="5"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76">
-      <c r="C76" s="5"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77">
-      <c r="C77" s="5"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78">
-      <c r="C78" s="5"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79">
-      <c r="C79" s="5"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80">
-      <c r="C80" s="5"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81">
-      <c r="C81" s="5"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82">
-      <c r="C82" s="5"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83">
-      <c r="C83" s="5"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84">
-      <c r="C84" s="5"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85">
-      <c r="C85" s="5"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86">
-      <c r="C86" s="5"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87">
-      <c r="C87" s="5"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88">
-      <c r="C88" s="5"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89">
-      <c r="C89" s="5"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90">
-      <c r="C90" s="5"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91">
-      <c r="C91" s="5"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92">
-      <c r="C92" s="5"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93">
-      <c r="C93" s="5"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94">
-      <c r="C94" s="5"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95">
-      <c r="C95" s="5"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96">
-      <c r="C96" s="5"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97">
-      <c r="C97" s="5"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98">
-      <c r="C98" s="5"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99">
-      <c r="C99" s="5"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100">
-      <c r="C100" s="5"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101">
-      <c r="C101" s="5"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102">
-      <c r="C102" s="5"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103">
-      <c r="C103" s="5"/>
+      <c r="C103" s="7"/>
     </row>
     <row r="104">
-      <c r="C104" s="5"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105">
-      <c r="C105" s="5"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106">
-      <c r="C106" s="5"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107">
-      <c r="C107" s="5"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108">
-      <c r="C108" s="5"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109">
-      <c r="C109" s="5"/>
+      <c r="C109" s="7"/>
     </row>
     <row r="110">
-      <c r="C110" s="5"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111">
-      <c r="C111" s="5"/>
+      <c r="C111" s="7"/>
     </row>
     <row r="112">
-      <c r="C112" s="5"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114">
-      <c r="C114" s="5"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115">
-      <c r="C115" s="5"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116">
-      <c r="C116" s="5"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117">
-      <c r="C117" s="5"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118">
-      <c r="C118" s="5"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119">
-      <c r="C119" s="5"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120">
-      <c r="C120" s="5"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121">
-      <c r="C121" s="5"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122">
-      <c r="C122" s="5"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123">
-      <c r="C123" s="5"/>
+      <c r="C123" s="7"/>
     </row>
     <row r="124">
-      <c r="C124" s="5"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125">
-      <c r="C125" s="5"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126">
-      <c r="C126" s="5"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127">
-      <c r="C127" s="5"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128">
-      <c r="C128" s="5"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
+      <c r="C135" s="7"/>
     </row>
     <row r="136">
-      <c r="C136" s="5"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137">
-      <c r="C137" s="5"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140">
-      <c r="C140" s="5"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141">
-      <c r="C141" s="5"/>
+      <c r="C141" s="7"/>
     </row>
     <row r="142">
-      <c r="C142" s="5"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143">
-      <c r="C143" s="5"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144">
-      <c r="C144" s="5"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145">
-      <c r="C145" s="5"/>
+      <c r="C145" s="7"/>
     </row>
     <row r="146">
-      <c r="C146" s="5"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147">
-      <c r="C147" s="5"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148">
-      <c r="C148" s="5"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149">
-      <c r="C149" s="5"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150">
-      <c r="C150" s="5"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151">
-      <c r="C151" s="5"/>
+      <c r="C151" s="7"/>
     </row>
     <row r="152">
-      <c r="C152" s="5"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153">
-      <c r="C153" s="5"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="154">
-      <c r="C154" s="5"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155">
-      <c r="C155" s="5"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156">
-      <c r="C156" s="5"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157">
-      <c r="C157" s="5"/>
+      <c r="C157" s="7"/>
     </row>
     <row r="158">
-      <c r="C158" s="5"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
+      <c r="C159" s="7"/>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161">
-      <c r="C161" s="5"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162">
-      <c r="C162" s="5"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
+      <c r="C163" s="7"/>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165">
-      <c r="C165" s="5"/>
+      <c r="C165" s="7"/>
     </row>
     <row r="166">
-      <c r="C166" s="5"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174">
-      <c r="C174" s="5"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
+      <c r="C177" s="7"/>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185">
-      <c r="C185" s="5"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186">
-      <c r="C186" s="5"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187">
-      <c r="C187" s="5"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188">
-      <c r="C188" s="5"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189">
-      <c r="C189" s="5"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190">
-      <c r="C190" s="5"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191">
-      <c r="C191" s="5"/>
+      <c r="C191" s="7"/>
     </row>
     <row r="192">
-      <c r="C192" s="5"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193">
-      <c r="C193" s="5"/>
+      <c r="C193" s="7"/>
     </row>
     <row r="194">
-      <c r="C194" s="5"/>
+      <c r="C194" s="7"/>
     </row>
     <row r="195">
-      <c r="C195" s="5"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196">
-      <c r="C196" s="5"/>
+      <c r="C196" s="7"/>
     </row>
     <row r="197">
-      <c r="C197" s="5"/>
+      <c r="C197" s="7"/>
     </row>
     <row r="198">
-      <c r="C198" s="5"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199">
-      <c r="C199" s="5"/>
+      <c r="C199" s="7"/>
     </row>
     <row r="200">
-      <c r="C200" s="5"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201">
-      <c r="C201" s="5"/>
+      <c r="C201" s="7"/>
     </row>
     <row r="202">
-      <c r="C202" s="5"/>
+      <c r="C202" s="7"/>
     </row>
     <row r="203">
-      <c r="C203" s="5"/>
+      <c r="C203" s="7"/>
     </row>
     <row r="204">
-      <c r="C204" s="5"/>
+      <c r="C204" s="7"/>
     </row>
     <row r="205">
-      <c r="C205" s="5"/>
+      <c r="C205" s="7"/>
     </row>
     <row r="206">
-      <c r="C206" s="5"/>
+      <c r="C206" s="7"/>
     </row>
     <row r="207">
-      <c r="C207" s="5"/>
+      <c r="C207" s="7"/>
     </row>
     <row r="208">
-      <c r="C208" s="5"/>
+      <c r="C208" s="7"/>
     </row>
     <row r="209">
-      <c r="C209" s="5"/>
+      <c r="C209" s="7"/>
     </row>
     <row r="210">
-      <c r="C210" s="5"/>
+      <c r="C210" s="7"/>
     </row>
     <row r="211">
-      <c r="C211" s="5"/>
+      <c r="C211" s="7"/>
     </row>
     <row r="212">
-      <c r="C212" s="5"/>
+      <c r="C212" s="7"/>
     </row>
     <row r="213">
-      <c r="C213" s="5"/>
+      <c r="C213" s="7"/>
     </row>
     <row r="214">
-      <c r="C214" s="5"/>
+      <c r="C214" s="7"/>
     </row>
     <row r="215">
-      <c r="C215" s="5"/>
+      <c r="C215" s="7"/>
     </row>
     <row r="216">
-      <c r="C216" s="5"/>
+      <c r="C216" s="7"/>
     </row>
     <row r="217">
-      <c r="C217" s="5"/>
+      <c r="C217" s="7"/>
     </row>
     <row r="218">
-      <c r="C218" s="5"/>
+      <c r="C218" s="7"/>
     </row>
     <row r="219">
-      <c r="C219" s="5"/>
+      <c r="C219" s="7"/>
     </row>
     <row r="220">
-      <c r="C220" s="5"/>
+      <c r="C220" s="7"/>
     </row>
     <row r="221">
-      <c r="C221" s="5"/>
+      <c r="C221" s="7"/>
     </row>
     <row r="222">
-      <c r="C222" s="5"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223">
-      <c r="C223" s="5"/>
+      <c r="C223" s="7"/>
     </row>
     <row r="224">
-      <c r="C224" s="5"/>
+      <c r="C224" s="7"/>
     </row>
     <row r="225">
-      <c r="C225" s="5"/>
+      <c r="C225" s="7"/>
     </row>
     <row r="226">
-      <c r="C226" s="5"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227">
-      <c r="C227" s="5"/>
+      <c r="C227" s="7"/>
     </row>
     <row r="228">
-      <c r="C228" s="5"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229">
-      <c r="C229" s="5"/>
+      <c r="C229" s="7"/>
     </row>
     <row r="230">
-      <c r="C230" s="5"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231">
-      <c r="C231" s="5"/>
+      <c r="C231" s="7"/>
     </row>
     <row r="232">
-      <c r="C232" s="5"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233">
-      <c r="C233" s="5"/>
+      <c r="C233" s="7"/>
     </row>
     <row r="234">
-      <c r="C234" s="5"/>
+      <c r="C234" s="7"/>
     </row>
     <row r="235">
-      <c r="C235" s="5"/>
+      <c r="C235" s="7"/>
     </row>
     <row r="236">
-      <c r="C236" s="5"/>
+      <c r="C236" s="7"/>
     </row>
     <row r="237">
-      <c r="C237" s="5"/>
+      <c r="C237" s="7"/>
     </row>
     <row r="238">
-      <c r="C238" s="5"/>
+      <c r="C238" s="7"/>
     </row>
     <row r="239">
-      <c r="C239" s="5"/>
+      <c r="C239" s="7"/>
     </row>
     <row r="240">
-      <c r="C240" s="5"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241">
-      <c r="C241" s="5"/>
+      <c r="C241" s="7"/>
     </row>
     <row r="242">
-      <c r="C242" s="5"/>
+      <c r="C242" s="7"/>
     </row>
     <row r="243">
-      <c r="C243" s="5"/>
+      <c r="C243" s="7"/>
     </row>
     <row r="244">
-      <c r="C244" s="5"/>
+      <c r="C244" s="7"/>
     </row>
     <row r="245">
-      <c r="C245" s="5"/>
+      <c r="C245" s="7"/>
     </row>
     <row r="246">
-      <c r="C246" s="5"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247">
-      <c r="C247" s="5"/>
+      <c r="C247" s="7"/>
     </row>
     <row r="248">
-      <c r="C248" s="5"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249">
-      <c r="C249" s="5"/>
+      <c r="C249" s="7"/>
     </row>
     <row r="250">
-      <c r="C250" s="5"/>
+      <c r="C250" s="7"/>
     </row>
     <row r="251">
-      <c r="C251" s="5"/>
+      <c r="C251" s="7"/>
     </row>
     <row r="252">
-      <c r="C252" s="5"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253">
-      <c r="C253" s="5"/>
+      <c r="C253" s="7"/>
     </row>
     <row r="254">
-      <c r="C254" s="5"/>
+      <c r="C254" s="7"/>
     </row>
     <row r="255">
-      <c r="C255" s="5"/>
+      <c r="C255" s="7"/>
     </row>
     <row r="256">
-      <c r="C256" s="5"/>
+      <c r="C256" s="7"/>
     </row>
     <row r="257">
-      <c r="C257" s="5"/>
+      <c r="C257" s="7"/>
     </row>
     <row r="258">
-      <c r="C258" s="5"/>
+      <c r="C258" s="7"/>
     </row>
     <row r="259">
-      <c r="C259" s="5"/>
+      <c r="C259" s="7"/>
     </row>
     <row r="260">
-      <c r="C260" s="5"/>
+      <c r="C260" s="7"/>
     </row>
     <row r="261">
-      <c r="C261" s="5"/>
+      <c r="C261" s="7"/>
     </row>
     <row r="262">
-      <c r="C262" s="5"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263">
-      <c r="C263" s="5"/>
+      <c r="C263" s="7"/>
     </row>
     <row r="264">
-      <c r="C264" s="5"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265">
-      <c r="C265" s="5"/>
+      <c r="C265" s="7"/>
     </row>
     <row r="266">
-      <c r="C266" s="5"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267">
-      <c r="C267" s="5"/>
+      <c r="C267" s="7"/>
     </row>
     <row r="268">
-      <c r="C268" s="5"/>
+      <c r="C268" s="7"/>
     </row>
     <row r="269">
-      <c r="C269" s="5"/>
+      <c r="C269" s="7"/>
     </row>
     <row r="270">
-      <c r="C270" s="5"/>
+      <c r="C270" s="7"/>
     </row>
     <row r="271">
-      <c r="C271" s="5"/>
+      <c r="C271" s="7"/>
     </row>
     <row r="272">
-      <c r="C272" s="5"/>
+      <c r="C272" s="7"/>
     </row>
     <row r="273">
-      <c r="C273" s="5"/>
+      <c r="C273" s="7"/>
     </row>
     <row r="274">
-      <c r="C274" s="5"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275">
-      <c r="C275" s="5"/>
+      <c r="C275" s="7"/>
     </row>
     <row r="276">
-      <c r="C276" s="5"/>
+      <c r="C276" s="7"/>
     </row>
     <row r="277">
-      <c r="C277" s="5"/>
+      <c r="C277" s="7"/>
     </row>
     <row r="278">
-      <c r="C278" s="5"/>
+      <c r="C278" s="7"/>
     </row>
     <row r="279">
-      <c r="C279" s="5"/>
+      <c r="C279" s="7"/>
     </row>
     <row r="280">
-      <c r="C280" s="5"/>
+      <c r="C280" s="7"/>
     </row>
     <row r="281">
-      <c r="C281" s="5"/>
+      <c r="C281" s="7"/>
     </row>
     <row r="282">
-      <c r="C282" s="5"/>
+      <c r="C282" s="7"/>
     </row>
     <row r="283">
-      <c r="C283" s="5"/>
+      <c r="C283" s="7"/>
     </row>
     <row r="284">
-      <c r="C284" s="5"/>
+      <c r="C284" s="7"/>
     </row>
     <row r="285">
-      <c r="C285" s="5"/>
+      <c r="C285" s="7"/>
     </row>
     <row r="286">
-      <c r="C286" s="5"/>
+      <c r="C286" s="7"/>
     </row>
     <row r="287">
-      <c r="C287" s="5"/>
+      <c r="C287" s="7"/>
     </row>
     <row r="288">
-      <c r="C288" s="5"/>
+      <c r="C288" s="7"/>
     </row>
     <row r="289">
-      <c r="C289" s="5"/>
+      <c r="C289" s="7"/>
     </row>
     <row r="290">
-      <c r="C290" s="5"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291">
-      <c r="C291" s="5"/>
+      <c r="C291" s="7"/>
     </row>
     <row r="292">
-      <c r="C292" s="5"/>
+      <c r="C292" s="7"/>
     </row>
     <row r="293">
-      <c r="C293" s="5"/>
+      <c r="C293" s="7"/>
     </row>
     <row r="294">
-      <c r="C294" s="5"/>
+      <c r="C294" s="7"/>
     </row>
     <row r="295">
-      <c r="C295" s="5"/>
+      <c r="C295" s="7"/>
     </row>
     <row r="296">
-      <c r="C296" s="5"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297">
-      <c r="C297" s="5"/>
+      <c r="C297" s="7"/>
     </row>
     <row r="298">
-      <c r="C298" s="5"/>
+      <c r="C298" s="7"/>
     </row>
     <row r="299">
-      <c r="C299" s="5"/>
+      <c r="C299" s="7"/>
     </row>
     <row r="300">
-      <c r="C300" s="5"/>
+      <c r="C300" s="7"/>
     </row>
     <row r="301">
-      <c r="C301" s="5"/>
+      <c r="C301" s="7"/>
     </row>
     <row r="302">
-      <c r="C302" s="5"/>
+      <c r="C302" s="7"/>
     </row>
     <row r="303">
-      <c r="C303" s="5"/>
+      <c r="C303" s="7"/>
     </row>
     <row r="304">
-      <c r="C304" s="5"/>
+      <c r="C304" s="7"/>
     </row>
     <row r="305">
-      <c r="C305" s="5"/>
+      <c r="C305" s="7"/>
     </row>
     <row r="306">
-      <c r="C306" s="5"/>
+      <c r="C306" s="7"/>
     </row>
     <row r="307">
-      <c r="C307" s="5"/>
+      <c r="C307" s="7"/>
     </row>
     <row r="308">
-      <c r="C308" s="5"/>
+      <c r="C308" s="7"/>
     </row>
     <row r="309">
-      <c r="C309" s="5"/>
+      <c r="C309" s="7"/>
     </row>
     <row r="310">
-      <c r="C310" s="5"/>
+      <c r="C310" s="7"/>
     </row>
     <row r="311">
-      <c r="C311" s="5"/>
+      <c r="C311" s="7"/>
     </row>
     <row r="312">
-      <c r="C312" s="5"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313">
-      <c r="C313" s="5"/>
+      <c r="C313" s="7"/>
     </row>
     <row r="314">
-      <c r="C314" s="5"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315">
-      <c r="C315" s="5"/>
+      <c r="C315" s="7"/>
     </row>
     <row r="316">
-      <c r="C316" s="5"/>
+      <c r="C316" s="7"/>
     </row>
     <row r="317">
-      <c r="C317" s="5"/>
+      <c r="C317" s="7"/>
     </row>
     <row r="318">
-      <c r="C318" s="5"/>
+      <c r="C318" s="7"/>
     </row>
     <row r="319">
-      <c r="C319" s="5"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320">
-      <c r="C320" s="5"/>
+      <c r="C320" s="7"/>
     </row>
     <row r="321">
-      <c r="C321" s="5"/>
+      <c r="C321" s="7"/>
     </row>
     <row r="322">
-      <c r="C322" s="5"/>
+      <c r="C322" s="7"/>
     </row>
     <row r="323">
-      <c r="C323" s="5"/>
+      <c r="C323" s="7"/>
     </row>
     <row r="324">
-      <c r="C324" s="5"/>
+      <c r="C324" s="7"/>
     </row>
     <row r="325">
-      <c r="C325" s="5"/>
+      <c r="C325" s="7"/>
     </row>
     <row r="326">
-      <c r="C326" s="5"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327">
-      <c r="C327" s="5"/>
+      <c r="C327" s="7"/>
     </row>
     <row r="328">
-      <c r="C328" s="5"/>
+      <c r="C328" s="7"/>
     </row>
     <row r="329">
-      <c r="C329" s="5"/>
+      <c r="C329" s="7"/>
     </row>
     <row r="330">
-      <c r="C330" s="5"/>
+      <c r="C330" s="7"/>
     </row>
     <row r="331">
-      <c r="C331" s="5"/>
+      <c r="C331" s="7"/>
     </row>
     <row r="332">
-      <c r="C332" s="5"/>
+      <c r="C332" s="7"/>
     </row>
     <row r="333">
-      <c r="C333" s="5"/>
+      <c r="C333" s="7"/>
     </row>
     <row r="334">
-      <c r="C334" s="5"/>
+      <c r="C334" s="7"/>
     </row>
     <row r="335">
-      <c r="C335" s="5"/>
+      <c r="C335" s="7"/>
     </row>
     <row r="336">
-      <c r="C336" s="5"/>
+      <c r="C336" s="7"/>
     </row>
     <row r="337">
-      <c r="C337" s="5"/>
+      <c r="C337" s="7"/>
     </row>
     <row r="338">
-      <c r="C338" s="5"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339">
-      <c r="C339" s="5"/>
+      <c r="C339" s="7"/>
     </row>
     <row r="340">
-      <c r="C340" s="5"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341">
-      <c r="C341" s="5"/>
+      <c r="C341" s="7"/>
     </row>
     <row r="342">
-      <c r="C342" s="5"/>
+      <c r="C342" s="7"/>
     </row>
     <row r="343">
-      <c r="C343" s="5"/>
+      <c r="C343" s="7"/>
     </row>
     <row r="344">
-      <c r="C344" s="5"/>
+      <c r="C344" s="7"/>
     </row>
     <row r="345">
-      <c r="C345" s="5"/>
+      <c r="C345" s="7"/>
     </row>
     <row r="346">
-      <c r="C346" s="5"/>
+      <c r="C346" s="7"/>
     </row>
     <row r="347">
-      <c r="C347" s="5"/>
+      <c r="C347" s="7"/>
     </row>
     <row r="348">
-      <c r="C348" s="5"/>
+      <c r="C348" s="7"/>
     </row>
     <row r="349">
-      <c r="C349" s="5"/>
+      <c r="C349" s="7"/>
     </row>
     <row r="350">
-      <c r="C350" s="5"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="351">
-      <c r="C351" s="5"/>
+      <c r="C351" s="7"/>
     </row>
     <row r="352">
-      <c r="C352" s="5"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353">
-      <c r="C353" s="5"/>
+      <c r="C353" s="7"/>
     </row>
     <row r="354">
-      <c r="C354" s="5"/>
+      <c r="C354" s="7"/>
     </row>
     <row r="355">
-      <c r="C355" s="5"/>
+      <c r="C355" s="7"/>
     </row>
     <row r="356">
-      <c r="C356" s="5"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357">
-      <c r="C357" s="5"/>
+      <c r="C357" s="7"/>
     </row>
     <row r="358">
-      <c r="C358" s="5"/>
+      <c r="C358" s="7"/>
     </row>
     <row r="359">
-      <c r="C359" s="5"/>
+      <c r="C359" s="7"/>
     </row>
     <row r="360">
-      <c r="C360" s="5"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361">
-      <c r="C361" s="5"/>
+      <c r="C361" s="7"/>
     </row>
     <row r="362">
-      <c r="C362" s="5"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363">
-      <c r="C363" s="5"/>
+      <c r="C363" s="7"/>
     </row>
     <row r="364">
-      <c r="C364" s="5"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365">
-      <c r="C365" s="5"/>
+      <c r="C365" s="7"/>
     </row>
     <row r="366">
-      <c r="C366" s="5"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367">
-      <c r="C367" s="5"/>
+      <c r="C367" s="7"/>
     </row>
     <row r="368">
-      <c r="C368" s="5"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369">
-      <c r="C369" s="5"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370">
-      <c r="C370" s="5"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371">
-      <c r="C371" s="5"/>
+      <c r="C371" s="7"/>
     </row>
     <row r="372">
-      <c r="C372" s="5"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373">
-      <c r="C373" s="5"/>
+      <c r="C373" s="7"/>
     </row>
     <row r="374">
-      <c r="C374" s="5"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375">
-      <c r="C375" s="5"/>
+      <c r="C375" s="7"/>
     </row>
     <row r="376">
-      <c r="C376" s="5"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377">
-      <c r="C377" s="5"/>
+      <c r="C377" s="7"/>
     </row>
     <row r="378">
-      <c r="C378" s="5"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379">
-      <c r="C379" s="5"/>
+      <c r="C379" s="7"/>
     </row>
     <row r="380">
-      <c r="C380" s="5"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381">
-      <c r="C381" s="5"/>
+      <c r="C381" s="7"/>
     </row>
     <row r="382">
-      <c r="C382" s="5"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383">
-      <c r="C383" s="5"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384">
-      <c r="C384" s="5"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385">
-      <c r="C385" s="5"/>
+      <c r="C385" s="7"/>
     </row>
     <row r="386">
-      <c r="C386" s="5"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387">
-      <c r="C387" s="5"/>
+      <c r="C387" s="7"/>
     </row>
     <row r="388">
-      <c r="C388" s="5"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389">
-      <c r="C389" s="5"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390">
-      <c r="C390" s="5"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391">
-      <c r="C391" s="5"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392">
-      <c r="C392" s="5"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393">
-      <c r="C393" s="5"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394">
-      <c r="C394" s="5"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395">
-      <c r="C395" s="5"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396">
-      <c r="C396" s="5"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397">
-      <c r="C397" s="5"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398">
-      <c r="C398" s="5"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399">
-      <c r="C399" s="5"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400">
-      <c r="C400" s="5"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401">
-      <c r="C401" s="5"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402">
-      <c r="C402" s="5"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403">
-      <c r="C403" s="5"/>
+      <c r="C403" s="7"/>
     </row>
     <row r="404">
-      <c r="C404" s="5"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405">
-      <c r="C405" s="5"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406">
-      <c r="C406" s="5"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407">
-      <c r="C407" s="5"/>
+      <c r="C407" s="7"/>
     </row>
     <row r="408">
-      <c r="C408" s="5"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409">
-      <c r="C409" s="5"/>
+      <c r="C409" s="7"/>
     </row>
     <row r="410">
-      <c r="C410" s="5"/>
+      <c r="C410" s="7"/>
     </row>
     <row r="411">
-      <c r="C411" s="5"/>
+      <c r="C411" s="7"/>
     </row>
     <row r="412">
-      <c r="C412" s="5"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413">
-      <c r="C413" s="5"/>
+      <c r="C413" s="7"/>
     </row>
     <row r="414">
-      <c r="C414" s="5"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415">
-      <c r="C415" s="5"/>
+      <c r="C415" s="7"/>
     </row>
     <row r="416">
-      <c r="C416" s="5"/>
+      <c r="C416" s="7"/>
     </row>
     <row r="417">
-      <c r="C417" s="5"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418">
-      <c r="C418" s="5"/>
+      <c r="C418" s="7"/>
     </row>
     <row r="419">
-      <c r="C419" s="5"/>
+      <c r="C419" s="7"/>
     </row>
     <row r="420">
-      <c r="C420" s="5"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421">
-      <c r="C421" s="5"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422">
-      <c r="C422" s="5"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423">
-      <c r="C423" s="5"/>
+      <c r="C423" s="7"/>
     </row>
     <row r="424">
-      <c r="C424" s="5"/>
+      <c r="C424" s="7"/>
     </row>
     <row r="425">
-      <c r="C425" s="5"/>
+      <c r="C425" s="7"/>
     </row>
     <row r="426">
-      <c r="C426" s="5"/>
+      <c r="C426" s="7"/>
     </row>
     <row r="427">
-      <c r="C427" s="5"/>
+      <c r="C427" s="7"/>
     </row>
     <row r="428">
-      <c r="C428" s="5"/>
+      <c r="C428" s="7"/>
     </row>
     <row r="429">
-      <c r="C429" s="5"/>
+      <c r="C429" s="7"/>
     </row>
     <row r="430">
-      <c r="C430" s="5"/>
+      <c r="C430" s="7"/>
     </row>
     <row r="431">
-      <c r="C431" s="5"/>
+      <c r="C431" s="7"/>
     </row>
     <row r="432">
-      <c r="C432" s="5"/>
+      <c r="C432" s="7"/>
     </row>
     <row r="433">
-      <c r="C433" s="5"/>
+      <c r="C433" s="7"/>
     </row>
     <row r="434">
-      <c r="C434" s="5"/>
+      <c r="C434" s="7"/>
     </row>
     <row r="435">
-      <c r="C435" s="5"/>
+      <c r="C435" s="7"/>
     </row>
     <row r="436">
-      <c r="C436" s="5"/>
+      <c r="C436" s="7"/>
     </row>
     <row r="437">
-      <c r="C437" s="5"/>
+      <c r="C437" s="7"/>
     </row>
     <row r="438">
-      <c r="C438" s="5"/>
+      <c r="C438" s="7"/>
     </row>
     <row r="439">
-      <c r="C439" s="5"/>
+      <c r="C439" s="7"/>
     </row>
     <row r="440">
-      <c r="C440" s="5"/>
+      <c r="C440" s="7"/>
     </row>
     <row r="441">
-      <c r="C441" s="5"/>
+      <c r="C441" s="7"/>
     </row>
     <row r="442">
-      <c r="C442" s="5"/>
+      <c r="C442" s="7"/>
     </row>
     <row r="443">
-      <c r="C443" s="5"/>
+      <c r="C443" s="7"/>
     </row>
     <row r="444">
-      <c r="C444" s="5"/>
+      <c r="C444" s="7"/>
     </row>
     <row r="445">
-      <c r="C445" s="5"/>
+      <c r="C445" s="7"/>
     </row>
     <row r="446">
-      <c r="C446" s="5"/>
+      <c r="C446" s="7"/>
     </row>
     <row r="447">
-      <c r="C447" s="5"/>
+      <c r="C447" s="7"/>
     </row>
     <row r="448">
-      <c r="C448" s="5"/>
+      <c r="C448" s="7"/>
     </row>
     <row r="449">
-      <c r="C449" s="5"/>
+      <c r="C449" s="7"/>
     </row>
     <row r="450">
-      <c r="C450" s="5"/>
+      <c r="C450" s="7"/>
     </row>
     <row r="451">
-      <c r="C451" s="5"/>
+      <c r="C451" s="7"/>
     </row>
     <row r="452">
-      <c r="C452" s="5"/>
+      <c r="C452" s="7"/>
     </row>
     <row r="453">
-      <c r="C453" s="5"/>
+      <c r="C453" s="7"/>
     </row>
     <row r="454">
-      <c r="C454" s="5"/>
+      <c r="C454" s="7"/>
     </row>
     <row r="455">
-      <c r="C455" s="5"/>
+      <c r="C455" s="7"/>
     </row>
     <row r="456">
-      <c r="C456" s="5"/>
+      <c r="C456" s="7"/>
     </row>
     <row r="457">
-      <c r="C457" s="5"/>
+      <c r="C457" s="7"/>
     </row>
     <row r="458">
-      <c r="C458" s="5"/>
+      <c r="C458" s="7"/>
     </row>
     <row r="459">
-      <c r="C459" s="5"/>
+      <c r="C459" s="7"/>
     </row>
     <row r="460">
-      <c r="C460" s="5"/>
+      <c r="C460" s="7"/>
     </row>
     <row r="461">
-      <c r="C461" s="5"/>
+      <c r="C461" s="7"/>
     </row>
     <row r="462">
-      <c r="C462" s="5"/>
+      <c r="C462" s="7"/>
     </row>
     <row r="463">
-      <c r="C463" s="5"/>
+      <c r="C463" s="7"/>
     </row>
     <row r="464">
-      <c r="C464" s="5"/>
+      <c r="C464" s="7"/>
     </row>
     <row r="465">
-      <c r="C465" s="5"/>
+      <c r="C465" s="7"/>
     </row>
     <row r="466">
-      <c r="C466" s="5"/>
+      <c r="C466" s="7"/>
     </row>
     <row r="467">
-      <c r="C467" s="5"/>
+      <c r="C467" s="7"/>
     </row>
     <row r="468">
-      <c r="C468" s="5"/>
+      <c r="C468" s="7"/>
     </row>
     <row r="469">
-      <c r="C469" s="5"/>
+      <c r="C469" s="7"/>
     </row>
     <row r="470">
-      <c r="C470" s="5"/>
+      <c r="C470" s="7"/>
     </row>
     <row r="471">
-      <c r="C471" s="5"/>
+      <c r="C471" s="7"/>
     </row>
     <row r="472">
-      <c r="C472" s="5"/>
+      <c r="C472" s="7"/>
     </row>
     <row r="473">
-      <c r="C473" s="5"/>
+      <c r="C473" s="7"/>
     </row>
     <row r="474">
-      <c r="C474" s="5"/>
+      <c r="C474" s="7"/>
     </row>
     <row r="475">
-      <c r="C475" s="5"/>
+      <c r="C475" s="7"/>
     </row>
     <row r="476">
-      <c r="C476" s="5"/>
+      <c r="C476" s="7"/>
     </row>
     <row r="477">
-      <c r="C477" s="5"/>
+      <c r="C477" s="7"/>
     </row>
     <row r="478">
-      <c r="C478" s="5"/>
+      <c r="C478" s="7"/>
     </row>
     <row r="479">
-      <c r="C479" s="5"/>
+      <c r="C479" s="7"/>
     </row>
     <row r="480">
-      <c r="C480" s="5"/>
+      <c r="C480" s="7"/>
     </row>
     <row r="481">
-      <c r="C481" s="5"/>
+      <c r="C481" s="7"/>
     </row>
     <row r="482">
-      <c r="C482" s="5"/>
+      <c r="C482" s="7"/>
     </row>
     <row r="483">
-      <c r="C483" s="5"/>
+      <c r="C483" s="7"/>
     </row>
     <row r="484">
-      <c r="C484" s="5"/>
+      <c r="C484" s="7"/>
     </row>
     <row r="485">
-      <c r="C485" s="5"/>
+      <c r="C485" s="7"/>
     </row>
     <row r="486">
-      <c r="C486" s="5"/>
+      <c r="C486" s="7"/>
     </row>
     <row r="487">
-      <c r="C487" s="5"/>
+      <c r="C487" s="7"/>
     </row>
     <row r="488">
-      <c r="C488" s="5"/>
+      <c r="C488" s="7"/>
     </row>
     <row r="489">
-      <c r="C489" s="5"/>
+      <c r="C489" s="7"/>
     </row>
     <row r="490">
-      <c r="C490" s="5"/>
+      <c r="C490" s="7"/>
     </row>
     <row r="491">
-      <c r="C491" s="5"/>
+      <c r="C491" s="7"/>
     </row>
     <row r="492">
-      <c r="C492" s="5"/>
+      <c r="C492" s="7"/>
     </row>
     <row r="493">
-      <c r="C493" s="5"/>
+      <c r="C493" s="7"/>
     </row>
     <row r="494">
-      <c r="C494" s="5"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495">
-      <c r="C495" s="5"/>
+      <c r="C495" s="7"/>
     </row>
     <row r="496">
-      <c r="C496" s="5"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497">
-      <c r="C497" s="5"/>
+      <c r="C497" s="7"/>
     </row>
     <row r="498">
-      <c r="C498" s="5"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499">
-      <c r="C499" s="5"/>
+      <c r="C499" s="7"/>
     </row>
     <row r="500">
-      <c r="C500" s="5"/>
+      <c r="C500" s="7"/>
     </row>
     <row r="501">
-      <c r="C501" s="5"/>
+      <c r="C501" s="7"/>
     </row>
     <row r="502">
-      <c r="C502" s="5"/>
+      <c r="C502" s="7"/>
     </row>
     <row r="503">
-      <c r="C503" s="5"/>
+      <c r="C503" s="7"/>
     </row>
     <row r="504">
-      <c r="C504" s="5"/>
+      <c r="C504" s="7"/>
     </row>
     <row r="505">
-      <c r="C505" s="5"/>
+      <c r="C505" s="7"/>
     </row>
     <row r="506">
-      <c r="C506" s="5"/>
+      <c r="C506" s="7"/>
     </row>
     <row r="507">
-      <c r="C507" s="5"/>
+      <c r="C507" s="7"/>
     </row>
     <row r="508">
-      <c r="C508" s="5"/>
+      <c r="C508" s="7"/>
     </row>
     <row r="509">
-      <c r="C509" s="5"/>
+      <c r="C509" s="7"/>
     </row>
     <row r="510">
-      <c r="C510" s="5"/>
+      <c r="C510" s="7"/>
     </row>
     <row r="511">
-      <c r="C511" s="5"/>
+      <c r="C511" s="7"/>
     </row>
     <row r="512">
-      <c r="C512" s="5"/>
+      <c r="C512" s="7"/>
     </row>
     <row r="513">
-      <c r="C513" s="5"/>
+      <c r="C513" s="7"/>
     </row>
     <row r="514">
-      <c r="C514" s="5"/>
+      <c r="C514" s="7"/>
     </row>
     <row r="515">
-      <c r="C515" s="5"/>
+      <c r="C515" s="7"/>
     </row>
     <row r="516">
-      <c r="C516" s="5"/>
+      <c r="C516" s="7"/>
     </row>
     <row r="517">
-      <c r="C517" s="5"/>
+      <c r="C517" s="7"/>
     </row>
     <row r="518">
-      <c r="C518" s="5"/>
+      <c r="C518" s="7"/>
     </row>
     <row r="519">
-      <c r="C519" s="5"/>
+      <c r="C519" s="7"/>
     </row>
     <row r="520">
-      <c r="C520" s="5"/>
+      <c r="C520" s="7"/>
     </row>
     <row r="521">
-      <c r="C521" s="5"/>
+      <c r="C521" s="7"/>
     </row>
     <row r="522">
-      <c r="C522" s="5"/>
+      <c r="C522" s="7"/>
     </row>
     <row r="523">
-      <c r="C523" s="5"/>
+      <c r="C523" s="7"/>
     </row>
     <row r="524">
-      <c r="C524" s="5"/>
+      <c r="C524" s="7"/>
     </row>
     <row r="525">
-      <c r="C525" s="5"/>
+      <c r="C525" s="7"/>
     </row>
     <row r="526">
-      <c r="C526" s="5"/>
+      <c r="C526" s="7"/>
     </row>
     <row r="527">
-      <c r="C527" s="5"/>
+      <c r="C527" s="7"/>
     </row>
     <row r="528">
-      <c r="C528" s="5"/>
+      <c r="C528" s="7"/>
     </row>
     <row r="529">
-      <c r="C529" s="5"/>
+      <c r="C529" s="7"/>
     </row>
     <row r="530">
-      <c r="C530" s="5"/>
+      <c r="C530" s="7"/>
     </row>
     <row r="531">
-      <c r="C531" s="5"/>
+      <c r="C531" s="7"/>
     </row>
     <row r="532">
-      <c r="C532" s="5"/>
+      <c r="C532" s="7"/>
     </row>
     <row r="533">
-      <c r="C533" s="5"/>
+      <c r="C533" s="7"/>
     </row>
     <row r="534">
-      <c r="C534" s="5"/>
+      <c r="C534" s="7"/>
     </row>
     <row r="535">
-      <c r="C535" s="5"/>
+      <c r="C535" s="7"/>
     </row>
     <row r="536">
-      <c r="C536" s="5"/>
+      <c r="C536" s="7"/>
     </row>
     <row r="537">
-      <c r="C537" s="5"/>
+      <c r="C537" s="7"/>
     </row>
     <row r="538">
-      <c r="C538" s="5"/>
+      <c r="C538" s="7"/>
     </row>
     <row r="539">
-      <c r="C539" s="5"/>
+      <c r="C539" s="7"/>
     </row>
     <row r="540">
-      <c r="C540" s="5"/>
+      <c r="C540" s="7"/>
     </row>
     <row r="541">
-      <c r="C541" s="5"/>
+      <c r="C541" s="7"/>
     </row>
     <row r="542">
-      <c r="C542" s="5"/>
+      <c r="C542" s="7"/>
     </row>
     <row r="543">
-      <c r="C543" s="5"/>
+      <c r="C543" s="7"/>
     </row>
     <row r="544">
-      <c r="C544" s="5"/>
+      <c r="C544" s="7"/>
     </row>
     <row r="545">
-      <c r="C545" s="5"/>
+      <c r="C545" s="7"/>
     </row>
     <row r="546">
-      <c r="C546" s="5"/>
+      <c r="C546" s="7"/>
     </row>
     <row r="547">
-      <c r="C547" s="5"/>
+      <c r="C547" s="7"/>
     </row>
     <row r="548">
-      <c r="C548" s="5"/>
+      <c r="C548" s="7"/>
     </row>
     <row r="549">
-      <c r="C549" s="5"/>
+      <c r="C549" s="7"/>
     </row>
     <row r="550">
-      <c r="C550" s="5"/>
+      <c r="C550" s="7"/>
     </row>
     <row r="551">
-      <c r="C551" s="5"/>
+      <c r="C551" s="7"/>
     </row>
     <row r="552">
-      <c r="C552" s="5"/>
+      <c r="C552" s="7"/>
     </row>
     <row r="553">
-      <c r="C553" s="5"/>
+      <c r="C553" s="7"/>
     </row>
     <row r="554">
-      <c r="C554" s="5"/>
+      <c r="C554" s="7"/>
     </row>
     <row r="555">
-      <c r="C555" s="5"/>
+      <c r="C555" s="7"/>
     </row>
     <row r="556">
-      <c r="C556" s="5"/>
+      <c r="C556" s="7"/>
     </row>
     <row r="557">
-      <c r="C557" s="5"/>
+      <c r="C557" s="7"/>
     </row>
     <row r="558">
-      <c r="C558" s="5"/>
+      <c r="C558" s="7"/>
     </row>
     <row r="559">
-      <c r="C559" s="5"/>
+      <c r="C559" s="7"/>
     </row>
     <row r="560">
-      <c r="C560" s="5"/>
+      <c r="C560" s="7"/>
     </row>
     <row r="561">
-      <c r="C561" s="5"/>
+      <c r="C561" s="7"/>
     </row>
     <row r="562">
-      <c r="C562" s="5"/>
+      <c r="C562" s="7"/>
     </row>
     <row r="563">
-      <c r="C563" s="5"/>
+      <c r="C563" s="7"/>
     </row>
     <row r="564">
-      <c r="C564" s="5"/>
+      <c r="C564" s="7"/>
     </row>
     <row r="565">
-      <c r="C565" s="5"/>
+      <c r="C565" s="7"/>
     </row>
     <row r="566">
-      <c r="C566" s="5"/>
+      <c r="C566" s="7"/>
     </row>
     <row r="567">
-      <c r="C567" s="5"/>
+      <c r="C567" s="7"/>
     </row>
     <row r="568">
-      <c r="C568" s="5"/>
+      <c r="C568" s="7"/>
     </row>
     <row r="569">
-      <c r="C569" s="5"/>
+      <c r="C569" s="7"/>
     </row>
     <row r="570">
-      <c r="C570" s="5"/>
+      <c r="C570" s="7"/>
     </row>
     <row r="571">
-      <c r="C571" s="5"/>
+      <c r="C571" s="7"/>
     </row>
     <row r="572">
-      <c r="C572" s="5"/>
+      <c r="C572" s="7"/>
     </row>
     <row r="573">
-      <c r="C573" s="5"/>
+      <c r="C573" s="7"/>
     </row>
     <row r="574">
-      <c r="C574" s="5"/>
+      <c r="C574" s="7"/>
     </row>
     <row r="575">
-      <c r="C575" s="5"/>
+      <c r="C575" s="7"/>
     </row>
     <row r="576">
-      <c r="C576" s="5"/>
+      <c r="C576" s="7"/>
     </row>
     <row r="577">
-      <c r="C577" s="5"/>
+      <c r="C577" s="7"/>
     </row>
     <row r="578">
-      <c r="C578" s="5"/>
+      <c r="C578" s="7"/>
     </row>
     <row r="579">
-      <c r="C579" s="5"/>
+      <c r="C579" s="7"/>
     </row>
     <row r="580">
-      <c r="C580" s="5"/>
+      <c r="C580" s="7"/>
     </row>
     <row r="581">
-      <c r="C581" s="5"/>
+      <c r="C581" s="7"/>
     </row>
     <row r="582">
-      <c r="C582" s="5"/>
+      <c r="C582" s="7"/>
     </row>
     <row r="583">
-      <c r="C583" s="5"/>
+      <c r="C583" s="7"/>
     </row>
     <row r="584">
-      <c r="C584" s="5"/>
+      <c r="C584" s="7"/>
     </row>
     <row r="585">
-      <c r="C585" s="5"/>
+      <c r="C585" s="7"/>
     </row>
     <row r="586">
-      <c r="C586" s="5"/>
+      <c r="C586" s="7"/>
     </row>
     <row r="587">
-      <c r="C587" s="5"/>
+      <c r="C587" s="7"/>
     </row>
     <row r="588">
-      <c r="C588" s="5"/>
+      <c r="C588" s="7"/>
     </row>
     <row r="589">
-      <c r="C589" s="5"/>
+      <c r="C589" s="7"/>
     </row>
     <row r="590">
-      <c r="C590" s="5"/>
+      <c r="C590" s="7"/>
     </row>
     <row r="591">
-      <c r="C591" s="5"/>
+      <c r="C591" s="7"/>
     </row>
     <row r="592">
-      <c r="C592" s="5"/>
+      <c r="C592" s="7"/>
     </row>
     <row r="593">
-      <c r="C593" s="5"/>
+      <c r="C593" s="7"/>
     </row>
     <row r="594">
-      <c r="C594" s="5"/>
+      <c r="C594" s="7"/>
     </row>
     <row r="595">
-      <c r="C595" s="5"/>
+      <c r="C595" s="7"/>
     </row>
     <row r="596">
-      <c r="C596" s="5"/>
+      <c r="C596" s="7"/>
     </row>
     <row r="597">
-      <c r="C597" s="5"/>
+      <c r="C597" s="7"/>
     </row>
     <row r="598">
-      <c r="C598" s="5"/>
+      <c r="C598" s="7"/>
     </row>
     <row r="599">
-      <c r="C599" s="5"/>
+      <c r="C599" s="7"/>
     </row>
     <row r="600">
-      <c r="C600" s="5"/>
+      <c r="C600" s="7"/>
     </row>
     <row r="601">
-      <c r="C601" s="5"/>
+      <c r="C601" s="7"/>
     </row>
     <row r="602">
-      <c r="C602" s="5"/>
+      <c r="C602" s="7"/>
     </row>
     <row r="603">
-      <c r="C603" s="5"/>
+      <c r="C603" s="7"/>
     </row>
     <row r="604">
-      <c r="C604" s="5"/>
+      <c r="C604" s="7"/>
     </row>
     <row r="605">
-      <c r="C605" s="5"/>
+      <c r="C605" s="7"/>
     </row>
     <row r="606">
-      <c r="C606" s="5"/>
+      <c r="C606" s="7"/>
     </row>
     <row r="607">
-      <c r="C607" s="5"/>
+      <c r="C607" s="7"/>
     </row>
     <row r="608">
-      <c r="C608" s="5"/>
+      <c r="C608" s="7"/>
     </row>
     <row r="609">
-      <c r="C609" s="5"/>
+      <c r="C609" s="7"/>
     </row>
     <row r="610">
-      <c r="C610" s="5"/>
+      <c r="C610" s="7"/>
     </row>
     <row r="611">
-      <c r="C611" s="5"/>
+      <c r="C611" s="7"/>
     </row>
     <row r="612">
-      <c r="C612" s="5"/>
+      <c r="C612" s="7"/>
     </row>
     <row r="613">
-      <c r="C613" s="5"/>
+      <c r="C613" s="7"/>
     </row>
     <row r="614">
-      <c r="C614" s="5"/>
+      <c r="C614" s="7"/>
     </row>
     <row r="615">
-      <c r="C615" s="5"/>
+      <c r="C615" s="7"/>
     </row>
     <row r="616">
-      <c r="C616" s="5"/>
+      <c r="C616" s="7"/>
     </row>
     <row r="617">
-      <c r="C617" s="5"/>
+      <c r="C617" s="7"/>
     </row>
     <row r="618">
-      <c r="C618" s="5"/>
+      <c r="C618" s="7"/>
     </row>
     <row r="619">
-      <c r="C619" s="5"/>
+      <c r="C619" s="7"/>
     </row>
     <row r="620">
-      <c r="C620" s="5"/>
+      <c r="C620" s="7"/>
     </row>
     <row r="621">
-      <c r="C621" s="5"/>
+      <c r="C621" s="7"/>
     </row>
     <row r="622">
-      <c r="C622" s="5"/>
+      <c r="C622" s="7"/>
     </row>
     <row r="623">
-      <c r="C623" s="5"/>
+      <c r="C623" s="7"/>
     </row>
     <row r="624">
-      <c r="C624" s="5"/>
+      <c r="C624" s="7"/>
     </row>
     <row r="625">
-      <c r="C625" s="5"/>
+      <c r="C625" s="7"/>
     </row>
     <row r="626">
-      <c r="C626" s="5"/>
+      <c r="C626" s="7"/>
     </row>
     <row r="627">
-      <c r="C627" s="5"/>
+      <c r="C627" s="7"/>
     </row>
     <row r="628">
-      <c r="C628" s="5"/>
+      <c r="C628" s="7"/>
     </row>
     <row r="629">
-      <c r="C629" s="5"/>
+      <c r="C629" s="7"/>
     </row>
     <row r="630">
-      <c r="C630" s="5"/>
+      <c r="C630" s="7"/>
     </row>
     <row r="631">
-      <c r="C631" s="5"/>
+      <c r="C631" s="7"/>
     </row>
     <row r="632">
-      <c r="C632" s="5"/>
+      <c r="C632" s="7"/>
     </row>
     <row r="633">
-      <c r="C633" s="5"/>
+      <c r="C633" s="7"/>
     </row>
     <row r="634">
-      <c r="C634" s="5"/>
+      <c r="C634" s="7"/>
     </row>
     <row r="635">
-      <c r="C635" s="5"/>
+      <c r="C635" s="7"/>
     </row>
     <row r="636">
-      <c r="C636" s="5"/>
+      <c r="C636" s="7"/>
     </row>
     <row r="637">
-      <c r="C637" s="5"/>
+      <c r="C637" s="7"/>
     </row>
     <row r="638">
-      <c r="C638" s="5"/>
+      <c r="C638" s="7"/>
     </row>
     <row r="639">
-      <c r="C639" s="5"/>
+      <c r="C639" s="7"/>
     </row>
     <row r="640">
-      <c r="C640" s="5"/>
+      <c r="C640" s="7"/>
     </row>
     <row r="641">
-      <c r="C641" s="5"/>
+      <c r="C641" s="7"/>
     </row>
     <row r="642">
-      <c r="C642" s="5"/>
+      <c r="C642" s="7"/>
     </row>
     <row r="643">
-      <c r="C643" s="5"/>
+      <c r="C643" s="7"/>
     </row>
     <row r="644">
-      <c r="C644" s="5"/>
+      <c r="C644" s="7"/>
     </row>
     <row r="645">
-      <c r="C645" s="5"/>
+      <c r="C645" s="7"/>
     </row>
     <row r="646">
-      <c r="C646" s="5"/>
+      <c r="C646" s="7"/>
     </row>
     <row r="647">
-      <c r="C647" s="5"/>
+      <c r="C647" s="7"/>
     </row>
     <row r="648">
-      <c r="C648" s="5"/>
+      <c r="C648" s="7"/>
     </row>
     <row r="649">
-      <c r="C649" s="5"/>
+      <c r="C649" s="7"/>
     </row>
     <row r="650">
-      <c r="C650" s="5"/>
+      <c r="C650" s="7"/>
     </row>
     <row r="651">
-      <c r="C651" s="5"/>
+      <c r="C651" s="7"/>
     </row>
     <row r="652">
-      <c r="C652" s="5"/>
+      <c r="C652" s="7"/>
     </row>
     <row r="653">
-      <c r="C653" s="5"/>
+      <c r="C653" s="7"/>
     </row>
     <row r="654">
-      <c r="C654" s="5"/>
+      <c r="C654" s="7"/>
     </row>
     <row r="655">
-      <c r="C655" s="5"/>
+      <c r="C655" s="7"/>
     </row>
     <row r="656">
-      <c r="C656" s="5"/>
+      <c r="C656" s="7"/>
     </row>
     <row r="657">
-      <c r="C657" s="5"/>
+      <c r="C657" s="7"/>
     </row>
     <row r="658">
-      <c r="C658" s="5"/>
+      <c r="C658" s="7"/>
     </row>
     <row r="659">
-      <c r="C659" s="5"/>
+      <c r="C659" s="7"/>
     </row>
     <row r="660">
-      <c r="C660" s="5"/>
+      <c r="C660" s="7"/>
     </row>
     <row r="661">
-      <c r="C661" s="5"/>
+      <c r="C661" s="7"/>
     </row>
     <row r="662">
-      <c r="C662" s="5"/>
+      <c r="C662" s="7"/>
     </row>
     <row r="663">
-      <c r="C663" s="5"/>
+      <c r="C663" s="7"/>
     </row>
     <row r="664">
-      <c r="C664" s="5"/>
+      <c r="C664" s="7"/>
     </row>
     <row r="665">
-      <c r="C665" s="5"/>
+      <c r="C665" s="7"/>
     </row>
     <row r="666">
-      <c r="C666" s="5"/>
+      <c r="C666" s="7"/>
     </row>
     <row r="667">
-      <c r="C667" s="5"/>
+      <c r="C667" s="7"/>
     </row>
     <row r="668">
-      <c r="C668" s="5"/>
+      <c r="C668" s="7"/>
     </row>
     <row r="669">
-      <c r="C669" s="5"/>
+      <c r="C669" s="7"/>
     </row>
     <row r="670">
-      <c r="C670" s="5"/>
+      <c r="C670" s="7"/>
     </row>
     <row r="671">
-      <c r="C671" s="5"/>
+      <c r="C671" s="7"/>
     </row>
     <row r="672">
-      <c r="C672" s="5"/>
+      <c r="C672" s="7"/>
     </row>
     <row r="673">
-      <c r="C673" s="5"/>
+      <c r="C673" s="7"/>
     </row>
     <row r="674">
-      <c r="C674" s="5"/>
+      <c r="C674" s="7"/>
     </row>
     <row r="675">
-      <c r="C675" s="5"/>
+      <c r="C675" s="7"/>
     </row>
     <row r="676">
-      <c r="C676" s="5"/>
+      <c r="C676" s="7"/>
     </row>
     <row r="677">
-      <c r="C677" s="5"/>
+      <c r="C677" s="7"/>
     </row>
     <row r="678">
-      <c r="C678" s="5"/>
+      <c r="C678" s="7"/>
     </row>
     <row r="679">
-      <c r="C679" s="5"/>
+      <c r="C679" s="7"/>
     </row>
     <row r="680">
-      <c r="C680" s="5"/>
+      <c r="C680" s="7"/>
     </row>
     <row r="681">
-      <c r="C681" s="5"/>
+      <c r="C681" s="7"/>
     </row>
     <row r="682">
-      <c r="C682" s="5"/>
+      <c r="C682" s="7"/>
     </row>
     <row r="683">
-      <c r="C683" s="5"/>
+      <c r="C683" s="7"/>
     </row>
     <row r="684">
-      <c r="C684" s="5"/>
+      <c r="C684" s="7"/>
     </row>
     <row r="685">
-      <c r="C685" s="5"/>
+      <c r="C685" s="7"/>
     </row>
     <row r="686">
-      <c r="C686" s="5"/>
+      <c r="C686" s="7"/>
     </row>
     <row r="687">
-      <c r="C687" s="5"/>
+      <c r="C687" s="7"/>
     </row>
     <row r="688">
-      <c r="C688" s="5"/>
+      <c r="C688" s="7"/>
     </row>
     <row r="689">
-      <c r="C689" s="5"/>
+      <c r="C689" s="7"/>
     </row>
     <row r="690">
-      <c r="C690" s="5"/>
+      <c r="C690" s="7"/>
     </row>
     <row r="691">
-      <c r="C691" s="5"/>
+      <c r="C691" s="7"/>
     </row>
     <row r="692">
-      <c r="C692" s="5"/>
+      <c r="C692" s="7"/>
     </row>
     <row r="693">
-      <c r="C693" s="5"/>
+      <c r="C693" s="7"/>
     </row>
     <row r="694">
-      <c r="C694" s="5"/>
+      <c r="C694" s="7"/>
     </row>
     <row r="695">
-      <c r="C695" s="5"/>
+      <c r="C695" s="7"/>
     </row>
     <row r="696">
-      <c r="C696" s="5"/>
+      <c r="C696" s="7"/>
     </row>
     <row r="697">
-      <c r="C697" s="5"/>
+      <c r="C697" s="7"/>
     </row>
     <row r="698">
-      <c r="C698" s="5"/>
+      <c r="C698" s="7"/>
     </row>
     <row r="699">
-      <c r="C699" s="5"/>
+      <c r="C699" s="7"/>
     </row>
     <row r="700">
-      <c r="C700" s="5"/>
+      <c r="C700" s="7"/>
     </row>
     <row r="701">
-      <c r="C701" s="5"/>
+      <c r="C701" s="7"/>
     </row>
     <row r="702">
-      <c r="C702" s="5"/>
+      <c r="C702" s="7"/>
     </row>
     <row r="703">
-      <c r="C703" s="5"/>
+      <c r="C703" s="7"/>
     </row>
     <row r="704">
-      <c r="C704" s="5"/>
+      <c r="C704" s="7"/>
     </row>
     <row r="705">
-      <c r="C705" s="5"/>
+      <c r="C705" s="7"/>
     </row>
     <row r="706">
-      <c r="C706" s="5"/>
+      <c r="C706" s="7"/>
     </row>
     <row r="707">
-      <c r="C707" s="5"/>
+      <c r="C707" s="7"/>
     </row>
     <row r="708">
-      <c r="C708" s="5"/>
+      <c r="C708" s="7"/>
     </row>
     <row r="709">
-      <c r="C709" s="5"/>
+      <c r="C709" s="7"/>
     </row>
     <row r="710">
-      <c r="C710" s="5"/>
+      <c r="C710" s="7"/>
     </row>
     <row r="711">
-      <c r="C711" s="5"/>
+      <c r="C711" s="7"/>
     </row>
     <row r="712">
-      <c r="C712" s="5"/>
+      <c r="C712" s="7"/>
     </row>
     <row r="713">
-      <c r="C713" s="5"/>
+      <c r="C713" s="7"/>
     </row>
     <row r="714">
-      <c r="C714" s="5"/>
+      <c r="C714" s="7"/>
     </row>
     <row r="715">
-      <c r="C715" s="5"/>
+      <c r="C715" s="7"/>
     </row>
     <row r="716">
-      <c r="C716" s="5"/>
+      <c r="C716" s="7"/>
     </row>
     <row r="717">
-      <c r="C717" s="5"/>
+      <c r="C717" s="7"/>
     </row>
     <row r="718">
-      <c r="C718" s="5"/>
+      <c r="C718" s="7"/>
     </row>
     <row r="719">
-      <c r="C719" s="5"/>
+      <c r="C719" s="7"/>
     </row>
     <row r="720">
-      <c r="C720" s="5"/>
+      <c r="C720" s="7"/>
     </row>
     <row r="721">
-      <c r="C721" s="5"/>
+      <c r="C721" s="7"/>
     </row>
     <row r="722">
-      <c r="C722" s="5"/>
+      <c r="C722" s="7"/>
     </row>
     <row r="723">
-      <c r="C723" s="5"/>
+      <c r="C723" s="7"/>
     </row>
     <row r="724">
-      <c r="C724" s="5"/>
+      <c r="C724" s="7"/>
     </row>
     <row r="725">
-      <c r="C725" s="5"/>
+      <c r="C725" s="7"/>
     </row>
     <row r="726">
-      <c r="C726" s="5"/>
+      <c r="C726" s="7"/>
     </row>
     <row r="727">
-      <c r="C727" s="5"/>
+      <c r="C727" s="7"/>
     </row>
     <row r="728">
-      <c r="C728" s="5"/>
+      <c r="C728" s="7"/>
     </row>
     <row r="729">
-      <c r="C729" s="5"/>
+      <c r="C729" s="7"/>
     </row>
     <row r="730">
-      <c r="C730" s="5"/>
+      <c r="C730" s="7"/>
     </row>
     <row r="731">
-      <c r="C731" s="5"/>
+      <c r="C731" s="7"/>
     </row>
     <row r="732">
-      <c r="C732" s="5"/>
+      <c r="C732" s="7"/>
     </row>
     <row r="733">
-      <c r="C733" s="5"/>
+      <c r="C733" s="7"/>
     </row>
     <row r="734">
-      <c r="C734" s="5"/>
+      <c r="C734" s="7"/>
     </row>
     <row r="735">
-      <c r="C735" s="5"/>
+      <c r="C735" s="7"/>
     </row>
     <row r="736">
-      <c r="C736" s="5"/>
+      <c r="C736" s="7"/>
     </row>
     <row r="737">
-      <c r="C737" s="5"/>
+      <c r="C737" s="7"/>
     </row>
     <row r="738">
-      <c r="C738" s="5"/>
+      <c r="C738" s="7"/>
     </row>
     <row r="739">
-      <c r="C739" s="5"/>
+      <c r="C739" s="7"/>
     </row>
     <row r="740">
-      <c r="C740" s="5"/>
+      <c r="C740" s="7"/>
     </row>
     <row r="741">
-      <c r="C741" s="5"/>
+      <c r="C741" s="7"/>
     </row>
     <row r="742">
-      <c r="C742" s="5"/>
+      <c r="C742" s="7"/>
     </row>
     <row r="743">
-      <c r="C743" s="5"/>
+      <c r="C743" s="7"/>
     </row>
     <row r="744">
-      <c r="C744" s="5"/>
+      <c r="C744" s="7"/>
     </row>
     <row r="745">
-      <c r="C745" s="5"/>
+      <c r="C745" s="7"/>
     </row>
     <row r="746">
-      <c r="C746" s="5"/>
+      <c r="C746" s="7"/>
     </row>
     <row r="747">
-      <c r="C747" s="5"/>
+      <c r="C747" s="7"/>
     </row>
     <row r="748">
-      <c r="C748" s="5"/>
+      <c r="C748" s="7"/>
     </row>
     <row r="749">
-      <c r="C749" s="5"/>
+      <c r="C749" s="7"/>
     </row>
     <row r="750">
-      <c r="C750" s="5"/>
+      <c r="C750" s="7"/>
     </row>
     <row r="751">
-      <c r="C751" s="5"/>
+      <c r="C751" s="7"/>
     </row>
     <row r="752">
-      <c r="C752" s="5"/>
+      <c r="C752" s="7"/>
     </row>
     <row r="753">
-      <c r="C753" s="5"/>
+      <c r="C753" s="7"/>
     </row>
     <row r="754">
-      <c r="C754" s="5"/>
+      <c r="C754" s="7"/>
     </row>
     <row r="755">
-      <c r="C755" s="5"/>
+      <c r="C755" s="7"/>
     </row>
     <row r="756">
-      <c r="C756" s="5"/>
+      <c r="C756" s="7"/>
     </row>
     <row r="757">
-      <c r="C757" s="5"/>
+      <c r="C757" s="7"/>
     </row>
     <row r="758">
-      <c r="C758" s="5"/>
+      <c r="C758" s="7"/>
     </row>
     <row r="759">
-      <c r="C759" s="5"/>
+      <c r="C759" s="7"/>
     </row>
     <row r="760">
-      <c r="C760" s="5"/>
+      <c r="C760" s="7"/>
     </row>
     <row r="761">
-      <c r="C761" s="5"/>
+      <c r="C761" s="7"/>
     </row>
     <row r="762">
-      <c r="C762" s="5"/>
+      <c r="C762" s="7"/>
     </row>
     <row r="763">
-      <c r="C763" s="5"/>
+      <c r="C763" s="7"/>
     </row>
     <row r="764">
-      <c r="C764" s="5"/>
+      <c r="C764" s="7"/>
     </row>
     <row r="765">
-      <c r="C765" s="5"/>
+      <c r="C765" s="7"/>
     </row>
     <row r="766">
-      <c r="C766" s="5"/>
+      <c r="C766" s="7"/>
     </row>
     <row r="767">
-      <c r="C767" s="5"/>
+      <c r="C767" s="7"/>
     </row>
     <row r="768">
-      <c r="C768" s="5"/>
+      <c r="C768" s="7"/>
     </row>
     <row r="769">
-      <c r="C769" s="5"/>
+      <c r="C769" s="7"/>
     </row>
     <row r="770">
-      <c r="C770" s="5"/>
+      <c r="C770" s="7"/>
     </row>
     <row r="771">
-      <c r="C771" s="5"/>
+      <c r="C771" s="7"/>
     </row>
     <row r="772">
-      <c r="C772" s="5"/>
+      <c r="C772" s="7"/>
     </row>
     <row r="773">
-      <c r="C773" s="5"/>
+      <c r="C773" s="7"/>
     </row>
     <row r="774">
-      <c r="C774" s="5"/>
+      <c r="C774" s="7"/>
     </row>
     <row r="775">
-      <c r="C775" s="5"/>
+      <c r="C775" s="7"/>
     </row>
     <row r="776">
-      <c r="C776" s="5"/>
+      <c r="C776" s="7"/>
     </row>
     <row r="777">
-      <c r="C777" s="5"/>
+      <c r="C777" s="7"/>
     </row>
     <row r="778">
-      <c r="C778" s="5"/>
+      <c r="C778" s="7"/>
     </row>
     <row r="779">
-      <c r="C779" s="5"/>
+      <c r="C779" s="7"/>
     </row>
     <row r="780">
-      <c r="C780" s="5"/>
+      <c r="C780" s="7"/>
     </row>
     <row r="781">
-      <c r="C781" s="5"/>
+      <c r="C781" s="7"/>
     </row>
     <row r="782">
-      <c r="C782" s="5"/>
+      <c r="C782" s="7"/>
     </row>
     <row r="783">
-      <c r="C783" s="5"/>
+      <c r="C783" s="7"/>
     </row>
     <row r="784">
-      <c r="C784" s="5"/>
+      <c r="C784" s="7"/>
     </row>
     <row r="785">
-      <c r="C785" s="5"/>
+      <c r="C785" s="7"/>
     </row>
     <row r="786">
-      <c r="C786" s="5"/>
+      <c r="C786" s="7"/>
     </row>
     <row r="787">
-      <c r="C787" s="5"/>
+      <c r="C787" s="7"/>
     </row>
     <row r="788">
-      <c r="C788" s="5"/>
+      <c r="C788" s="7"/>
     </row>
     <row r="789">
-      <c r="C789" s="5"/>
+      <c r="C789" s="7"/>
     </row>
     <row r="790">
-      <c r="C790" s="5"/>
+      <c r="C790" s="7"/>
     </row>
     <row r="791">
-      <c r="C791" s="5"/>
+      <c r="C791" s="7"/>
     </row>
     <row r="792">
-      <c r="C792" s="5"/>
+      <c r="C792" s="7"/>
     </row>
     <row r="793">
-      <c r="C793" s="5"/>
+      <c r="C793" s="7"/>
     </row>
     <row r="794">
-      <c r="C794" s="5"/>
+      <c r="C794" s="7"/>
     </row>
     <row r="795">
-      <c r="C795" s="5"/>
+      <c r="C795" s="7"/>
     </row>
     <row r="796">
-      <c r="C796" s="5"/>
+      <c r="C796" s="7"/>
     </row>
     <row r="797">
-      <c r="C797" s="5"/>
+      <c r="C797" s="7"/>
     </row>
     <row r="798">
-      <c r="C798" s="5"/>
+      <c r="C798" s="7"/>
     </row>
     <row r="799">
-      <c r="C799" s="5"/>
+      <c r="C799" s="7"/>
     </row>
     <row r="800">
-      <c r="C800" s="5"/>
+      <c r="C800" s="7"/>
     </row>
     <row r="801">
-      <c r="C801" s="5"/>
+      <c r="C801" s="7"/>
     </row>
     <row r="802">
-      <c r="C802" s="5"/>
+      <c r="C802" s="7"/>
     </row>
     <row r="803">
-      <c r="C803" s="5"/>
+      <c r="C803" s="7"/>
     </row>
     <row r="804">
-      <c r="C804" s="5"/>
+      <c r="C804" s="7"/>
     </row>
     <row r="805">
-      <c r="C805" s="5"/>
+      <c r="C805" s="7"/>
     </row>
     <row r="806">
-      <c r="C806" s="5"/>
+      <c r="C806" s="7"/>
     </row>
     <row r="807">
-      <c r="C807" s="5"/>
+      <c r="C807" s="7"/>
     </row>
     <row r="808">
-      <c r="C808" s="5"/>
+      <c r="C808" s="7"/>
     </row>
     <row r="809">
-      <c r="C809" s="5"/>
+      <c r="C809" s="7"/>
     </row>
     <row r="810">
-      <c r="C810" s="5"/>
+      <c r="C810" s="7"/>
     </row>
     <row r="811">
-      <c r="C811" s="5"/>
+      <c r="C811" s="7"/>
     </row>
     <row r="812">
-      <c r="C812" s="5"/>
+      <c r="C812" s="7"/>
     </row>
     <row r="813">
-      <c r="C813" s="5"/>
+      <c r="C813" s="7"/>
     </row>
     <row r="814">
-      <c r="C814" s="5"/>
+      <c r="C814" s="7"/>
     </row>
     <row r="815">
-      <c r="C815" s="5"/>
+      <c r="C815" s="7"/>
     </row>
     <row r="816">
-      <c r="C816" s="5"/>
+      <c r="C816" s="7"/>
     </row>
     <row r="817">
-      <c r="C817" s="5"/>
+      <c r="C817" s="7"/>
     </row>
     <row r="818">
-      <c r="C818" s="5"/>
+      <c r="C818" s="7"/>
     </row>
     <row r="819">
-      <c r="C819" s="5"/>
+      <c r="C819" s="7"/>
     </row>
     <row r="820">
-      <c r="C820" s="5"/>
+      <c r="C820" s="7"/>
     </row>
     <row r="821">
-      <c r="C821" s="5"/>
+      <c r="C821" s="7"/>
     </row>
     <row r="822">
-      <c r="C822" s="5"/>
+      <c r="C822" s="7"/>
     </row>
     <row r="823">
-      <c r="C823" s="5"/>
+      <c r="C823" s="7"/>
     </row>
     <row r="824">
-      <c r="C824" s="5"/>
+      <c r="C824" s="7"/>
     </row>
     <row r="825">
-      <c r="C825" s="5"/>
+      <c r="C825" s="7"/>
     </row>
     <row r="826">
-      <c r="C826" s="5"/>
+      <c r="C826" s="7"/>
     </row>
     <row r="827">
-      <c r="C827" s="5"/>
+      <c r="C827" s="7"/>
     </row>
     <row r="828">
-      <c r="C828" s="5"/>
+      <c r="C828" s="7"/>
     </row>
     <row r="829">
-      <c r="C829" s="5"/>
+      <c r="C829" s="7"/>
     </row>
     <row r="830">
-      <c r="C830" s="5"/>
+      <c r="C830" s="7"/>
     </row>
     <row r="831">
-      <c r="C831" s="5"/>
+      <c r="C831" s="7"/>
     </row>
     <row r="832">
-      <c r="C832" s="5"/>
+      <c r="C832" s="7"/>
     </row>
     <row r="833">
-      <c r="C833" s="5"/>
+      <c r="C833" s="7"/>
     </row>
     <row r="834">
-      <c r="C834" s="5"/>
+      <c r="C834" s="7"/>
     </row>
     <row r="835">
-      <c r="C835" s="5"/>
+      <c r="C835" s="7"/>
     </row>
     <row r="836">
-      <c r="C836" s="5"/>
+      <c r="C836" s="7"/>
     </row>
     <row r="837">
-      <c r="C837" s="5"/>
+      <c r="C837" s="7"/>
     </row>
     <row r="838">
-      <c r="C838" s="5"/>
+      <c r="C838" s="7"/>
     </row>
     <row r="839">
-      <c r="C839" s="5"/>
+      <c r="C839" s="7"/>
     </row>
     <row r="840">
-      <c r="C840" s="5"/>
+      <c r="C840" s="7"/>
     </row>
     <row r="841">
-      <c r="C841" s="5"/>
+      <c r="C841" s="7"/>
     </row>
     <row r="842">
-      <c r="C842" s="5"/>
+      <c r="C842" s="7"/>
     </row>
     <row r="843">
-      <c r="C843" s="5"/>
+      <c r="C843" s="7"/>
     </row>
     <row r="844">
-      <c r="C844" s="5"/>
+      <c r="C844" s="7"/>
     </row>
     <row r="845">
-      <c r="C845" s="5"/>
+      <c r="C845" s="7"/>
     </row>
     <row r="846">
-      <c r="C846" s="5"/>
+      <c r="C846" s="7"/>
     </row>
     <row r="847">
-      <c r="C847" s="5"/>
+      <c r="C847" s="7"/>
     </row>
     <row r="848">
-      <c r="C848" s="5"/>
+      <c r="C848" s="7"/>
     </row>
     <row r="849">
-      <c r="C849" s="5"/>
+      <c r="C849" s="7"/>
     </row>
     <row r="850">
-      <c r="C850" s="5"/>
+      <c r="C850" s="7"/>
     </row>
     <row r="851">
-      <c r="C851" s="5"/>
+      <c r="C851" s="7"/>
     </row>
     <row r="852">
-      <c r="C852" s="5"/>
+      <c r="C852" s="7"/>
     </row>
     <row r="853">
-      <c r="C853" s="5"/>
+      <c r="C853" s="7"/>
     </row>
     <row r="854">
-      <c r="C854" s="5"/>
+      <c r="C854" s="7"/>
     </row>
     <row r="855">
-      <c r="C855" s="5"/>
+      <c r="C855" s="7"/>
     </row>
     <row r="856">
-      <c r="C856" s="5"/>
+      <c r="C856" s="7"/>
     </row>
     <row r="857">
-      <c r="C857" s="5"/>
+      <c r="C857" s="7"/>
     </row>
     <row r="858">
-      <c r="C858" s="5"/>
+      <c r="C858" s="7"/>
     </row>
     <row r="859">
-      <c r="C859" s="5"/>
+      <c r="C859" s="7"/>
     </row>
     <row r="860">
-      <c r="C860" s="5"/>
+      <c r="C860" s="7"/>
     </row>
     <row r="861">
-      <c r="C861" s="5"/>
+      <c r="C861" s="7"/>
     </row>
     <row r="862">
-      <c r="C862" s="5"/>
+      <c r="C862" s="7"/>
     </row>
     <row r="863">
-      <c r="C863" s="5"/>
+      <c r="C863" s="7"/>
     </row>
     <row r="864">
-      <c r="C864" s="5"/>
+      <c r="C864" s="7"/>
     </row>
     <row r="865">
-      <c r="C865" s="5"/>
+      <c r="C865" s="7"/>
     </row>
     <row r="866">
-      <c r="C866" s="5"/>
+      <c r="C866" s="7"/>
     </row>
     <row r="867">
-      <c r="C867" s="5"/>
+      <c r="C867" s="7"/>
     </row>
     <row r="868">
-      <c r="C868" s="5"/>
+      <c r="C868" s="7"/>
     </row>
     <row r="869">
-      <c r="C869" s="5"/>
+      <c r="C869" s="7"/>
     </row>
     <row r="870">
-      <c r="C870" s="5"/>
+      <c r="C870" s="7"/>
     </row>
     <row r="871">
-      <c r="C871" s="5"/>
+      <c r="C871" s="7"/>
     </row>
     <row r="872">
-      <c r="C872" s="5"/>
+      <c r="C872" s="7"/>
     </row>
     <row r="873">
-      <c r="C873" s="5"/>
+      <c r="C873" s="7"/>
     </row>
     <row r="874">
-      <c r="C874" s="5"/>
+      <c r="C874" s="7"/>
     </row>
     <row r="875">
-      <c r="C875" s="5"/>
+      <c r="C875" s="7"/>
     </row>
     <row r="876">
-      <c r="C876" s="5"/>
+      <c r="C876" s="7"/>
     </row>
     <row r="877">
-      <c r="C877" s="5"/>
+      <c r="C877" s="7"/>
     </row>
     <row r="878">
-      <c r="C878" s="5"/>
+      <c r="C878" s="7"/>
     </row>
     <row r="879">
-      <c r="C879" s="5"/>
+      <c r="C879" s="7"/>
     </row>
     <row r="880">
-      <c r="C880" s="5"/>
+      <c r="C880" s="7"/>
     </row>
     <row r="881">
-      <c r="C881" s="5"/>
+      <c r="C881" s="7"/>
     </row>
     <row r="882">
-      <c r="C882" s="5"/>
+      <c r="C882" s="7"/>
     </row>
     <row r="883">
-      <c r="C883" s="5"/>
+      <c r="C883" s="7"/>
     </row>
     <row r="884">
-      <c r="C884" s="5"/>
+      <c r="C884" s="7"/>
     </row>
     <row r="885">
-      <c r="C885" s="5"/>
+      <c r="C885" s="7"/>
     </row>
     <row r="886">
-      <c r="C886" s="5"/>
+      <c r="C886" s="7"/>
     </row>
     <row r="887">
-      <c r="C887" s="5"/>
+      <c r="C887" s="7"/>
     </row>
     <row r="888">
-      <c r="C888" s="5"/>
+      <c r="C888" s="7"/>
     </row>
     <row r="889">
-      <c r="C889" s="5"/>
+      <c r="C889" s="7"/>
     </row>
     <row r="890">
-      <c r="C890" s="5"/>
+      <c r="C890" s="7"/>
     </row>
     <row r="891">
-      <c r="C891" s="5"/>
+      <c r="C891" s="7"/>
     </row>
     <row r="892">
-      <c r="C892" s="5"/>
+      <c r="C892" s="7"/>
     </row>
     <row r="893">
-      <c r="C893" s="5"/>
+      <c r="C893" s="7"/>
     </row>
     <row r="894">
-      <c r="C894" s="5"/>
+      <c r="C894" s="7"/>
     </row>
     <row r="895">
-      <c r="C895" s="5"/>
+      <c r="C895" s="7"/>
     </row>
     <row r="896">
-      <c r="C896" s="5"/>
+      <c r="C896" s="7"/>
     </row>
     <row r="897">
-      <c r="C897" s="5"/>
+      <c r="C897" s="7"/>
     </row>
     <row r="898">
-      <c r="C898" s="5"/>
+      <c r="C898" s="7"/>
     </row>
     <row r="899">
-      <c r="C899" s="5"/>
+      <c r="C899" s="7"/>
     </row>
     <row r="900">
-      <c r="C900" s="5"/>
+      <c r="C900" s="7"/>
     </row>
     <row r="901">
-      <c r="C901" s="5"/>
+      <c r="C901" s="7"/>
     </row>
     <row r="902">
-      <c r="C902" s="5"/>
+      <c r="C902" s="7"/>
     </row>
     <row r="903">
-      <c r="C903" s="5"/>
+      <c r="C903" s="7"/>
     </row>
     <row r="904">
-      <c r="C904" s="5"/>
+      <c r="C904" s="7"/>
     </row>
     <row r="905">
-      <c r="C905" s="5"/>
+      <c r="C905" s="7"/>
     </row>
     <row r="906">
-      <c r="C906" s="5"/>
+      <c r="C906" s="7"/>
     </row>
     <row r="907">
-      <c r="C907" s="5"/>
+      <c r="C907" s="7"/>
     </row>
     <row r="908">
-      <c r="C908" s="5"/>
+      <c r="C908" s="7"/>
     </row>
     <row r="909">
-      <c r="C909" s="5"/>
+      <c r="C909" s="7"/>
     </row>
     <row r="910">
-      <c r="C910" s="5"/>
+      <c r="C910" s="7"/>
     </row>
     <row r="911">
-      <c r="C911" s="5"/>
+      <c r="C911" s="7"/>
     </row>
     <row r="912">
-      <c r="C912" s="5"/>
+      <c r="C912" s="7"/>
     </row>
     <row r="913">
-      <c r="C913" s="5"/>
+      <c r="C913" s="7"/>
     </row>
     <row r="914">
-      <c r="C914" s="5"/>
+      <c r="C914" s="7"/>
     </row>
     <row r="915">
-      <c r="C915" s="5"/>
+      <c r="C915" s="7"/>
     </row>
     <row r="916">
-      <c r="C916" s="5"/>
+      <c r="C916" s="7"/>
     </row>
     <row r="917">
-      <c r="C917" s="5"/>
+      <c r="C917" s="7"/>
     </row>
     <row r="918">
-      <c r="C918" s="5"/>
+      <c r="C918" s="7"/>
     </row>
     <row r="919">
-      <c r="C919" s="5"/>
+      <c r="C919" s="7"/>
     </row>
     <row r="920">
-      <c r="C920" s="5"/>
+      <c r="C920" s="7"/>
     </row>
     <row r="921">
-      <c r="C921" s="5"/>
+      <c r="C921" s="7"/>
     </row>
     <row r="922">
-      <c r="C922" s="5"/>
+      <c r="C922" s="7"/>
     </row>
     <row r="923">
-      <c r="C923" s="5"/>
+      <c r="C923" s="7"/>
     </row>
     <row r="924">
-      <c r="C924" s="5"/>
+      <c r="C924" s="7"/>
     </row>
     <row r="925">
-      <c r="C925" s="5"/>
+      <c r="C925" s="7"/>
     </row>
     <row r="926">
-      <c r="C926" s="5"/>
+      <c r="C926" s="7"/>
     </row>
     <row r="927">
-      <c r="C927" s="5"/>
+      <c r="C927" s="7"/>
     </row>
     <row r="928">
-      <c r="C928" s="5"/>
+      <c r="C928" s="7"/>
     </row>
     <row r="929">
-      <c r="C929" s="5"/>
+      <c r="C929" s="7"/>
     </row>
     <row r="930">
-      <c r="C930" s="5"/>
+      <c r="C930" s="7"/>
     </row>
     <row r="931">
-      <c r="C931" s="5"/>
+      <c r="C931" s="7"/>
     </row>
     <row r="932">
-      <c r="C932" s="5"/>
+      <c r="C932" s="7"/>
     </row>
     <row r="933">
-      <c r="C933" s="5"/>
+      <c r="C933" s="7"/>
     </row>
     <row r="934">
-      <c r="C934" s="5"/>
+      <c r="C934" s="7"/>
     </row>
     <row r="935">
-      <c r="C935" s="5"/>
+      <c r="C935" s="7"/>
     </row>
     <row r="936">
-      <c r="C936" s="5"/>
+      <c r="C936" s="7"/>
     </row>
     <row r="937">
-      <c r="C937" s="5"/>
+      <c r="C937" s="7"/>
     </row>
     <row r="938">
-      <c r="C938" s="5"/>
+      <c r="C938" s="7"/>
     </row>
     <row r="939">
-      <c r="C939" s="5"/>
+      <c r="C939" s="7"/>
     </row>
     <row r="940">
-      <c r="C940" s="5"/>
+      <c r="C940" s="7"/>
     </row>
     <row r="941">
-      <c r="C941" s="5"/>
+      <c r="C941" s="7"/>
     </row>
     <row r="942">
-      <c r="C942" s="5"/>
+      <c r="C942" s="7"/>
     </row>
     <row r="943">
-      <c r="C943" s="5"/>
+      <c r="C943" s="7"/>
     </row>
     <row r="944">
-      <c r="C944" s="5"/>
+      <c r="C944" s="7"/>
     </row>
     <row r="945">
-      <c r="C945" s="5"/>
+      <c r="C945" s="7"/>
     </row>
     <row r="946">
-      <c r="C946" s="5"/>
+      <c r="C946" s="7"/>
     </row>
     <row r="947">
-      <c r="C947" s="5"/>
+      <c r="C947" s="7"/>
     </row>
     <row r="948">
-      <c r="C948" s="5"/>
+      <c r="C948" s="7"/>
     </row>
     <row r="949">
-      <c r="C949" s="5"/>
+      <c r="C949" s="7"/>
     </row>
     <row r="950">
-      <c r="C950" s="5"/>
+      <c r="C950" s="7"/>
     </row>
     <row r="951">
-      <c r="C951" s="5"/>
+      <c r="C951" s="7"/>
     </row>
     <row r="952">
-      <c r="C952" s="5"/>
+      <c r="C952" s="7"/>
     </row>
     <row r="953">
-      <c r="C953" s="5"/>
+      <c r="C953" s="7"/>
     </row>
     <row r="954">
-      <c r="C954" s="5"/>
+      <c r="C954" s="7"/>
     </row>
     <row r="955">
-      <c r="C955" s="5"/>
+      <c r="C955" s="7"/>
     </row>
     <row r="956">
-      <c r="C956" s="5"/>
+      <c r="C956" s="7"/>
     </row>
     <row r="957">
-      <c r="C957" s="5"/>
+      <c r="C957" s="7"/>
     </row>
     <row r="958">
-      <c r="C958" s="5"/>
+      <c r="C958" s="7"/>
     </row>
     <row r="959">
-      <c r="C959" s="5"/>
+      <c r="C959" s="7"/>
     </row>
     <row r="960">
-      <c r="C960" s="5"/>
+      <c r="C960" s="7"/>
     </row>
     <row r="961">
-      <c r="C961" s="5"/>
+      <c r="C961" s="7"/>
     </row>
     <row r="962">
-      <c r="C962" s="5"/>
+      <c r="C962" s="7"/>
     </row>
     <row r="963">
-      <c r="C963" s="5"/>
+      <c r="C963" s="7"/>
     </row>
     <row r="964">
-      <c r="C964" s="5"/>
+      <c r="C964" s="7"/>
     </row>
     <row r="965">
-      <c r="C965" s="5"/>
+      <c r="C965" s="7"/>
     </row>
     <row r="966">
-      <c r="C966" s="5"/>
+      <c r="C966" s="7"/>
     </row>
     <row r="967">
-      <c r="C967" s="5"/>
+      <c r="C967" s="7"/>
     </row>
     <row r="968">
-      <c r="C968" s="5"/>
+      <c r="C968" s="7"/>
     </row>
     <row r="969">
-      <c r="C969" s="5"/>
+      <c r="C969" s="7"/>
     </row>
     <row r="970">
-      <c r="C970" s="5"/>
+      <c r="C970" s="7"/>
     </row>
     <row r="971">
-      <c r="C971" s="5"/>
+      <c r="C971" s="7"/>
     </row>
     <row r="972">
-      <c r="C972" s="5"/>
+      <c r="C972" s="7"/>
     </row>
     <row r="973">
-      <c r="C973" s="5"/>
+      <c r="C973" s="7"/>
     </row>
     <row r="974">
-      <c r="C974" s="5"/>
+      <c r="C974" s="7"/>
     </row>
     <row r="975">
-      <c r="C975" s="5"/>
+      <c r="C975" s="7"/>
     </row>
     <row r="976">
-      <c r="C976" s="5"/>
+      <c r="C976" s="7"/>
     </row>
     <row r="977">
-      <c r="C977" s="5"/>
+      <c r="C977" s="7"/>
     </row>
     <row r="978">
-      <c r="C978" s="5"/>
+      <c r="C978" s="7"/>
     </row>
     <row r="979">
-      <c r="C979" s="5"/>
+      <c r="C979" s="7"/>
     </row>
     <row r="980">
-      <c r="C980" s="5"/>
+      <c r="C980" s="7"/>
     </row>
     <row r="981">
-      <c r="C981" s="5"/>
+      <c r="C981" s="7"/>
     </row>
     <row r="982">
-      <c r="C982" s="5"/>
+      <c r="C982" s="7"/>
     </row>
     <row r="983">
-      <c r="C983" s="5"/>
+      <c r="C983" s="7"/>
     </row>
     <row r="984">
-      <c r="C984" s="5"/>
+      <c r="C984" s="7"/>
     </row>
     <row r="985">
-      <c r="C985" s="5"/>
+      <c r="C985" s="7"/>
     </row>
     <row r="986">
-      <c r="C986" s="5"/>
+      <c r="C986" s="7"/>
     </row>
     <row r="987">
-      <c r="C987" s="5"/>
+      <c r="C987" s="7"/>
     </row>
     <row r="988">
-      <c r="C988" s="5"/>
+      <c r="C988" s="7"/>
     </row>
     <row r="989">
-      <c r="C989" s="5"/>
+      <c r="C989" s="7"/>
     </row>
     <row r="990">
-      <c r="C990" s="5"/>
+      <c r="C990" s="7"/>
     </row>
     <row r="991">
-      <c r="C991" s="5"/>
+      <c r="C991" s="7"/>
     </row>
     <row r="992">
-      <c r="C992" s="5"/>
+      <c r="C992" s="7"/>
     </row>
     <row r="993">
-      <c r="C993" s="5"/>
+      <c r="C993" s="7"/>
     </row>
     <row r="994">
-      <c r="C994" s="5"/>
+      <c r="C994" s="7"/>
     </row>
     <row r="995">
-      <c r="C995" s="5"/>
+      <c r="C995" s="7"/>
     </row>
     <row r="996">
-      <c r="C996" s="5"/>
+      <c r="C996" s="7"/>
     </row>
     <row r="997">
-      <c r="C997" s="5"/>
+      <c r="C997" s="7"/>
     </row>
     <row r="998">
-      <c r="C998" s="5"/>
+      <c r="C998" s="7"/>
     </row>
     <row r="999">
-      <c r="C999" s="5"/>
+      <c r="C999" s="7"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="5"/>
+      <c r="C1000" s="7"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="5"/>
+      <c r="C1001" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/dados/receitas_drinks.xlsx
+++ b/dados/receitas_drinks.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="drinks" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="ingredientes" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
   <si>
     <t>drink</t>
   </si>
@@ -134,6 +134,81 @@
     <t>aperitivo</t>
   </si>
   <si>
+    <t>Cynar tônica</t>
+  </si>
+  <si>
+    <t>id_011</t>
+  </si>
+  <si>
+    <t>Bater todos os ingredientes em uma coqueteleira com gelo. Coar em copo com gelo e completar com água tônica.</t>
+  </si>
+  <si>
+    <t>cynar</t>
+  </si>
+  <si>
+    <t>Too soon</t>
+  </si>
+  <si>
+    <t>id_012</t>
+  </si>
+  <si>
+    <t>Bater todos os ingredientes na coqueteleira com gelo. Coar e servir em copo gelado sem guarnição.</t>
+  </si>
+  <si>
+    <t>Gim gimlet</t>
+  </si>
+  <si>
+    <t>id_013</t>
+  </si>
+  <si>
+    <t>Bater todos os ingredientes na coqueteleira com gelo. Coar e servir em copo gelado com uma rodela de limão (opcional).</t>
+  </si>
+  <si>
+    <t>Bee's knees</t>
+  </si>
+  <si>
+    <t>id_014</t>
+  </si>
+  <si>
+    <t>Bater todos os ingredientes na coqueteleira com gelo. Coar e servir em copo gelado com uma rodela ou casca de limão siciliano.</t>
+  </si>
+  <si>
+    <t>Old fashioned</t>
+  </si>
+  <si>
+    <t>id_015</t>
+  </si>
+  <si>
+    <t>Colocar o açúcar no fundo de um copo baixo. Adicionar a angostura e a água com gás e dissolver com um pilão. Adicionar o uísque, uma pedra grande de gelo e mexer. Servir com uma casca de laranja.</t>
+  </si>
+  <si>
+    <t>Enzoni</t>
+  </si>
+  <si>
+    <t>id_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amassar as uvas com um pilão na coqueteleira e adicionar todos os demais ingredientes. Adicionar gelo e bater. Coar e servir em um copo baixo com gelo. </t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>id_017</t>
+  </si>
+  <si>
+    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer. Coar e servir com uma casca de limão siciliano.</t>
+  </si>
+  <si>
+    <t>Chet Baker</t>
+  </si>
+  <si>
+    <t>id_018</t>
+  </si>
+  <si>
+    <t>Adicionar todos os ingredientes em um copo baixo com gelo grande. Mexer até gelar e servir.</t>
+  </si>
+  <si>
     <t>quantidade</t>
   </si>
   <si>
@@ -201,13 +276,70 @@
   </si>
   <si>
     <t>bitter de laranja</t>
+  </si>
+  <si>
+    <t>xarope de mel</t>
+  </si>
+  <si>
+    <t>limão siciliano</t>
+  </si>
+  <si>
+    <t>fatias</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>simple syrup</t>
+  </si>
+  <si>
+    <t>calda de mel</t>
+  </si>
+  <si>
+    <t>colher de chá</t>
+  </si>
+  <si>
+    <t>açúcar</t>
+  </si>
+  <si>
+    <t>chuchadas</t>
+  </si>
+  <si>
+    <t>30 ml Gin 1 oz</t>
+  </si>
+  <si>
+    <t>30 ml Campari 1 oz</t>
+  </si>
+  <si>
+    <t>22.5 ml Lemon Juice 0.75 oz</t>
+  </si>
+  <si>
+    <t>calda de açúcar</t>
+  </si>
+  <si>
+    <t>15 ml Simple Syrup 0.5 oz</t>
+  </si>
+  <si>
+    <t>uvas brancas</t>
+  </si>
+  <si>
+    <t>5 White Grapes</t>
+  </si>
+  <si>
+    <t>colher bailarina</t>
+  </si>
+  <si>
+    <t>colheres bailarina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -217,10 +349,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF5A822B"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <color rgb="FF5A822B"/>
+      <name val="-apple-system"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,20 +384,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -266,8 +410,17 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +730,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -647,2971 +800,3059 @@
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13">
-      <c r="C13" s="5"/>
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
-      <c r="C14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
-      <c r="C15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
-      <c r="C16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
-      <c r="C17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
-      <c r="C18" s="5"/>
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
-      <c r="C19" s="5"/>
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
-      <c r="C20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21">
-      <c r="C21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22">
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23">
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24">
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25">
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26">
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27">
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28">
-      <c r="C28" s="5"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29">
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30">
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31">
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32">
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33">
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34">
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35">
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36">
-      <c r="C36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37">
-      <c r="C37" s="5"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38">
-      <c r="C38" s="5"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39">
-      <c r="C39" s="5"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40">
-      <c r="C40" s="5"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41">
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42">
-      <c r="C42" s="5"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43">
-      <c r="C43" s="5"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44">
-      <c r="C44" s="5"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45">
-      <c r="C45" s="5"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47">
-      <c r="C47" s="5"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48">
-      <c r="C48" s="5"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49">
-      <c r="C49" s="5"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51">
-      <c r="C51" s="5"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52">
-      <c r="C52" s="5"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53">
-      <c r="C53" s="5"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54">
-      <c r="C54" s="5"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56">
-      <c r="C56" s="5"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57">
-      <c r="C57" s="5"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58">
-      <c r="C58" s="5"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59">
-      <c r="C59" s="5"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61">
-      <c r="C61" s="5"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62">
-      <c r="C62" s="5"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63">
-      <c r="C63" s="5"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64">
-      <c r="C64" s="5"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65">
-      <c r="C65" s="5"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66">
-      <c r="C66" s="5"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67">
-      <c r="C67" s="5"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68">
-      <c r="C68" s="5"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69">
-      <c r="C69" s="5"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70">
-      <c r="C70" s="5"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71">
-      <c r="C71" s="5"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72">
-      <c r="C72" s="5"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73">
-      <c r="C73" s="5"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74">
-      <c r="C74" s="5"/>
+      <c r="C74" s="6"/>
     </row>
     <row r="75">
-      <c r="C75" s="5"/>
+      <c r="C75" s="6"/>
     </row>
     <row r="76">
-      <c r="C76" s="5"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77">
-      <c r="C77" s="5"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78">
-      <c r="C78" s="5"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79">
-      <c r="C79" s="5"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80">
-      <c r="C80" s="5"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81">
-      <c r="C81" s="5"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82">
-      <c r="C82" s="5"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83">
-      <c r="C83" s="5"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84">
-      <c r="C84" s="5"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85">
-      <c r="C85" s="5"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86">
-      <c r="C86" s="5"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87">
-      <c r="C87" s="5"/>
+      <c r="C87" s="6"/>
     </row>
     <row r="88">
-      <c r="C88" s="5"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89">
-      <c r="C89" s="5"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90">
-      <c r="C90" s="5"/>
+      <c r="C90" s="6"/>
     </row>
     <row r="91">
-      <c r="C91" s="5"/>
+      <c r="C91" s="6"/>
     </row>
     <row r="92">
-      <c r="C92" s="5"/>
+      <c r="C92" s="6"/>
     </row>
     <row r="93">
-      <c r="C93" s="5"/>
+      <c r="C93" s="6"/>
     </row>
     <row r="94">
-      <c r="C94" s="5"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95">
-      <c r="C95" s="5"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96">
-      <c r="C96" s="5"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97">
-      <c r="C97" s="5"/>
+      <c r="C97" s="6"/>
     </row>
     <row r="98">
-      <c r="C98" s="5"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99">
-      <c r="C99" s="5"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100">
-      <c r="C100" s="5"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101">
-      <c r="C101" s="5"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102">
-      <c r="C102" s="5"/>
+      <c r="C102" s="6"/>
     </row>
     <row r="103">
-      <c r="C103" s="5"/>
+      <c r="C103" s="6"/>
     </row>
     <row r="104">
-      <c r="C104" s="5"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105">
-      <c r="C105" s="5"/>
+      <c r="C105" s="6"/>
     </row>
     <row r="106">
-      <c r="C106" s="5"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107">
-      <c r="C107" s="5"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108">
-      <c r="C108" s="5"/>
+      <c r="C108" s="6"/>
     </row>
     <row r="109">
-      <c r="C109" s="5"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110">
-      <c r="C110" s="5"/>
+      <c r="C110" s="6"/>
     </row>
     <row r="111">
-      <c r="C111" s="5"/>
+      <c r="C111" s="6"/>
     </row>
     <row r="112">
-      <c r="C112" s="5"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114">
-      <c r="C114" s="5"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115">
-      <c r="C115" s="5"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116">
-      <c r="C116" s="5"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117">
-      <c r="C117" s="5"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118">
-      <c r="C118" s="5"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119">
-      <c r="C119" s="5"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120">
-      <c r="C120" s="5"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121">
-      <c r="C121" s="5"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122">
-      <c r="C122" s="5"/>
+      <c r="C122" s="6"/>
     </row>
     <row r="123">
-      <c r="C123" s="5"/>
+      <c r="C123" s="6"/>
     </row>
     <row r="124">
-      <c r="C124" s="5"/>
+      <c r="C124" s="6"/>
     </row>
     <row r="125">
-      <c r="C125" s="5"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126">
-      <c r="C126" s="5"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127">
-      <c r="C127" s="5"/>
+      <c r="C127" s="6"/>
     </row>
     <row r="128">
-      <c r="C128" s="5"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
+      <c r="C129" s="6"/>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
+      <c r="C130" s="6"/>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
+      <c r="C131" s="6"/>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136">
-      <c r="C136" s="5"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137">
-      <c r="C137" s="5"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
+      <c r="C138" s="6"/>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140">
-      <c r="C140" s="5"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141">
-      <c r="C141" s="5"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142">
-      <c r="C142" s="5"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143">
-      <c r="C143" s="5"/>
+      <c r="C143" s="6"/>
     </row>
     <row r="144">
-      <c r="C144" s="5"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145">
-      <c r="C145" s="5"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146">
-      <c r="C146" s="5"/>
+      <c r="C146" s="6"/>
     </row>
     <row r="147">
-      <c r="C147" s="5"/>
+      <c r="C147" s="6"/>
     </row>
     <row r="148">
-      <c r="C148" s="5"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149">
-      <c r="C149" s="5"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150">
-      <c r="C150" s="5"/>
+      <c r="C150" s="6"/>
     </row>
     <row r="151">
-      <c r="C151" s="5"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152">
-      <c r="C152" s="5"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153">
-      <c r="C153" s="5"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154">
-      <c r="C154" s="5"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155">
-      <c r="C155" s="5"/>
+      <c r="C155" s="6"/>
     </row>
     <row r="156">
-      <c r="C156" s="5"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157">
-      <c r="C157" s="5"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158">
-      <c r="C158" s="5"/>
+      <c r="C158" s="6"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
+      <c r="C159" s="6"/>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161">
-      <c r="C161" s="5"/>
+      <c r="C161" s="6"/>
     </row>
     <row r="162">
-      <c r="C162" s="5"/>
+      <c r="C162" s="6"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
+      <c r="C164" s="6"/>
     </row>
     <row r="165">
-      <c r="C165" s="5"/>
+      <c r="C165" s="6"/>
     </row>
     <row r="166">
-      <c r="C166" s="5"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
+      <c r="C167" s="6"/>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
+      <c r="C168" s="6"/>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
+      <c r="C170" s="6"/>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
+      <c r="C171" s="6"/>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
+      <c r="C172" s="6"/>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
+      <c r="C173" s="6"/>
     </row>
     <row r="174">
-      <c r="C174" s="5"/>
+      <c r="C174" s="6"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
+      <c r="C176" s="6"/>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
+      <c r="C177" s="6"/>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
+      <c r="C178" s="6"/>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
+      <c r="C179" s="6"/>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
+      <c r="C180" s="6"/>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
+      <c r="C181" s="6"/>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
+      <c r="C182" s="6"/>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
+      <c r="C183" s="6"/>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
+      <c r="C184" s="6"/>
     </row>
     <row r="185">
-      <c r="C185" s="5"/>
+      <c r="C185" s="6"/>
     </row>
     <row r="186">
-      <c r="C186" s="5"/>
+      <c r="C186" s="6"/>
     </row>
     <row r="187">
-      <c r="C187" s="5"/>
+      <c r="C187" s="6"/>
     </row>
     <row r="188">
-      <c r="C188" s="5"/>
+      <c r="C188" s="6"/>
     </row>
     <row r="189">
-      <c r="C189" s="5"/>
+      <c r="C189" s="6"/>
     </row>
     <row r="190">
-      <c r="C190" s="5"/>
+      <c r="C190" s="6"/>
     </row>
     <row r="191">
-      <c r="C191" s="5"/>
+      <c r="C191" s="6"/>
     </row>
     <row r="192">
-      <c r="C192" s="5"/>
+      <c r="C192" s="6"/>
     </row>
     <row r="193">
-      <c r="C193" s="5"/>
+      <c r="C193" s="6"/>
     </row>
     <row r="194">
-      <c r="C194" s="5"/>
+      <c r="C194" s="6"/>
     </row>
     <row r="195">
-      <c r="C195" s="5"/>
+      <c r="C195" s="6"/>
     </row>
     <row r="196">
-      <c r="C196" s="5"/>
+      <c r="C196" s="6"/>
     </row>
     <row r="197">
-      <c r="C197" s="5"/>
+      <c r="C197" s="6"/>
     </row>
     <row r="198">
-      <c r="C198" s="5"/>
+      <c r="C198" s="6"/>
     </row>
     <row r="199">
-      <c r="C199" s="5"/>
+      <c r="C199" s="6"/>
     </row>
     <row r="200">
-      <c r="C200" s="5"/>
+      <c r="C200" s="6"/>
     </row>
     <row r="201">
-      <c r="C201" s="5"/>
+      <c r="C201" s="6"/>
     </row>
     <row r="202">
-      <c r="C202" s="5"/>
+      <c r="C202" s="6"/>
     </row>
     <row r="203">
-      <c r="C203" s="5"/>
+      <c r="C203" s="6"/>
     </row>
     <row r="204">
-      <c r="C204" s="5"/>
+      <c r="C204" s="6"/>
     </row>
     <row r="205">
-      <c r="C205" s="5"/>
+      <c r="C205" s="6"/>
     </row>
     <row r="206">
-      <c r="C206" s="5"/>
+      <c r="C206" s="6"/>
     </row>
     <row r="207">
-      <c r="C207" s="5"/>
+      <c r="C207" s="6"/>
     </row>
     <row r="208">
-      <c r="C208" s="5"/>
+      <c r="C208" s="6"/>
     </row>
     <row r="209">
-      <c r="C209" s="5"/>
+      <c r="C209" s="6"/>
     </row>
     <row r="210">
-      <c r="C210" s="5"/>
+      <c r="C210" s="6"/>
     </row>
     <row r="211">
-      <c r="C211" s="5"/>
+      <c r="C211" s="6"/>
     </row>
     <row r="212">
-      <c r="C212" s="5"/>
+      <c r="C212" s="6"/>
     </row>
     <row r="213">
-      <c r="C213" s="5"/>
+      <c r="C213" s="6"/>
     </row>
     <row r="214">
-      <c r="C214" s="5"/>
+      <c r="C214" s="6"/>
     </row>
     <row r="215">
-      <c r="C215" s="5"/>
+      <c r="C215" s="6"/>
     </row>
     <row r="216">
-      <c r="C216" s="5"/>
+      <c r="C216" s="6"/>
     </row>
     <row r="217">
-      <c r="C217" s="5"/>
+      <c r="C217" s="6"/>
     </row>
     <row r="218">
-      <c r="C218" s="5"/>
+      <c r="C218" s="6"/>
     </row>
     <row r="219">
-      <c r="C219" s="5"/>
+      <c r="C219" s="6"/>
     </row>
     <row r="220">
-      <c r="C220" s="5"/>
+      <c r="C220" s="6"/>
     </row>
     <row r="221">
-      <c r="C221" s="5"/>
+      <c r="C221" s="6"/>
     </row>
     <row r="222">
-      <c r="C222" s="5"/>
+      <c r="C222" s="6"/>
     </row>
     <row r="223">
-      <c r="C223" s="5"/>
+      <c r="C223" s="6"/>
     </row>
     <row r="224">
-      <c r="C224" s="5"/>
+      <c r="C224" s="6"/>
     </row>
     <row r="225">
-      <c r="C225" s="5"/>
+      <c r="C225" s="6"/>
     </row>
     <row r="226">
-      <c r="C226" s="5"/>
+      <c r="C226" s="6"/>
     </row>
     <row r="227">
-      <c r="C227" s="5"/>
+      <c r="C227" s="6"/>
     </row>
     <row r="228">
-      <c r="C228" s="5"/>
+      <c r="C228" s="6"/>
     </row>
     <row r="229">
-      <c r="C229" s="5"/>
+      <c r="C229" s="6"/>
     </row>
     <row r="230">
-      <c r="C230" s="5"/>
+      <c r="C230" s="6"/>
     </row>
     <row r="231">
-      <c r="C231" s="5"/>
+      <c r="C231" s="6"/>
     </row>
     <row r="232">
-      <c r="C232" s="5"/>
+      <c r="C232" s="6"/>
     </row>
     <row r="233">
-      <c r="C233" s="5"/>
+      <c r="C233" s="6"/>
     </row>
     <row r="234">
-      <c r="C234" s="5"/>
+      <c r="C234" s="6"/>
     </row>
     <row r="235">
-      <c r="C235" s="5"/>
+      <c r="C235" s="6"/>
     </row>
     <row r="236">
-      <c r="C236" s="5"/>
+      <c r="C236" s="6"/>
     </row>
     <row r="237">
-      <c r="C237" s="5"/>
+      <c r="C237" s="6"/>
     </row>
     <row r="238">
-      <c r="C238" s="5"/>
+      <c r="C238" s="6"/>
     </row>
     <row r="239">
-      <c r="C239" s="5"/>
+      <c r="C239" s="6"/>
     </row>
     <row r="240">
-      <c r="C240" s="5"/>
+      <c r="C240" s="6"/>
     </row>
     <row r="241">
-      <c r="C241" s="5"/>
+      <c r="C241" s="6"/>
     </row>
     <row r="242">
-      <c r="C242" s="5"/>
+      <c r="C242" s="6"/>
     </row>
     <row r="243">
-      <c r="C243" s="5"/>
+      <c r="C243" s="6"/>
     </row>
     <row r="244">
-      <c r="C244" s="5"/>
+      <c r="C244" s="6"/>
     </row>
     <row r="245">
-      <c r="C245" s="5"/>
+      <c r="C245" s="6"/>
     </row>
     <row r="246">
-      <c r="C246" s="5"/>
+      <c r="C246" s="6"/>
     </row>
     <row r="247">
-      <c r="C247" s="5"/>
+      <c r="C247" s="6"/>
     </row>
     <row r="248">
-      <c r="C248" s="5"/>
+      <c r="C248" s="6"/>
     </row>
     <row r="249">
-      <c r="C249" s="5"/>
+      <c r="C249" s="6"/>
     </row>
     <row r="250">
-      <c r="C250" s="5"/>
+      <c r="C250" s="6"/>
     </row>
     <row r="251">
-      <c r="C251" s="5"/>
+      <c r="C251" s="6"/>
     </row>
     <row r="252">
-      <c r="C252" s="5"/>
+      <c r="C252" s="6"/>
     </row>
     <row r="253">
-      <c r="C253" s="5"/>
+      <c r="C253" s="6"/>
     </row>
     <row r="254">
-      <c r="C254" s="5"/>
+      <c r="C254" s="6"/>
     </row>
     <row r="255">
-      <c r="C255" s="5"/>
+      <c r="C255" s="6"/>
     </row>
     <row r="256">
-      <c r="C256" s="5"/>
+      <c r="C256" s="6"/>
     </row>
     <row r="257">
-      <c r="C257" s="5"/>
+      <c r="C257" s="6"/>
     </row>
     <row r="258">
-      <c r="C258" s="5"/>
+      <c r="C258" s="6"/>
     </row>
     <row r="259">
-      <c r="C259" s="5"/>
+      <c r="C259" s="6"/>
     </row>
     <row r="260">
-      <c r="C260" s="5"/>
+      <c r="C260" s="6"/>
     </row>
     <row r="261">
-      <c r="C261" s="5"/>
+      <c r="C261" s="6"/>
     </row>
     <row r="262">
-      <c r="C262" s="5"/>
+      <c r="C262" s="6"/>
     </row>
     <row r="263">
-      <c r="C263" s="5"/>
+      <c r="C263" s="6"/>
     </row>
     <row r="264">
-      <c r="C264" s="5"/>
+      <c r="C264" s="6"/>
     </row>
     <row r="265">
-      <c r="C265" s="5"/>
+      <c r="C265" s="6"/>
     </row>
     <row r="266">
-      <c r="C266" s="5"/>
+      <c r="C266" s="6"/>
     </row>
     <row r="267">
-      <c r="C267" s="5"/>
+      <c r="C267" s="6"/>
     </row>
     <row r="268">
-      <c r="C268" s="5"/>
+      <c r="C268" s="6"/>
     </row>
     <row r="269">
-      <c r="C269" s="5"/>
+      <c r="C269" s="6"/>
     </row>
     <row r="270">
-      <c r="C270" s="5"/>
+      <c r="C270" s="6"/>
     </row>
     <row r="271">
-      <c r="C271" s="5"/>
+      <c r="C271" s="6"/>
     </row>
     <row r="272">
-      <c r="C272" s="5"/>
+      <c r="C272" s="6"/>
     </row>
     <row r="273">
-      <c r="C273" s="5"/>
+      <c r="C273" s="6"/>
     </row>
     <row r="274">
-      <c r="C274" s="5"/>
+      <c r="C274" s="6"/>
     </row>
     <row r="275">
-      <c r="C275" s="5"/>
+      <c r="C275" s="6"/>
     </row>
     <row r="276">
-      <c r="C276" s="5"/>
+      <c r="C276" s="6"/>
     </row>
     <row r="277">
-      <c r="C277" s="5"/>
+      <c r="C277" s="6"/>
     </row>
     <row r="278">
-      <c r="C278" s="5"/>
+      <c r="C278" s="6"/>
     </row>
     <row r="279">
-      <c r="C279" s="5"/>
+      <c r="C279" s="6"/>
     </row>
     <row r="280">
-      <c r="C280" s="5"/>
+      <c r="C280" s="6"/>
     </row>
     <row r="281">
-      <c r="C281" s="5"/>
+      <c r="C281" s="6"/>
     </row>
     <row r="282">
-      <c r="C282" s="5"/>
+      <c r="C282" s="6"/>
     </row>
     <row r="283">
-      <c r="C283" s="5"/>
+      <c r="C283" s="6"/>
     </row>
     <row r="284">
-      <c r="C284" s="5"/>
+      <c r="C284" s="6"/>
     </row>
     <row r="285">
-      <c r="C285" s="5"/>
+      <c r="C285" s="6"/>
     </row>
     <row r="286">
-      <c r="C286" s="5"/>
+      <c r="C286" s="6"/>
     </row>
     <row r="287">
-      <c r="C287" s="5"/>
+      <c r="C287" s="6"/>
     </row>
     <row r="288">
-      <c r="C288" s="5"/>
+      <c r="C288" s="6"/>
     </row>
     <row r="289">
-      <c r="C289" s="5"/>
+      <c r="C289" s="6"/>
     </row>
     <row r="290">
-      <c r="C290" s="5"/>
+      <c r="C290" s="6"/>
     </row>
     <row r="291">
-      <c r="C291" s="5"/>
+      <c r="C291" s="6"/>
     </row>
     <row r="292">
-      <c r="C292" s="5"/>
+      <c r="C292" s="6"/>
     </row>
     <row r="293">
-      <c r="C293" s="5"/>
+      <c r="C293" s="6"/>
     </row>
     <row r="294">
-      <c r="C294" s="5"/>
+      <c r="C294" s="6"/>
     </row>
     <row r="295">
-      <c r="C295" s="5"/>
+      <c r="C295" s="6"/>
     </row>
     <row r="296">
-      <c r="C296" s="5"/>
+      <c r="C296" s="6"/>
     </row>
     <row r="297">
-      <c r="C297" s="5"/>
+      <c r="C297" s="6"/>
     </row>
     <row r="298">
-      <c r="C298" s="5"/>
+      <c r="C298" s="6"/>
     </row>
     <row r="299">
-      <c r="C299" s="5"/>
+      <c r="C299" s="6"/>
     </row>
     <row r="300">
-      <c r="C300" s="5"/>
+      <c r="C300" s="6"/>
     </row>
     <row r="301">
-      <c r="C301" s="5"/>
+      <c r="C301" s="6"/>
     </row>
     <row r="302">
-      <c r="C302" s="5"/>
+      <c r="C302" s="6"/>
     </row>
     <row r="303">
-      <c r="C303" s="5"/>
+      <c r="C303" s="6"/>
     </row>
     <row r="304">
-      <c r="C304" s="5"/>
+      <c r="C304" s="6"/>
     </row>
     <row r="305">
-      <c r="C305" s="5"/>
+      <c r="C305" s="6"/>
     </row>
     <row r="306">
-      <c r="C306" s="5"/>
+      <c r="C306" s="6"/>
     </row>
     <row r="307">
-      <c r="C307" s="5"/>
+      <c r="C307" s="6"/>
     </row>
     <row r="308">
-      <c r="C308" s="5"/>
+      <c r="C308" s="6"/>
     </row>
     <row r="309">
-      <c r="C309" s="5"/>
+      <c r="C309" s="6"/>
     </row>
     <row r="310">
-      <c r="C310" s="5"/>
+      <c r="C310" s="6"/>
     </row>
     <row r="311">
-      <c r="C311" s="5"/>
+      <c r="C311" s="6"/>
     </row>
     <row r="312">
-      <c r="C312" s="5"/>
+      <c r="C312" s="6"/>
     </row>
     <row r="313">
-      <c r="C313" s="5"/>
+      <c r="C313" s="6"/>
     </row>
     <row r="314">
-      <c r="C314" s="5"/>
+      <c r="C314" s="6"/>
     </row>
     <row r="315">
-      <c r="C315" s="5"/>
+      <c r="C315" s="6"/>
     </row>
     <row r="316">
-      <c r="C316" s="5"/>
+      <c r="C316" s="6"/>
     </row>
     <row r="317">
-      <c r="C317" s="5"/>
+      <c r="C317" s="6"/>
     </row>
     <row r="318">
-      <c r="C318" s="5"/>
+      <c r="C318" s="6"/>
     </row>
     <row r="319">
-      <c r="C319" s="5"/>
+      <c r="C319" s="6"/>
     </row>
     <row r="320">
-      <c r="C320" s="5"/>
+      <c r="C320" s="6"/>
     </row>
     <row r="321">
-      <c r="C321" s="5"/>
+      <c r="C321" s="6"/>
     </row>
     <row r="322">
-      <c r="C322" s="5"/>
+      <c r="C322" s="6"/>
     </row>
     <row r="323">
-      <c r="C323" s="5"/>
+      <c r="C323" s="6"/>
     </row>
     <row r="324">
-      <c r="C324" s="5"/>
+      <c r="C324" s="6"/>
     </row>
     <row r="325">
-      <c r="C325" s="5"/>
+      <c r="C325" s="6"/>
     </row>
     <row r="326">
-      <c r="C326" s="5"/>
+      <c r="C326" s="6"/>
     </row>
     <row r="327">
-      <c r="C327" s="5"/>
+      <c r="C327" s="6"/>
     </row>
     <row r="328">
-      <c r="C328" s="5"/>
+      <c r="C328" s="6"/>
     </row>
     <row r="329">
-      <c r="C329" s="5"/>
+      <c r="C329" s="6"/>
     </row>
     <row r="330">
-      <c r="C330" s="5"/>
+      <c r="C330" s="6"/>
     </row>
     <row r="331">
-      <c r="C331" s="5"/>
+      <c r="C331" s="6"/>
     </row>
     <row r="332">
-      <c r="C332" s="5"/>
+      <c r="C332" s="6"/>
     </row>
     <row r="333">
-      <c r="C333" s="5"/>
+      <c r="C333" s="6"/>
     </row>
     <row r="334">
-      <c r="C334" s="5"/>
+      <c r="C334" s="6"/>
     </row>
     <row r="335">
-      <c r="C335" s="5"/>
+      <c r="C335" s="6"/>
     </row>
     <row r="336">
-      <c r="C336" s="5"/>
+      <c r="C336" s="6"/>
     </row>
     <row r="337">
-      <c r="C337" s="5"/>
+      <c r="C337" s="6"/>
     </row>
     <row r="338">
-      <c r="C338" s="5"/>
+      <c r="C338" s="6"/>
     </row>
     <row r="339">
-      <c r="C339" s="5"/>
+      <c r="C339" s="6"/>
     </row>
     <row r="340">
-      <c r="C340" s="5"/>
+      <c r="C340" s="6"/>
     </row>
     <row r="341">
-      <c r="C341" s="5"/>
+      <c r="C341" s="6"/>
     </row>
     <row r="342">
-      <c r="C342" s="5"/>
+      <c r="C342" s="6"/>
     </row>
     <row r="343">
-      <c r="C343" s="5"/>
+      <c r="C343" s="6"/>
     </row>
     <row r="344">
-      <c r="C344" s="5"/>
+      <c r="C344" s="6"/>
     </row>
     <row r="345">
-      <c r="C345" s="5"/>
+      <c r="C345" s="6"/>
     </row>
     <row r="346">
-      <c r="C346" s="5"/>
+      <c r="C346" s="6"/>
     </row>
     <row r="347">
-      <c r="C347" s="5"/>
+      <c r="C347" s="6"/>
     </row>
     <row r="348">
-      <c r="C348" s="5"/>
+      <c r="C348" s="6"/>
     </row>
     <row r="349">
-      <c r="C349" s="5"/>
+      <c r="C349" s="6"/>
     </row>
     <row r="350">
-      <c r="C350" s="5"/>
+      <c r="C350" s="6"/>
     </row>
     <row r="351">
-      <c r="C351" s="5"/>
+      <c r="C351" s="6"/>
     </row>
     <row r="352">
-      <c r="C352" s="5"/>
+      <c r="C352" s="6"/>
     </row>
     <row r="353">
-      <c r="C353" s="5"/>
+      <c r="C353" s="6"/>
     </row>
     <row r="354">
-      <c r="C354" s="5"/>
+      <c r="C354" s="6"/>
     </row>
     <row r="355">
-      <c r="C355" s="5"/>
+      <c r="C355" s="6"/>
     </row>
     <row r="356">
-      <c r="C356" s="5"/>
+      <c r="C356" s="6"/>
     </row>
     <row r="357">
-      <c r="C357" s="5"/>
+      <c r="C357" s="6"/>
     </row>
     <row r="358">
-      <c r="C358" s="5"/>
+      <c r="C358" s="6"/>
     </row>
     <row r="359">
-      <c r="C359" s="5"/>
+      <c r="C359" s="6"/>
     </row>
     <row r="360">
-      <c r="C360" s="5"/>
+      <c r="C360" s="6"/>
     </row>
     <row r="361">
-      <c r="C361" s="5"/>
+      <c r="C361" s="6"/>
     </row>
     <row r="362">
-      <c r="C362" s="5"/>
+      <c r="C362" s="6"/>
     </row>
     <row r="363">
-      <c r="C363" s="5"/>
+      <c r="C363" s="6"/>
     </row>
     <row r="364">
-      <c r="C364" s="5"/>
+      <c r="C364" s="6"/>
     </row>
     <row r="365">
-      <c r="C365" s="5"/>
+      <c r="C365" s="6"/>
     </row>
     <row r="366">
-      <c r="C366" s="5"/>
+      <c r="C366" s="6"/>
     </row>
     <row r="367">
-      <c r="C367" s="5"/>
+      <c r="C367" s="6"/>
     </row>
     <row r="368">
-      <c r="C368" s="5"/>
+      <c r="C368" s="6"/>
     </row>
     <row r="369">
-      <c r="C369" s="5"/>
+      <c r="C369" s="6"/>
     </row>
     <row r="370">
-      <c r="C370" s="5"/>
+      <c r="C370" s="6"/>
     </row>
     <row r="371">
-      <c r="C371" s="5"/>
+      <c r="C371" s="6"/>
     </row>
     <row r="372">
-      <c r="C372" s="5"/>
+      <c r="C372" s="6"/>
     </row>
     <row r="373">
-      <c r="C373" s="5"/>
+      <c r="C373" s="6"/>
     </row>
     <row r="374">
-      <c r="C374" s="5"/>
+      <c r="C374" s="6"/>
     </row>
     <row r="375">
-      <c r="C375" s="5"/>
+      <c r="C375" s="6"/>
     </row>
     <row r="376">
-      <c r="C376" s="5"/>
+      <c r="C376" s="6"/>
     </row>
     <row r="377">
-      <c r="C377" s="5"/>
+      <c r="C377" s="6"/>
     </row>
     <row r="378">
-      <c r="C378" s="5"/>
+      <c r="C378" s="6"/>
     </row>
     <row r="379">
-      <c r="C379" s="5"/>
+      <c r="C379" s="6"/>
     </row>
     <row r="380">
-      <c r="C380" s="5"/>
+      <c r="C380" s="6"/>
     </row>
     <row r="381">
-      <c r="C381" s="5"/>
+      <c r="C381" s="6"/>
     </row>
     <row r="382">
-      <c r="C382" s="5"/>
+      <c r="C382" s="6"/>
     </row>
     <row r="383">
-      <c r="C383" s="5"/>
+      <c r="C383" s="6"/>
     </row>
     <row r="384">
-      <c r="C384" s="5"/>
+      <c r="C384" s="6"/>
     </row>
     <row r="385">
-      <c r="C385" s="5"/>
+      <c r="C385" s="6"/>
     </row>
     <row r="386">
-      <c r="C386" s="5"/>
+      <c r="C386" s="6"/>
     </row>
     <row r="387">
-      <c r="C387" s="5"/>
+      <c r="C387" s="6"/>
     </row>
     <row r="388">
-      <c r="C388" s="5"/>
+      <c r="C388" s="6"/>
     </row>
     <row r="389">
-      <c r="C389" s="5"/>
+      <c r="C389" s="6"/>
     </row>
     <row r="390">
-      <c r="C390" s="5"/>
+      <c r="C390" s="6"/>
     </row>
     <row r="391">
-      <c r="C391" s="5"/>
+      <c r="C391" s="6"/>
     </row>
     <row r="392">
-      <c r="C392" s="5"/>
+      <c r="C392" s="6"/>
     </row>
     <row r="393">
-      <c r="C393" s="5"/>
+      <c r="C393" s="6"/>
     </row>
     <row r="394">
-      <c r="C394" s="5"/>
+      <c r="C394" s="6"/>
     </row>
     <row r="395">
-      <c r="C395" s="5"/>
+      <c r="C395" s="6"/>
     </row>
     <row r="396">
-      <c r="C396" s="5"/>
+      <c r="C396" s="6"/>
     </row>
     <row r="397">
-      <c r="C397" s="5"/>
+      <c r="C397" s="6"/>
     </row>
     <row r="398">
-      <c r="C398" s="5"/>
+      <c r="C398" s="6"/>
     </row>
     <row r="399">
-      <c r="C399" s="5"/>
+      <c r="C399" s="6"/>
     </row>
     <row r="400">
-      <c r="C400" s="5"/>
+      <c r="C400" s="6"/>
     </row>
     <row r="401">
-      <c r="C401" s="5"/>
+      <c r="C401" s="6"/>
     </row>
     <row r="402">
-      <c r="C402" s="5"/>
+      <c r="C402" s="6"/>
     </row>
     <row r="403">
-      <c r="C403" s="5"/>
+      <c r="C403" s="6"/>
     </row>
     <row r="404">
-      <c r="C404" s="5"/>
+      <c r="C404" s="6"/>
     </row>
     <row r="405">
-      <c r="C405" s="5"/>
+      <c r="C405" s="6"/>
     </row>
     <row r="406">
-      <c r="C406" s="5"/>
+      <c r="C406" s="6"/>
     </row>
     <row r="407">
-      <c r="C407" s="5"/>
+      <c r="C407" s="6"/>
     </row>
     <row r="408">
-      <c r="C408" s="5"/>
+      <c r="C408" s="6"/>
     </row>
     <row r="409">
-      <c r="C409" s="5"/>
+      <c r="C409" s="6"/>
     </row>
     <row r="410">
-      <c r="C410" s="5"/>
+      <c r="C410" s="6"/>
     </row>
     <row r="411">
-      <c r="C411" s="5"/>
+      <c r="C411" s="6"/>
     </row>
     <row r="412">
-      <c r="C412" s="5"/>
+      <c r="C412" s="6"/>
     </row>
     <row r="413">
-      <c r="C413" s="5"/>
+      <c r="C413" s="6"/>
     </row>
     <row r="414">
-      <c r="C414" s="5"/>
+      <c r="C414" s="6"/>
     </row>
     <row r="415">
-      <c r="C415" s="5"/>
+      <c r="C415" s="6"/>
     </row>
     <row r="416">
-      <c r="C416" s="5"/>
+      <c r="C416" s="6"/>
     </row>
     <row r="417">
-      <c r="C417" s="5"/>
+      <c r="C417" s="6"/>
     </row>
     <row r="418">
-      <c r="C418" s="5"/>
+      <c r="C418" s="6"/>
     </row>
     <row r="419">
-      <c r="C419" s="5"/>
+      <c r="C419" s="6"/>
     </row>
     <row r="420">
-      <c r="C420" s="5"/>
+      <c r="C420" s="6"/>
     </row>
     <row r="421">
-      <c r="C421" s="5"/>
+      <c r="C421" s="6"/>
     </row>
     <row r="422">
-      <c r="C422" s="5"/>
+      <c r="C422" s="6"/>
     </row>
     <row r="423">
-      <c r="C423" s="5"/>
+      <c r="C423" s="6"/>
     </row>
     <row r="424">
-      <c r="C424" s="5"/>
+      <c r="C424" s="6"/>
     </row>
     <row r="425">
-      <c r="C425" s="5"/>
+      <c r="C425" s="6"/>
     </row>
     <row r="426">
-      <c r="C426" s="5"/>
+      <c r="C426" s="6"/>
     </row>
     <row r="427">
-      <c r="C427" s="5"/>
+      <c r="C427" s="6"/>
     </row>
     <row r="428">
-      <c r="C428" s="5"/>
+      <c r="C428" s="6"/>
     </row>
     <row r="429">
-      <c r="C429" s="5"/>
+      <c r="C429" s="6"/>
     </row>
     <row r="430">
-      <c r="C430" s="5"/>
+      <c r="C430" s="6"/>
     </row>
     <row r="431">
-      <c r="C431" s="5"/>
+      <c r="C431" s="6"/>
     </row>
     <row r="432">
-      <c r="C432" s="5"/>
+      <c r="C432" s="6"/>
     </row>
     <row r="433">
-      <c r="C433" s="5"/>
+      <c r="C433" s="6"/>
     </row>
     <row r="434">
-      <c r="C434" s="5"/>
+      <c r="C434" s="6"/>
     </row>
     <row r="435">
-      <c r="C435" s="5"/>
+      <c r="C435" s="6"/>
     </row>
     <row r="436">
-      <c r="C436" s="5"/>
+      <c r="C436" s="6"/>
     </row>
     <row r="437">
-      <c r="C437" s="5"/>
+      <c r="C437" s="6"/>
     </row>
     <row r="438">
-      <c r="C438" s="5"/>
+      <c r="C438" s="6"/>
     </row>
     <row r="439">
-      <c r="C439" s="5"/>
+      <c r="C439" s="6"/>
     </row>
     <row r="440">
-      <c r="C440" s="5"/>
+      <c r="C440" s="6"/>
     </row>
     <row r="441">
-      <c r="C441" s="5"/>
+      <c r="C441" s="6"/>
     </row>
     <row r="442">
-      <c r="C442" s="5"/>
+      <c r="C442" s="6"/>
     </row>
     <row r="443">
-      <c r="C443" s="5"/>
+      <c r="C443" s="6"/>
     </row>
     <row r="444">
-      <c r="C444" s="5"/>
+      <c r="C444" s="6"/>
     </row>
     <row r="445">
-      <c r="C445" s="5"/>
+      <c r="C445" s="6"/>
     </row>
     <row r="446">
-      <c r="C446" s="5"/>
+      <c r="C446" s="6"/>
     </row>
     <row r="447">
-      <c r="C447" s="5"/>
+      <c r="C447" s="6"/>
     </row>
     <row r="448">
-      <c r="C448" s="5"/>
+      <c r="C448" s="6"/>
     </row>
     <row r="449">
-      <c r="C449" s="5"/>
+      <c r="C449" s="6"/>
     </row>
     <row r="450">
-      <c r="C450" s="5"/>
+      <c r="C450" s="6"/>
     </row>
     <row r="451">
-      <c r="C451" s="5"/>
+      <c r="C451" s="6"/>
     </row>
     <row r="452">
-      <c r="C452" s="5"/>
+      <c r="C452" s="6"/>
     </row>
     <row r="453">
-      <c r="C453" s="5"/>
+      <c r="C453" s="6"/>
     </row>
     <row r="454">
-      <c r="C454" s="5"/>
+      <c r="C454" s="6"/>
     </row>
     <row r="455">
-      <c r="C455" s="5"/>
+      <c r="C455" s="6"/>
     </row>
     <row r="456">
-      <c r="C456" s="5"/>
+      <c r="C456" s="6"/>
     </row>
     <row r="457">
-      <c r="C457" s="5"/>
+      <c r="C457" s="6"/>
     </row>
     <row r="458">
-      <c r="C458" s="5"/>
+      <c r="C458" s="6"/>
     </row>
     <row r="459">
-      <c r="C459" s="5"/>
+      <c r="C459" s="6"/>
     </row>
     <row r="460">
-      <c r="C460" s="5"/>
+      <c r="C460" s="6"/>
     </row>
     <row r="461">
-      <c r="C461" s="5"/>
+      <c r="C461" s="6"/>
     </row>
     <row r="462">
-      <c r="C462" s="5"/>
+      <c r="C462" s="6"/>
     </row>
     <row r="463">
-      <c r="C463" s="5"/>
+      <c r="C463" s="6"/>
     </row>
     <row r="464">
-      <c r="C464" s="5"/>
+      <c r="C464" s="6"/>
     </row>
     <row r="465">
-      <c r="C465" s="5"/>
+      <c r="C465" s="6"/>
     </row>
     <row r="466">
-      <c r="C466" s="5"/>
+      <c r="C466" s="6"/>
     </row>
     <row r="467">
-      <c r="C467" s="5"/>
+      <c r="C467" s="6"/>
     </row>
     <row r="468">
-      <c r="C468" s="5"/>
+      <c r="C468" s="6"/>
     </row>
     <row r="469">
-      <c r="C469" s="5"/>
+      <c r="C469" s="6"/>
     </row>
     <row r="470">
-      <c r="C470" s="5"/>
+      <c r="C470" s="6"/>
     </row>
     <row r="471">
-      <c r="C471" s="5"/>
+      <c r="C471" s="6"/>
     </row>
     <row r="472">
-      <c r="C472" s="5"/>
+      <c r="C472" s="6"/>
     </row>
     <row r="473">
-      <c r="C473" s="5"/>
+      <c r="C473" s="6"/>
     </row>
     <row r="474">
-      <c r="C474" s="5"/>
+      <c r="C474" s="6"/>
     </row>
     <row r="475">
-      <c r="C475" s="5"/>
+      <c r="C475" s="6"/>
     </row>
     <row r="476">
-      <c r="C476" s="5"/>
+      <c r="C476" s="6"/>
     </row>
     <row r="477">
-      <c r="C477" s="5"/>
+      <c r="C477" s="6"/>
     </row>
     <row r="478">
-      <c r="C478" s="5"/>
+      <c r="C478" s="6"/>
     </row>
     <row r="479">
-      <c r="C479" s="5"/>
+      <c r="C479" s="6"/>
     </row>
     <row r="480">
-      <c r="C480" s="5"/>
+      <c r="C480" s="6"/>
     </row>
     <row r="481">
-      <c r="C481" s="5"/>
+      <c r="C481" s="6"/>
     </row>
     <row r="482">
-      <c r="C482" s="5"/>
+      <c r="C482" s="6"/>
     </row>
     <row r="483">
-      <c r="C483" s="5"/>
+      <c r="C483" s="6"/>
     </row>
     <row r="484">
-      <c r="C484" s="5"/>
+      <c r="C484" s="6"/>
     </row>
     <row r="485">
-      <c r="C485" s="5"/>
+      <c r="C485" s="6"/>
     </row>
     <row r="486">
-      <c r="C486" s="5"/>
+      <c r="C486" s="6"/>
     </row>
     <row r="487">
-      <c r="C487" s="5"/>
+      <c r="C487" s="6"/>
     </row>
     <row r="488">
-      <c r="C488" s="5"/>
+      <c r="C488" s="6"/>
     </row>
     <row r="489">
-      <c r="C489" s="5"/>
+      <c r="C489" s="6"/>
     </row>
     <row r="490">
-      <c r="C490" s="5"/>
+      <c r="C490" s="6"/>
     </row>
     <row r="491">
-      <c r="C491" s="5"/>
+      <c r="C491" s="6"/>
     </row>
     <row r="492">
-      <c r="C492" s="5"/>
+      <c r="C492" s="6"/>
     </row>
     <row r="493">
-      <c r="C493" s="5"/>
+      <c r="C493" s="6"/>
     </row>
     <row r="494">
-      <c r="C494" s="5"/>
+      <c r="C494" s="6"/>
     </row>
     <row r="495">
-      <c r="C495" s="5"/>
+      <c r="C495" s="6"/>
     </row>
     <row r="496">
-      <c r="C496" s="5"/>
+      <c r="C496" s="6"/>
     </row>
     <row r="497">
-      <c r="C497" s="5"/>
+      <c r="C497" s="6"/>
     </row>
     <row r="498">
-      <c r="C498" s="5"/>
+      <c r="C498" s="6"/>
     </row>
     <row r="499">
-      <c r="C499" s="5"/>
+      <c r="C499" s="6"/>
     </row>
     <row r="500">
-      <c r="C500" s="5"/>
+      <c r="C500" s="6"/>
     </row>
     <row r="501">
-      <c r="C501" s="5"/>
+      <c r="C501" s="6"/>
     </row>
     <row r="502">
-      <c r="C502" s="5"/>
+      <c r="C502" s="6"/>
     </row>
     <row r="503">
-      <c r="C503" s="5"/>
+      <c r="C503" s="6"/>
     </row>
     <row r="504">
-      <c r="C504" s="5"/>
+      <c r="C504" s="6"/>
     </row>
     <row r="505">
-      <c r="C505" s="5"/>
+      <c r="C505" s="6"/>
     </row>
     <row r="506">
-      <c r="C506" s="5"/>
+      <c r="C506" s="6"/>
     </row>
     <row r="507">
-      <c r="C507" s="5"/>
+      <c r="C507" s="6"/>
     </row>
     <row r="508">
-      <c r="C508" s="5"/>
+      <c r="C508" s="6"/>
     </row>
     <row r="509">
-      <c r="C509" s="5"/>
+      <c r="C509" s="6"/>
     </row>
     <row r="510">
-      <c r="C510" s="5"/>
+      <c r="C510" s="6"/>
     </row>
     <row r="511">
-      <c r="C511" s="5"/>
+      <c r="C511" s="6"/>
     </row>
     <row r="512">
-      <c r="C512" s="5"/>
+      <c r="C512" s="6"/>
     </row>
     <row r="513">
-      <c r="C513" s="5"/>
+      <c r="C513" s="6"/>
     </row>
     <row r="514">
-      <c r="C514" s="5"/>
+      <c r="C514" s="6"/>
     </row>
     <row r="515">
-      <c r="C515" s="5"/>
+      <c r="C515" s="6"/>
     </row>
     <row r="516">
-      <c r="C516" s="5"/>
+      <c r="C516" s="6"/>
     </row>
     <row r="517">
-      <c r="C517" s="5"/>
+      <c r="C517" s="6"/>
     </row>
     <row r="518">
-      <c r="C518" s="5"/>
+      <c r="C518" s="6"/>
     </row>
     <row r="519">
-      <c r="C519" s="5"/>
+      <c r="C519" s="6"/>
     </row>
     <row r="520">
-      <c r="C520" s="5"/>
+      <c r="C520" s="6"/>
     </row>
     <row r="521">
-      <c r="C521" s="5"/>
+      <c r="C521" s="6"/>
     </row>
     <row r="522">
-      <c r="C522" s="5"/>
+      <c r="C522" s="6"/>
     </row>
     <row r="523">
-      <c r="C523" s="5"/>
+      <c r="C523" s="6"/>
     </row>
     <row r="524">
-      <c r="C524" s="5"/>
+      <c r="C524" s="6"/>
     </row>
     <row r="525">
-      <c r="C525" s="5"/>
+      <c r="C525" s="6"/>
     </row>
     <row r="526">
-      <c r="C526" s="5"/>
+      <c r="C526" s="6"/>
     </row>
     <row r="527">
-      <c r="C527" s="5"/>
+      <c r="C527" s="6"/>
     </row>
     <row r="528">
-      <c r="C528" s="5"/>
+      <c r="C528" s="6"/>
     </row>
     <row r="529">
-      <c r="C529" s="5"/>
+      <c r="C529" s="6"/>
     </row>
     <row r="530">
-      <c r="C530" s="5"/>
+      <c r="C530" s="6"/>
     </row>
     <row r="531">
-      <c r="C531" s="5"/>
+      <c r="C531" s="6"/>
     </row>
     <row r="532">
-      <c r="C532" s="5"/>
+      <c r="C532" s="6"/>
     </row>
     <row r="533">
-      <c r="C533" s="5"/>
+      <c r="C533" s="6"/>
     </row>
     <row r="534">
-      <c r="C534" s="5"/>
+      <c r="C534" s="6"/>
     </row>
     <row r="535">
-      <c r="C535" s="5"/>
+      <c r="C535" s="6"/>
     </row>
     <row r="536">
-      <c r="C536" s="5"/>
+      <c r="C536" s="6"/>
     </row>
     <row r="537">
-      <c r="C537" s="5"/>
+      <c r="C537" s="6"/>
     </row>
     <row r="538">
-      <c r="C538" s="5"/>
+      <c r="C538" s="6"/>
     </row>
     <row r="539">
-      <c r="C539" s="5"/>
+      <c r="C539" s="6"/>
     </row>
     <row r="540">
-      <c r="C540" s="5"/>
+      <c r="C540" s="6"/>
     </row>
     <row r="541">
-      <c r="C541" s="5"/>
+      <c r="C541" s="6"/>
     </row>
     <row r="542">
-      <c r="C542" s="5"/>
+      <c r="C542" s="6"/>
     </row>
     <row r="543">
-      <c r="C543" s="5"/>
+      <c r="C543" s="6"/>
     </row>
     <row r="544">
-      <c r="C544" s="5"/>
+      <c r="C544" s="6"/>
     </row>
     <row r="545">
-      <c r="C545" s="5"/>
+      <c r="C545" s="6"/>
     </row>
     <row r="546">
-      <c r="C546" s="5"/>
+      <c r="C546" s="6"/>
     </row>
     <row r="547">
-      <c r="C547" s="5"/>
+      <c r="C547" s="6"/>
     </row>
     <row r="548">
-      <c r="C548" s="5"/>
+      <c r="C548" s="6"/>
     </row>
     <row r="549">
-      <c r="C549" s="5"/>
+      <c r="C549" s="6"/>
     </row>
     <row r="550">
-      <c r="C550" s="5"/>
+      <c r="C550" s="6"/>
     </row>
     <row r="551">
-      <c r="C551" s="5"/>
+      <c r="C551" s="6"/>
     </row>
     <row r="552">
-      <c r="C552" s="5"/>
+      <c r="C552" s="6"/>
     </row>
     <row r="553">
-      <c r="C553" s="5"/>
+      <c r="C553" s="6"/>
     </row>
     <row r="554">
-      <c r="C554" s="5"/>
+      <c r="C554" s="6"/>
     </row>
     <row r="555">
-      <c r="C555" s="5"/>
+      <c r="C555" s="6"/>
     </row>
     <row r="556">
-      <c r="C556" s="5"/>
+      <c r="C556" s="6"/>
     </row>
     <row r="557">
-      <c r="C557" s="5"/>
+      <c r="C557" s="6"/>
     </row>
     <row r="558">
-      <c r="C558" s="5"/>
+      <c r="C558" s="6"/>
     </row>
     <row r="559">
-      <c r="C559" s="5"/>
+      <c r="C559" s="6"/>
     </row>
     <row r="560">
-      <c r="C560" s="5"/>
+      <c r="C560" s="6"/>
     </row>
     <row r="561">
-      <c r="C561" s="5"/>
+      <c r="C561" s="6"/>
     </row>
     <row r="562">
-      <c r="C562" s="5"/>
+      <c r="C562" s="6"/>
     </row>
     <row r="563">
-      <c r="C563" s="5"/>
+      <c r="C563" s="6"/>
     </row>
     <row r="564">
-      <c r="C564" s="5"/>
+      <c r="C564" s="6"/>
     </row>
     <row r="565">
-      <c r="C565" s="5"/>
+      <c r="C565" s="6"/>
     </row>
     <row r="566">
-      <c r="C566" s="5"/>
+      <c r="C566" s="6"/>
     </row>
     <row r="567">
-      <c r="C567" s="5"/>
+      <c r="C567" s="6"/>
     </row>
     <row r="568">
-      <c r="C568" s="5"/>
+      <c r="C568" s="6"/>
     </row>
     <row r="569">
-      <c r="C569" s="5"/>
+      <c r="C569" s="6"/>
     </row>
     <row r="570">
-      <c r="C570" s="5"/>
+      <c r="C570" s="6"/>
     </row>
     <row r="571">
-      <c r="C571" s="5"/>
+      <c r="C571" s="6"/>
     </row>
     <row r="572">
-      <c r="C572" s="5"/>
+      <c r="C572" s="6"/>
     </row>
     <row r="573">
-      <c r="C573" s="5"/>
+      <c r="C573" s="6"/>
     </row>
     <row r="574">
-      <c r="C574" s="5"/>
+      <c r="C574" s="6"/>
     </row>
     <row r="575">
-      <c r="C575" s="5"/>
+      <c r="C575" s="6"/>
     </row>
     <row r="576">
-      <c r="C576" s="5"/>
+      <c r="C576" s="6"/>
     </row>
     <row r="577">
-      <c r="C577" s="5"/>
+      <c r="C577" s="6"/>
     </row>
     <row r="578">
-      <c r="C578" s="5"/>
+      <c r="C578" s="6"/>
     </row>
     <row r="579">
-      <c r="C579" s="5"/>
+      <c r="C579" s="6"/>
     </row>
     <row r="580">
-      <c r="C580" s="5"/>
+      <c r="C580" s="6"/>
     </row>
     <row r="581">
-      <c r="C581" s="5"/>
+      <c r="C581" s="6"/>
     </row>
     <row r="582">
-      <c r="C582" s="5"/>
+      <c r="C582" s="6"/>
     </row>
     <row r="583">
-      <c r="C583" s="5"/>
+      <c r="C583" s="6"/>
     </row>
     <row r="584">
-      <c r="C584" s="5"/>
+      <c r="C584" s="6"/>
     </row>
     <row r="585">
-      <c r="C585" s="5"/>
+      <c r="C585" s="6"/>
     </row>
     <row r="586">
-      <c r="C586" s="5"/>
+      <c r="C586" s="6"/>
     </row>
     <row r="587">
-      <c r="C587" s="5"/>
+      <c r="C587" s="6"/>
     </row>
     <row r="588">
-      <c r="C588" s="5"/>
+      <c r="C588" s="6"/>
     </row>
     <row r="589">
-      <c r="C589" s="5"/>
+      <c r="C589" s="6"/>
     </row>
     <row r="590">
-      <c r="C590" s="5"/>
+      <c r="C590" s="6"/>
     </row>
     <row r="591">
-      <c r="C591" s="5"/>
+      <c r="C591" s="6"/>
     </row>
     <row r="592">
-      <c r="C592" s="5"/>
+      <c r="C592" s="6"/>
     </row>
     <row r="593">
-      <c r="C593" s="5"/>
+      <c r="C593" s="6"/>
     </row>
     <row r="594">
-      <c r="C594" s="5"/>
+      <c r="C594" s="6"/>
     </row>
     <row r="595">
-      <c r="C595" s="5"/>
+      <c r="C595" s="6"/>
     </row>
     <row r="596">
-      <c r="C596" s="5"/>
+      <c r="C596" s="6"/>
     </row>
     <row r="597">
-      <c r="C597" s="5"/>
+      <c r="C597" s="6"/>
     </row>
     <row r="598">
-      <c r="C598" s="5"/>
+      <c r="C598" s="6"/>
     </row>
     <row r="599">
-      <c r="C599" s="5"/>
+      <c r="C599" s="6"/>
     </row>
     <row r="600">
-      <c r="C600" s="5"/>
+      <c r="C600" s="6"/>
     </row>
     <row r="601">
-      <c r="C601" s="5"/>
+      <c r="C601" s="6"/>
     </row>
     <row r="602">
-      <c r="C602" s="5"/>
+      <c r="C602" s="6"/>
     </row>
     <row r="603">
-      <c r="C603" s="5"/>
+      <c r="C603" s="6"/>
     </row>
     <row r="604">
-      <c r="C604" s="5"/>
+      <c r="C604" s="6"/>
     </row>
     <row r="605">
-      <c r="C605" s="5"/>
+      <c r="C605" s="6"/>
     </row>
     <row r="606">
-      <c r="C606" s="5"/>
+      <c r="C606" s="6"/>
     </row>
     <row r="607">
-      <c r="C607" s="5"/>
+      <c r="C607" s="6"/>
     </row>
     <row r="608">
-      <c r="C608" s="5"/>
+      <c r="C608" s="6"/>
     </row>
     <row r="609">
-      <c r="C609" s="5"/>
+      <c r="C609" s="6"/>
     </row>
     <row r="610">
-      <c r="C610" s="5"/>
+      <c r="C610" s="6"/>
     </row>
     <row r="611">
-      <c r="C611" s="5"/>
+      <c r="C611" s="6"/>
     </row>
     <row r="612">
-      <c r="C612" s="5"/>
+      <c r="C612" s="6"/>
     </row>
     <row r="613">
-      <c r="C613" s="5"/>
+      <c r="C613" s="6"/>
     </row>
     <row r="614">
-      <c r="C614" s="5"/>
+      <c r="C614" s="6"/>
     </row>
     <row r="615">
-      <c r="C615" s="5"/>
+      <c r="C615" s="6"/>
     </row>
     <row r="616">
-      <c r="C616" s="5"/>
+      <c r="C616" s="6"/>
     </row>
     <row r="617">
-      <c r="C617" s="5"/>
+      <c r="C617" s="6"/>
     </row>
     <row r="618">
-      <c r="C618" s="5"/>
+      <c r="C618" s="6"/>
     </row>
     <row r="619">
-      <c r="C619" s="5"/>
+      <c r="C619" s="6"/>
     </row>
     <row r="620">
-      <c r="C620" s="5"/>
+      <c r="C620" s="6"/>
     </row>
     <row r="621">
-      <c r="C621" s="5"/>
+      <c r="C621" s="6"/>
     </row>
     <row r="622">
-      <c r="C622" s="5"/>
+      <c r="C622" s="6"/>
     </row>
     <row r="623">
-      <c r="C623" s="5"/>
+      <c r="C623" s="6"/>
     </row>
     <row r="624">
-      <c r="C624" s="5"/>
+      <c r="C624" s="6"/>
     </row>
     <row r="625">
-      <c r="C625" s="5"/>
+      <c r="C625" s="6"/>
     </row>
     <row r="626">
-      <c r="C626" s="5"/>
+      <c r="C626" s="6"/>
     </row>
     <row r="627">
-      <c r="C627" s="5"/>
+      <c r="C627" s="6"/>
     </row>
     <row r="628">
-      <c r="C628" s="5"/>
+      <c r="C628" s="6"/>
     </row>
     <row r="629">
-      <c r="C629" s="5"/>
+      <c r="C629" s="6"/>
     </row>
     <row r="630">
-      <c r="C630" s="5"/>
+      <c r="C630" s="6"/>
     </row>
     <row r="631">
-      <c r="C631" s="5"/>
+      <c r="C631" s="6"/>
     </row>
     <row r="632">
-      <c r="C632" s="5"/>
+      <c r="C632" s="6"/>
     </row>
     <row r="633">
-      <c r="C633" s="5"/>
+      <c r="C633" s="6"/>
     </row>
     <row r="634">
-      <c r="C634" s="5"/>
+      <c r="C634" s="6"/>
     </row>
     <row r="635">
-      <c r="C635" s="5"/>
+      <c r="C635" s="6"/>
     </row>
     <row r="636">
-      <c r="C636" s="5"/>
+      <c r="C636" s="6"/>
     </row>
     <row r="637">
-      <c r="C637" s="5"/>
+      <c r="C637" s="6"/>
     </row>
     <row r="638">
-      <c r="C638" s="5"/>
+      <c r="C638" s="6"/>
     </row>
     <row r="639">
-      <c r="C639" s="5"/>
+      <c r="C639" s="6"/>
     </row>
     <row r="640">
-      <c r="C640" s="5"/>
+      <c r="C640" s="6"/>
     </row>
     <row r="641">
-      <c r="C641" s="5"/>
+      <c r="C641" s="6"/>
     </row>
     <row r="642">
-      <c r="C642" s="5"/>
+      <c r="C642" s="6"/>
     </row>
     <row r="643">
-      <c r="C643" s="5"/>
+      <c r="C643" s="6"/>
     </row>
     <row r="644">
-      <c r="C644" s="5"/>
+      <c r="C644" s="6"/>
     </row>
     <row r="645">
-      <c r="C645" s="5"/>
+      <c r="C645" s="6"/>
     </row>
     <row r="646">
-      <c r="C646" s="5"/>
+      <c r="C646" s="6"/>
     </row>
     <row r="647">
-      <c r="C647" s="5"/>
+      <c r="C647" s="6"/>
     </row>
     <row r="648">
-      <c r="C648" s="5"/>
+      <c r="C648" s="6"/>
     </row>
     <row r="649">
-      <c r="C649" s="5"/>
+      <c r="C649" s="6"/>
     </row>
     <row r="650">
-      <c r="C650" s="5"/>
+      <c r="C650" s="6"/>
     </row>
     <row r="651">
-      <c r="C651" s="5"/>
+      <c r="C651" s="6"/>
     </row>
     <row r="652">
-      <c r="C652" s="5"/>
+      <c r="C652" s="6"/>
     </row>
     <row r="653">
-      <c r="C653" s="5"/>
+      <c r="C653" s="6"/>
     </row>
     <row r="654">
-      <c r="C654" s="5"/>
+      <c r="C654" s="6"/>
     </row>
     <row r="655">
-      <c r="C655" s="5"/>
+      <c r="C655" s="6"/>
     </row>
     <row r="656">
-      <c r="C656" s="5"/>
+      <c r="C656" s="6"/>
     </row>
     <row r="657">
-      <c r="C657" s="5"/>
+      <c r="C657" s="6"/>
     </row>
     <row r="658">
-      <c r="C658" s="5"/>
+      <c r="C658" s="6"/>
     </row>
     <row r="659">
-      <c r="C659" s="5"/>
+      <c r="C659" s="6"/>
     </row>
     <row r="660">
-      <c r="C660" s="5"/>
+      <c r="C660" s="6"/>
     </row>
     <row r="661">
-      <c r="C661" s="5"/>
+      <c r="C661" s="6"/>
     </row>
     <row r="662">
-      <c r="C662" s="5"/>
+      <c r="C662" s="6"/>
     </row>
     <row r="663">
-      <c r="C663" s="5"/>
+      <c r="C663" s="6"/>
     </row>
     <row r="664">
-      <c r="C664" s="5"/>
+      <c r="C664" s="6"/>
     </row>
     <row r="665">
-      <c r="C665" s="5"/>
+      <c r="C665" s="6"/>
     </row>
     <row r="666">
-      <c r="C666" s="5"/>
+      <c r="C666" s="6"/>
     </row>
     <row r="667">
-      <c r="C667" s="5"/>
+      <c r="C667" s="6"/>
     </row>
     <row r="668">
-      <c r="C668" s="5"/>
+      <c r="C668" s="6"/>
     </row>
     <row r="669">
-      <c r="C669" s="5"/>
+      <c r="C669" s="6"/>
     </row>
     <row r="670">
-      <c r="C670" s="5"/>
+      <c r="C670" s="6"/>
     </row>
     <row r="671">
-      <c r="C671" s="5"/>
+      <c r="C671" s="6"/>
     </row>
     <row r="672">
-      <c r="C672" s="5"/>
+      <c r="C672" s="6"/>
     </row>
     <row r="673">
-      <c r="C673" s="5"/>
+      <c r="C673" s="6"/>
     </row>
     <row r="674">
-      <c r="C674" s="5"/>
+      <c r="C674" s="6"/>
     </row>
     <row r="675">
-      <c r="C675" s="5"/>
+      <c r="C675" s="6"/>
     </row>
     <row r="676">
-      <c r="C676" s="5"/>
+      <c r="C676" s="6"/>
     </row>
     <row r="677">
-      <c r="C677" s="5"/>
+      <c r="C677" s="6"/>
     </row>
     <row r="678">
-      <c r="C678" s="5"/>
+      <c r="C678" s="6"/>
     </row>
     <row r="679">
-      <c r="C679" s="5"/>
+      <c r="C679" s="6"/>
     </row>
     <row r="680">
-      <c r="C680" s="5"/>
+      <c r="C680" s="6"/>
     </row>
     <row r="681">
-      <c r="C681" s="5"/>
+      <c r="C681" s="6"/>
     </row>
     <row r="682">
-      <c r="C682" s="5"/>
+      <c r="C682" s="6"/>
     </row>
     <row r="683">
-      <c r="C683" s="5"/>
+      <c r="C683" s="6"/>
     </row>
     <row r="684">
-      <c r="C684" s="5"/>
+      <c r="C684" s="6"/>
     </row>
     <row r="685">
-      <c r="C685" s="5"/>
+      <c r="C685" s="6"/>
     </row>
     <row r="686">
-      <c r="C686" s="5"/>
+      <c r="C686" s="6"/>
     </row>
     <row r="687">
-      <c r="C687" s="5"/>
+      <c r="C687" s="6"/>
     </row>
     <row r="688">
-      <c r="C688" s="5"/>
+      <c r="C688" s="6"/>
     </row>
     <row r="689">
-      <c r="C689" s="5"/>
+      <c r="C689" s="6"/>
     </row>
     <row r="690">
-      <c r="C690" s="5"/>
+      <c r="C690" s="6"/>
     </row>
     <row r="691">
-      <c r="C691" s="5"/>
+      <c r="C691" s="6"/>
     </row>
     <row r="692">
-      <c r="C692" s="5"/>
+      <c r="C692" s="6"/>
     </row>
     <row r="693">
-      <c r="C693" s="5"/>
+      <c r="C693" s="6"/>
     </row>
     <row r="694">
-      <c r="C694" s="5"/>
+      <c r="C694" s="6"/>
     </row>
     <row r="695">
-      <c r="C695" s="5"/>
+      <c r="C695" s="6"/>
     </row>
     <row r="696">
-      <c r="C696" s="5"/>
+      <c r="C696" s="6"/>
     </row>
     <row r="697">
-      <c r="C697" s="5"/>
+      <c r="C697" s="6"/>
     </row>
     <row r="698">
-      <c r="C698" s="5"/>
+      <c r="C698" s="6"/>
     </row>
     <row r="699">
-      <c r="C699" s="5"/>
+      <c r="C699" s="6"/>
     </row>
     <row r="700">
-      <c r="C700" s="5"/>
+      <c r="C700" s="6"/>
     </row>
     <row r="701">
-      <c r="C701" s="5"/>
+      <c r="C701" s="6"/>
     </row>
     <row r="702">
-      <c r="C702" s="5"/>
+      <c r="C702" s="6"/>
     </row>
     <row r="703">
-      <c r="C703" s="5"/>
+      <c r="C703" s="6"/>
     </row>
     <row r="704">
-      <c r="C704" s="5"/>
+      <c r="C704" s="6"/>
     </row>
     <row r="705">
-      <c r="C705" s="5"/>
+      <c r="C705" s="6"/>
     </row>
     <row r="706">
-      <c r="C706" s="5"/>
+      <c r="C706" s="6"/>
     </row>
     <row r="707">
-      <c r="C707" s="5"/>
+      <c r="C707" s="6"/>
     </row>
     <row r="708">
-      <c r="C708" s="5"/>
+      <c r="C708" s="6"/>
     </row>
     <row r="709">
-      <c r="C709" s="5"/>
+      <c r="C709" s="6"/>
     </row>
     <row r="710">
-      <c r="C710" s="5"/>
+      <c r="C710" s="6"/>
     </row>
     <row r="711">
-      <c r="C711" s="5"/>
+      <c r="C711" s="6"/>
     </row>
     <row r="712">
-      <c r="C712" s="5"/>
+      <c r="C712" s="6"/>
     </row>
     <row r="713">
-      <c r="C713" s="5"/>
+      <c r="C713" s="6"/>
     </row>
     <row r="714">
-      <c r="C714" s="5"/>
+      <c r="C714" s="6"/>
     </row>
     <row r="715">
-      <c r="C715" s="5"/>
+      <c r="C715" s="6"/>
     </row>
     <row r="716">
-      <c r="C716" s="5"/>
+      <c r="C716" s="6"/>
     </row>
     <row r="717">
-      <c r="C717" s="5"/>
+      <c r="C717" s="6"/>
     </row>
     <row r="718">
-      <c r="C718" s="5"/>
+      <c r="C718" s="6"/>
     </row>
     <row r="719">
-      <c r="C719" s="5"/>
+      <c r="C719" s="6"/>
     </row>
     <row r="720">
-      <c r="C720" s="5"/>
+      <c r="C720" s="6"/>
     </row>
     <row r="721">
-      <c r="C721" s="5"/>
+      <c r="C721" s="6"/>
     </row>
     <row r="722">
-      <c r="C722" s="5"/>
+      <c r="C722" s="6"/>
     </row>
     <row r="723">
-      <c r="C723" s="5"/>
+      <c r="C723" s="6"/>
     </row>
     <row r="724">
-      <c r="C724" s="5"/>
+      <c r="C724" s="6"/>
     </row>
     <row r="725">
-      <c r="C725" s="5"/>
+      <c r="C725" s="6"/>
     </row>
     <row r="726">
-      <c r="C726" s="5"/>
+      <c r="C726" s="6"/>
     </row>
     <row r="727">
-      <c r="C727" s="5"/>
+      <c r="C727" s="6"/>
     </row>
     <row r="728">
-      <c r="C728" s="5"/>
+      <c r="C728" s="6"/>
     </row>
     <row r="729">
-      <c r="C729" s="5"/>
+      <c r="C729" s="6"/>
     </row>
     <row r="730">
-      <c r="C730" s="5"/>
+      <c r="C730" s="6"/>
     </row>
     <row r="731">
-      <c r="C731" s="5"/>
+      <c r="C731" s="6"/>
     </row>
     <row r="732">
-      <c r="C732" s="5"/>
+      <c r="C732" s="6"/>
     </row>
     <row r="733">
-      <c r="C733" s="5"/>
+      <c r="C733" s="6"/>
     </row>
     <row r="734">
-      <c r="C734" s="5"/>
+      <c r="C734" s="6"/>
     </row>
     <row r="735">
-      <c r="C735" s="5"/>
+      <c r="C735" s="6"/>
     </row>
     <row r="736">
-      <c r="C736" s="5"/>
+      <c r="C736" s="6"/>
     </row>
     <row r="737">
-      <c r="C737" s="5"/>
+      <c r="C737" s="6"/>
     </row>
     <row r="738">
-      <c r="C738" s="5"/>
+      <c r="C738" s="6"/>
     </row>
     <row r="739">
-      <c r="C739" s="5"/>
+      <c r="C739" s="6"/>
     </row>
     <row r="740">
-      <c r="C740" s="5"/>
+      <c r="C740" s="6"/>
     </row>
     <row r="741">
-      <c r="C741" s="5"/>
+      <c r="C741" s="6"/>
     </row>
     <row r="742">
-      <c r="C742" s="5"/>
+      <c r="C742" s="6"/>
     </row>
     <row r="743">
-      <c r="C743" s="5"/>
+      <c r="C743" s="6"/>
     </row>
     <row r="744">
-      <c r="C744" s="5"/>
+      <c r="C744" s="6"/>
     </row>
     <row r="745">
-      <c r="C745" s="5"/>
+      <c r="C745" s="6"/>
     </row>
     <row r="746">
-      <c r="C746" s="5"/>
+      <c r="C746" s="6"/>
     </row>
     <row r="747">
-      <c r="C747" s="5"/>
+      <c r="C747" s="6"/>
     </row>
     <row r="748">
-      <c r="C748" s="5"/>
+      <c r="C748" s="6"/>
     </row>
     <row r="749">
-      <c r="C749" s="5"/>
+      <c r="C749" s="6"/>
     </row>
     <row r="750">
-      <c r="C750" s="5"/>
+      <c r="C750" s="6"/>
     </row>
     <row r="751">
-      <c r="C751" s="5"/>
+      <c r="C751" s="6"/>
     </row>
     <row r="752">
-      <c r="C752" s="5"/>
+      <c r="C752" s="6"/>
     </row>
     <row r="753">
-      <c r="C753" s="5"/>
+      <c r="C753" s="6"/>
     </row>
     <row r="754">
-      <c r="C754" s="5"/>
+      <c r="C754" s="6"/>
     </row>
     <row r="755">
-      <c r="C755" s="5"/>
+      <c r="C755" s="6"/>
     </row>
     <row r="756">
-      <c r="C756" s="5"/>
+      <c r="C756" s="6"/>
     </row>
     <row r="757">
-      <c r="C757" s="5"/>
+      <c r="C757" s="6"/>
     </row>
     <row r="758">
-      <c r="C758" s="5"/>
+      <c r="C758" s="6"/>
     </row>
     <row r="759">
-      <c r="C759" s="5"/>
+      <c r="C759" s="6"/>
     </row>
     <row r="760">
-      <c r="C760" s="5"/>
+      <c r="C760" s="6"/>
     </row>
     <row r="761">
-      <c r="C761" s="5"/>
+      <c r="C761" s="6"/>
     </row>
     <row r="762">
-      <c r="C762" s="5"/>
+      <c r="C762" s="6"/>
     </row>
     <row r="763">
-      <c r="C763" s="5"/>
+      <c r="C763" s="6"/>
     </row>
     <row r="764">
-      <c r="C764" s="5"/>
+      <c r="C764" s="6"/>
     </row>
     <row r="765">
-      <c r="C765" s="5"/>
+      <c r="C765" s="6"/>
     </row>
     <row r="766">
-      <c r="C766" s="5"/>
+      <c r="C766" s="6"/>
     </row>
     <row r="767">
-      <c r="C767" s="5"/>
+      <c r="C767" s="6"/>
     </row>
     <row r="768">
-      <c r="C768" s="5"/>
+      <c r="C768" s="6"/>
     </row>
     <row r="769">
-      <c r="C769" s="5"/>
+      <c r="C769" s="6"/>
     </row>
     <row r="770">
-      <c r="C770" s="5"/>
+      <c r="C770" s="6"/>
     </row>
     <row r="771">
-      <c r="C771" s="5"/>
+      <c r="C771" s="6"/>
     </row>
     <row r="772">
-      <c r="C772" s="5"/>
+      <c r="C772" s="6"/>
     </row>
     <row r="773">
-      <c r="C773" s="5"/>
+      <c r="C773" s="6"/>
     </row>
     <row r="774">
-      <c r="C774" s="5"/>
+      <c r="C774" s="6"/>
     </row>
     <row r="775">
-      <c r="C775" s="5"/>
+      <c r="C775" s="6"/>
     </row>
     <row r="776">
-      <c r="C776" s="5"/>
+      <c r="C776" s="6"/>
     </row>
     <row r="777">
-      <c r="C777" s="5"/>
+      <c r="C777" s="6"/>
     </row>
     <row r="778">
-      <c r="C778" s="5"/>
+      <c r="C778" s="6"/>
     </row>
     <row r="779">
-      <c r="C779" s="5"/>
+      <c r="C779" s="6"/>
     </row>
     <row r="780">
-      <c r="C780" s="5"/>
+      <c r="C780" s="6"/>
     </row>
     <row r="781">
-      <c r="C781" s="5"/>
+      <c r="C781" s="6"/>
     </row>
     <row r="782">
-      <c r="C782" s="5"/>
+      <c r="C782" s="6"/>
     </row>
     <row r="783">
-      <c r="C783" s="5"/>
+      <c r="C783" s="6"/>
     </row>
     <row r="784">
-      <c r="C784" s="5"/>
+      <c r="C784" s="6"/>
     </row>
     <row r="785">
-      <c r="C785" s="5"/>
+      <c r="C785" s="6"/>
     </row>
     <row r="786">
-      <c r="C786" s="5"/>
+      <c r="C786" s="6"/>
     </row>
     <row r="787">
-      <c r="C787" s="5"/>
+      <c r="C787" s="6"/>
     </row>
     <row r="788">
-      <c r="C788" s="5"/>
+      <c r="C788" s="6"/>
     </row>
     <row r="789">
-      <c r="C789" s="5"/>
+      <c r="C789" s="6"/>
     </row>
     <row r="790">
-      <c r="C790" s="5"/>
+      <c r="C790" s="6"/>
     </row>
     <row r="791">
-      <c r="C791" s="5"/>
+      <c r="C791" s="6"/>
     </row>
     <row r="792">
-      <c r="C792" s="5"/>
+      <c r="C792" s="6"/>
     </row>
     <row r="793">
-      <c r="C793" s="5"/>
+      <c r="C793" s="6"/>
     </row>
     <row r="794">
-      <c r="C794" s="5"/>
+      <c r="C794" s="6"/>
     </row>
     <row r="795">
-      <c r="C795" s="5"/>
+      <c r="C795" s="6"/>
     </row>
     <row r="796">
-      <c r="C796" s="5"/>
+      <c r="C796" s="6"/>
     </row>
     <row r="797">
-      <c r="C797" s="5"/>
+      <c r="C797" s="6"/>
     </row>
     <row r="798">
-      <c r="C798" s="5"/>
+      <c r="C798" s="6"/>
     </row>
     <row r="799">
-      <c r="C799" s="5"/>
+      <c r="C799" s="6"/>
     </row>
     <row r="800">
-      <c r="C800" s="5"/>
+      <c r="C800" s="6"/>
     </row>
     <row r="801">
-      <c r="C801" s="5"/>
+      <c r="C801" s="6"/>
     </row>
     <row r="802">
-      <c r="C802" s="5"/>
+      <c r="C802" s="6"/>
     </row>
     <row r="803">
-      <c r="C803" s="5"/>
+      <c r="C803" s="6"/>
     </row>
     <row r="804">
-      <c r="C804" s="5"/>
+      <c r="C804" s="6"/>
     </row>
     <row r="805">
-      <c r="C805" s="5"/>
+      <c r="C805" s="6"/>
     </row>
     <row r="806">
-      <c r="C806" s="5"/>
+      <c r="C806" s="6"/>
     </row>
     <row r="807">
-      <c r="C807" s="5"/>
+      <c r="C807" s="6"/>
     </row>
     <row r="808">
-      <c r="C808" s="5"/>
+      <c r="C808" s="6"/>
     </row>
     <row r="809">
-      <c r="C809" s="5"/>
+      <c r="C809" s="6"/>
     </row>
     <row r="810">
-      <c r="C810" s="5"/>
+      <c r="C810" s="6"/>
     </row>
     <row r="811">
-      <c r="C811" s="5"/>
+      <c r="C811" s="6"/>
     </row>
     <row r="812">
-      <c r="C812" s="5"/>
+      <c r="C812" s="6"/>
     </row>
     <row r="813">
-      <c r="C813" s="5"/>
+      <c r="C813" s="6"/>
     </row>
     <row r="814">
-      <c r="C814" s="5"/>
+      <c r="C814" s="6"/>
     </row>
     <row r="815">
-      <c r="C815" s="5"/>
+      <c r="C815" s="6"/>
     </row>
     <row r="816">
-      <c r="C816" s="5"/>
+      <c r="C816" s="6"/>
     </row>
     <row r="817">
-      <c r="C817" s="5"/>
+      <c r="C817" s="6"/>
     </row>
     <row r="818">
-      <c r="C818" s="5"/>
+      <c r="C818" s="6"/>
     </row>
     <row r="819">
-      <c r="C819" s="5"/>
+      <c r="C819" s="6"/>
     </row>
     <row r="820">
-      <c r="C820" s="5"/>
+      <c r="C820" s="6"/>
     </row>
     <row r="821">
-      <c r="C821" s="5"/>
+      <c r="C821" s="6"/>
     </row>
     <row r="822">
-      <c r="C822" s="5"/>
+      <c r="C822" s="6"/>
     </row>
     <row r="823">
-      <c r="C823" s="5"/>
+      <c r="C823" s="6"/>
     </row>
     <row r="824">
-      <c r="C824" s="5"/>
+      <c r="C824" s="6"/>
     </row>
     <row r="825">
-      <c r="C825" s="5"/>
+      <c r="C825" s="6"/>
     </row>
     <row r="826">
-      <c r="C826" s="5"/>
+      <c r="C826" s="6"/>
     </row>
     <row r="827">
-      <c r="C827" s="5"/>
+      <c r="C827" s="6"/>
     </row>
     <row r="828">
-      <c r="C828" s="5"/>
+      <c r="C828" s="6"/>
     </row>
     <row r="829">
-      <c r="C829" s="5"/>
+      <c r="C829" s="6"/>
     </row>
     <row r="830">
-      <c r="C830" s="5"/>
+      <c r="C830" s="6"/>
     </row>
     <row r="831">
-      <c r="C831" s="5"/>
+      <c r="C831" s="6"/>
     </row>
     <row r="832">
-      <c r="C832" s="5"/>
+      <c r="C832" s="6"/>
     </row>
     <row r="833">
-      <c r="C833" s="5"/>
+      <c r="C833" s="6"/>
     </row>
     <row r="834">
-      <c r="C834" s="5"/>
+      <c r="C834" s="6"/>
     </row>
     <row r="835">
-      <c r="C835" s="5"/>
+      <c r="C835" s="6"/>
     </row>
     <row r="836">
-      <c r="C836" s="5"/>
+      <c r="C836" s="6"/>
     </row>
     <row r="837">
-      <c r="C837" s="5"/>
+      <c r="C837" s="6"/>
     </row>
     <row r="838">
-      <c r="C838" s="5"/>
+      <c r="C838" s="6"/>
     </row>
     <row r="839">
-      <c r="C839" s="5"/>
+      <c r="C839" s="6"/>
     </row>
     <row r="840">
-      <c r="C840" s="5"/>
+      <c r="C840" s="6"/>
     </row>
     <row r="841">
-      <c r="C841" s="5"/>
+      <c r="C841" s="6"/>
     </row>
     <row r="842">
-      <c r="C842" s="5"/>
+      <c r="C842" s="6"/>
     </row>
     <row r="843">
-      <c r="C843" s="5"/>
+      <c r="C843" s="6"/>
     </row>
     <row r="844">
-      <c r="C844" s="5"/>
+      <c r="C844" s="6"/>
     </row>
     <row r="845">
-      <c r="C845" s="5"/>
+      <c r="C845" s="6"/>
     </row>
     <row r="846">
-      <c r="C846" s="5"/>
+      <c r="C846" s="6"/>
     </row>
     <row r="847">
-      <c r="C847" s="5"/>
+      <c r="C847" s="6"/>
     </row>
     <row r="848">
-      <c r="C848" s="5"/>
+      <c r="C848" s="6"/>
     </row>
     <row r="849">
-      <c r="C849" s="5"/>
+      <c r="C849" s="6"/>
     </row>
     <row r="850">
-      <c r="C850" s="5"/>
+      <c r="C850" s="6"/>
     </row>
     <row r="851">
-      <c r="C851" s="5"/>
+      <c r="C851" s="6"/>
     </row>
     <row r="852">
-      <c r="C852" s="5"/>
+      <c r="C852" s="6"/>
     </row>
     <row r="853">
-      <c r="C853" s="5"/>
+      <c r="C853" s="6"/>
     </row>
     <row r="854">
-      <c r="C854" s="5"/>
+      <c r="C854" s="6"/>
     </row>
     <row r="855">
-      <c r="C855" s="5"/>
+      <c r="C855" s="6"/>
     </row>
     <row r="856">
-      <c r="C856" s="5"/>
+      <c r="C856" s="6"/>
     </row>
     <row r="857">
-      <c r="C857" s="5"/>
+      <c r="C857" s="6"/>
     </row>
     <row r="858">
-      <c r="C858" s="5"/>
+      <c r="C858" s="6"/>
     </row>
     <row r="859">
-      <c r="C859" s="5"/>
+      <c r="C859" s="6"/>
     </row>
     <row r="860">
-      <c r="C860" s="5"/>
+      <c r="C860" s="6"/>
     </row>
     <row r="861">
-      <c r="C861" s="5"/>
+      <c r="C861" s="6"/>
     </row>
     <row r="862">
-      <c r="C862" s="5"/>
+      <c r="C862" s="6"/>
     </row>
     <row r="863">
-      <c r="C863" s="5"/>
+      <c r="C863" s="6"/>
     </row>
     <row r="864">
-      <c r="C864" s="5"/>
+      <c r="C864" s="6"/>
     </row>
     <row r="865">
-      <c r="C865" s="5"/>
+      <c r="C865" s="6"/>
     </row>
     <row r="866">
-      <c r="C866" s="5"/>
+      <c r="C866" s="6"/>
     </row>
     <row r="867">
-      <c r="C867" s="5"/>
+      <c r="C867" s="6"/>
     </row>
     <row r="868">
-      <c r="C868" s="5"/>
+      <c r="C868" s="6"/>
     </row>
     <row r="869">
-      <c r="C869" s="5"/>
+      <c r="C869" s="6"/>
     </row>
     <row r="870">
-      <c r="C870" s="5"/>
+      <c r="C870" s="6"/>
     </row>
     <row r="871">
-      <c r="C871" s="5"/>
+      <c r="C871" s="6"/>
     </row>
     <row r="872">
-      <c r="C872" s="5"/>
+      <c r="C872" s="6"/>
     </row>
     <row r="873">
-      <c r="C873" s="5"/>
+      <c r="C873" s="6"/>
     </row>
     <row r="874">
-      <c r="C874" s="5"/>
+      <c r="C874" s="6"/>
     </row>
     <row r="875">
-      <c r="C875" s="5"/>
+      <c r="C875" s="6"/>
     </row>
     <row r="876">
-      <c r="C876" s="5"/>
+      <c r="C876" s="6"/>
     </row>
     <row r="877">
-      <c r="C877" s="5"/>
+      <c r="C877" s="6"/>
     </row>
     <row r="878">
-      <c r="C878" s="5"/>
+      <c r="C878" s="6"/>
     </row>
     <row r="879">
-      <c r="C879" s="5"/>
+      <c r="C879" s="6"/>
     </row>
     <row r="880">
-      <c r="C880" s="5"/>
+      <c r="C880" s="6"/>
     </row>
     <row r="881">
-      <c r="C881" s="5"/>
+      <c r="C881" s="6"/>
     </row>
     <row r="882">
-      <c r="C882" s="5"/>
+      <c r="C882" s="6"/>
     </row>
     <row r="883">
-      <c r="C883" s="5"/>
+      <c r="C883" s="6"/>
     </row>
     <row r="884">
-      <c r="C884" s="5"/>
+      <c r="C884" s="6"/>
     </row>
     <row r="885">
-      <c r="C885" s="5"/>
+      <c r="C885" s="6"/>
     </row>
     <row r="886">
-      <c r="C886" s="5"/>
+      <c r="C886" s="6"/>
     </row>
     <row r="887">
-      <c r="C887" s="5"/>
+      <c r="C887" s="6"/>
     </row>
     <row r="888">
-      <c r="C888" s="5"/>
+      <c r="C888" s="6"/>
     </row>
     <row r="889">
-      <c r="C889" s="5"/>
+      <c r="C889" s="6"/>
     </row>
     <row r="890">
-      <c r="C890" s="5"/>
+      <c r="C890" s="6"/>
     </row>
     <row r="891">
-      <c r="C891" s="5"/>
+      <c r="C891" s="6"/>
     </row>
     <row r="892">
-      <c r="C892" s="5"/>
+      <c r="C892" s="6"/>
     </row>
     <row r="893">
-      <c r="C893" s="5"/>
+      <c r="C893" s="6"/>
     </row>
     <row r="894">
-      <c r="C894" s="5"/>
+      <c r="C894" s="6"/>
     </row>
     <row r="895">
-      <c r="C895" s="5"/>
+      <c r="C895" s="6"/>
     </row>
     <row r="896">
-      <c r="C896" s="5"/>
+      <c r="C896" s="6"/>
     </row>
     <row r="897">
-      <c r="C897" s="5"/>
+      <c r="C897" s="6"/>
     </row>
     <row r="898">
-      <c r="C898" s="5"/>
+      <c r="C898" s="6"/>
     </row>
     <row r="899">
-      <c r="C899" s="5"/>
+      <c r="C899" s="6"/>
     </row>
     <row r="900">
-      <c r="C900" s="5"/>
+      <c r="C900" s="6"/>
     </row>
     <row r="901">
-      <c r="C901" s="5"/>
+      <c r="C901" s="6"/>
     </row>
     <row r="902">
-      <c r="C902" s="5"/>
+      <c r="C902" s="6"/>
     </row>
     <row r="903">
-      <c r="C903" s="5"/>
+      <c r="C903" s="6"/>
     </row>
     <row r="904">
-      <c r="C904" s="5"/>
+      <c r="C904" s="6"/>
     </row>
     <row r="905">
-      <c r="C905" s="5"/>
+      <c r="C905" s="6"/>
     </row>
     <row r="906">
-      <c r="C906" s="5"/>
+      <c r="C906" s="6"/>
     </row>
     <row r="907">
-      <c r="C907" s="5"/>
+      <c r="C907" s="6"/>
     </row>
     <row r="908">
-      <c r="C908" s="5"/>
+      <c r="C908" s="6"/>
     </row>
     <row r="909">
-      <c r="C909" s="5"/>
+      <c r="C909" s="6"/>
     </row>
     <row r="910">
-      <c r="C910" s="5"/>
+      <c r="C910" s="6"/>
     </row>
     <row r="911">
-      <c r="C911" s="5"/>
+      <c r="C911" s="6"/>
     </row>
     <row r="912">
-      <c r="C912" s="5"/>
+      <c r="C912" s="6"/>
     </row>
     <row r="913">
-      <c r="C913" s="5"/>
+      <c r="C913" s="6"/>
     </row>
     <row r="914">
-      <c r="C914" s="5"/>
+      <c r="C914" s="6"/>
     </row>
     <row r="915">
-      <c r="C915" s="5"/>
+      <c r="C915" s="6"/>
     </row>
     <row r="916">
-      <c r="C916" s="5"/>
+      <c r="C916" s="6"/>
     </row>
     <row r="917">
-      <c r="C917" s="5"/>
+      <c r="C917" s="6"/>
     </row>
     <row r="918">
-      <c r="C918" s="5"/>
+      <c r="C918" s="6"/>
     </row>
     <row r="919">
-      <c r="C919" s="5"/>
+      <c r="C919" s="6"/>
     </row>
     <row r="920">
-      <c r="C920" s="5"/>
+      <c r="C920" s="6"/>
     </row>
     <row r="921">
-      <c r="C921" s="5"/>
+      <c r="C921" s="6"/>
     </row>
     <row r="922">
-      <c r="C922" s="5"/>
+      <c r="C922" s="6"/>
     </row>
     <row r="923">
-      <c r="C923" s="5"/>
+      <c r="C923" s="6"/>
     </row>
     <row r="924">
-      <c r="C924" s="5"/>
+      <c r="C924" s="6"/>
     </row>
     <row r="925">
-      <c r="C925" s="5"/>
+      <c r="C925" s="6"/>
     </row>
     <row r="926">
-      <c r="C926" s="5"/>
+      <c r="C926" s="6"/>
     </row>
     <row r="927">
-      <c r="C927" s="5"/>
+      <c r="C927" s="6"/>
     </row>
     <row r="928">
-      <c r="C928" s="5"/>
+      <c r="C928" s="6"/>
     </row>
     <row r="929">
-      <c r="C929" s="5"/>
+      <c r="C929" s="6"/>
     </row>
     <row r="930">
-      <c r="C930" s="5"/>
+      <c r="C930" s="6"/>
     </row>
     <row r="931">
-      <c r="C931" s="5"/>
+      <c r="C931" s="6"/>
     </row>
     <row r="932">
-      <c r="C932" s="5"/>
+      <c r="C932" s="6"/>
     </row>
     <row r="933">
-      <c r="C933" s="5"/>
+      <c r="C933" s="6"/>
     </row>
     <row r="934">
-      <c r="C934" s="5"/>
+      <c r="C934" s="6"/>
     </row>
     <row r="935">
-      <c r="C935" s="5"/>
+      <c r="C935" s="6"/>
     </row>
     <row r="936">
-      <c r="C936" s="5"/>
+      <c r="C936" s="6"/>
     </row>
     <row r="937">
-      <c r="C937" s="5"/>
+      <c r="C937" s="6"/>
     </row>
     <row r="938">
-      <c r="C938" s="5"/>
+      <c r="C938" s="6"/>
     </row>
     <row r="939">
-      <c r="C939" s="5"/>
+      <c r="C939" s="6"/>
     </row>
     <row r="940">
-      <c r="C940" s="5"/>
+      <c r="C940" s="6"/>
     </row>
     <row r="941">
-      <c r="C941" s="5"/>
+      <c r="C941" s="6"/>
     </row>
     <row r="942">
-      <c r="C942" s="5"/>
+      <c r="C942" s="6"/>
     </row>
     <row r="943">
-      <c r="C943" s="5"/>
+      <c r="C943" s="6"/>
     </row>
     <row r="944">
-      <c r="C944" s="5"/>
+      <c r="C944" s="6"/>
     </row>
     <row r="945">
-      <c r="C945" s="5"/>
+      <c r="C945" s="6"/>
     </row>
     <row r="946">
-      <c r="C946" s="5"/>
+      <c r="C946" s="6"/>
     </row>
     <row r="947">
-      <c r="C947" s="5"/>
+      <c r="C947" s="6"/>
     </row>
     <row r="948">
-      <c r="C948" s="5"/>
+      <c r="C948" s="6"/>
     </row>
     <row r="949">
-      <c r="C949" s="5"/>
+      <c r="C949" s="6"/>
     </row>
     <row r="950">
-      <c r="C950" s="5"/>
+      <c r="C950" s="6"/>
     </row>
     <row r="951">
-      <c r="C951" s="5"/>
+      <c r="C951" s="6"/>
     </row>
     <row r="952">
-      <c r="C952" s="5"/>
+      <c r="C952" s="6"/>
     </row>
     <row r="953">
-      <c r="C953" s="5"/>
+      <c r="C953" s="6"/>
     </row>
     <row r="954">
-      <c r="C954" s="5"/>
+      <c r="C954" s="6"/>
     </row>
     <row r="955">
-      <c r="C955" s="5"/>
+      <c r="C955" s="6"/>
     </row>
     <row r="956">
-      <c r="C956" s="5"/>
+      <c r="C956" s="6"/>
     </row>
     <row r="957">
-      <c r="C957" s="5"/>
+      <c r="C957" s="6"/>
     </row>
     <row r="958">
-      <c r="C958" s="5"/>
+      <c r="C958" s="6"/>
     </row>
     <row r="959">
-      <c r="C959" s="5"/>
+      <c r="C959" s="6"/>
     </row>
     <row r="960">
-      <c r="C960" s="5"/>
+      <c r="C960" s="6"/>
     </row>
     <row r="961">
-      <c r="C961" s="5"/>
+      <c r="C961" s="6"/>
     </row>
     <row r="962">
-      <c r="C962" s="5"/>
+      <c r="C962" s="6"/>
     </row>
     <row r="963">
-      <c r="C963" s="5"/>
+      <c r="C963" s="6"/>
     </row>
     <row r="964">
-      <c r="C964" s="5"/>
+      <c r="C964" s="6"/>
     </row>
     <row r="965">
-      <c r="C965" s="5"/>
+      <c r="C965" s="6"/>
     </row>
     <row r="966">
-      <c r="C966" s="5"/>
+      <c r="C966" s="6"/>
     </row>
     <row r="967">
-      <c r="C967" s="5"/>
+      <c r="C967" s="6"/>
     </row>
     <row r="968">
-      <c r="C968" s="5"/>
+      <c r="C968" s="6"/>
     </row>
     <row r="969">
-      <c r="C969" s="5"/>
+      <c r="C969" s="6"/>
     </row>
     <row r="970">
-      <c r="C970" s="5"/>
+      <c r="C970" s="6"/>
     </row>
     <row r="971">
-      <c r="C971" s="5"/>
+      <c r="C971" s="6"/>
     </row>
     <row r="972">
-      <c r="C972" s="5"/>
+      <c r="C972" s="6"/>
     </row>
     <row r="973">
-      <c r="C973" s="5"/>
+      <c r="C973" s="6"/>
     </row>
     <row r="974">
-      <c r="C974" s="5"/>
+      <c r="C974" s="6"/>
     </row>
     <row r="975">
-      <c r="C975" s="5"/>
+      <c r="C975" s="6"/>
     </row>
     <row r="976">
-      <c r="C976" s="5"/>
+      <c r="C976" s="6"/>
     </row>
     <row r="977">
-      <c r="C977" s="5"/>
+      <c r="C977" s="6"/>
     </row>
     <row r="978">
-      <c r="C978" s="5"/>
+      <c r="C978" s="6"/>
     </row>
     <row r="979">
-      <c r="C979" s="5"/>
+      <c r="C979" s="6"/>
     </row>
     <row r="980">
-      <c r="C980" s="5"/>
+      <c r="C980" s="6"/>
     </row>
     <row r="981">
-      <c r="C981" s="5"/>
+      <c r="C981" s="6"/>
     </row>
     <row r="982">
-      <c r="C982" s="5"/>
+      <c r="C982" s="6"/>
     </row>
     <row r="983">
-      <c r="C983" s="5"/>
+      <c r="C983" s="6"/>
     </row>
     <row r="984">
-      <c r="C984" s="5"/>
+      <c r="C984" s="6"/>
     </row>
     <row r="985">
-      <c r="C985" s="5"/>
+      <c r="C985" s="6"/>
     </row>
     <row r="986">
-      <c r="C986" s="5"/>
+      <c r="C986" s="6"/>
     </row>
     <row r="987">
-      <c r="C987" s="5"/>
+      <c r="C987" s="6"/>
     </row>
     <row r="988">
-      <c r="C988" s="5"/>
+      <c r="C988" s="6"/>
     </row>
     <row r="989">
-      <c r="C989" s="5"/>
+      <c r="C989" s="6"/>
     </row>
     <row r="990">
-      <c r="C990" s="5"/>
+      <c r="C990" s="6"/>
     </row>
     <row r="991">
-      <c r="C991" s="5"/>
+      <c r="C991" s="6"/>
     </row>
     <row r="992">
-      <c r="C992" s="5"/>
+      <c r="C992" s="6"/>
     </row>
     <row r="993">
-      <c r="C993" s="5"/>
+      <c r="C993" s="6"/>
     </row>
     <row r="994">
-      <c r="C994" s="5"/>
+      <c r="C994" s="6"/>
     </row>
     <row r="995">
-      <c r="C995" s="5"/>
+      <c r="C995" s="6"/>
     </row>
     <row r="996">
-      <c r="C996" s="5"/>
+      <c r="C996" s="6"/>
     </row>
     <row r="997">
-      <c r="C997" s="5"/>
+      <c r="C997" s="6"/>
     </row>
     <row r="998">
-      <c r="C998" s="5"/>
+      <c r="C998" s="6"/>
     </row>
     <row r="999">
-      <c r="C999" s="5"/>
+      <c r="C999" s="6"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="5"/>
+      <c r="C1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3639,14 +3880,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -3656,14 +3897,14 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>40.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -3673,11 +3914,11 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>30.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -3690,14 +3931,14 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>40.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3707,14 +3948,14 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>10.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -3724,14 +3965,14 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -3745,10 +3986,10 @@
         <v>0.75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -3762,10 +4003,10 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -3775,11 +4016,11 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -3789,9 +4030,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -3801,14 +4042,14 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -3818,14 +4059,14 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3835,14 +4076,14 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -3852,14 +4093,14 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -3869,14 +4110,14 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>0.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3886,11 +4127,11 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>2.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -3903,14 +4144,14 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>120.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -3920,11 +4161,11 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>2.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -3937,14 +4178,14 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -3958,10 +4199,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -3971,14 +4212,14 @@
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>8.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -3992,10 +4233,10 @@
         <v>0.25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -4005,14 +4246,14 @@
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>2.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -4022,11 +4263,11 @@
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
@@ -4039,14 +4280,14 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -4056,14 +4297,14 @@
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -4073,11 +4314,11 @@
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -4090,31 +4331,31 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>0.75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>1.0</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>62</v>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -4124,11 +4365,11 @@
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -4141,14 +4382,14 @@
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>0.75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -4158,14 +4399,14 @@
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>2.0</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>61</v>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -4175,14 +4416,14 @@
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>1.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -4192,14 +4433,14 @@
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>1.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -4209,2909 +4450,3331 @@
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>55</v>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" s="7"/>
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37">
-      <c r="C37" s="7"/>
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="38">
-      <c r="C38" s="7"/>
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39">
-      <c r="C39" s="7"/>
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
-      <c r="C40" s="7"/>
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41">
-      <c r="C41" s="7"/>
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42">
-      <c r="C42" s="7"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43">
-      <c r="C43" s="7"/>
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44">
-      <c r="C44" s="7"/>
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45">
-      <c r="C45" s="7"/>
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46">
-      <c r="C46" s="7"/>
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47">
-      <c r="C47" s="7"/>
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48">
-      <c r="C48" s="7"/>
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49">
-      <c r="C49" s="7"/>
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
-      <c r="C50" s="7"/>
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="51">
-      <c r="C51" s="7"/>
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52">
-      <c r="C52" s="7"/>
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="53">
-      <c r="C53" s="7"/>
+      <c r="A53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
-      <c r="C54" s="7"/>
+      <c r="A54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="55">
-      <c r="C55" s="7"/>
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56">
-      <c r="C56" s="7"/>
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="57">
-      <c r="C57" s="7"/>
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58">
-      <c r="C58" s="7"/>
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
-      <c r="C59" s="7"/>
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="60">
-      <c r="C60" s="7"/>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61">
-      <c r="C61" s="7"/>
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
-      <c r="C62" s="7"/>
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="63">
-      <c r="C63" s="7"/>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64">
-      <c r="C64" s="7"/>
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
-      <c r="C65" s="7"/>
+      <c r="C65" s="8"/>
     </row>
     <row r="66">
-      <c r="C66" s="7"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67">
-      <c r="C67" s="7"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68">
-      <c r="C68" s="7"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69">
-      <c r="C69" s="7"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70">
-      <c r="C70" s="7"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71">
-      <c r="C71" s="7"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72">
-      <c r="C72" s="7"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73">
-      <c r="C73" s="7"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74">
-      <c r="C74" s="7"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75">
-      <c r="C75" s="7"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76">
-      <c r="C76" s="7"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77">
-      <c r="C77" s="7"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78">
-      <c r="C78" s="7"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79">
-      <c r="C79" s="7"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80">
-      <c r="C80" s="7"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81">
-      <c r="C81" s="7"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82">
-      <c r="C82" s="7"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83">
-      <c r="C83" s="7"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84">
-      <c r="C84" s="7"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85">
-      <c r="C85" s="7"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86">
-      <c r="C86" s="7"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87">
-      <c r="C87" s="7"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88">
-      <c r="C88" s="7"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89">
-      <c r="C89" s="7"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90">
-      <c r="C90" s="7"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91">
-      <c r="C91" s="7"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92">
-      <c r="C92" s="7"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93">
-      <c r="C93" s="7"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94">
-      <c r="C94" s="7"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95">
-      <c r="C95" s="7"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96">
-      <c r="C96" s="7"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97">
-      <c r="C97" s="7"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98">
-      <c r="C98" s="7"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99">
-      <c r="C99" s="7"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100">
-      <c r="C100" s="7"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101">
-      <c r="C101" s="7"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102">
-      <c r="C102" s="7"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
-      <c r="C103" s="7"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104">
-      <c r="C104" s="7"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105">
-      <c r="C105" s="7"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106">
-      <c r="C106" s="7"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107">
-      <c r="C107" s="7"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108">
-      <c r="C108" s="7"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109">
-      <c r="C109" s="7"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110">
-      <c r="C110" s="7"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111">
-      <c r="C111" s="7"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112">
-      <c r="C112" s="7"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113">
-      <c r="C113" s="7"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114">
-      <c r="C114" s="7"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115">
-      <c r="C115" s="7"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116">
-      <c r="C116" s="7"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117">
-      <c r="C117" s="7"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118">
-      <c r="C118" s="7"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119">
-      <c r="C119" s="7"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120">
-      <c r="C120" s="7"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121">
-      <c r="C121" s="7"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122">
-      <c r="C122" s="7"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123">
-      <c r="C123" s="7"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124">
-      <c r="C124" s="7"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125">
-      <c r="C125" s="7"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126">
-      <c r="C126" s="7"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127">
-      <c r="C127" s="7"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
-      <c r="C128" s="7"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
-      <c r="C129" s="7"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
-      <c r="C130" s="7"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
-      <c r="C131" s="7"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
-      <c r="C132" s="7"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
-      <c r="C133" s="7"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="C134" s="7"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135">
-      <c r="C135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
-      <c r="C136" s="7"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
-      <c r="C137" s="7"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
-      <c r="C138" s="7"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
-      <c r="C139" s="7"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
-      <c r="C140" s="7"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="C141" s="7"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142">
-      <c r="C142" s="7"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
-      <c r="C143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
-      <c r="C144" s="7"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
-      <c r="C145" s="7"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
-      <c r="C146" s="7"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
-      <c r="C147" s="7"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
-      <c r="C148" s="7"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
-      <c r="C149" s="7"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="C150" s="7"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151">
-      <c r="C151" s="7"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
-      <c r="C152" s="7"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
-      <c r="C153" s="7"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
-      <c r="C154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
-      <c r="C155" s="7"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
-      <c r="C156" s="7"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="C157" s="7"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158">
-      <c r="C158" s="7"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
-      <c r="C159" s="7"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
-      <c r="C160" s="7"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
-      <c r="C161" s="7"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
-      <c r="C162" s="7"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
-      <c r="C163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
-      <c r="C164" s="7"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
-      <c r="C165" s="7"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
-      <c r="C166" s="7"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="C167" s="7"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168">
-      <c r="C168" s="7"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="C169" s="7"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="C170" s="7"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="C171" s="7"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="C172" s="7"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="C173" s="7"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174">
-      <c r="C174" s="7"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175">
-      <c r="C175" s="7"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176">
-      <c r="C176" s="7"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177">
-      <c r="C177" s="7"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178">
-      <c r="C178" s="7"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179">
-      <c r="C179" s="7"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180">
-      <c r="C180" s="7"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181">
-      <c r="C181" s="7"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182">
-      <c r="C182" s="7"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183">
-      <c r="C183" s="7"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184">
-      <c r="C184" s="7"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185">
-      <c r="C185" s="7"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186">
-      <c r="C186" s="7"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187">
-      <c r="C187" s="7"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188">
-      <c r="C188" s="7"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189">
-      <c r="C189" s="7"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190">
-      <c r="C190" s="7"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191">
-      <c r="C191" s="7"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192">
-      <c r="C192" s="7"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193">
-      <c r="C193" s="7"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194">
-      <c r="C194" s="7"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195">
-      <c r="C195" s="7"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196">
-      <c r="C196" s="7"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197">
-      <c r="C197" s="7"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198">
-      <c r="C198" s="7"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199">
-      <c r="C199" s="7"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200">
-      <c r="C200" s="7"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201">
-      <c r="C201" s="7"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202">
-      <c r="C202" s="7"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203">
-      <c r="C203" s="7"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204">
-      <c r="C204" s="7"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205">
-      <c r="C205" s="7"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206">
-      <c r="C206" s="7"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207">
-      <c r="C207" s="7"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208">
-      <c r="C208" s="7"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209">
-      <c r="C209" s="7"/>
+      <c r="C209" s="8"/>
     </row>
     <row r="210">
-      <c r="C210" s="7"/>
+      <c r="C210" s="8"/>
     </row>
     <row r="211">
-      <c r="C211" s="7"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212">
-      <c r="C212" s="7"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213">
-      <c r="C213" s="7"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214">
-      <c r="C214" s="7"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215">
-      <c r="C215" s="7"/>
+      <c r="C215" s="8"/>
     </row>
     <row r="216">
-      <c r="C216" s="7"/>
+      <c r="C216" s="8"/>
     </row>
     <row r="217">
-      <c r="C217" s="7"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218">
-      <c r="C218" s="7"/>
+      <c r="C218" s="8"/>
     </row>
     <row r="219">
-      <c r="C219" s="7"/>
+      <c r="C219" s="8"/>
     </row>
     <row r="220">
-      <c r="C220" s="7"/>
+      <c r="C220" s="8"/>
     </row>
     <row r="221">
-      <c r="C221" s="7"/>
+      <c r="C221" s="8"/>
     </row>
     <row r="222">
-      <c r="C222" s="7"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223">
-      <c r="C223" s="7"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224">
-      <c r="C224" s="7"/>
+      <c r="C224" s="8"/>
     </row>
     <row r="225">
-      <c r="C225" s="7"/>
+      <c r="C225" s="8"/>
     </row>
     <row r="226">
-      <c r="C226" s="7"/>
+      <c r="C226" s="8"/>
     </row>
     <row r="227">
-      <c r="C227" s="7"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228">
-      <c r="C228" s="7"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229">
-      <c r="C229" s="7"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230">
-      <c r="C230" s="7"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231">
-      <c r="C231" s="7"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232">
-      <c r="C232" s="7"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233">
-      <c r="C233" s="7"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234">
-      <c r="C234" s="7"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235">
-      <c r="C235" s="7"/>
+      <c r="C235" s="8"/>
     </row>
     <row r="236">
-      <c r="C236" s="7"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237">
-      <c r="C237" s="7"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238">
-      <c r="C238" s="7"/>
+      <c r="C238" s="8"/>
     </row>
     <row r="239">
-      <c r="C239" s="7"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240">
-      <c r="C240" s="7"/>
+      <c r="C240" s="8"/>
     </row>
     <row r="241">
-      <c r="C241" s="7"/>
+      <c r="C241" s="8"/>
     </row>
     <row r="242">
-      <c r="C242" s="7"/>
+      <c r="C242" s="8"/>
     </row>
     <row r="243">
-      <c r="C243" s="7"/>
+      <c r="C243" s="8"/>
     </row>
     <row r="244">
-      <c r="C244" s="7"/>
+      <c r="C244" s="8"/>
     </row>
     <row r="245">
-      <c r="C245" s="7"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246">
-      <c r="C246" s="7"/>
+      <c r="C246" s="8"/>
     </row>
     <row r="247">
-      <c r="C247" s="7"/>
+      <c r="C247" s="8"/>
     </row>
     <row r="248">
-      <c r="C248" s="7"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249">
-      <c r="C249" s="7"/>
+      <c r="C249" s="8"/>
     </row>
     <row r="250">
-      <c r="C250" s="7"/>
+      <c r="C250" s="8"/>
     </row>
     <row r="251">
-      <c r="C251" s="7"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252">
-      <c r="C252" s="7"/>
+      <c r="C252" s="8"/>
     </row>
     <row r="253">
-      <c r="C253" s="7"/>
+      <c r="C253" s="8"/>
     </row>
     <row r="254">
-      <c r="C254" s="7"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255">
-      <c r="C255" s="7"/>
+      <c r="C255" s="8"/>
     </row>
     <row r="256">
-      <c r="C256" s="7"/>
+      <c r="C256" s="8"/>
     </row>
     <row r="257">
-      <c r="C257" s="7"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258">
-      <c r="C258" s="7"/>
+      <c r="C258" s="8"/>
     </row>
     <row r="259">
-      <c r="C259" s="7"/>
+      <c r="C259" s="8"/>
     </row>
     <row r="260">
-      <c r="C260" s="7"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261">
-      <c r="C261" s="7"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262">
-      <c r="C262" s="7"/>
+      <c r="C262" s="8"/>
     </row>
     <row r="263">
-      <c r="C263" s="7"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264">
-      <c r="C264" s="7"/>
+      <c r="C264" s="8"/>
     </row>
     <row r="265">
-      <c r="C265" s="7"/>
+      <c r="C265" s="8"/>
     </row>
     <row r="266">
-      <c r="C266" s="7"/>
+      <c r="C266" s="8"/>
     </row>
     <row r="267">
-      <c r="C267" s="7"/>
+      <c r="C267" s="8"/>
     </row>
     <row r="268">
-      <c r="C268" s="7"/>
+      <c r="C268" s="8"/>
     </row>
     <row r="269">
-      <c r="C269" s="7"/>
+      <c r="C269" s="8"/>
     </row>
     <row r="270">
-      <c r="C270" s="7"/>
+      <c r="C270" s="8"/>
     </row>
     <row r="271">
-      <c r="C271" s="7"/>
+      <c r="C271" s="8"/>
     </row>
     <row r="272">
-      <c r="C272" s="7"/>
+      <c r="C272" s="8"/>
     </row>
     <row r="273">
-      <c r="C273" s="7"/>
+      <c r="C273" s="8"/>
     </row>
     <row r="274">
-      <c r="C274" s="7"/>
+      <c r="C274" s="8"/>
     </row>
     <row r="275">
-      <c r="C275" s="7"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276">
-      <c r="C276" s="7"/>
+      <c r="C276" s="8"/>
     </row>
     <row r="277">
-      <c r="C277" s="7"/>
+      <c r="C277" s="8"/>
     </row>
     <row r="278">
-      <c r="C278" s="7"/>
+      <c r="C278" s="8"/>
     </row>
     <row r="279">
-      <c r="C279" s="7"/>
+      <c r="C279" s="8"/>
     </row>
     <row r="280">
-      <c r="C280" s="7"/>
+      <c r="C280" s="8"/>
     </row>
     <row r="281">
-      <c r="C281" s="7"/>
+      <c r="C281" s="8"/>
     </row>
     <row r="282">
-      <c r="C282" s="7"/>
+      <c r="C282" s="8"/>
     </row>
     <row r="283">
-      <c r="C283" s="7"/>
+      <c r="C283" s="8"/>
     </row>
     <row r="284">
-      <c r="C284" s="7"/>
+      <c r="C284" s="8"/>
     </row>
     <row r="285">
-      <c r="C285" s="7"/>
+      <c r="C285" s="8"/>
     </row>
     <row r="286">
-      <c r="C286" s="7"/>
+      <c r="C286" s="8"/>
     </row>
     <row r="287">
-      <c r="C287" s="7"/>
+      <c r="C287" s="8"/>
     </row>
     <row r="288">
-      <c r="C288" s="7"/>
+      <c r="C288" s="8"/>
     </row>
     <row r="289">
-      <c r="C289" s="7"/>
+      <c r="C289" s="8"/>
     </row>
     <row r="290">
-      <c r="C290" s="7"/>
+      <c r="C290" s="8"/>
     </row>
     <row r="291">
-      <c r="C291" s="7"/>
+      <c r="C291" s="8"/>
     </row>
     <row r="292">
-      <c r="C292" s="7"/>
+      <c r="C292" s="8"/>
     </row>
     <row r="293">
-      <c r="C293" s="7"/>
+      <c r="C293" s="8"/>
     </row>
     <row r="294">
-      <c r="C294" s="7"/>
+      <c r="C294" s="8"/>
     </row>
     <row r="295">
-      <c r="C295" s="7"/>
+      <c r="C295" s="8"/>
     </row>
     <row r="296">
-      <c r="C296" s="7"/>
+      <c r="C296" s="8"/>
     </row>
     <row r="297">
-      <c r="C297" s="7"/>
+      <c r="C297" s="8"/>
     </row>
     <row r="298">
-      <c r="C298" s="7"/>
+      <c r="C298" s="8"/>
     </row>
     <row r="299">
-      <c r="C299" s="7"/>
+      <c r="C299" s="8"/>
     </row>
     <row r="300">
-      <c r="C300" s="7"/>
+      <c r="C300" s="8"/>
     </row>
     <row r="301">
-      <c r="C301" s="7"/>
+      <c r="C301" s="8"/>
     </row>
     <row r="302">
-      <c r="C302" s="7"/>
+      <c r="C302" s="8"/>
     </row>
     <row r="303">
-      <c r="C303" s="7"/>
+      <c r="C303" s="8"/>
     </row>
     <row r="304">
-      <c r="C304" s="7"/>
+      <c r="C304" s="8"/>
     </row>
     <row r="305">
-      <c r="C305" s="7"/>
+      <c r="C305" s="8"/>
     </row>
     <row r="306">
-      <c r="C306" s="7"/>
+      <c r="C306" s="8"/>
     </row>
     <row r="307">
-      <c r="C307" s="7"/>
+      <c r="C307" s="8"/>
     </row>
     <row r="308">
-      <c r="C308" s="7"/>
+      <c r="C308" s="8"/>
     </row>
     <row r="309">
-      <c r="C309" s="7"/>
+      <c r="C309" s="8"/>
     </row>
     <row r="310">
-      <c r="C310" s="7"/>
+      <c r="C310" s="8"/>
     </row>
     <row r="311">
-      <c r="C311" s="7"/>
+      <c r="C311" s="8"/>
     </row>
     <row r="312">
-      <c r="C312" s="7"/>
+      <c r="C312" s="8"/>
     </row>
     <row r="313">
-      <c r="C313" s="7"/>
+      <c r="C313" s="8"/>
     </row>
     <row r="314">
-      <c r="C314" s="7"/>
+      <c r="C314" s="8"/>
     </row>
     <row r="315">
-      <c r="C315" s="7"/>
+      <c r="C315" s="8"/>
     </row>
     <row r="316">
-      <c r="C316" s="7"/>
+      <c r="C316" s="8"/>
     </row>
     <row r="317">
-      <c r="C317" s="7"/>
+      <c r="C317" s="8"/>
     </row>
     <row r="318">
-      <c r="C318" s="7"/>
+      <c r="C318" s="8"/>
     </row>
     <row r="319">
-      <c r="C319" s="7"/>
+      <c r="C319" s="8"/>
     </row>
     <row r="320">
-      <c r="C320" s="7"/>
+      <c r="C320" s="8"/>
     </row>
     <row r="321">
-      <c r="C321" s="7"/>
+      <c r="C321" s="8"/>
     </row>
     <row r="322">
-      <c r="C322" s="7"/>
+      <c r="C322" s="8"/>
     </row>
     <row r="323">
-      <c r="C323" s="7"/>
+      <c r="C323" s="8"/>
     </row>
     <row r="324">
-      <c r="C324" s="7"/>
+      <c r="C324" s="8"/>
     </row>
     <row r="325">
-      <c r="C325" s="7"/>
+      <c r="C325" s="8"/>
     </row>
     <row r="326">
-      <c r="C326" s="7"/>
+      <c r="C326" s="8"/>
     </row>
     <row r="327">
-      <c r="C327" s="7"/>
+      <c r="C327" s="8"/>
     </row>
     <row r="328">
-      <c r="C328" s="7"/>
+      <c r="C328" s="8"/>
     </row>
     <row r="329">
-      <c r="C329" s="7"/>
+      <c r="C329" s="8"/>
     </row>
     <row r="330">
-      <c r="C330" s="7"/>
+      <c r="C330" s="8"/>
     </row>
     <row r="331">
-      <c r="C331" s="7"/>
+      <c r="C331" s="8"/>
     </row>
     <row r="332">
-      <c r="C332" s="7"/>
+      <c r="C332" s="8"/>
     </row>
     <row r="333">
-      <c r="C333" s="7"/>
+      <c r="C333" s="8"/>
     </row>
     <row r="334">
-      <c r="C334" s="7"/>
+      <c r="C334" s="8"/>
     </row>
     <row r="335">
-      <c r="C335" s="7"/>
+      <c r="C335" s="8"/>
     </row>
     <row r="336">
-      <c r="C336" s="7"/>
+      <c r="C336" s="8"/>
     </row>
     <row r="337">
-      <c r="C337" s="7"/>
+      <c r="C337" s="8"/>
     </row>
     <row r="338">
-      <c r="C338" s="7"/>
+      <c r="C338" s="8"/>
     </row>
     <row r="339">
-      <c r="C339" s="7"/>
+      <c r="C339" s="8"/>
     </row>
     <row r="340">
-      <c r="C340" s="7"/>
+      <c r="C340" s="8"/>
     </row>
     <row r="341">
-      <c r="C341" s="7"/>
+      <c r="C341" s="8"/>
     </row>
     <row r="342">
-      <c r="C342" s="7"/>
+      <c r="C342" s="8"/>
     </row>
     <row r="343">
-      <c r="C343" s="7"/>
+      <c r="C343" s="8"/>
     </row>
     <row r="344">
-      <c r="C344" s="7"/>
+      <c r="C344" s="8"/>
     </row>
     <row r="345">
-      <c r="C345" s="7"/>
+      <c r="C345" s="8"/>
     </row>
     <row r="346">
-      <c r="C346" s="7"/>
+      <c r="C346" s="8"/>
     </row>
     <row r="347">
-      <c r="C347" s="7"/>
+      <c r="C347" s="8"/>
     </row>
     <row r="348">
-      <c r="C348" s="7"/>
+      <c r="C348" s="8"/>
     </row>
     <row r="349">
-      <c r="C349" s="7"/>
+      <c r="C349" s="8"/>
     </row>
     <row r="350">
-      <c r="C350" s="7"/>
+      <c r="C350" s="8"/>
     </row>
     <row r="351">
-      <c r="C351" s="7"/>
+      <c r="C351" s="8"/>
     </row>
     <row r="352">
-      <c r="C352" s="7"/>
+      <c r="C352" s="8"/>
     </row>
     <row r="353">
-      <c r="C353" s="7"/>
+      <c r="C353" s="8"/>
     </row>
     <row r="354">
-      <c r="C354" s="7"/>
+      <c r="C354" s="8"/>
     </row>
     <row r="355">
-      <c r="C355" s="7"/>
+      <c r="C355" s="8"/>
     </row>
     <row r="356">
-      <c r="C356" s="7"/>
+      <c r="C356" s="8"/>
     </row>
     <row r="357">
-      <c r="C357" s="7"/>
+      <c r="C357" s="8"/>
     </row>
     <row r="358">
-      <c r="C358" s="7"/>
+      <c r="C358" s="8"/>
     </row>
     <row r="359">
-      <c r="C359" s="7"/>
+      <c r="C359" s="8"/>
     </row>
     <row r="360">
-      <c r="C360" s="7"/>
+      <c r="C360" s="8"/>
     </row>
     <row r="361">
-      <c r="C361" s="7"/>
+      <c r="C361" s="8"/>
     </row>
     <row r="362">
-      <c r="C362" s="7"/>
+      <c r="C362" s="8"/>
     </row>
     <row r="363">
-      <c r="C363" s="7"/>
+      <c r="C363" s="8"/>
     </row>
     <row r="364">
-      <c r="C364" s="7"/>
+      <c r="C364" s="8"/>
     </row>
     <row r="365">
-      <c r="C365" s="7"/>
+      <c r="C365" s="8"/>
     </row>
     <row r="366">
-      <c r="C366" s="7"/>
+      <c r="C366" s="8"/>
     </row>
     <row r="367">
-      <c r="C367" s="7"/>
+      <c r="C367" s="8"/>
     </row>
     <row r="368">
-      <c r="C368" s="7"/>
+      <c r="C368" s="8"/>
     </row>
     <row r="369">
-      <c r="C369" s="7"/>
+      <c r="C369" s="8"/>
     </row>
     <row r="370">
-      <c r="C370" s="7"/>
+      <c r="C370" s="8"/>
     </row>
     <row r="371">
-      <c r="C371" s="7"/>
+      <c r="C371" s="8"/>
     </row>
     <row r="372">
-      <c r="C372" s="7"/>
+      <c r="C372" s="8"/>
     </row>
     <row r="373">
-      <c r="C373" s="7"/>
+      <c r="C373" s="8"/>
     </row>
     <row r="374">
-      <c r="C374" s="7"/>
+      <c r="C374" s="8"/>
     </row>
     <row r="375">
-      <c r="C375" s="7"/>
+      <c r="C375" s="8"/>
     </row>
     <row r="376">
-      <c r="C376" s="7"/>
+      <c r="C376" s="8"/>
     </row>
     <row r="377">
-      <c r="C377" s="7"/>
+      <c r="C377" s="8"/>
     </row>
     <row r="378">
-      <c r="C378" s="7"/>
+      <c r="C378" s="8"/>
     </row>
     <row r="379">
-      <c r="C379" s="7"/>
+      <c r="C379" s="8"/>
     </row>
     <row r="380">
-      <c r="C380" s="7"/>
+      <c r="C380" s="8"/>
     </row>
     <row r="381">
-      <c r="C381" s="7"/>
+      <c r="C381" s="8"/>
     </row>
     <row r="382">
-      <c r="C382" s="7"/>
+      <c r="C382" s="8"/>
     </row>
     <row r="383">
-      <c r="C383" s="7"/>
+      <c r="C383" s="8"/>
     </row>
     <row r="384">
-      <c r="C384" s="7"/>
+      <c r="C384" s="8"/>
     </row>
     <row r="385">
-      <c r="C385" s="7"/>
+      <c r="C385" s="8"/>
     </row>
     <row r="386">
-      <c r="C386" s="7"/>
+      <c r="C386" s="8"/>
     </row>
     <row r="387">
-      <c r="C387" s="7"/>
+      <c r="C387" s="8"/>
     </row>
     <row r="388">
-      <c r="C388" s="7"/>
+      <c r="C388" s="8"/>
     </row>
     <row r="389">
-      <c r="C389" s="7"/>
+      <c r="C389" s="8"/>
     </row>
     <row r="390">
-      <c r="C390" s="7"/>
+      <c r="C390" s="8"/>
     </row>
     <row r="391">
-      <c r="C391" s="7"/>
+      <c r="C391" s="8"/>
     </row>
     <row r="392">
-      <c r="C392" s="7"/>
+      <c r="C392" s="8"/>
     </row>
     <row r="393">
-      <c r="C393" s="7"/>
+      <c r="C393" s="8"/>
     </row>
     <row r="394">
-      <c r="C394" s="7"/>
+      <c r="C394" s="8"/>
     </row>
     <row r="395">
-      <c r="C395" s="7"/>
+      <c r="C395" s="8"/>
     </row>
     <row r="396">
-      <c r="C396" s="7"/>
+      <c r="C396" s="8"/>
     </row>
     <row r="397">
-      <c r="C397" s="7"/>
+      <c r="C397" s="8"/>
     </row>
     <row r="398">
-      <c r="C398" s="7"/>
+      <c r="C398" s="8"/>
     </row>
     <row r="399">
-      <c r="C399" s="7"/>
+      <c r="C399" s="8"/>
     </row>
     <row r="400">
-      <c r="C400" s="7"/>
+      <c r="C400" s="8"/>
     </row>
     <row r="401">
-      <c r="C401" s="7"/>
+      <c r="C401" s="8"/>
     </row>
     <row r="402">
-      <c r="C402" s="7"/>
+      <c r="C402" s="8"/>
     </row>
     <row r="403">
-      <c r="C403" s="7"/>
+      <c r="C403" s="8"/>
     </row>
     <row r="404">
-      <c r="C404" s="7"/>
+      <c r="C404" s="8"/>
     </row>
     <row r="405">
-      <c r="C405" s="7"/>
+      <c r="C405" s="8"/>
     </row>
     <row r="406">
-      <c r="C406" s="7"/>
+      <c r="C406" s="8"/>
     </row>
     <row r="407">
-      <c r="C407" s="7"/>
+      <c r="C407" s="8"/>
     </row>
     <row r="408">
-      <c r="C408" s="7"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409">
-      <c r="C409" s="7"/>
+      <c r="C409" s="8"/>
     </row>
     <row r="410">
-      <c r="C410" s="7"/>
+      <c r="C410" s="8"/>
     </row>
     <row r="411">
-      <c r="C411" s="7"/>
+      <c r="C411" s="8"/>
     </row>
     <row r="412">
-      <c r="C412" s="7"/>
+      <c r="C412" s="8"/>
     </row>
     <row r="413">
-      <c r="C413" s="7"/>
+      <c r="C413" s="8"/>
     </row>
     <row r="414">
-      <c r="C414" s="7"/>
+      <c r="C414" s="8"/>
     </row>
     <row r="415">
-      <c r="C415" s="7"/>
+      <c r="C415" s="8"/>
     </row>
     <row r="416">
-      <c r="C416" s="7"/>
+      <c r="C416" s="8"/>
     </row>
     <row r="417">
-      <c r="C417" s="7"/>
+      <c r="C417" s="8"/>
     </row>
     <row r="418">
-      <c r="C418" s="7"/>
+      <c r="C418" s="8"/>
     </row>
     <row r="419">
-      <c r="C419" s="7"/>
+      <c r="C419" s="8"/>
     </row>
     <row r="420">
-      <c r="C420" s="7"/>
+      <c r="C420" s="8"/>
     </row>
     <row r="421">
-      <c r="C421" s="7"/>
+      <c r="C421" s="8"/>
     </row>
     <row r="422">
-      <c r="C422" s="7"/>
+      <c r="C422" s="8"/>
     </row>
     <row r="423">
-      <c r="C423" s="7"/>
+      <c r="C423" s="8"/>
     </row>
     <row r="424">
-      <c r="C424" s="7"/>
+      <c r="C424" s="8"/>
     </row>
     <row r="425">
-      <c r="C425" s="7"/>
+      <c r="C425" s="8"/>
     </row>
     <row r="426">
-      <c r="C426" s="7"/>
+      <c r="C426" s="8"/>
     </row>
     <row r="427">
-      <c r="C427" s="7"/>
+      <c r="C427" s="8"/>
     </row>
     <row r="428">
-      <c r="C428" s="7"/>
+      <c r="C428" s="8"/>
     </row>
     <row r="429">
-      <c r="C429" s="7"/>
+      <c r="C429" s="8"/>
     </row>
     <row r="430">
-      <c r="C430" s="7"/>
+      <c r="C430" s="8"/>
     </row>
     <row r="431">
-      <c r="C431" s="7"/>
+      <c r="C431" s="8"/>
     </row>
     <row r="432">
-      <c r="C432" s="7"/>
+      <c r="C432" s="8"/>
     </row>
     <row r="433">
-      <c r="C433" s="7"/>
+      <c r="C433" s="8"/>
     </row>
     <row r="434">
-      <c r="C434" s="7"/>
+      <c r="C434" s="8"/>
     </row>
     <row r="435">
-      <c r="C435" s="7"/>
+      <c r="C435" s="8"/>
     </row>
     <row r="436">
-      <c r="C436" s="7"/>
+      <c r="C436" s="8"/>
     </row>
     <row r="437">
-      <c r="C437" s="7"/>
+      <c r="C437" s="8"/>
     </row>
     <row r="438">
-      <c r="C438" s="7"/>
+      <c r="C438" s="8"/>
     </row>
     <row r="439">
-      <c r="C439" s="7"/>
+      <c r="C439" s="8"/>
     </row>
     <row r="440">
-      <c r="C440" s="7"/>
+      <c r="C440" s="8"/>
     </row>
     <row r="441">
-      <c r="C441" s="7"/>
+      <c r="C441" s="8"/>
     </row>
     <row r="442">
-      <c r="C442" s="7"/>
+      <c r="C442" s="8"/>
     </row>
     <row r="443">
-      <c r="C443" s="7"/>
+      <c r="C443" s="8"/>
     </row>
     <row r="444">
-      <c r="C444" s="7"/>
+      <c r="C444" s="8"/>
     </row>
     <row r="445">
-      <c r="C445" s="7"/>
+      <c r="C445" s="8"/>
     </row>
     <row r="446">
-      <c r="C446" s="7"/>
+      <c r="C446" s="8"/>
     </row>
     <row r="447">
-      <c r="C447" s="7"/>
+      <c r="C447" s="8"/>
     </row>
     <row r="448">
-      <c r="C448" s="7"/>
+      <c r="C448" s="8"/>
     </row>
     <row r="449">
-      <c r="C449" s="7"/>
+      <c r="C449" s="8"/>
     </row>
     <row r="450">
-      <c r="C450" s="7"/>
+      <c r="C450" s="8"/>
     </row>
     <row r="451">
-      <c r="C451" s="7"/>
+      <c r="C451" s="8"/>
     </row>
     <row r="452">
-      <c r="C452" s="7"/>
+      <c r="C452" s="8"/>
     </row>
     <row r="453">
-      <c r="C453" s="7"/>
+      <c r="C453" s="8"/>
     </row>
     <row r="454">
-      <c r="C454" s="7"/>
+      <c r="C454" s="8"/>
     </row>
     <row r="455">
-      <c r="C455" s="7"/>
+      <c r="C455" s="8"/>
     </row>
     <row r="456">
-      <c r="C456" s="7"/>
+      <c r="C456" s="8"/>
     </row>
     <row r="457">
-      <c r="C457" s="7"/>
+      <c r="C457" s="8"/>
     </row>
     <row r="458">
-      <c r="C458" s="7"/>
+      <c r="C458" s="8"/>
     </row>
     <row r="459">
-      <c r="C459" s="7"/>
+      <c r="C459" s="8"/>
     </row>
     <row r="460">
-      <c r="C460" s="7"/>
+      <c r="C460" s="8"/>
     </row>
     <row r="461">
-      <c r="C461" s="7"/>
+      <c r="C461" s="8"/>
     </row>
     <row r="462">
-      <c r="C462" s="7"/>
+      <c r="C462" s="8"/>
     </row>
     <row r="463">
-      <c r="C463" s="7"/>
+      <c r="C463" s="8"/>
     </row>
     <row r="464">
-      <c r="C464" s="7"/>
+      <c r="C464" s="8"/>
     </row>
     <row r="465">
-      <c r="C465" s="7"/>
+      <c r="C465" s="8"/>
     </row>
     <row r="466">
-      <c r="C466" s="7"/>
+      <c r="C466" s="8"/>
     </row>
     <row r="467">
-      <c r="C467" s="7"/>
+      <c r="C467" s="8"/>
     </row>
     <row r="468">
-      <c r="C468" s="7"/>
+      <c r="C468" s="8"/>
     </row>
     <row r="469">
-      <c r="C469" s="7"/>
+      <c r="C469" s="8"/>
     </row>
     <row r="470">
-      <c r="C470" s="7"/>
+      <c r="C470" s="8"/>
     </row>
     <row r="471">
-      <c r="C471" s="7"/>
+      <c r="C471" s="8"/>
     </row>
     <row r="472">
-      <c r="C472" s="7"/>
+      <c r="C472" s="8"/>
     </row>
     <row r="473">
-      <c r="C473" s="7"/>
+      <c r="C473" s="8"/>
     </row>
     <row r="474">
-      <c r="C474" s="7"/>
+      <c r="C474" s="8"/>
     </row>
     <row r="475">
-      <c r="C475" s="7"/>
+      <c r="C475" s="8"/>
     </row>
     <row r="476">
-      <c r="C476" s="7"/>
+      <c r="C476" s="8"/>
     </row>
     <row r="477">
-      <c r="C477" s="7"/>
+      <c r="C477" s="8"/>
     </row>
     <row r="478">
-      <c r="C478" s="7"/>
+      <c r="C478" s="8"/>
     </row>
     <row r="479">
-      <c r="C479" s="7"/>
+      <c r="C479" s="8"/>
     </row>
     <row r="480">
-      <c r="C480" s="7"/>
+      <c r="C480" s="8"/>
     </row>
     <row r="481">
-      <c r="C481" s="7"/>
+      <c r="C481" s="8"/>
     </row>
     <row r="482">
-      <c r="C482" s="7"/>
+      <c r="C482" s="8"/>
     </row>
     <row r="483">
-      <c r="C483" s="7"/>
+      <c r="C483" s="8"/>
     </row>
     <row r="484">
-      <c r="C484" s="7"/>
+      <c r="C484" s="8"/>
     </row>
     <row r="485">
-      <c r="C485" s="7"/>
+      <c r="C485" s="8"/>
     </row>
     <row r="486">
-      <c r="C486" s="7"/>
+      <c r="C486" s="8"/>
     </row>
     <row r="487">
-      <c r="C487" s="7"/>
+      <c r="C487" s="8"/>
     </row>
     <row r="488">
-      <c r="C488" s="7"/>
+      <c r="C488" s="8"/>
     </row>
     <row r="489">
-      <c r="C489" s="7"/>
+      <c r="C489" s="8"/>
     </row>
     <row r="490">
-      <c r="C490" s="7"/>
+      <c r="C490" s="8"/>
     </row>
     <row r="491">
-      <c r="C491" s="7"/>
+      <c r="C491" s="8"/>
     </row>
     <row r="492">
-      <c r="C492" s="7"/>
+      <c r="C492" s="8"/>
     </row>
     <row r="493">
-      <c r="C493" s="7"/>
+      <c r="C493" s="8"/>
     </row>
     <row r="494">
-      <c r="C494" s="7"/>
+      <c r="C494" s="8"/>
     </row>
     <row r="495">
-      <c r="C495" s="7"/>
+      <c r="C495" s="8"/>
     </row>
     <row r="496">
-      <c r="C496" s="7"/>
+      <c r="C496" s="8"/>
     </row>
     <row r="497">
-      <c r="C497" s="7"/>
+      <c r="C497" s="8"/>
     </row>
     <row r="498">
-      <c r="C498" s="7"/>
+      <c r="C498" s="8"/>
     </row>
     <row r="499">
-      <c r="C499" s="7"/>
+      <c r="C499" s="8"/>
     </row>
     <row r="500">
-      <c r="C500" s="7"/>
+      <c r="C500" s="8"/>
     </row>
     <row r="501">
-      <c r="C501" s="7"/>
+      <c r="C501" s="8"/>
     </row>
     <row r="502">
-      <c r="C502" s="7"/>
+      <c r="C502" s="8"/>
     </row>
     <row r="503">
-      <c r="C503" s="7"/>
+      <c r="C503" s="8"/>
     </row>
     <row r="504">
-      <c r="C504" s="7"/>
+      <c r="C504" s="8"/>
     </row>
     <row r="505">
-      <c r="C505" s="7"/>
+      <c r="C505" s="8"/>
     </row>
     <row r="506">
-      <c r="C506" s="7"/>
+      <c r="C506" s="8"/>
     </row>
     <row r="507">
-      <c r="C507" s="7"/>
+      <c r="C507" s="8"/>
     </row>
     <row r="508">
-      <c r="C508" s="7"/>
+      <c r="C508" s="8"/>
     </row>
     <row r="509">
-      <c r="C509" s="7"/>
+      <c r="C509" s="8"/>
     </row>
     <row r="510">
-      <c r="C510" s="7"/>
+      <c r="C510" s="8"/>
     </row>
     <row r="511">
-      <c r="C511" s="7"/>
+      <c r="C511" s="8"/>
     </row>
     <row r="512">
-      <c r="C512" s="7"/>
+      <c r="C512" s="8"/>
     </row>
     <row r="513">
-      <c r="C513" s="7"/>
+      <c r="C513" s="8"/>
     </row>
     <row r="514">
-      <c r="C514" s="7"/>
+      <c r="C514" s="8"/>
     </row>
     <row r="515">
-      <c r="C515" s="7"/>
+      <c r="C515" s="8"/>
     </row>
     <row r="516">
-      <c r="C516" s="7"/>
+      <c r="C516" s="8"/>
     </row>
     <row r="517">
-      <c r="C517" s="7"/>
+      <c r="C517" s="8"/>
     </row>
     <row r="518">
-      <c r="C518" s="7"/>
+      <c r="C518" s="8"/>
     </row>
     <row r="519">
-      <c r="C519" s="7"/>
+      <c r="C519" s="8"/>
     </row>
     <row r="520">
-      <c r="C520" s="7"/>
+      <c r="C520" s="8"/>
     </row>
     <row r="521">
-      <c r="C521" s="7"/>
+      <c r="C521" s="8"/>
     </row>
     <row r="522">
-      <c r="C522" s="7"/>
+      <c r="C522" s="8"/>
     </row>
     <row r="523">
-      <c r="C523" s="7"/>
+      <c r="C523" s="8"/>
     </row>
     <row r="524">
-      <c r="C524" s="7"/>
+      <c r="C524" s="8"/>
     </row>
     <row r="525">
-      <c r="C525" s="7"/>
+      <c r="C525" s="8"/>
     </row>
     <row r="526">
-      <c r="C526" s="7"/>
+      <c r="C526" s="8"/>
     </row>
     <row r="527">
-      <c r="C527" s="7"/>
+      <c r="C527" s="8"/>
     </row>
     <row r="528">
-      <c r="C528" s="7"/>
+      <c r="C528" s="8"/>
     </row>
     <row r="529">
-      <c r="C529" s="7"/>
+      <c r="C529" s="8"/>
     </row>
     <row r="530">
-      <c r="C530" s="7"/>
+      <c r="C530" s="8"/>
     </row>
     <row r="531">
-      <c r="C531" s="7"/>
+      <c r="C531" s="8"/>
     </row>
     <row r="532">
-      <c r="C532" s="7"/>
+      <c r="C532" s="8"/>
     </row>
     <row r="533">
-      <c r="C533" s="7"/>
+      <c r="C533" s="8"/>
     </row>
     <row r="534">
-      <c r="C534" s="7"/>
+      <c r="C534" s="8"/>
     </row>
     <row r="535">
-      <c r="C535" s="7"/>
+      <c r="C535" s="8"/>
     </row>
     <row r="536">
-      <c r="C536" s="7"/>
+      <c r="C536" s="8"/>
     </row>
     <row r="537">
-      <c r="C537" s="7"/>
+      <c r="C537" s="8"/>
     </row>
     <row r="538">
-      <c r="C538" s="7"/>
+      <c r="C538" s="8"/>
     </row>
     <row r="539">
-      <c r="C539" s="7"/>
+      <c r="C539" s="8"/>
     </row>
     <row r="540">
-      <c r="C540" s="7"/>
+      <c r="C540" s="8"/>
     </row>
     <row r="541">
-      <c r="C541" s="7"/>
+      <c r="C541" s="8"/>
     </row>
     <row r="542">
-      <c r="C542" s="7"/>
+      <c r="C542" s="8"/>
     </row>
     <row r="543">
-      <c r="C543" s="7"/>
+      <c r="C543" s="8"/>
     </row>
     <row r="544">
-      <c r="C544" s="7"/>
+      <c r="C544" s="8"/>
     </row>
     <row r="545">
-      <c r="C545" s="7"/>
+      <c r="C545" s="8"/>
     </row>
     <row r="546">
-      <c r="C546" s="7"/>
+      <c r="C546" s="8"/>
     </row>
     <row r="547">
-      <c r="C547" s="7"/>
+      <c r="C547" s="8"/>
     </row>
     <row r="548">
-      <c r="C548" s="7"/>
+      <c r="C548" s="8"/>
     </row>
     <row r="549">
-      <c r="C549" s="7"/>
+      <c r="C549" s="8"/>
     </row>
     <row r="550">
-      <c r="C550" s="7"/>
+      <c r="C550" s="8"/>
     </row>
     <row r="551">
-      <c r="C551" s="7"/>
+      <c r="C551" s="8"/>
     </row>
     <row r="552">
-      <c r="C552" s="7"/>
+      <c r="C552" s="8"/>
     </row>
     <row r="553">
-      <c r="C553" s="7"/>
+      <c r="C553" s="8"/>
     </row>
     <row r="554">
-      <c r="C554" s="7"/>
+      <c r="C554" s="8"/>
     </row>
     <row r="555">
-      <c r="C555" s="7"/>
+      <c r="C555" s="8"/>
     </row>
     <row r="556">
-      <c r="C556" s="7"/>
+      <c r="C556" s="8"/>
     </row>
     <row r="557">
-      <c r="C557" s="7"/>
+      <c r="C557" s="8"/>
     </row>
     <row r="558">
-      <c r="C558" s="7"/>
+      <c r="C558" s="8"/>
     </row>
     <row r="559">
-      <c r="C559" s="7"/>
+      <c r="C559" s="8"/>
     </row>
     <row r="560">
-      <c r="C560" s="7"/>
+      <c r="C560" s="8"/>
     </row>
     <row r="561">
-      <c r="C561" s="7"/>
+      <c r="C561" s="8"/>
     </row>
     <row r="562">
-      <c r="C562" s="7"/>
+      <c r="C562" s="8"/>
     </row>
     <row r="563">
-      <c r="C563" s="7"/>
+      <c r="C563" s="8"/>
     </row>
     <row r="564">
-      <c r="C564" s="7"/>
+      <c r="C564" s="8"/>
     </row>
     <row r="565">
-      <c r="C565" s="7"/>
+      <c r="C565" s="8"/>
     </row>
     <row r="566">
-      <c r="C566" s="7"/>
+      <c r="C566" s="8"/>
     </row>
     <row r="567">
-      <c r="C567" s="7"/>
+      <c r="C567" s="8"/>
     </row>
     <row r="568">
-      <c r="C568" s="7"/>
+      <c r="C568" s="8"/>
     </row>
     <row r="569">
-      <c r="C569" s="7"/>
+      <c r="C569" s="8"/>
     </row>
     <row r="570">
-      <c r="C570" s="7"/>
+      <c r="C570" s="8"/>
     </row>
     <row r="571">
-      <c r="C571" s="7"/>
+      <c r="C571" s="8"/>
     </row>
     <row r="572">
-      <c r="C572" s="7"/>
+      <c r="C572" s="8"/>
     </row>
     <row r="573">
-      <c r="C573" s="7"/>
+      <c r="C573" s="8"/>
     </row>
     <row r="574">
-      <c r="C574" s="7"/>
+      <c r="C574" s="8"/>
     </row>
     <row r="575">
-      <c r="C575" s="7"/>
+      <c r="C575" s="8"/>
     </row>
     <row r="576">
-      <c r="C576" s="7"/>
+      <c r="C576" s="8"/>
     </row>
     <row r="577">
-      <c r="C577" s="7"/>
+      <c r="C577" s="8"/>
     </row>
     <row r="578">
-      <c r="C578" s="7"/>
+      <c r="C578" s="8"/>
     </row>
     <row r="579">
-      <c r="C579" s="7"/>
+      <c r="C579" s="8"/>
     </row>
     <row r="580">
-      <c r="C580" s="7"/>
+      <c r="C580" s="8"/>
     </row>
     <row r="581">
-      <c r="C581" s="7"/>
+      <c r="C581" s="8"/>
     </row>
     <row r="582">
-      <c r="C582" s="7"/>
+      <c r="C582" s="8"/>
     </row>
     <row r="583">
-      <c r="C583" s="7"/>
+      <c r="C583" s="8"/>
     </row>
     <row r="584">
-      <c r="C584" s="7"/>
+      <c r="C584" s="8"/>
     </row>
     <row r="585">
-      <c r="C585" s="7"/>
+      <c r="C585" s="8"/>
     </row>
     <row r="586">
-      <c r="C586" s="7"/>
+      <c r="C586" s="8"/>
     </row>
     <row r="587">
-      <c r="C587" s="7"/>
+      <c r="C587" s="8"/>
     </row>
     <row r="588">
-      <c r="C588" s="7"/>
+      <c r="C588" s="8"/>
     </row>
     <row r="589">
-      <c r="C589" s="7"/>
+      <c r="C589" s="8"/>
     </row>
     <row r="590">
-      <c r="C590" s="7"/>
+      <c r="C590" s="8"/>
     </row>
     <row r="591">
-      <c r="C591" s="7"/>
+      <c r="C591" s="8"/>
     </row>
     <row r="592">
-      <c r="C592" s="7"/>
+      <c r="C592" s="8"/>
     </row>
     <row r="593">
-      <c r="C593" s="7"/>
+      <c r="C593" s="8"/>
     </row>
     <row r="594">
-      <c r="C594" s="7"/>
+      <c r="C594" s="8"/>
     </row>
     <row r="595">
-      <c r="C595" s="7"/>
+      <c r="C595" s="8"/>
     </row>
     <row r="596">
-      <c r="C596" s="7"/>
+      <c r="C596" s="8"/>
     </row>
     <row r="597">
-      <c r="C597" s="7"/>
+      <c r="C597" s="8"/>
     </row>
     <row r="598">
-      <c r="C598" s="7"/>
+      <c r="C598" s="8"/>
     </row>
     <row r="599">
-      <c r="C599" s="7"/>
+      <c r="C599" s="8"/>
     </row>
     <row r="600">
-      <c r="C600" s="7"/>
+      <c r="C600" s="8"/>
     </row>
     <row r="601">
-      <c r="C601" s="7"/>
+      <c r="C601" s="8"/>
     </row>
     <row r="602">
-      <c r="C602" s="7"/>
+      <c r="C602" s="8"/>
     </row>
     <row r="603">
-      <c r="C603" s="7"/>
+      <c r="C603" s="8"/>
     </row>
     <row r="604">
-      <c r="C604" s="7"/>
+      <c r="C604" s="8"/>
     </row>
     <row r="605">
-      <c r="C605" s="7"/>
+      <c r="C605" s="8"/>
     </row>
     <row r="606">
-      <c r="C606" s="7"/>
+      <c r="C606" s="8"/>
     </row>
     <row r="607">
-      <c r="C607" s="7"/>
+      <c r="C607" s="8"/>
     </row>
     <row r="608">
-      <c r="C608" s="7"/>
+      <c r="C608" s="8"/>
     </row>
     <row r="609">
-      <c r="C609" s="7"/>
+      <c r="C609" s="8"/>
     </row>
     <row r="610">
-      <c r="C610" s="7"/>
+      <c r="C610" s="8"/>
     </row>
     <row r="611">
-      <c r="C611" s="7"/>
+      <c r="C611" s="8"/>
     </row>
     <row r="612">
-      <c r="C612" s="7"/>
+      <c r="C612" s="8"/>
     </row>
     <row r="613">
-      <c r="C613" s="7"/>
+      <c r="C613" s="8"/>
     </row>
     <row r="614">
-      <c r="C614" s="7"/>
+      <c r="C614" s="8"/>
     </row>
     <row r="615">
-      <c r="C615" s="7"/>
+      <c r="C615" s="8"/>
     </row>
     <row r="616">
-      <c r="C616" s="7"/>
+      <c r="C616" s="8"/>
     </row>
     <row r="617">
-      <c r="C617" s="7"/>
+      <c r="C617" s="8"/>
     </row>
     <row r="618">
-      <c r="C618" s="7"/>
+      <c r="C618" s="8"/>
     </row>
     <row r="619">
-      <c r="C619" s="7"/>
+      <c r="C619" s="8"/>
     </row>
     <row r="620">
-      <c r="C620" s="7"/>
+      <c r="C620" s="8"/>
     </row>
     <row r="621">
-      <c r="C621" s="7"/>
+      <c r="C621" s="8"/>
     </row>
     <row r="622">
-      <c r="C622" s="7"/>
+      <c r="C622" s="8"/>
     </row>
     <row r="623">
-      <c r="C623" s="7"/>
+      <c r="C623" s="8"/>
     </row>
     <row r="624">
-      <c r="C624" s="7"/>
+      <c r="C624" s="8"/>
     </row>
     <row r="625">
-      <c r="C625" s="7"/>
+      <c r="C625" s="8"/>
     </row>
     <row r="626">
-      <c r="C626" s="7"/>
+      <c r="C626" s="8"/>
     </row>
     <row r="627">
-      <c r="C627" s="7"/>
+      <c r="C627" s="8"/>
     </row>
     <row r="628">
-      <c r="C628" s="7"/>
+      <c r="C628" s="8"/>
     </row>
     <row r="629">
-      <c r="C629" s="7"/>
+      <c r="C629" s="8"/>
     </row>
     <row r="630">
-      <c r="C630" s="7"/>
+      <c r="C630" s="8"/>
     </row>
     <row r="631">
-      <c r="C631" s="7"/>
+      <c r="C631" s="8"/>
     </row>
     <row r="632">
-      <c r="C632" s="7"/>
+      <c r="C632" s="8"/>
     </row>
     <row r="633">
-      <c r="C633" s="7"/>
+      <c r="C633" s="8"/>
     </row>
     <row r="634">
-      <c r="C634" s="7"/>
+      <c r="C634" s="8"/>
     </row>
     <row r="635">
-      <c r="C635" s="7"/>
+      <c r="C635" s="8"/>
     </row>
     <row r="636">
-      <c r="C636" s="7"/>
+      <c r="C636" s="8"/>
     </row>
     <row r="637">
-      <c r="C637" s="7"/>
+      <c r="C637" s="8"/>
     </row>
     <row r="638">
-      <c r="C638" s="7"/>
+      <c r="C638" s="8"/>
     </row>
     <row r="639">
-      <c r="C639" s="7"/>
+      <c r="C639" s="8"/>
     </row>
     <row r="640">
-      <c r="C640" s="7"/>
+      <c r="C640" s="8"/>
     </row>
     <row r="641">
-      <c r="C641" s="7"/>
+      <c r="C641" s="8"/>
     </row>
     <row r="642">
-      <c r="C642" s="7"/>
+      <c r="C642" s="8"/>
     </row>
     <row r="643">
-      <c r="C643" s="7"/>
+      <c r="C643" s="8"/>
     </row>
     <row r="644">
-      <c r="C644" s="7"/>
+      <c r="C644" s="8"/>
     </row>
     <row r="645">
-      <c r="C645" s="7"/>
+      <c r="C645" s="8"/>
     </row>
     <row r="646">
-      <c r="C646" s="7"/>
+      <c r="C646" s="8"/>
     </row>
     <row r="647">
-      <c r="C647" s="7"/>
+      <c r="C647" s="8"/>
     </row>
     <row r="648">
-      <c r="C648" s="7"/>
+      <c r="C648" s="8"/>
     </row>
     <row r="649">
-      <c r="C649" s="7"/>
+      <c r="C649" s="8"/>
     </row>
     <row r="650">
-      <c r="C650" s="7"/>
+      <c r="C650" s="8"/>
     </row>
     <row r="651">
-      <c r="C651" s="7"/>
+      <c r="C651" s="8"/>
     </row>
     <row r="652">
-      <c r="C652" s="7"/>
+      <c r="C652" s="8"/>
     </row>
     <row r="653">
-      <c r="C653" s="7"/>
+      <c r="C653" s="8"/>
     </row>
     <row r="654">
-      <c r="C654" s="7"/>
+      <c r="C654" s="8"/>
     </row>
     <row r="655">
-      <c r="C655" s="7"/>
+      <c r="C655" s="8"/>
     </row>
     <row r="656">
-      <c r="C656" s="7"/>
+      <c r="C656" s="8"/>
     </row>
     <row r="657">
-      <c r="C657" s="7"/>
+      <c r="C657" s="8"/>
     </row>
     <row r="658">
-      <c r="C658" s="7"/>
+      <c r="C658" s="8"/>
     </row>
     <row r="659">
-      <c r="C659" s="7"/>
+      <c r="C659" s="8"/>
     </row>
     <row r="660">
-      <c r="C660" s="7"/>
+      <c r="C660" s="8"/>
     </row>
     <row r="661">
-      <c r="C661" s="7"/>
+      <c r="C661" s="8"/>
     </row>
     <row r="662">
-      <c r="C662" s="7"/>
+      <c r="C662" s="8"/>
     </row>
     <row r="663">
-      <c r="C663" s="7"/>
+      <c r="C663" s="8"/>
     </row>
     <row r="664">
-      <c r="C664" s="7"/>
+      <c r="C664" s="8"/>
     </row>
     <row r="665">
-      <c r="C665" s="7"/>
+      <c r="C665" s="8"/>
     </row>
     <row r="666">
-      <c r="C666" s="7"/>
+      <c r="C666" s="8"/>
     </row>
     <row r="667">
-      <c r="C667" s="7"/>
+      <c r="C667" s="8"/>
     </row>
     <row r="668">
-      <c r="C668" s="7"/>
+      <c r="C668" s="8"/>
     </row>
     <row r="669">
-      <c r="C669" s="7"/>
+      <c r="C669" s="8"/>
     </row>
     <row r="670">
-      <c r="C670" s="7"/>
+      <c r="C670" s="8"/>
     </row>
     <row r="671">
-      <c r="C671" s="7"/>
+      <c r="C671" s="8"/>
     </row>
     <row r="672">
-      <c r="C672" s="7"/>
+      <c r="C672" s="8"/>
     </row>
     <row r="673">
-      <c r="C673" s="7"/>
+      <c r="C673" s="8"/>
     </row>
     <row r="674">
-      <c r="C674" s="7"/>
+      <c r="C674" s="8"/>
     </row>
     <row r="675">
-      <c r="C675" s="7"/>
+      <c r="C675" s="8"/>
     </row>
     <row r="676">
-      <c r="C676" s="7"/>
+      <c r="C676" s="8"/>
     </row>
     <row r="677">
-      <c r="C677" s="7"/>
+      <c r="C677" s="8"/>
     </row>
     <row r="678">
-      <c r="C678" s="7"/>
+      <c r="C678" s="8"/>
     </row>
     <row r="679">
-      <c r="C679" s="7"/>
+      <c r="C679" s="8"/>
     </row>
     <row r="680">
-      <c r="C680" s="7"/>
+      <c r="C680" s="8"/>
     </row>
     <row r="681">
-      <c r="C681" s="7"/>
+      <c r="C681" s="8"/>
     </row>
     <row r="682">
-      <c r="C682" s="7"/>
+      <c r="C682" s="8"/>
     </row>
     <row r="683">
-      <c r="C683" s="7"/>
+      <c r="C683" s="8"/>
     </row>
     <row r="684">
-      <c r="C684" s="7"/>
+      <c r="C684" s="8"/>
     </row>
     <row r="685">
-      <c r="C685" s="7"/>
+      <c r="C685" s="8"/>
     </row>
     <row r="686">
-      <c r="C686" s="7"/>
+      <c r="C686" s="8"/>
     </row>
     <row r="687">
-      <c r="C687" s="7"/>
+      <c r="C687" s="8"/>
     </row>
     <row r="688">
-      <c r="C688" s="7"/>
+      <c r="C688" s="8"/>
     </row>
     <row r="689">
-      <c r="C689" s="7"/>
+      <c r="C689" s="8"/>
     </row>
     <row r="690">
-      <c r="C690" s="7"/>
+      <c r="C690" s="8"/>
     </row>
     <row r="691">
-      <c r="C691" s="7"/>
+      <c r="C691" s="8"/>
     </row>
     <row r="692">
-      <c r="C692" s="7"/>
+      <c r="C692" s="8"/>
     </row>
     <row r="693">
-      <c r="C693" s="7"/>
+      <c r="C693" s="8"/>
     </row>
     <row r="694">
-      <c r="C694" s="7"/>
+      <c r="C694" s="8"/>
     </row>
     <row r="695">
-      <c r="C695" s="7"/>
+      <c r="C695" s="8"/>
     </row>
     <row r="696">
-      <c r="C696" s="7"/>
+      <c r="C696" s="8"/>
     </row>
     <row r="697">
-      <c r="C697" s="7"/>
+      <c r="C697" s="8"/>
     </row>
     <row r="698">
-      <c r="C698" s="7"/>
+      <c r="C698" s="8"/>
     </row>
     <row r="699">
-      <c r="C699" s="7"/>
+      <c r="C699" s="8"/>
     </row>
     <row r="700">
-      <c r="C700" s="7"/>
+      <c r="C700" s="8"/>
     </row>
     <row r="701">
-      <c r="C701" s="7"/>
+      <c r="C701" s="8"/>
     </row>
     <row r="702">
-      <c r="C702" s="7"/>
+      <c r="C702" s="8"/>
     </row>
     <row r="703">
-      <c r="C703" s="7"/>
+      <c r="C703" s="8"/>
     </row>
     <row r="704">
-      <c r="C704" s="7"/>
+      <c r="C704" s="8"/>
     </row>
     <row r="705">
-      <c r="C705" s="7"/>
+      <c r="C705" s="8"/>
     </row>
     <row r="706">
-      <c r="C706" s="7"/>
+      <c r="C706" s="8"/>
     </row>
     <row r="707">
-      <c r="C707" s="7"/>
+      <c r="C707" s="8"/>
     </row>
     <row r="708">
-      <c r="C708" s="7"/>
+      <c r="C708" s="8"/>
     </row>
     <row r="709">
-      <c r="C709" s="7"/>
+      <c r="C709" s="8"/>
     </row>
     <row r="710">
-      <c r="C710" s="7"/>
+      <c r="C710" s="8"/>
     </row>
     <row r="711">
-      <c r="C711" s="7"/>
+      <c r="C711" s="8"/>
     </row>
     <row r="712">
-      <c r="C712" s="7"/>
+      <c r="C712" s="8"/>
     </row>
     <row r="713">
-      <c r="C713" s="7"/>
+      <c r="C713" s="8"/>
     </row>
     <row r="714">
-      <c r="C714" s="7"/>
+      <c r="C714" s="8"/>
     </row>
     <row r="715">
-      <c r="C715" s="7"/>
+      <c r="C715" s="8"/>
     </row>
     <row r="716">
-      <c r="C716" s="7"/>
+      <c r="C716" s="8"/>
     </row>
     <row r="717">
-      <c r="C717" s="7"/>
+      <c r="C717" s="8"/>
     </row>
     <row r="718">
-      <c r="C718" s="7"/>
+      <c r="C718" s="8"/>
     </row>
     <row r="719">
-      <c r="C719" s="7"/>
+      <c r="C719" s="8"/>
     </row>
     <row r="720">
-      <c r="C720" s="7"/>
+      <c r="C720" s="8"/>
     </row>
     <row r="721">
-      <c r="C721" s="7"/>
+      <c r="C721" s="8"/>
     </row>
     <row r="722">
-      <c r="C722" s="7"/>
+      <c r="C722" s="8"/>
     </row>
     <row r="723">
-      <c r="C723" s="7"/>
+      <c r="C723" s="8"/>
     </row>
     <row r="724">
-      <c r="C724" s="7"/>
+      <c r="C724" s="8"/>
     </row>
     <row r="725">
-      <c r="C725" s="7"/>
+      <c r="C725" s="8"/>
     </row>
     <row r="726">
-      <c r="C726" s="7"/>
+      <c r="C726" s="8"/>
     </row>
     <row r="727">
-      <c r="C727" s="7"/>
+      <c r="C727" s="8"/>
     </row>
     <row r="728">
-      <c r="C728" s="7"/>
+      <c r="C728" s="8"/>
     </row>
     <row r="729">
-      <c r="C729" s="7"/>
+      <c r="C729" s="8"/>
     </row>
     <row r="730">
-      <c r="C730" s="7"/>
+      <c r="C730" s="8"/>
     </row>
     <row r="731">
-      <c r="C731" s="7"/>
+      <c r="C731" s="8"/>
     </row>
     <row r="732">
-      <c r="C732" s="7"/>
+      <c r="C732" s="8"/>
     </row>
     <row r="733">
-      <c r="C733" s="7"/>
+      <c r="C733" s="8"/>
     </row>
     <row r="734">
-      <c r="C734" s="7"/>
+      <c r="C734" s="8"/>
     </row>
     <row r="735">
-      <c r="C735" s="7"/>
+      <c r="C735" s="8"/>
     </row>
     <row r="736">
-      <c r="C736" s="7"/>
+      <c r="C736" s="8"/>
     </row>
     <row r="737">
-      <c r="C737" s="7"/>
+      <c r="C737" s="8"/>
     </row>
     <row r="738">
-      <c r="C738" s="7"/>
+      <c r="C738" s="8"/>
     </row>
     <row r="739">
-      <c r="C739" s="7"/>
+      <c r="C739" s="8"/>
     </row>
     <row r="740">
-      <c r="C740" s="7"/>
+      <c r="C740" s="8"/>
     </row>
     <row r="741">
-      <c r="C741" s="7"/>
+      <c r="C741" s="8"/>
     </row>
     <row r="742">
-      <c r="C742" s="7"/>
+      <c r="C742" s="8"/>
     </row>
     <row r="743">
-      <c r="C743" s="7"/>
+      <c r="C743" s="8"/>
     </row>
     <row r="744">
-      <c r="C744" s="7"/>
+      <c r="C744" s="8"/>
     </row>
     <row r="745">
-      <c r="C745" s="7"/>
+      <c r="C745" s="8"/>
     </row>
     <row r="746">
-      <c r="C746" s="7"/>
+      <c r="C746" s="8"/>
     </row>
     <row r="747">
-      <c r="C747" s="7"/>
+      <c r="C747" s="8"/>
     </row>
     <row r="748">
-      <c r="C748" s="7"/>
+      <c r="C748" s="8"/>
     </row>
     <row r="749">
-      <c r="C749" s="7"/>
+      <c r="C749" s="8"/>
     </row>
     <row r="750">
-      <c r="C750" s="7"/>
+      <c r="C750" s="8"/>
     </row>
     <row r="751">
-      <c r="C751" s="7"/>
+      <c r="C751" s="8"/>
     </row>
     <row r="752">
-      <c r="C752" s="7"/>
+      <c r="C752" s="8"/>
     </row>
     <row r="753">
-      <c r="C753" s="7"/>
+      <c r="C753" s="8"/>
     </row>
     <row r="754">
-      <c r="C754" s="7"/>
+      <c r="C754" s="8"/>
     </row>
     <row r="755">
-      <c r="C755" s="7"/>
+      <c r="C755" s="8"/>
     </row>
     <row r="756">
-      <c r="C756" s="7"/>
+      <c r="C756" s="8"/>
     </row>
     <row r="757">
-      <c r="C757" s="7"/>
+      <c r="C757" s="8"/>
     </row>
     <row r="758">
-      <c r="C758" s="7"/>
+      <c r="C758" s="8"/>
     </row>
     <row r="759">
-      <c r="C759" s="7"/>
+      <c r="C759" s="8"/>
     </row>
     <row r="760">
-      <c r="C760" s="7"/>
+      <c r="C760" s="8"/>
     </row>
     <row r="761">
-      <c r="C761" s="7"/>
+      <c r="C761" s="8"/>
     </row>
     <row r="762">
-      <c r="C762" s="7"/>
+      <c r="C762" s="8"/>
     </row>
     <row r="763">
-      <c r="C763" s="7"/>
+      <c r="C763" s="8"/>
     </row>
     <row r="764">
-      <c r="C764" s="7"/>
+      <c r="C764" s="8"/>
     </row>
     <row r="765">
-      <c r="C765" s="7"/>
+      <c r="C765" s="8"/>
     </row>
     <row r="766">
-      <c r="C766" s="7"/>
+      <c r="C766" s="8"/>
     </row>
     <row r="767">
-      <c r="C767" s="7"/>
+      <c r="C767" s="8"/>
     </row>
     <row r="768">
-      <c r="C768" s="7"/>
+      <c r="C768" s="8"/>
     </row>
     <row r="769">
-      <c r="C769" s="7"/>
+      <c r="C769" s="8"/>
     </row>
     <row r="770">
-      <c r="C770" s="7"/>
+      <c r="C770" s="8"/>
     </row>
     <row r="771">
-      <c r="C771" s="7"/>
+      <c r="C771" s="8"/>
     </row>
     <row r="772">
-      <c r="C772" s="7"/>
+      <c r="C772" s="8"/>
     </row>
     <row r="773">
-      <c r="C773" s="7"/>
+      <c r="C773" s="8"/>
     </row>
     <row r="774">
-      <c r="C774" s="7"/>
+      <c r="C774" s="8"/>
     </row>
     <row r="775">
-      <c r="C775" s="7"/>
+      <c r="C775" s="8"/>
     </row>
     <row r="776">
-      <c r="C776" s="7"/>
+      <c r="C776" s="8"/>
     </row>
     <row r="777">
-      <c r="C777" s="7"/>
+      <c r="C777" s="8"/>
     </row>
     <row r="778">
-      <c r="C778" s="7"/>
+      <c r="C778" s="8"/>
     </row>
     <row r="779">
-      <c r="C779" s="7"/>
+      <c r="C779" s="8"/>
     </row>
     <row r="780">
-      <c r="C780" s="7"/>
+      <c r="C780" s="8"/>
     </row>
     <row r="781">
-      <c r="C781" s="7"/>
+      <c r="C781" s="8"/>
     </row>
     <row r="782">
-      <c r="C782" s="7"/>
+      <c r="C782" s="8"/>
     </row>
     <row r="783">
-      <c r="C783" s="7"/>
+      <c r="C783" s="8"/>
     </row>
     <row r="784">
-      <c r="C784" s="7"/>
+      <c r="C784" s="8"/>
     </row>
     <row r="785">
-      <c r="C785" s="7"/>
+      <c r="C785" s="8"/>
     </row>
     <row r="786">
-      <c r="C786" s="7"/>
+      <c r="C786" s="8"/>
     </row>
     <row r="787">
-      <c r="C787" s="7"/>
+      <c r="C787" s="8"/>
     </row>
     <row r="788">
-      <c r="C788" s="7"/>
+      <c r="C788" s="8"/>
     </row>
     <row r="789">
-      <c r="C789" s="7"/>
+      <c r="C789" s="8"/>
     </row>
     <row r="790">
-      <c r="C790" s="7"/>
+      <c r="C790" s="8"/>
     </row>
     <row r="791">
-      <c r="C791" s="7"/>
+      <c r="C791" s="8"/>
     </row>
     <row r="792">
-      <c r="C792" s="7"/>
+      <c r="C792" s="8"/>
     </row>
     <row r="793">
-      <c r="C793" s="7"/>
+      <c r="C793" s="8"/>
     </row>
     <row r="794">
-      <c r="C794" s="7"/>
+      <c r="C794" s="8"/>
     </row>
     <row r="795">
-      <c r="C795" s="7"/>
+      <c r="C795" s="8"/>
     </row>
     <row r="796">
-      <c r="C796" s="7"/>
+      <c r="C796" s="8"/>
     </row>
     <row r="797">
-      <c r="C797" s="7"/>
+      <c r="C797" s="8"/>
     </row>
     <row r="798">
-      <c r="C798" s="7"/>
+      <c r="C798" s="8"/>
     </row>
     <row r="799">
-      <c r="C799" s="7"/>
+      <c r="C799" s="8"/>
     </row>
     <row r="800">
-      <c r="C800" s="7"/>
+      <c r="C800" s="8"/>
     </row>
     <row r="801">
-      <c r="C801" s="7"/>
+      <c r="C801" s="8"/>
     </row>
     <row r="802">
-      <c r="C802" s="7"/>
+      <c r="C802" s="8"/>
     </row>
     <row r="803">
-      <c r="C803" s="7"/>
+      <c r="C803" s="8"/>
     </row>
     <row r="804">
-      <c r="C804" s="7"/>
+      <c r="C804" s="8"/>
     </row>
     <row r="805">
-      <c r="C805" s="7"/>
+      <c r="C805" s="8"/>
     </row>
     <row r="806">
-      <c r="C806" s="7"/>
+      <c r="C806" s="8"/>
     </row>
     <row r="807">
-      <c r="C807" s="7"/>
+      <c r="C807" s="8"/>
     </row>
     <row r="808">
-      <c r="C808" s="7"/>
+      <c r="C808" s="8"/>
     </row>
     <row r="809">
-      <c r="C809" s="7"/>
+      <c r="C809" s="8"/>
     </row>
     <row r="810">
-      <c r="C810" s="7"/>
+      <c r="C810" s="8"/>
     </row>
     <row r="811">
-      <c r="C811" s="7"/>
+      <c r="C811" s="8"/>
     </row>
     <row r="812">
-      <c r="C812" s="7"/>
+      <c r="C812" s="8"/>
     </row>
     <row r="813">
-      <c r="C813" s="7"/>
+      <c r="C813" s="8"/>
     </row>
     <row r="814">
-      <c r="C814" s="7"/>
+      <c r="C814" s="8"/>
     </row>
     <row r="815">
-      <c r="C815" s="7"/>
+      <c r="C815" s="8"/>
     </row>
     <row r="816">
-      <c r="C816" s="7"/>
+      <c r="C816" s="8"/>
     </row>
     <row r="817">
-      <c r="C817" s="7"/>
+      <c r="C817" s="8"/>
     </row>
     <row r="818">
-      <c r="C818" s="7"/>
+      <c r="C818" s="8"/>
     </row>
     <row r="819">
-      <c r="C819" s="7"/>
+      <c r="C819" s="8"/>
     </row>
     <row r="820">
-      <c r="C820" s="7"/>
+      <c r="C820" s="8"/>
     </row>
     <row r="821">
-      <c r="C821" s="7"/>
+      <c r="C821" s="8"/>
     </row>
     <row r="822">
-      <c r="C822" s="7"/>
+      <c r="C822" s="8"/>
     </row>
     <row r="823">
-      <c r="C823" s="7"/>
+      <c r="C823" s="8"/>
     </row>
     <row r="824">
-      <c r="C824" s="7"/>
+      <c r="C824" s="8"/>
     </row>
     <row r="825">
-      <c r="C825" s="7"/>
+      <c r="C825" s="8"/>
     </row>
     <row r="826">
-      <c r="C826" s="7"/>
+      <c r="C826" s="8"/>
     </row>
     <row r="827">
-      <c r="C827" s="7"/>
+      <c r="C827" s="8"/>
     </row>
     <row r="828">
-      <c r="C828" s="7"/>
+      <c r="C828" s="8"/>
     </row>
     <row r="829">
-      <c r="C829" s="7"/>
+      <c r="C829" s="8"/>
     </row>
     <row r="830">
-      <c r="C830" s="7"/>
+      <c r="C830" s="8"/>
     </row>
     <row r="831">
-      <c r="C831" s="7"/>
+      <c r="C831" s="8"/>
     </row>
     <row r="832">
-      <c r="C832" s="7"/>
+      <c r="C832" s="8"/>
     </row>
     <row r="833">
-      <c r="C833" s="7"/>
+      <c r="C833" s="8"/>
     </row>
     <row r="834">
-      <c r="C834" s="7"/>
+      <c r="C834" s="8"/>
     </row>
     <row r="835">
-      <c r="C835" s="7"/>
+      <c r="C835" s="8"/>
     </row>
     <row r="836">
-      <c r="C836" s="7"/>
+      <c r="C836" s="8"/>
     </row>
     <row r="837">
-      <c r="C837" s="7"/>
+      <c r="C837" s="8"/>
     </row>
     <row r="838">
-      <c r="C838" s="7"/>
+      <c r="C838" s="8"/>
     </row>
     <row r="839">
-      <c r="C839" s="7"/>
+      <c r="C839" s="8"/>
     </row>
     <row r="840">
-      <c r="C840" s="7"/>
+      <c r="C840" s="8"/>
     </row>
     <row r="841">
-      <c r="C841" s="7"/>
+      <c r="C841" s="8"/>
     </row>
     <row r="842">
-      <c r="C842" s="7"/>
+      <c r="C842" s="8"/>
     </row>
     <row r="843">
-      <c r="C843" s="7"/>
+      <c r="C843" s="8"/>
     </row>
     <row r="844">
-      <c r="C844" s="7"/>
+      <c r="C844" s="8"/>
     </row>
     <row r="845">
-      <c r="C845" s="7"/>
+      <c r="C845" s="8"/>
     </row>
     <row r="846">
-      <c r="C846" s="7"/>
+      <c r="C846" s="8"/>
     </row>
     <row r="847">
-      <c r="C847" s="7"/>
+      <c r="C847" s="8"/>
     </row>
     <row r="848">
-      <c r="C848" s="7"/>
+      <c r="C848" s="8"/>
     </row>
     <row r="849">
-      <c r="C849" s="7"/>
+      <c r="C849" s="8"/>
     </row>
     <row r="850">
-      <c r="C850" s="7"/>
+      <c r="C850" s="8"/>
     </row>
     <row r="851">
-      <c r="C851" s="7"/>
+      <c r="C851" s="8"/>
     </row>
     <row r="852">
-      <c r="C852" s="7"/>
+      <c r="C852" s="8"/>
     </row>
     <row r="853">
-      <c r="C853" s="7"/>
+      <c r="C853" s="8"/>
     </row>
     <row r="854">
-      <c r="C854" s="7"/>
+      <c r="C854" s="8"/>
     </row>
     <row r="855">
-      <c r="C855" s="7"/>
+      <c r="C855" s="8"/>
     </row>
     <row r="856">
-      <c r="C856" s="7"/>
+      <c r="C856" s="8"/>
     </row>
     <row r="857">
-      <c r="C857" s="7"/>
+      <c r="C857" s="8"/>
     </row>
     <row r="858">
-      <c r="C858" s="7"/>
+      <c r="C858" s="8"/>
     </row>
     <row r="859">
-      <c r="C859" s="7"/>
+      <c r="C859" s="8"/>
     </row>
     <row r="860">
-      <c r="C860" s="7"/>
+      <c r="C860" s="8"/>
     </row>
     <row r="861">
-      <c r="C861" s="7"/>
+      <c r="C861" s="8"/>
     </row>
     <row r="862">
-      <c r="C862" s="7"/>
+      <c r="C862" s="8"/>
     </row>
     <row r="863">
-      <c r="C863" s="7"/>
+      <c r="C863" s="8"/>
     </row>
     <row r="864">
-      <c r="C864" s="7"/>
+      <c r="C864" s="8"/>
     </row>
     <row r="865">
-      <c r="C865" s="7"/>
+      <c r="C865" s="8"/>
     </row>
     <row r="866">
-      <c r="C866" s="7"/>
+      <c r="C866" s="8"/>
     </row>
     <row r="867">
-      <c r="C867" s="7"/>
+      <c r="C867" s="8"/>
     </row>
     <row r="868">
-      <c r="C868" s="7"/>
+      <c r="C868" s="8"/>
     </row>
     <row r="869">
-      <c r="C869" s="7"/>
+      <c r="C869" s="8"/>
     </row>
     <row r="870">
-      <c r="C870" s="7"/>
+      <c r="C870" s="8"/>
     </row>
     <row r="871">
-      <c r="C871" s="7"/>
+      <c r="C871" s="8"/>
     </row>
     <row r="872">
-      <c r="C872" s="7"/>
+      <c r="C872" s="8"/>
     </row>
     <row r="873">
-      <c r="C873" s="7"/>
+      <c r="C873" s="8"/>
     </row>
     <row r="874">
-      <c r="C874" s="7"/>
+      <c r="C874" s="8"/>
     </row>
     <row r="875">
-      <c r="C875" s="7"/>
+      <c r="C875" s="8"/>
     </row>
     <row r="876">
-      <c r="C876" s="7"/>
+      <c r="C876" s="8"/>
     </row>
     <row r="877">
-      <c r="C877" s="7"/>
+      <c r="C877" s="8"/>
     </row>
     <row r="878">
-      <c r="C878" s="7"/>
+      <c r="C878" s="8"/>
     </row>
     <row r="879">
-      <c r="C879" s="7"/>
+      <c r="C879" s="8"/>
     </row>
     <row r="880">
-      <c r="C880" s="7"/>
+      <c r="C880" s="8"/>
     </row>
     <row r="881">
-      <c r="C881" s="7"/>
+      <c r="C881" s="8"/>
     </row>
     <row r="882">
-      <c r="C882" s="7"/>
+      <c r="C882" s="8"/>
     </row>
     <row r="883">
-      <c r="C883" s="7"/>
+      <c r="C883" s="8"/>
     </row>
     <row r="884">
-      <c r="C884" s="7"/>
+      <c r="C884" s="8"/>
     </row>
     <row r="885">
-      <c r="C885" s="7"/>
+      <c r="C885" s="8"/>
     </row>
     <row r="886">
-      <c r="C886" s="7"/>
+      <c r="C886" s="8"/>
     </row>
     <row r="887">
-      <c r="C887" s="7"/>
+      <c r="C887" s="8"/>
     </row>
     <row r="888">
-      <c r="C888" s="7"/>
+      <c r="C888" s="8"/>
     </row>
     <row r="889">
-      <c r="C889" s="7"/>
+      <c r="C889" s="8"/>
     </row>
     <row r="890">
-      <c r="C890" s="7"/>
+      <c r="C890" s="8"/>
     </row>
     <row r="891">
-      <c r="C891" s="7"/>
+      <c r="C891" s="8"/>
     </row>
     <row r="892">
-      <c r="C892" s="7"/>
+      <c r="C892" s="8"/>
     </row>
     <row r="893">
-      <c r="C893" s="7"/>
+      <c r="C893" s="8"/>
     </row>
     <row r="894">
-      <c r="C894" s="7"/>
+      <c r="C894" s="8"/>
     </row>
     <row r="895">
-      <c r="C895" s="7"/>
+      <c r="C895" s="8"/>
     </row>
     <row r="896">
-      <c r="C896" s="7"/>
+      <c r="C896" s="8"/>
     </row>
     <row r="897">
-      <c r="C897" s="7"/>
+      <c r="C897" s="8"/>
     </row>
     <row r="898">
-      <c r="C898" s="7"/>
+      <c r="C898" s="8"/>
     </row>
     <row r="899">
-      <c r="C899" s="7"/>
+      <c r="C899" s="8"/>
     </row>
     <row r="900">
-      <c r="C900" s="7"/>
+      <c r="C900" s="8"/>
     </row>
     <row r="901">
-      <c r="C901" s="7"/>
+      <c r="C901" s="8"/>
     </row>
     <row r="902">
-      <c r="C902" s="7"/>
+      <c r="C902" s="8"/>
     </row>
     <row r="903">
-      <c r="C903" s="7"/>
+      <c r="C903" s="8"/>
     </row>
     <row r="904">
-      <c r="C904" s="7"/>
+      <c r="C904" s="8"/>
     </row>
     <row r="905">
-      <c r="C905" s="7"/>
+      <c r="C905" s="8"/>
     </row>
     <row r="906">
-      <c r="C906" s="7"/>
+      <c r="C906" s="8"/>
     </row>
     <row r="907">
-      <c r="C907" s="7"/>
+      <c r="C907" s="8"/>
     </row>
     <row r="908">
-      <c r="C908" s="7"/>
+      <c r="C908" s="8"/>
     </row>
     <row r="909">
-      <c r="C909" s="7"/>
+      <c r="C909" s="8"/>
     </row>
     <row r="910">
-      <c r="C910" s="7"/>
+      <c r="C910" s="8"/>
     </row>
     <row r="911">
-      <c r="C911" s="7"/>
+      <c r="C911" s="8"/>
     </row>
     <row r="912">
-      <c r="C912" s="7"/>
+      <c r="C912" s="8"/>
     </row>
     <row r="913">
-      <c r="C913" s="7"/>
+      <c r="C913" s="8"/>
     </row>
     <row r="914">
-      <c r="C914" s="7"/>
+      <c r="C914" s="8"/>
     </row>
     <row r="915">
-      <c r="C915" s="7"/>
+      <c r="C915" s="8"/>
     </row>
     <row r="916">
-      <c r="C916" s="7"/>
+      <c r="C916" s="8"/>
     </row>
     <row r="917">
-      <c r="C917" s="7"/>
+      <c r="C917" s="8"/>
     </row>
     <row r="918">
-      <c r="C918" s="7"/>
+      <c r="C918" s="8"/>
     </row>
     <row r="919">
-      <c r="C919" s="7"/>
+      <c r="C919" s="8"/>
     </row>
     <row r="920">
-      <c r="C920" s="7"/>
+      <c r="C920" s="8"/>
     </row>
     <row r="921">
-      <c r="C921" s="7"/>
+      <c r="C921" s="8"/>
     </row>
     <row r="922">
-      <c r="C922" s="7"/>
+      <c r="C922" s="8"/>
     </row>
     <row r="923">
-      <c r="C923" s="7"/>
+      <c r="C923" s="8"/>
     </row>
     <row r="924">
-      <c r="C924" s="7"/>
+      <c r="C924" s="8"/>
     </row>
     <row r="925">
-      <c r="C925" s="7"/>
+      <c r="C925" s="8"/>
     </row>
     <row r="926">
-      <c r="C926" s="7"/>
+      <c r="C926" s="8"/>
     </row>
     <row r="927">
-      <c r="C927" s="7"/>
+      <c r="C927" s="8"/>
     </row>
     <row r="928">
-      <c r="C928" s="7"/>
+      <c r="C928" s="8"/>
     </row>
     <row r="929">
-      <c r="C929" s="7"/>
+      <c r="C929" s="8"/>
     </row>
     <row r="930">
-      <c r="C930" s="7"/>
+      <c r="C930" s="8"/>
     </row>
     <row r="931">
-      <c r="C931" s="7"/>
+      <c r="C931" s="8"/>
     </row>
     <row r="932">
-      <c r="C932" s="7"/>
+      <c r="C932" s="8"/>
     </row>
     <row r="933">
-      <c r="C933" s="7"/>
+      <c r="C933" s="8"/>
     </row>
     <row r="934">
-      <c r="C934" s="7"/>
+      <c r="C934" s="8"/>
     </row>
     <row r="935">
-      <c r="C935" s="7"/>
+      <c r="C935" s="8"/>
     </row>
     <row r="936">
-      <c r="C936" s="7"/>
+      <c r="C936" s="8"/>
     </row>
     <row r="937">
-      <c r="C937" s="7"/>
+      <c r="C937" s="8"/>
     </row>
     <row r="938">
-      <c r="C938" s="7"/>
+      <c r="C938" s="8"/>
     </row>
     <row r="939">
-      <c r="C939" s="7"/>
+      <c r="C939" s="8"/>
     </row>
     <row r="940">
-      <c r="C940" s="7"/>
+      <c r="C940" s="8"/>
     </row>
     <row r="941">
-      <c r="C941" s="7"/>
+      <c r="C941" s="8"/>
     </row>
     <row r="942">
-      <c r="C942" s="7"/>
+      <c r="C942" s="8"/>
     </row>
     <row r="943">
-      <c r="C943" s="7"/>
+      <c r="C943" s="8"/>
     </row>
     <row r="944">
-      <c r="C944" s="7"/>
+      <c r="C944" s="8"/>
     </row>
     <row r="945">
-      <c r="C945" s="7"/>
+      <c r="C945" s="8"/>
     </row>
     <row r="946">
-      <c r="C946" s="7"/>
+      <c r="C946" s="8"/>
     </row>
     <row r="947">
-      <c r="C947" s="7"/>
+      <c r="C947" s="8"/>
     </row>
     <row r="948">
-      <c r="C948" s="7"/>
+      <c r="C948" s="8"/>
     </row>
     <row r="949">
-      <c r="C949" s="7"/>
+      <c r="C949" s="8"/>
     </row>
     <row r="950">
-      <c r="C950" s="7"/>
+      <c r="C950" s="8"/>
     </row>
     <row r="951">
-      <c r="C951" s="7"/>
+      <c r="C951" s="8"/>
     </row>
     <row r="952">
-      <c r="C952" s="7"/>
+      <c r="C952" s="8"/>
     </row>
     <row r="953">
-      <c r="C953" s="7"/>
+      <c r="C953" s="8"/>
     </row>
     <row r="954">
-      <c r="C954" s="7"/>
+      <c r="C954" s="8"/>
     </row>
     <row r="955">
-      <c r="C955" s="7"/>
+      <c r="C955" s="8"/>
     </row>
     <row r="956">
-      <c r="C956" s="7"/>
+      <c r="C956" s="8"/>
     </row>
     <row r="957">
-      <c r="C957" s="7"/>
+      <c r="C957" s="8"/>
     </row>
     <row r="958">
-      <c r="C958" s="7"/>
+      <c r="C958" s="8"/>
     </row>
     <row r="959">
-      <c r="C959" s="7"/>
+      <c r="C959" s="8"/>
     </row>
     <row r="960">
-      <c r="C960" s="7"/>
+      <c r="C960" s="8"/>
     </row>
     <row r="961">
-      <c r="C961" s="7"/>
+      <c r="C961" s="8"/>
     </row>
     <row r="962">
-      <c r="C962" s="7"/>
+      <c r="C962" s="8"/>
     </row>
     <row r="963">
-      <c r="C963" s="7"/>
+      <c r="C963" s="8"/>
     </row>
     <row r="964">
-      <c r="C964" s="7"/>
+      <c r="C964" s="8"/>
     </row>
     <row r="965">
-      <c r="C965" s="7"/>
+      <c r="C965" s="8"/>
     </row>
     <row r="966">
-      <c r="C966" s="7"/>
+      <c r="C966" s="8"/>
     </row>
     <row r="967">
-      <c r="C967" s="7"/>
+      <c r="C967" s="8"/>
     </row>
     <row r="968">
-      <c r="C968" s="7"/>
+      <c r="C968" s="8"/>
     </row>
     <row r="969">
-      <c r="C969" s="7"/>
+      <c r="C969" s="8"/>
     </row>
     <row r="970">
-      <c r="C970" s="7"/>
+      <c r="C970" s="8"/>
     </row>
     <row r="971">
-      <c r="C971" s="7"/>
+      <c r="C971" s="8"/>
     </row>
     <row r="972">
-      <c r="C972" s="7"/>
+      <c r="C972" s="8"/>
     </row>
     <row r="973">
-      <c r="C973" s="7"/>
+      <c r="C973" s="8"/>
     </row>
     <row r="974">
-      <c r="C974" s="7"/>
+      <c r="C974" s="8"/>
     </row>
     <row r="975">
-      <c r="C975" s="7"/>
+      <c r="C975" s="8"/>
     </row>
     <row r="976">
-      <c r="C976" s="7"/>
+      <c r="C976" s="8"/>
     </row>
     <row r="977">
-      <c r="C977" s="7"/>
+      <c r="C977" s="8"/>
     </row>
     <row r="978">
-      <c r="C978" s="7"/>
+      <c r="C978" s="8"/>
     </row>
     <row r="979">
-      <c r="C979" s="7"/>
+      <c r="C979" s="8"/>
     </row>
     <row r="980">
-      <c r="C980" s="7"/>
+      <c r="C980" s="8"/>
     </row>
     <row r="981">
-      <c r="C981" s="7"/>
+      <c r="C981" s="8"/>
     </row>
     <row r="982">
-      <c r="C982" s="7"/>
+      <c r="C982" s="8"/>
     </row>
     <row r="983">
-      <c r="C983" s="7"/>
+      <c r="C983" s="8"/>
     </row>
     <row r="984">
-      <c r="C984" s="7"/>
+      <c r="C984" s="8"/>
     </row>
     <row r="985">
-      <c r="C985" s="7"/>
+      <c r="C985" s="8"/>
     </row>
     <row r="986">
-      <c r="C986" s="7"/>
+      <c r="C986" s="8"/>
     </row>
     <row r="987">
-      <c r="C987" s="7"/>
+      <c r="C987" s="8"/>
     </row>
     <row r="988">
-      <c r="C988" s="7"/>
+      <c r="C988" s="8"/>
     </row>
     <row r="989">
-      <c r="C989" s="7"/>
+      <c r="C989" s="8"/>
     </row>
     <row r="990">
-      <c r="C990" s="7"/>
+      <c r="C990" s="8"/>
     </row>
     <row r="991">
-      <c r="C991" s="7"/>
+      <c r="C991" s="8"/>
     </row>
     <row r="992">
-      <c r="C992" s="7"/>
+      <c r="C992" s="8"/>
     </row>
     <row r="993">
-      <c r="C993" s="7"/>
+      <c r="C993" s="8"/>
     </row>
     <row r="994">
-      <c r="C994" s="7"/>
+      <c r="C994" s="8"/>
     </row>
     <row r="995">
-      <c r="C995" s="7"/>
+      <c r="C995" s="8"/>
     </row>
     <row r="996">
-      <c r="C996" s="7"/>
+      <c r="C996" s="8"/>
     </row>
     <row r="997">
-      <c r="C997" s="7"/>
+      <c r="C997" s="8"/>
     </row>
     <row r="998">
-      <c r="C998" s="7"/>
+      <c r="C998" s="8"/>
     </row>
     <row r="999">
-      <c r="C999" s="7"/>
+      <c r="C999" s="8"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="7"/>
+      <c r="C1000" s="8"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="7"/>
+      <c r="C1001" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G54"/>
+    <hyperlink r:id="rId2" ref="G55"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/dados/receitas_drinks.xlsx
+++ b/dados/receitas_drinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="112">
   <si>
     <t>drink</t>
   </si>
@@ -26,18 +26,24 @@
     <t>base</t>
   </si>
   <si>
+    <t>copo</t>
+  </si>
+  <si>
     <t>Lula livre</t>
   </si>
   <si>
     <t>id_001</t>
   </si>
   <si>
-    <t>Misturar todos os ingredientes em uma coqueteleira com gelo e diluir. Servir em copo baixo sem gelo.</t>
+    <t>Misturar todos os ingredientes em uma coqueteleira com gelo e diluir. Servir em copo baixo sem gelo. Receita do Jota Bê.</t>
   </si>
   <si>
     <t>cachaça</t>
   </si>
   <si>
+    <t>baixo</t>
+  </si>
+  <si>
     <t>Uísque sour</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
     <t>uísque</t>
   </si>
   <si>
+    <t>nn</t>
+  </si>
+  <si>
     <t>Margarita</t>
   </si>
   <si>
@@ -62,6 +71,9 @@
     <t>tequila</t>
   </si>
   <si>
+    <t>taça</t>
+  </si>
+  <si>
     <t>Tom Collins</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
     <t>gim</t>
   </si>
   <si>
+    <t>alto</t>
+  </si>
+  <si>
     <t>Daiquiri</t>
   </si>
   <si>
@@ -140,7 +155,7 @@
     <t>id_011</t>
   </si>
   <si>
-    <t>Bater todos os ingredientes em uma coqueteleira com gelo. Coar em copo com gelo e completar com água tônica.</t>
+    <t>Bater todos os ingredientes em uma coqueteleira com gelo. Coar em copo com gelo e completar com água tônica. Receita da Alice Guedes.</t>
   </si>
   <si>
     <t>cynar</t>
@@ -209,6 +224,24 @@
     <t>Adicionar todos os ingredientes em um copo baixo com gelo grande. Mexer até gelar e servir.</t>
   </si>
   <si>
+    <t>Boulevardier</t>
+  </si>
+  <si>
+    <t>id_019</t>
+  </si>
+  <si>
+    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer. Coar e servir em copo de gelo grande com uma casca de laranja.</t>
+  </si>
+  <si>
+    <t>Bitter giuseppe</t>
+  </si>
+  <si>
+    <t>id_020</t>
+  </si>
+  <si>
+    <t>Colocar tudo em uma coqueteleira com gelo e diluir. Coar para um copo com gelo e servir uma casca de limão siciliano.</t>
+  </si>
+  <si>
     <t>quantidade</t>
   </si>
   <si>
@@ -305,25 +338,10 @@
     <t>chuchadas</t>
   </si>
   <si>
-    <t>30 ml Gin 1 oz</t>
-  </si>
-  <si>
-    <t>30 ml Campari 1 oz</t>
-  </si>
-  <si>
-    <t>22.5 ml Lemon Juice 0.75 oz</t>
-  </si>
-  <si>
     <t>calda de açúcar</t>
   </si>
   <si>
-    <t>15 ml Simple Syrup 0.5 oz</t>
-  </si>
-  <si>
     <t>uvas brancas</t>
-  </si>
-  <si>
-    <t>5 White Grapes</t>
   </si>
   <si>
     <t>colher bailarina</t>
@@ -339,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -349,15 +367,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF5A822B"/>
-      <name val="-apple-system"/>
     </font>
     <font>
       <color rgb="FF5A822B"/>
@@ -394,14 +407,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -413,13 +429,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -658,3201 +671,3286 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
+      <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="6"/>
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
-      <c r="C21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="6"/>
     </row>
     <row r="23">
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24">
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25">
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26">
-      <c r="C26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27">
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28">
-      <c r="C28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29">
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30">
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31">
-      <c r="C31" s="6"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32">
-      <c r="C32" s="6"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33">
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34">
-      <c r="C34" s="6"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35">
-      <c r="C35" s="6"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36">
-      <c r="C36" s="6"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37">
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38">
-      <c r="C38" s="6"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39">
-      <c r="C39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40">
-      <c r="C40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41">
-      <c r="C41" s="6"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42">
-      <c r="C42" s="6"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43">
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44">
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45">
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46">
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47">
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48">
-      <c r="C48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49">
-      <c r="C49" s="6"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50">
-      <c r="C50" s="6"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51">
-      <c r="C51" s="6"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52">
-      <c r="C52" s="6"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53">
-      <c r="C53" s="6"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54">
-      <c r="C54" s="6"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55">
-      <c r="C55" s="6"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56">
-      <c r="C56" s="6"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57">
-      <c r="C57" s="6"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58">
-      <c r="C58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59">
-      <c r="C59" s="6"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60">
-      <c r="C60" s="6"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61">
-      <c r="C61" s="6"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62">
-      <c r="C62" s="6"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63">
-      <c r="C63" s="6"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64">
-      <c r="C64" s="6"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65">
-      <c r="C65" s="6"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66">
-      <c r="C66" s="6"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67">
-      <c r="C67" s="6"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68">
-      <c r="C68" s="6"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69">
-      <c r="C69" s="6"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70">
-      <c r="C70" s="6"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71">
-      <c r="C71" s="6"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72">
-      <c r="C72" s="6"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73">
-      <c r="C73" s="6"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74">
-      <c r="C74" s="6"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75">
-      <c r="C75" s="6"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76">
-      <c r="C76" s="6"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77">
-      <c r="C77" s="6"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78">
-      <c r="C78" s="6"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79">
-      <c r="C79" s="6"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80">
-      <c r="C80" s="6"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81">
-      <c r="C81" s="6"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82">
-      <c r="C82" s="6"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83">
-      <c r="C83" s="6"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84">
-      <c r="C84" s="6"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85">
-      <c r="C85" s="6"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86">
-      <c r="C86" s="6"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87">
-      <c r="C87" s="6"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88">
-      <c r="C88" s="6"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89">
-      <c r="C89" s="6"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90">
-      <c r="C90" s="6"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91">
-      <c r="C91" s="6"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92">
-      <c r="C92" s="6"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93">
-      <c r="C93" s="6"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94">
-      <c r="C94" s="6"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95">
-      <c r="C95" s="6"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96">
-      <c r="C96" s="6"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97">
-      <c r="C97" s="6"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98">
-      <c r="C98" s="6"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99">
-      <c r="C99" s="6"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100">
-      <c r="C100" s="6"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101">
-      <c r="C101" s="6"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102">
-      <c r="C102" s="6"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103">
-      <c r="C103" s="6"/>
+      <c r="C103" s="7"/>
     </row>
     <row r="104">
-      <c r="C104" s="6"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105">
-      <c r="C105" s="6"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106">
-      <c r="C106" s="6"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107">
-      <c r="C107" s="6"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108">
-      <c r="C108" s="6"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109">
-      <c r="C109" s="6"/>
+      <c r="C109" s="7"/>
     </row>
     <row r="110">
-      <c r="C110" s="6"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111">
-      <c r="C111" s="6"/>
+      <c r="C111" s="7"/>
     </row>
     <row r="112">
-      <c r="C112" s="6"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113">
-      <c r="C113" s="6"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114">
-      <c r="C114" s="6"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115">
-      <c r="C115" s="6"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116">
-      <c r="C116" s="6"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117">
-      <c r="C117" s="6"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118">
-      <c r="C118" s="6"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119">
-      <c r="C119" s="6"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120">
-      <c r="C120" s="6"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121">
-      <c r="C121" s="6"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122">
-      <c r="C122" s="6"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123">
-      <c r="C123" s="6"/>
+      <c r="C123" s="7"/>
     </row>
     <row r="124">
-      <c r="C124" s="6"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125">
-      <c r="C125" s="6"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126">
-      <c r="C126" s="6"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127">
-      <c r="C127" s="6"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128">
-      <c r="C128" s="6"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129">
-      <c r="C129" s="6"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130">
-      <c r="C130" s="6"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131">
-      <c r="C131" s="6"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132">
-      <c r="C132" s="6"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133">
-      <c r="C133" s="6"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134">
-      <c r="C134" s="6"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135">
-      <c r="C135" s="6"/>
+      <c r="C135" s="7"/>
     </row>
     <row r="136">
-      <c r="C136" s="6"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137">
-      <c r="C137" s="6"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138">
-      <c r="C138" s="6"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139">
-      <c r="C139" s="6"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140">
-      <c r="C140" s="6"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141">
-      <c r="C141" s="6"/>
+      <c r="C141" s="7"/>
     </row>
     <row r="142">
-      <c r="C142" s="6"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143">
-      <c r="C143" s="6"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144">
-      <c r="C144" s="6"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145">
-      <c r="C145" s="6"/>
+      <c r="C145" s="7"/>
     </row>
     <row r="146">
-      <c r="C146" s="6"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147">
-      <c r="C147" s="6"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148">
-      <c r="C148" s="6"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149">
-      <c r="C149" s="6"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150">
-      <c r="C150" s="6"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151">
-      <c r="C151" s="6"/>
+      <c r="C151" s="7"/>
     </row>
     <row r="152">
-      <c r="C152" s="6"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153">
-      <c r="C153" s="6"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="154">
-      <c r="C154" s="6"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155">
-      <c r="C155" s="6"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156">
-      <c r="C156" s="6"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157">
-      <c r="C157" s="6"/>
+      <c r="C157" s="7"/>
     </row>
     <row r="158">
-      <c r="C158" s="6"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159">
-      <c r="C159" s="6"/>
+      <c r="C159" s="7"/>
     </row>
     <row r="160">
-      <c r="C160" s="6"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161">
-      <c r="C161" s="6"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162">
-      <c r="C162" s="6"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163">
-      <c r="C163" s="6"/>
+      <c r="C163" s="7"/>
     </row>
     <row r="164">
-      <c r="C164" s="6"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165">
-      <c r="C165" s="6"/>
+      <c r="C165" s="7"/>
     </row>
     <row r="166">
-      <c r="C166" s="6"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167">
-      <c r="C167" s="6"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168">
-      <c r="C168" s="6"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169">
-      <c r="C169" s="6"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170">
-      <c r="C170" s="6"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171">
-      <c r="C171" s="6"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172">
-      <c r="C172" s="6"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173">
-      <c r="C173" s="6"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174">
-      <c r="C174" s="6"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175">
-      <c r="C175" s="6"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176">
-      <c r="C176" s="6"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177">
-      <c r="C177" s="6"/>
+      <c r="C177" s="7"/>
     </row>
     <row r="178">
-      <c r="C178" s="6"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179">
-      <c r="C179" s="6"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180">
-      <c r="C180" s="6"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181">
-      <c r="C181" s="6"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182">
-      <c r="C182" s="6"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183">
-      <c r="C183" s="6"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184">
-      <c r="C184" s="6"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185">
-      <c r="C185" s="6"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186">
-      <c r="C186" s="6"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187">
-      <c r="C187" s="6"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188">
-      <c r="C188" s="6"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189">
-      <c r="C189" s="6"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190">
-      <c r="C190" s="6"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191">
-      <c r="C191" s="6"/>
+      <c r="C191" s="7"/>
     </row>
     <row r="192">
-      <c r="C192" s="6"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193">
-      <c r="C193" s="6"/>
+      <c r="C193" s="7"/>
     </row>
     <row r="194">
-      <c r="C194" s="6"/>
+      <c r="C194" s="7"/>
     </row>
     <row r="195">
-      <c r="C195" s="6"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196">
-      <c r="C196" s="6"/>
+      <c r="C196" s="7"/>
     </row>
     <row r="197">
-      <c r="C197" s="6"/>
+      <c r="C197" s="7"/>
     </row>
     <row r="198">
-      <c r="C198" s="6"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199">
-      <c r="C199" s="6"/>
+      <c r="C199" s="7"/>
     </row>
     <row r="200">
-      <c r="C200" s="6"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201">
-      <c r="C201" s="6"/>
+      <c r="C201" s="7"/>
     </row>
     <row r="202">
-      <c r="C202" s="6"/>
+      <c r="C202" s="7"/>
     </row>
     <row r="203">
-      <c r="C203" s="6"/>
+      <c r="C203" s="7"/>
     </row>
     <row r="204">
-      <c r="C204" s="6"/>
+      <c r="C204" s="7"/>
     </row>
     <row r="205">
-      <c r="C205" s="6"/>
+      <c r="C205" s="7"/>
     </row>
     <row r="206">
-      <c r="C206" s="6"/>
+      <c r="C206" s="7"/>
     </row>
     <row r="207">
-      <c r="C207" s="6"/>
+      <c r="C207" s="7"/>
     </row>
     <row r="208">
-      <c r="C208" s="6"/>
+      <c r="C208" s="7"/>
     </row>
     <row r="209">
-      <c r="C209" s="6"/>
+      <c r="C209" s="7"/>
     </row>
     <row r="210">
-      <c r="C210" s="6"/>
+      <c r="C210" s="7"/>
     </row>
     <row r="211">
-      <c r="C211" s="6"/>
+      <c r="C211" s="7"/>
     </row>
     <row r="212">
-      <c r="C212" s="6"/>
+      <c r="C212" s="7"/>
     </row>
     <row r="213">
-      <c r="C213" s="6"/>
+      <c r="C213" s="7"/>
     </row>
     <row r="214">
-      <c r="C214" s="6"/>
+      <c r="C214" s="7"/>
     </row>
     <row r="215">
-      <c r="C215" s="6"/>
+      <c r="C215" s="7"/>
     </row>
     <row r="216">
-      <c r="C216" s="6"/>
+      <c r="C216" s="7"/>
     </row>
     <row r="217">
-      <c r="C217" s="6"/>
+      <c r="C217" s="7"/>
     </row>
     <row r="218">
-      <c r="C218" s="6"/>
+      <c r="C218" s="7"/>
     </row>
     <row r="219">
-      <c r="C219" s="6"/>
+      <c r="C219" s="7"/>
     </row>
     <row r="220">
-      <c r="C220" s="6"/>
+      <c r="C220" s="7"/>
     </row>
     <row r="221">
-      <c r="C221" s="6"/>
+      <c r="C221" s="7"/>
     </row>
     <row r="222">
-      <c r="C222" s="6"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223">
-      <c r="C223" s="6"/>
+      <c r="C223" s="7"/>
     </row>
     <row r="224">
-      <c r="C224" s="6"/>
+      <c r="C224" s="7"/>
     </row>
     <row r="225">
-      <c r="C225" s="6"/>
+      <c r="C225" s="7"/>
     </row>
     <row r="226">
-      <c r="C226" s="6"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227">
-      <c r="C227" s="6"/>
+      <c r="C227" s="7"/>
     </row>
     <row r="228">
-      <c r="C228" s="6"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229">
-      <c r="C229" s="6"/>
+      <c r="C229" s="7"/>
     </row>
     <row r="230">
-      <c r="C230" s="6"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231">
-      <c r="C231" s="6"/>
+      <c r="C231" s="7"/>
     </row>
     <row r="232">
-      <c r="C232" s="6"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233">
-      <c r="C233" s="6"/>
+      <c r="C233" s="7"/>
     </row>
     <row r="234">
-      <c r="C234" s="6"/>
+      <c r="C234" s="7"/>
     </row>
     <row r="235">
-      <c r="C235" s="6"/>
+      <c r="C235" s="7"/>
     </row>
     <row r="236">
-      <c r="C236" s="6"/>
+      <c r="C236" s="7"/>
     </row>
     <row r="237">
-      <c r="C237" s="6"/>
+      <c r="C237" s="7"/>
     </row>
     <row r="238">
-      <c r="C238" s="6"/>
+      <c r="C238" s="7"/>
     </row>
     <row r="239">
-      <c r="C239" s="6"/>
+      <c r="C239" s="7"/>
     </row>
     <row r="240">
-      <c r="C240" s="6"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241">
-      <c r="C241" s="6"/>
+      <c r="C241" s="7"/>
     </row>
     <row r="242">
-      <c r="C242" s="6"/>
+      <c r="C242" s="7"/>
     </row>
     <row r="243">
-      <c r="C243" s="6"/>
+      <c r="C243" s="7"/>
     </row>
     <row r="244">
-      <c r="C244" s="6"/>
+      <c r="C244" s="7"/>
     </row>
     <row r="245">
-      <c r="C245" s="6"/>
+      <c r="C245" s="7"/>
     </row>
     <row r="246">
-      <c r="C246" s="6"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247">
-      <c r="C247" s="6"/>
+      <c r="C247" s="7"/>
     </row>
     <row r="248">
-      <c r="C248" s="6"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249">
-      <c r="C249" s="6"/>
+      <c r="C249" s="7"/>
     </row>
     <row r="250">
-      <c r="C250" s="6"/>
+      <c r="C250" s="7"/>
     </row>
     <row r="251">
-      <c r="C251" s="6"/>
+      <c r="C251" s="7"/>
     </row>
     <row r="252">
-      <c r="C252" s="6"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253">
-      <c r="C253" s="6"/>
+      <c r="C253" s="7"/>
     </row>
     <row r="254">
-      <c r="C254" s="6"/>
+      <c r="C254" s="7"/>
     </row>
     <row r="255">
-      <c r="C255" s="6"/>
+      <c r="C255" s="7"/>
     </row>
     <row r="256">
-      <c r="C256" s="6"/>
+      <c r="C256" s="7"/>
     </row>
     <row r="257">
-      <c r="C257" s="6"/>
+      <c r="C257" s="7"/>
     </row>
     <row r="258">
-      <c r="C258" s="6"/>
+      <c r="C258" s="7"/>
     </row>
     <row r="259">
-      <c r="C259" s="6"/>
+      <c r="C259" s="7"/>
     </row>
     <row r="260">
-      <c r="C260" s="6"/>
+      <c r="C260" s="7"/>
     </row>
     <row r="261">
-      <c r="C261" s="6"/>
+      <c r="C261" s="7"/>
     </row>
     <row r="262">
-      <c r="C262" s="6"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263">
-      <c r="C263" s="6"/>
+      <c r="C263" s="7"/>
     </row>
     <row r="264">
-      <c r="C264" s="6"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265">
-      <c r="C265" s="6"/>
+      <c r="C265" s="7"/>
     </row>
     <row r="266">
-      <c r="C266" s="6"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267">
-      <c r="C267" s="6"/>
+      <c r="C267" s="7"/>
     </row>
     <row r="268">
-      <c r="C268" s="6"/>
+      <c r="C268" s="7"/>
     </row>
     <row r="269">
-      <c r="C269" s="6"/>
+      <c r="C269" s="7"/>
     </row>
     <row r="270">
-      <c r="C270" s="6"/>
+      <c r="C270" s="7"/>
     </row>
     <row r="271">
-      <c r="C271" s="6"/>
+      <c r="C271" s="7"/>
     </row>
     <row r="272">
-      <c r="C272" s="6"/>
+      <c r="C272" s="7"/>
     </row>
     <row r="273">
-      <c r="C273" s="6"/>
+      <c r="C273" s="7"/>
     </row>
     <row r="274">
-      <c r="C274" s="6"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275">
-      <c r="C275" s="6"/>
+      <c r="C275" s="7"/>
     </row>
     <row r="276">
-      <c r="C276" s="6"/>
+      <c r="C276" s="7"/>
     </row>
     <row r="277">
-      <c r="C277" s="6"/>
+      <c r="C277" s="7"/>
     </row>
     <row r="278">
-      <c r="C278" s="6"/>
+      <c r="C278" s="7"/>
     </row>
     <row r="279">
-      <c r="C279" s="6"/>
+      <c r="C279" s="7"/>
     </row>
     <row r="280">
-      <c r="C280" s="6"/>
+      <c r="C280" s="7"/>
     </row>
     <row r="281">
-      <c r="C281" s="6"/>
+      <c r="C281" s="7"/>
     </row>
     <row r="282">
-      <c r="C282" s="6"/>
+      <c r="C282" s="7"/>
     </row>
     <row r="283">
-      <c r="C283" s="6"/>
+      <c r="C283" s="7"/>
     </row>
     <row r="284">
-      <c r="C284" s="6"/>
+      <c r="C284" s="7"/>
     </row>
     <row r="285">
-      <c r="C285" s="6"/>
+      <c r="C285" s="7"/>
     </row>
     <row r="286">
-      <c r="C286" s="6"/>
+      <c r="C286" s="7"/>
     </row>
     <row r="287">
-      <c r="C287" s="6"/>
+      <c r="C287" s="7"/>
     </row>
     <row r="288">
-      <c r="C288" s="6"/>
+      <c r="C288" s="7"/>
     </row>
     <row r="289">
-      <c r="C289" s="6"/>
+      <c r="C289" s="7"/>
     </row>
     <row r="290">
-      <c r="C290" s="6"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291">
-      <c r="C291" s="6"/>
+      <c r="C291" s="7"/>
     </row>
     <row r="292">
-      <c r="C292" s="6"/>
+      <c r="C292" s="7"/>
     </row>
     <row r="293">
-      <c r="C293" s="6"/>
+      <c r="C293" s="7"/>
     </row>
     <row r="294">
-      <c r="C294" s="6"/>
+      <c r="C294" s="7"/>
     </row>
     <row r="295">
-      <c r="C295" s="6"/>
+      <c r="C295" s="7"/>
     </row>
     <row r="296">
-      <c r="C296" s="6"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297">
-      <c r="C297" s="6"/>
+      <c r="C297" s="7"/>
     </row>
     <row r="298">
-      <c r="C298" s="6"/>
+      <c r="C298" s="7"/>
     </row>
     <row r="299">
-      <c r="C299" s="6"/>
+      <c r="C299" s="7"/>
     </row>
     <row r="300">
-      <c r="C300" s="6"/>
+      <c r="C300" s="7"/>
     </row>
     <row r="301">
-      <c r="C301" s="6"/>
+      <c r="C301" s="7"/>
     </row>
     <row r="302">
-      <c r="C302" s="6"/>
+      <c r="C302" s="7"/>
     </row>
     <row r="303">
-      <c r="C303" s="6"/>
+      <c r="C303" s="7"/>
     </row>
     <row r="304">
-      <c r="C304" s="6"/>
+      <c r="C304" s="7"/>
     </row>
     <row r="305">
-      <c r="C305" s="6"/>
+      <c r="C305" s="7"/>
     </row>
     <row r="306">
-      <c r="C306" s="6"/>
+      <c r="C306" s="7"/>
     </row>
     <row r="307">
-      <c r="C307" s="6"/>
+      <c r="C307" s="7"/>
     </row>
     <row r="308">
-      <c r="C308" s="6"/>
+      <c r="C308" s="7"/>
     </row>
     <row r="309">
-      <c r="C309" s="6"/>
+      <c r="C309" s="7"/>
     </row>
     <row r="310">
-      <c r="C310" s="6"/>
+      <c r="C310" s="7"/>
     </row>
     <row r="311">
-      <c r="C311" s="6"/>
+      <c r="C311" s="7"/>
     </row>
     <row r="312">
-      <c r="C312" s="6"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313">
-      <c r="C313" s="6"/>
+      <c r="C313" s="7"/>
     </row>
     <row r="314">
-      <c r="C314" s="6"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315">
-      <c r="C315" s="6"/>
+      <c r="C315" s="7"/>
     </row>
     <row r="316">
-      <c r="C316" s="6"/>
+      <c r="C316" s="7"/>
     </row>
     <row r="317">
-      <c r="C317" s="6"/>
+      <c r="C317" s="7"/>
     </row>
     <row r="318">
-      <c r="C318" s="6"/>
+      <c r="C318" s="7"/>
     </row>
     <row r="319">
-      <c r="C319" s="6"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320">
-      <c r="C320" s="6"/>
+      <c r="C320" s="7"/>
     </row>
     <row r="321">
-      <c r="C321" s="6"/>
+      <c r="C321" s="7"/>
     </row>
     <row r="322">
-      <c r="C322" s="6"/>
+      <c r="C322" s="7"/>
     </row>
     <row r="323">
-      <c r="C323" s="6"/>
+      <c r="C323" s="7"/>
     </row>
     <row r="324">
-      <c r="C324" s="6"/>
+      <c r="C324" s="7"/>
     </row>
     <row r="325">
-      <c r="C325" s="6"/>
+      <c r="C325" s="7"/>
     </row>
     <row r="326">
-      <c r="C326" s="6"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327">
-      <c r="C327" s="6"/>
+      <c r="C327" s="7"/>
     </row>
     <row r="328">
-      <c r="C328" s="6"/>
+      <c r="C328" s="7"/>
     </row>
     <row r="329">
-      <c r="C329" s="6"/>
+      <c r="C329" s="7"/>
     </row>
     <row r="330">
-      <c r="C330" s="6"/>
+      <c r="C330" s="7"/>
     </row>
     <row r="331">
-      <c r="C331" s="6"/>
+      <c r="C331" s="7"/>
     </row>
     <row r="332">
-      <c r="C332" s="6"/>
+      <c r="C332" s="7"/>
     </row>
     <row r="333">
-      <c r="C333" s="6"/>
+      <c r="C333" s="7"/>
     </row>
     <row r="334">
-      <c r="C334" s="6"/>
+      <c r="C334" s="7"/>
     </row>
     <row r="335">
-      <c r="C335" s="6"/>
+      <c r="C335" s="7"/>
     </row>
     <row r="336">
-      <c r="C336" s="6"/>
+      <c r="C336" s="7"/>
     </row>
     <row r="337">
-      <c r="C337" s="6"/>
+      <c r="C337" s="7"/>
     </row>
     <row r="338">
-      <c r="C338" s="6"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339">
-      <c r="C339" s="6"/>
+      <c r="C339" s="7"/>
     </row>
     <row r="340">
-      <c r="C340" s="6"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341">
-      <c r="C341" s="6"/>
+      <c r="C341" s="7"/>
     </row>
     <row r="342">
-      <c r="C342" s="6"/>
+      <c r="C342" s="7"/>
     </row>
     <row r="343">
-      <c r="C343" s="6"/>
+      <c r="C343" s="7"/>
     </row>
     <row r="344">
-      <c r="C344" s="6"/>
+      <c r="C344" s="7"/>
     </row>
     <row r="345">
-      <c r="C345" s="6"/>
+      <c r="C345" s="7"/>
     </row>
     <row r="346">
-      <c r="C346" s="6"/>
+      <c r="C346" s="7"/>
     </row>
     <row r="347">
-      <c r="C347" s="6"/>
+      <c r="C347" s="7"/>
     </row>
     <row r="348">
-      <c r="C348" s="6"/>
+      <c r="C348" s="7"/>
     </row>
     <row r="349">
-      <c r="C349" s="6"/>
+      <c r="C349" s="7"/>
     </row>
     <row r="350">
-      <c r="C350" s="6"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="351">
-      <c r="C351" s="6"/>
+      <c r="C351" s="7"/>
     </row>
     <row r="352">
-      <c r="C352" s="6"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353">
-      <c r="C353" s="6"/>
+      <c r="C353" s="7"/>
     </row>
     <row r="354">
-      <c r="C354" s="6"/>
+      <c r="C354" s="7"/>
     </row>
     <row r="355">
-      <c r="C355" s="6"/>
+      <c r="C355" s="7"/>
     </row>
     <row r="356">
-      <c r="C356" s="6"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357">
-      <c r="C357" s="6"/>
+      <c r="C357" s="7"/>
     </row>
     <row r="358">
-      <c r="C358" s="6"/>
+      <c r="C358" s="7"/>
     </row>
     <row r="359">
-      <c r="C359" s="6"/>
+      <c r="C359" s="7"/>
     </row>
     <row r="360">
-      <c r="C360" s="6"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361">
-      <c r="C361" s="6"/>
+      <c r="C361" s="7"/>
     </row>
     <row r="362">
-      <c r="C362" s="6"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363">
-      <c r="C363" s="6"/>
+      <c r="C363" s="7"/>
     </row>
     <row r="364">
-      <c r="C364" s="6"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365">
-      <c r="C365" s="6"/>
+      <c r="C365" s="7"/>
     </row>
     <row r="366">
-      <c r="C366" s="6"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367">
-      <c r="C367" s="6"/>
+      <c r="C367" s="7"/>
     </row>
     <row r="368">
-      <c r="C368" s="6"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369">
-      <c r="C369" s="6"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370">
-      <c r="C370" s="6"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371">
-      <c r="C371" s="6"/>
+      <c r="C371" s="7"/>
     </row>
     <row r="372">
-      <c r="C372" s="6"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373">
-      <c r="C373" s="6"/>
+      <c r="C373" s="7"/>
     </row>
     <row r="374">
-      <c r="C374" s="6"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375">
-      <c r="C375" s="6"/>
+      <c r="C375" s="7"/>
     </row>
     <row r="376">
-      <c r="C376" s="6"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377">
-      <c r="C377" s="6"/>
+      <c r="C377" s="7"/>
     </row>
     <row r="378">
-      <c r="C378" s="6"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379">
-      <c r="C379" s="6"/>
+      <c r="C379" s="7"/>
     </row>
     <row r="380">
-      <c r="C380" s="6"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381">
-      <c r="C381" s="6"/>
+      <c r="C381" s="7"/>
     </row>
     <row r="382">
-      <c r="C382" s="6"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383">
-      <c r="C383" s="6"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384">
-      <c r="C384" s="6"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385">
-      <c r="C385" s="6"/>
+      <c r="C385" s="7"/>
     </row>
     <row r="386">
-      <c r="C386" s="6"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387">
-      <c r="C387" s="6"/>
+      <c r="C387" s="7"/>
     </row>
     <row r="388">
-      <c r="C388" s="6"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389">
-      <c r="C389" s="6"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390">
-      <c r="C390" s="6"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391">
-      <c r="C391" s="6"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392">
-      <c r="C392" s="6"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393">
-      <c r="C393" s="6"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394">
-      <c r="C394" s="6"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395">
-      <c r="C395" s="6"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396">
-      <c r="C396" s="6"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397">
-      <c r="C397" s="6"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398">
-      <c r="C398" s="6"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399">
-      <c r="C399" s="6"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400">
-      <c r="C400" s="6"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401">
-      <c r="C401" s="6"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402">
-      <c r="C402" s="6"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403">
-      <c r="C403" s="6"/>
+      <c r="C403" s="7"/>
     </row>
     <row r="404">
-      <c r="C404" s="6"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405">
-      <c r="C405" s="6"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406">
-      <c r="C406" s="6"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407">
-      <c r="C407" s="6"/>
+      <c r="C407" s="7"/>
     </row>
     <row r="408">
-      <c r="C408" s="6"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409">
-      <c r="C409" s="6"/>
+      <c r="C409" s="7"/>
     </row>
     <row r="410">
-      <c r="C410" s="6"/>
+      <c r="C410" s="7"/>
     </row>
     <row r="411">
-      <c r="C411" s="6"/>
+      <c r="C411" s="7"/>
     </row>
     <row r="412">
-      <c r="C412" s="6"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413">
-      <c r="C413" s="6"/>
+      <c r="C413" s="7"/>
     </row>
     <row r="414">
-      <c r="C414" s="6"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415">
-      <c r="C415" s="6"/>
+      <c r="C415" s="7"/>
     </row>
     <row r="416">
-      <c r="C416" s="6"/>
+      <c r="C416" s="7"/>
     </row>
     <row r="417">
-      <c r="C417" s="6"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418">
-      <c r="C418" s="6"/>
+      <c r="C418" s="7"/>
     </row>
     <row r="419">
-      <c r="C419" s="6"/>
+      <c r="C419" s="7"/>
     </row>
     <row r="420">
-      <c r="C420" s="6"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421">
-      <c r="C421" s="6"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422">
-      <c r="C422" s="6"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423">
-      <c r="C423" s="6"/>
+      <c r="C423" s="7"/>
     </row>
     <row r="424">
-      <c r="C424" s="6"/>
+      <c r="C424" s="7"/>
     </row>
     <row r="425">
-      <c r="C425" s="6"/>
+      <c r="C425" s="7"/>
     </row>
     <row r="426">
-      <c r="C426" s="6"/>
+      <c r="C426" s="7"/>
     </row>
     <row r="427">
-      <c r="C427" s="6"/>
+      <c r="C427" s="7"/>
     </row>
     <row r="428">
-      <c r="C428" s="6"/>
+      <c r="C428" s="7"/>
     </row>
     <row r="429">
-      <c r="C429" s="6"/>
+      <c r="C429" s="7"/>
     </row>
     <row r="430">
-      <c r="C430" s="6"/>
+      <c r="C430" s="7"/>
     </row>
     <row r="431">
-      <c r="C431" s="6"/>
+      <c r="C431" s="7"/>
     </row>
     <row r="432">
-      <c r="C432" s="6"/>
+      <c r="C432" s="7"/>
     </row>
     <row r="433">
-      <c r="C433" s="6"/>
+      <c r="C433" s="7"/>
     </row>
     <row r="434">
-      <c r="C434" s="6"/>
+      <c r="C434" s="7"/>
     </row>
     <row r="435">
-      <c r="C435" s="6"/>
+      <c r="C435" s="7"/>
     </row>
     <row r="436">
-      <c r="C436" s="6"/>
+      <c r="C436" s="7"/>
     </row>
     <row r="437">
-      <c r="C437" s="6"/>
+      <c r="C437" s="7"/>
     </row>
     <row r="438">
-      <c r="C438" s="6"/>
+      <c r="C438" s="7"/>
     </row>
     <row r="439">
-      <c r="C439" s="6"/>
+      <c r="C439" s="7"/>
     </row>
     <row r="440">
-      <c r="C440" s="6"/>
+      <c r="C440" s="7"/>
     </row>
     <row r="441">
-      <c r="C441" s="6"/>
+      <c r="C441" s="7"/>
     </row>
     <row r="442">
-      <c r="C442" s="6"/>
+      <c r="C442" s="7"/>
     </row>
     <row r="443">
-      <c r="C443" s="6"/>
+      <c r="C443" s="7"/>
     </row>
     <row r="444">
-      <c r="C444" s="6"/>
+      <c r="C444" s="7"/>
     </row>
     <row r="445">
-      <c r="C445" s="6"/>
+      <c r="C445" s="7"/>
     </row>
     <row r="446">
-      <c r="C446" s="6"/>
+      <c r="C446" s="7"/>
     </row>
     <row r="447">
-      <c r="C447" s="6"/>
+      <c r="C447" s="7"/>
     </row>
     <row r="448">
-      <c r="C448" s="6"/>
+      <c r="C448" s="7"/>
     </row>
     <row r="449">
-      <c r="C449" s="6"/>
+      <c r="C449" s="7"/>
     </row>
     <row r="450">
-      <c r="C450" s="6"/>
+      <c r="C450" s="7"/>
     </row>
     <row r="451">
-      <c r="C451" s="6"/>
+      <c r="C451" s="7"/>
     </row>
     <row r="452">
-      <c r="C452" s="6"/>
+      <c r="C452" s="7"/>
     </row>
     <row r="453">
-      <c r="C453" s="6"/>
+      <c r="C453" s="7"/>
     </row>
     <row r="454">
-      <c r="C454" s="6"/>
+      <c r="C454" s="7"/>
     </row>
     <row r="455">
-      <c r="C455" s="6"/>
+      <c r="C455" s="7"/>
     </row>
     <row r="456">
-      <c r="C456" s="6"/>
+      <c r="C456" s="7"/>
     </row>
     <row r="457">
-      <c r="C457" s="6"/>
+      <c r="C457" s="7"/>
     </row>
     <row r="458">
-      <c r="C458" s="6"/>
+      <c r="C458" s="7"/>
     </row>
     <row r="459">
-      <c r="C459" s="6"/>
+      <c r="C459" s="7"/>
     </row>
     <row r="460">
-      <c r="C460" s="6"/>
+      <c r="C460" s="7"/>
     </row>
     <row r="461">
-      <c r="C461" s="6"/>
+      <c r="C461" s="7"/>
     </row>
     <row r="462">
-      <c r="C462" s="6"/>
+      <c r="C462" s="7"/>
     </row>
     <row r="463">
-      <c r="C463" s="6"/>
+      <c r="C463" s="7"/>
     </row>
     <row r="464">
-      <c r="C464" s="6"/>
+      <c r="C464" s="7"/>
     </row>
     <row r="465">
-      <c r="C465" s="6"/>
+      <c r="C465" s="7"/>
     </row>
     <row r="466">
-      <c r="C466" s="6"/>
+      <c r="C466" s="7"/>
     </row>
     <row r="467">
-      <c r="C467" s="6"/>
+      <c r="C467" s="7"/>
     </row>
     <row r="468">
-      <c r="C468" s="6"/>
+      <c r="C468" s="7"/>
     </row>
     <row r="469">
-      <c r="C469" s="6"/>
+      <c r="C469" s="7"/>
     </row>
     <row r="470">
-      <c r="C470" s="6"/>
+      <c r="C470" s="7"/>
     </row>
     <row r="471">
-      <c r="C471" s="6"/>
+      <c r="C471" s="7"/>
     </row>
     <row r="472">
-      <c r="C472" s="6"/>
+      <c r="C472" s="7"/>
     </row>
     <row r="473">
-      <c r="C473" s="6"/>
+      <c r="C473" s="7"/>
     </row>
     <row r="474">
-      <c r="C474" s="6"/>
+      <c r="C474" s="7"/>
     </row>
     <row r="475">
-      <c r="C475" s="6"/>
+      <c r="C475" s="7"/>
     </row>
     <row r="476">
-      <c r="C476" s="6"/>
+      <c r="C476" s="7"/>
     </row>
     <row r="477">
-      <c r="C477" s="6"/>
+      <c r="C477" s="7"/>
     </row>
     <row r="478">
-      <c r="C478" s="6"/>
+      <c r="C478" s="7"/>
     </row>
     <row r="479">
-      <c r="C479" s="6"/>
+      <c r="C479" s="7"/>
     </row>
     <row r="480">
-      <c r="C480" s="6"/>
+      <c r="C480" s="7"/>
     </row>
     <row r="481">
-      <c r="C481" s="6"/>
+      <c r="C481" s="7"/>
     </row>
     <row r="482">
-      <c r="C482" s="6"/>
+      <c r="C482" s="7"/>
     </row>
     <row r="483">
-      <c r="C483" s="6"/>
+      <c r="C483" s="7"/>
     </row>
     <row r="484">
-      <c r="C484" s="6"/>
+      <c r="C484" s="7"/>
     </row>
     <row r="485">
-      <c r="C485" s="6"/>
+      <c r="C485" s="7"/>
     </row>
     <row r="486">
-      <c r="C486" s="6"/>
+      <c r="C486" s="7"/>
     </row>
     <row r="487">
-      <c r="C487" s="6"/>
+      <c r="C487" s="7"/>
     </row>
     <row r="488">
-      <c r="C488" s="6"/>
+      <c r="C488" s="7"/>
     </row>
     <row r="489">
-      <c r="C489" s="6"/>
+      <c r="C489" s="7"/>
     </row>
     <row r="490">
-      <c r="C490" s="6"/>
+      <c r="C490" s="7"/>
     </row>
     <row r="491">
-      <c r="C491" s="6"/>
+      <c r="C491" s="7"/>
     </row>
     <row r="492">
-      <c r="C492" s="6"/>
+      <c r="C492" s="7"/>
     </row>
     <row r="493">
-      <c r="C493" s="6"/>
+      <c r="C493" s="7"/>
     </row>
     <row r="494">
-      <c r="C494" s="6"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495">
-      <c r="C495" s="6"/>
+      <c r="C495" s="7"/>
     </row>
     <row r="496">
-      <c r="C496" s="6"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497">
-      <c r="C497" s="6"/>
+      <c r="C497" s="7"/>
     </row>
     <row r="498">
-      <c r="C498" s="6"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499">
-      <c r="C499" s="6"/>
+      <c r="C499" s="7"/>
     </row>
     <row r="500">
-      <c r="C500" s="6"/>
+      <c r="C500" s="7"/>
     </row>
     <row r="501">
-      <c r="C501" s="6"/>
+      <c r="C501" s="7"/>
     </row>
     <row r="502">
-      <c r="C502" s="6"/>
+      <c r="C502" s="7"/>
     </row>
     <row r="503">
-      <c r="C503" s="6"/>
+      <c r="C503" s="7"/>
     </row>
     <row r="504">
-      <c r="C504" s="6"/>
+      <c r="C504" s="7"/>
     </row>
     <row r="505">
-      <c r="C505" s="6"/>
+      <c r="C505" s="7"/>
     </row>
     <row r="506">
-      <c r="C506" s="6"/>
+      <c r="C506" s="7"/>
     </row>
     <row r="507">
-      <c r="C507" s="6"/>
+      <c r="C507" s="7"/>
     </row>
     <row r="508">
-      <c r="C508" s="6"/>
+      <c r="C508" s="7"/>
     </row>
     <row r="509">
-      <c r="C509" s="6"/>
+      <c r="C509" s="7"/>
     </row>
     <row r="510">
-      <c r="C510" s="6"/>
+      <c r="C510" s="7"/>
     </row>
     <row r="511">
-      <c r="C511" s="6"/>
+      <c r="C511" s="7"/>
     </row>
     <row r="512">
-      <c r="C512" s="6"/>
+      <c r="C512" s="7"/>
     </row>
     <row r="513">
-      <c r="C513" s="6"/>
+      <c r="C513" s="7"/>
     </row>
     <row r="514">
-      <c r="C514" s="6"/>
+      <c r="C514" s="7"/>
     </row>
     <row r="515">
-      <c r="C515" s="6"/>
+      <c r="C515" s="7"/>
     </row>
     <row r="516">
-      <c r="C516" s="6"/>
+      <c r="C516" s="7"/>
     </row>
     <row r="517">
-      <c r="C517" s="6"/>
+      <c r="C517" s="7"/>
     </row>
     <row r="518">
-      <c r="C518" s="6"/>
+      <c r="C518" s="7"/>
     </row>
     <row r="519">
-      <c r="C519" s="6"/>
+      <c r="C519" s="7"/>
     </row>
     <row r="520">
-      <c r="C520" s="6"/>
+      <c r="C520" s="7"/>
     </row>
     <row r="521">
-      <c r="C521" s="6"/>
+      <c r="C521" s="7"/>
     </row>
     <row r="522">
-      <c r="C522" s="6"/>
+      <c r="C522" s="7"/>
     </row>
     <row r="523">
-      <c r="C523" s="6"/>
+      <c r="C523" s="7"/>
     </row>
     <row r="524">
-      <c r="C524" s="6"/>
+      <c r="C524" s="7"/>
     </row>
     <row r="525">
-      <c r="C525" s="6"/>
+      <c r="C525" s="7"/>
     </row>
     <row r="526">
-      <c r="C526" s="6"/>
+      <c r="C526" s="7"/>
     </row>
     <row r="527">
-      <c r="C527" s="6"/>
+      <c r="C527" s="7"/>
     </row>
     <row r="528">
-      <c r="C528" s="6"/>
+      <c r="C528" s="7"/>
     </row>
     <row r="529">
-      <c r="C529" s="6"/>
+      <c r="C529" s="7"/>
     </row>
     <row r="530">
-      <c r="C530" s="6"/>
+      <c r="C530" s="7"/>
     </row>
     <row r="531">
-      <c r="C531" s="6"/>
+      <c r="C531" s="7"/>
     </row>
     <row r="532">
-      <c r="C532" s="6"/>
+      <c r="C532" s="7"/>
     </row>
     <row r="533">
-      <c r="C533" s="6"/>
+      <c r="C533" s="7"/>
     </row>
     <row r="534">
-      <c r="C534" s="6"/>
+      <c r="C534" s="7"/>
     </row>
     <row r="535">
-      <c r="C535" s="6"/>
+      <c r="C535" s="7"/>
     </row>
     <row r="536">
-      <c r="C536" s="6"/>
+      <c r="C536" s="7"/>
     </row>
     <row r="537">
-      <c r="C537" s="6"/>
+      <c r="C537" s="7"/>
     </row>
     <row r="538">
-      <c r="C538" s="6"/>
+      <c r="C538" s="7"/>
     </row>
     <row r="539">
-      <c r="C539" s="6"/>
+      <c r="C539" s="7"/>
     </row>
     <row r="540">
-      <c r="C540" s="6"/>
+      <c r="C540" s="7"/>
     </row>
     <row r="541">
-      <c r="C541" s="6"/>
+      <c r="C541" s="7"/>
     </row>
     <row r="542">
-      <c r="C542" s="6"/>
+      <c r="C542" s="7"/>
     </row>
     <row r="543">
-      <c r="C543" s="6"/>
+      <c r="C543" s="7"/>
     </row>
     <row r="544">
-      <c r="C544" s="6"/>
+      <c r="C544" s="7"/>
     </row>
     <row r="545">
-      <c r="C545" s="6"/>
+      <c r="C545" s="7"/>
     </row>
     <row r="546">
-      <c r="C546" s="6"/>
+      <c r="C546" s="7"/>
     </row>
     <row r="547">
-      <c r="C547" s="6"/>
+      <c r="C547" s="7"/>
     </row>
     <row r="548">
-      <c r="C548" s="6"/>
+      <c r="C548" s="7"/>
     </row>
     <row r="549">
-      <c r="C549" s="6"/>
+      <c r="C549" s="7"/>
     </row>
     <row r="550">
-      <c r="C550" s="6"/>
+      <c r="C550" s="7"/>
     </row>
     <row r="551">
-      <c r="C551" s="6"/>
+      <c r="C551" s="7"/>
     </row>
     <row r="552">
-      <c r="C552" s="6"/>
+      <c r="C552" s="7"/>
     </row>
     <row r="553">
-      <c r="C553" s="6"/>
+      <c r="C553" s="7"/>
     </row>
     <row r="554">
-      <c r="C554" s="6"/>
+      <c r="C554" s="7"/>
     </row>
     <row r="555">
-      <c r="C555" s="6"/>
+      <c r="C555" s="7"/>
     </row>
     <row r="556">
-      <c r="C556" s="6"/>
+      <c r="C556" s="7"/>
     </row>
     <row r="557">
-      <c r="C557" s="6"/>
+      <c r="C557" s="7"/>
     </row>
     <row r="558">
-      <c r="C558" s="6"/>
+      <c r="C558" s="7"/>
     </row>
     <row r="559">
-      <c r="C559" s="6"/>
+      <c r="C559" s="7"/>
     </row>
     <row r="560">
-      <c r="C560" s="6"/>
+      <c r="C560" s="7"/>
     </row>
     <row r="561">
-      <c r="C561" s="6"/>
+      <c r="C561" s="7"/>
     </row>
     <row r="562">
-      <c r="C562" s="6"/>
+      <c r="C562" s="7"/>
     </row>
     <row r="563">
-      <c r="C563" s="6"/>
+      <c r="C563" s="7"/>
     </row>
     <row r="564">
-      <c r="C564" s="6"/>
+      <c r="C564" s="7"/>
     </row>
     <row r="565">
-      <c r="C565" s="6"/>
+      <c r="C565" s="7"/>
     </row>
     <row r="566">
-      <c r="C566" s="6"/>
+      <c r="C566" s="7"/>
     </row>
     <row r="567">
-      <c r="C567" s="6"/>
+      <c r="C567" s="7"/>
     </row>
     <row r="568">
-      <c r="C568" s="6"/>
+      <c r="C568" s="7"/>
     </row>
     <row r="569">
-      <c r="C569" s="6"/>
+      <c r="C569" s="7"/>
     </row>
     <row r="570">
-      <c r="C570" s="6"/>
+      <c r="C570" s="7"/>
     </row>
     <row r="571">
-      <c r="C571" s="6"/>
+      <c r="C571" s="7"/>
     </row>
     <row r="572">
-      <c r="C572" s="6"/>
+      <c r="C572" s="7"/>
     </row>
     <row r="573">
-      <c r="C573" s="6"/>
+      <c r="C573" s="7"/>
     </row>
     <row r="574">
-      <c r="C574" s="6"/>
+      <c r="C574" s="7"/>
     </row>
     <row r="575">
-      <c r="C575" s="6"/>
+      <c r="C575" s="7"/>
     </row>
     <row r="576">
-      <c r="C576" s="6"/>
+      <c r="C576" s="7"/>
     </row>
     <row r="577">
-      <c r="C577" s="6"/>
+      <c r="C577" s="7"/>
     </row>
     <row r="578">
-      <c r="C578" s="6"/>
+      <c r="C578" s="7"/>
     </row>
     <row r="579">
-      <c r="C579" s="6"/>
+      <c r="C579" s="7"/>
     </row>
     <row r="580">
-      <c r="C580" s="6"/>
+      <c r="C580" s="7"/>
     </row>
     <row r="581">
-      <c r="C581" s="6"/>
+      <c r="C581" s="7"/>
     </row>
     <row r="582">
-      <c r="C582" s="6"/>
+      <c r="C582" s="7"/>
     </row>
     <row r="583">
-      <c r="C583" s="6"/>
+      <c r="C583" s="7"/>
     </row>
     <row r="584">
-      <c r="C584" s="6"/>
+      <c r="C584" s="7"/>
     </row>
     <row r="585">
-      <c r="C585" s="6"/>
+      <c r="C585" s="7"/>
     </row>
     <row r="586">
-      <c r="C586" s="6"/>
+      <c r="C586" s="7"/>
     </row>
     <row r="587">
-      <c r="C587" s="6"/>
+      <c r="C587" s="7"/>
     </row>
     <row r="588">
-      <c r="C588" s="6"/>
+      <c r="C588" s="7"/>
     </row>
     <row r="589">
-      <c r="C589" s="6"/>
+      <c r="C589" s="7"/>
     </row>
     <row r="590">
-      <c r="C590" s="6"/>
+      <c r="C590" s="7"/>
     </row>
     <row r="591">
-      <c r="C591" s="6"/>
+      <c r="C591" s="7"/>
     </row>
     <row r="592">
-      <c r="C592" s="6"/>
+      <c r="C592" s="7"/>
     </row>
     <row r="593">
-      <c r="C593" s="6"/>
+      <c r="C593" s="7"/>
     </row>
     <row r="594">
-      <c r="C594" s="6"/>
+      <c r="C594" s="7"/>
     </row>
     <row r="595">
-      <c r="C595" s="6"/>
+      <c r="C595" s="7"/>
     </row>
     <row r="596">
-      <c r="C596" s="6"/>
+      <c r="C596" s="7"/>
     </row>
     <row r="597">
-      <c r="C597" s="6"/>
+      <c r="C597" s="7"/>
     </row>
     <row r="598">
-      <c r="C598" s="6"/>
+      <c r="C598" s="7"/>
     </row>
     <row r="599">
-      <c r="C599" s="6"/>
+      <c r="C599" s="7"/>
     </row>
     <row r="600">
-      <c r="C600" s="6"/>
+      <c r="C600" s="7"/>
     </row>
     <row r="601">
-      <c r="C601" s="6"/>
+      <c r="C601" s="7"/>
     </row>
     <row r="602">
-      <c r="C602" s="6"/>
+      <c r="C602" s="7"/>
     </row>
     <row r="603">
-      <c r="C603" s="6"/>
+      <c r="C603" s="7"/>
     </row>
     <row r="604">
-      <c r="C604" s="6"/>
+      <c r="C604" s="7"/>
     </row>
     <row r="605">
-      <c r="C605" s="6"/>
+      <c r="C605" s="7"/>
     </row>
     <row r="606">
-      <c r="C606" s="6"/>
+      <c r="C606" s="7"/>
     </row>
     <row r="607">
-      <c r="C607" s="6"/>
+      <c r="C607" s="7"/>
     </row>
     <row r="608">
-      <c r="C608" s="6"/>
+      <c r="C608" s="7"/>
     </row>
     <row r="609">
-      <c r="C609" s="6"/>
+      <c r="C609" s="7"/>
     </row>
     <row r="610">
-      <c r="C610" s="6"/>
+      <c r="C610" s="7"/>
     </row>
     <row r="611">
-      <c r="C611" s="6"/>
+      <c r="C611" s="7"/>
     </row>
     <row r="612">
-      <c r="C612" s="6"/>
+      <c r="C612" s="7"/>
     </row>
     <row r="613">
-      <c r="C613" s="6"/>
+      <c r="C613" s="7"/>
     </row>
     <row r="614">
-      <c r="C614" s="6"/>
+      <c r="C614" s="7"/>
     </row>
     <row r="615">
-      <c r="C615" s="6"/>
+      <c r="C615" s="7"/>
     </row>
     <row r="616">
-      <c r="C616" s="6"/>
+      <c r="C616" s="7"/>
     </row>
     <row r="617">
-      <c r="C617" s="6"/>
+      <c r="C617" s="7"/>
     </row>
     <row r="618">
-      <c r="C618" s="6"/>
+      <c r="C618" s="7"/>
     </row>
     <row r="619">
-      <c r="C619" s="6"/>
+      <c r="C619" s="7"/>
     </row>
     <row r="620">
-      <c r="C620" s="6"/>
+      <c r="C620" s="7"/>
     </row>
     <row r="621">
-      <c r="C621" s="6"/>
+      <c r="C621" s="7"/>
     </row>
     <row r="622">
-      <c r="C622" s="6"/>
+      <c r="C622" s="7"/>
     </row>
     <row r="623">
-      <c r="C623" s="6"/>
+      <c r="C623" s="7"/>
     </row>
     <row r="624">
-      <c r="C624" s="6"/>
+      <c r="C624" s="7"/>
     </row>
     <row r="625">
-      <c r="C625" s="6"/>
+      <c r="C625" s="7"/>
     </row>
     <row r="626">
-      <c r="C626" s="6"/>
+      <c r="C626" s="7"/>
     </row>
     <row r="627">
-      <c r="C627" s="6"/>
+      <c r="C627" s="7"/>
     </row>
     <row r="628">
-      <c r="C628" s="6"/>
+      <c r="C628" s="7"/>
     </row>
     <row r="629">
-      <c r="C629" s="6"/>
+      <c r="C629" s="7"/>
     </row>
     <row r="630">
-      <c r="C630" s="6"/>
+      <c r="C630" s="7"/>
     </row>
     <row r="631">
-      <c r="C631" s="6"/>
+      <c r="C631" s="7"/>
     </row>
     <row r="632">
-      <c r="C632" s="6"/>
+      <c r="C632" s="7"/>
     </row>
     <row r="633">
-      <c r="C633" s="6"/>
+      <c r="C633" s="7"/>
     </row>
     <row r="634">
-      <c r="C634" s="6"/>
+      <c r="C634" s="7"/>
     </row>
     <row r="635">
-      <c r="C635" s="6"/>
+      <c r="C635" s="7"/>
     </row>
     <row r="636">
-      <c r="C636" s="6"/>
+      <c r="C636" s="7"/>
     </row>
     <row r="637">
-      <c r="C637" s="6"/>
+      <c r="C637" s="7"/>
     </row>
     <row r="638">
-      <c r="C638" s="6"/>
+      <c r="C638" s="7"/>
     </row>
     <row r="639">
-      <c r="C639" s="6"/>
+      <c r="C639" s="7"/>
     </row>
     <row r="640">
-      <c r="C640" s="6"/>
+      <c r="C640" s="7"/>
     </row>
     <row r="641">
-      <c r="C641" s="6"/>
+      <c r="C641" s="7"/>
     </row>
     <row r="642">
-      <c r="C642" s="6"/>
+      <c r="C642" s="7"/>
     </row>
     <row r="643">
-      <c r="C643" s="6"/>
+      <c r="C643" s="7"/>
     </row>
     <row r="644">
-      <c r="C644" s="6"/>
+      <c r="C644" s="7"/>
     </row>
     <row r="645">
-      <c r="C645" s="6"/>
+      <c r="C645" s="7"/>
     </row>
     <row r="646">
-      <c r="C646" s="6"/>
+      <c r="C646" s="7"/>
     </row>
     <row r="647">
-      <c r="C647" s="6"/>
+      <c r="C647" s="7"/>
     </row>
     <row r="648">
-      <c r="C648" s="6"/>
+      <c r="C648" s="7"/>
     </row>
     <row r="649">
-      <c r="C649" s="6"/>
+      <c r="C649" s="7"/>
     </row>
     <row r="650">
-      <c r="C650" s="6"/>
+      <c r="C650" s="7"/>
     </row>
     <row r="651">
-      <c r="C651" s="6"/>
+      <c r="C651" s="7"/>
     </row>
     <row r="652">
-      <c r="C652" s="6"/>
+      <c r="C652" s="7"/>
     </row>
     <row r="653">
-      <c r="C653" s="6"/>
+      <c r="C653" s="7"/>
     </row>
     <row r="654">
-      <c r="C654" s="6"/>
+      <c r="C654" s="7"/>
     </row>
     <row r="655">
-      <c r="C655" s="6"/>
+      <c r="C655" s="7"/>
     </row>
     <row r="656">
-      <c r="C656" s="6"/>
+      <c r="C656" s="7"/>
     </row>
     <row r="657">
-      <c r="C657" s="6"/>
+      <c r="C657" s="7"/>
     </row>
     <row r="658">
-      <c r="C658" s="6"/>
+      <c r="C658" s="7"/>
     </row>
     <row r="659">
-      <c r="C659" s="6"/>
+      <c r="C659" s="7"/>
     </row>
     <row r="660">
-      <c r="C660" s="6"/>
+      <c r="C660" s="7"/>
     </row>
     <row r="661">
-      <c r="C661" s="6"/>
+      <c r="C661" s="7"/>
     </row>
     <row r="662">
-      <c r="C662" s="6"/>
+      <c r="C662" s="7"/>
     </row>
     <row r="663">
-      <c r="C663" s="6"/>
+      <c r="C663" s="7"/>
     </row>
     <row r="664">
-      <c r="C664" s="6"/>
+      <c r="C664" s="7"/>
     </row>
     <row r="665">
-      <c r="C665" s="6"/>
+      <c r="C665" s="7"/>
     </row>
     <row r="666">
-      <c r="C666" s="6"/>
+      <c r="C666" s="7"/>
     </row>
     <row r="667">
-      <c r="C667" s="6"/>
+      <c r="C667" s="7"/>
     </row>
     <row r="668">
-      <c r="C668" s="6"/>
+      <c r="C668" s="7"/>
     </row>
     <row r="669">
-      <c r="C669" s="6"/>
+      <c r="C669" s="7"/>
     </row>
     <row r="670">
-      <c r="C670" s="6"/>
+      <c r="C670" s="7"/>
     </row>
     <row r="671">
-      <c r="C671" s="6"/>
+      <c r="C671" s="7"/>
     </row>
     <row r="672">
-      <c r="C672" s="6"/>
+      <c r="C672" s="7"/>
     </row>
     <row r="673">
-      <c r="C673" s="6"/>
+      <c r="C673" s="7"/>
     </row>
     <row r="674">
-      <c r="C674" s="6"/>
+      <c r="C674" s="7"/>
     </row>
     <row r="675">
-      <c r="C675" s="6"/>
+      <c r="C675" s="7"/>
     </row>
     <row r="676">
-      <c r="C676" s="6"/>
+      <c r="C676" s="7"/>
     </row>
     <row r="677">
-      <c r="C677" s="6"/>
+      <c r="C677" s="7"/>
     </row>
     <row r="678">
-      <c r="C678" s="6"/>
+      <c r="C678" s="7"/>
     </row>
     <row r="679">
-      <c r="C679" s="6"/>
+      <c r="C679" s="7"/>
     </row>
     <row r="680">
-      <c r="C680" s="6"/>
+      <c r="C680" s="7"/>
     </row>
     <row r="681">
-      <c r="C681" s="6"/>
+      <c r="C681" s="7"/>
     </row>
     <row r="682">
-      <c r="C682" s="6"/>
+      <c r="C682" s="7"/>
     </row>
     <row r="683">
-      <c r="C683" s="6"/>
+      <c r="C683" s="7"/>
     </row>
     <row r="684">
-      <c r="C684" s="6"/>
+      <c r="C684" s="7"/>
     </row>
     <row r="685">
-      <c r="C685" s="6"/>
+      <c r="C685" s="7"/>
     </row>
     <row r="686">
-      <c r="C686" s="6"/>
+      <c r="C686" s="7"/>
     </row>
     <row r="687">
-      <c r="C687" s="6"/>
+      <c r="C687" s="7"/>
     </row>
     <row r="688">
-      <c r="C688" s="6"/>
+      <c r="C688" s="7"/>
     </row>
     <row r="689">
-      <c r="C689" s="6"/>
+      <c r="C689" s="7"/>
     </row>
     <row r="690">
-      <c r="C690" s="6"/>
+      <c r="C690" s="7"/>
     </row>
     <row r="691">
-      <c r="C691" s="6"/>
+      <c r="C691" s="7"/>
     </row>
     <row r="692">
-      <c r="C692" s="6"/>
+      <c r="C692" s="7"/>
     </row>
     <row r="693">
-      <c r="C693" s="6"/>
+      <c r="C693" s="7"/>
     </row>
     <row r="694">
-      <c r="C694" s="6"/>
+      <c r="C694" s="7"/>
     </row>
     <row r="695">
-      <c r="C695" s="6"/>
+      <c r="C695" s="7"/>
     </row>
     <row r="696">
-      <c r="C696" s="6"/>
+      <c r="C696" s="7"/>
     </row>
     <row r="697">
-      <c r="C697" s="6"/>
+      <c r="C697" s="7"/>
     </row>
     <row r="698">
-      <c r="C698" s="6"/>
+      <c r="C698" s="7"/>
     </row>
     <row r="699">
-      <c r="C699" s="6"/>
+      <c r="C699" s="7"/>
     </row>
     <row r="700">
-      <c r="C700" s="6"/>
+      <c r="C700" s="7"/>
     </row>
     <row r="701">
-      <c r="C701" s="6"/>
+      <c r="C701" s="7"/>
     </row>
     <row r="702">
-      <c r="C702" s="6"/>
+      <c r="C702" s="7"/>
     </row>
     <row r="703">
-      <c r="C703" s="6"/>
+      <c r="C703" s="7"/>
     </row>
     <row r="704">
-      <c r="C704" s="6"/>
+      <c r="C704" s="7"/>
     </row>
     <row r="705">
-      <c r="C705" s="6"/>
+      <c r="C705" s="7"/>
     </row>
     <row r="706">
-      <c r="C706" s="6"/>
+      <c r="C706" s="7"/>
     </row>
     <row r="707">
-      <c r="C707" s="6"/>
+      <c r="C707" s="7"/>
     </row>
     <row r="708">
-      <c r="C708" s="6"/>
+      <c r="C708" s="7"/>
     </row>
     <row r="709">
-      <c r="C709" s="6"/>
+      <c r="C709" s="7"/>
     </row>
     <row r="710">
-      <c r="C710" s="6"/>
+      <c r="C710" s="7"/>
     </row>
     <row r="711">
-      <c r="C711" s="6"/>
+      <c r="C711" s="7"/>
     </row>
     <row r="712">
-      <c r="C712" s="6"/>
+      <c r="C712" s="7"/>
     </row>
     <row r="713">
-      <c r="C713" s="6"/>
+      <c r="C713" s="7"/>
     </row>
     <row r="714">
-      <c r="C714" s="6"/>
+      <c r="C714" s="7"/>
     </row>
     <row r="715">
-      <c r="C715" s="6"/>
+      <c r="C715" s="7"/>
     </row>
     <row r="716">
-      <c r="C716" s="6"/>
+      <c r="C716" s="7"/>
     </row>
     <row r="717">
-      <c r="C717" s="6"/>
+      <c r="C717" s="7"/>
     </row>
     <row r="718">
-      <c r="C718" s="6"/>
+      <c r="C718" s="7"/>
     </row>
     <row r="719">
-      <c r="C719" s="6"/>
+      <c r="C719" s="7"/>
     </row>
     <row r="720">
-      <c r="C720" s="6"/>
+      <c r="C720" s="7"/>
     </row>
     <row r="721">
-      <c r="C721" s="6"/>
+      <c r="C721" s="7"/>
     </row>
     <row r="722">
-      <c r="C722" s="6"/>
+      <c r="C722" s="7"/>
     </row>
     <row r="723">
-      <c r="C723" s="6"/>
+      <c r="C723" s="7"/>
     </row>
     <row r="724">
-      <c r="C724" s="6"/>
+      <c r="C724" s="7"/>
     </row>
     <row r="725">
-      <c r="C725" s="6"/>
+      <c r="C725" s="7"/>
     </row>
     <row r="726">
-      <c r="C726" s="6"/>
+      <c r="C726" s="7"/>
     </row>
     <row r="727">
-      <c r="C727" s="6"/>
+      <c r="C727" s="7"/>
     </row>
     <row r="728">
-      <c r="C728" s="6"/>
+      <c r="C728" s="7"/>
     </row>
     <row r="729">
-      <c r="C729" s="6"/>
+      <c r="C729" s="7"/>
     </row>
     <row r="730">
-      <c r="C730" s="6"/>
+      <c r="C730" s="7"/>
     </row>
     <row r="731">
-      <c r="C731" s="6"/>
+      <c r="C731" s="7"/>
     </row>
     <row r="732">
-      <c r="C732" s="6"/>
+      <c r="C732" s="7"/>
     </row>
     <row r="733">
-      <c r="C733" s="6"/>
+      <c r="C733" s="7"/>
     </row>
     <row r="734">
-      <c r="C734" s="6"/>
+      <c r="C734" s="7"/>
     </row>
     <row r="735">
-      <c r="C735" s="6"/>
+      <c r="C735" s="7"/>
     </row>
     <row r="736">
-      <c r="C736" s="6"/>
+      <c r="C736" s="7"/>
     </row>
     <row r="737">
-      <c r="C737" s="6"/>
+      <c r="C737" s="7"/>
     </row>
     <row r="738">
-      <c r="C738" s="6"/>
+      <c r="C738" s="7"/>
     </row>
     <row r="739">
-      <c r="C739" s="6"/>
+      <c r="C739" s="7"/>
     </row>
     <row r="740">
-      <c r="C740" s="6"/>
+      <c r="C740" s="7"/>
     </row>
     <row r="741">
-      <c r="C741" s="6"/>
+      <c r="C741" s="7"/>
     </row>
     <row r="742">
-      <c r="C742" s="6"/>
+      <c r="C742" s="7"/>
     </row>
     <row r="743">
-      <c r="C743" s="6"/>
+      <c r="C743" s="7"/>
     </row>
     <row r="744">
-      <c r="C744" s="6"/>
+      <c r="C744" s="7"/>
     </row>
     <row r="745">
-      <c r="C745" s="6"/>
+      <c r="C745" s="7"/>
     </row>
     <row r="746">
-      <c r="C746" s="6"/>
+      <c r="C746" s="7"/>
     </row>
     <row r="747">
-      <c r="C747" s="6"/>
+      <c r="C747" s="7"/>
     </row>
     <row r="748">
-      <c r="C748" s="6"/>
+      <c r="C748" s="7"/>
     </row>
     <row r="749">
-      <c r="C749" s="6"/>
+      <c r="C749" s="7"/>
     </row>
     <row r="750">
-      <c r="C750" s="6"/>
+      <c r="C750" s="7"/>
     </row>
     <row r="751">
-      <c r="C751" s="6"/>
+      <c r="C751" s="7"/>
     </row>
     <row r="752">
-      <c r="C752" s="6"/>
+      <c r="C752" s="7"/>
     </row>
     <row r="753">
-      <c r="C753" s="6"/>
+      <c r="C753" s="7"/>
     </row>
     <row r="754">
-      <c r="C754" s="6"/>
+      <c r="C754" s="7"/>
     </row>
     <row r="755">
-      <c r="C755" s="6"/>
+      <c r="C755" s="7"/>
     </row>
     <row r="756">
-      <c r="C756" s="6"/>
+      <c r="C756" s="7"/>
     </row>
     <row r="757">
-      <c r="C757" s="6"/>
+      <c r="C757" s="7"/>
     </row>
     <row r="758">
-      <c r="C758" s="6"/>
+      <c r="C758" s="7"/>
     </row>
     <row r="759">
-      <c r="C759" s="6"/>
+      <c r="C759" s="7"/>
     </row>
     <row r="760">
-      <c r="C760" s="6"/>
+      <c r="C760" s="7"/>
     </row>
     <row r="761">
-      <c r="C761" s="6"/>
+      <c r="C761" s="7"/>
     </row>
     <row r="762">
-      <c r="C762" s="6"/>
+      <c r="C762" s="7"/>
     </row>
     <row r="763">
-      <c r="C763" s="6"/>
+      <c r="C763" s="7"/>
     </row>
     <row r="764">
-      <c r="C764" s="6"/>
+      <c r="C764" s="7"/>
     </row>
     <row r="765">
-      <c r="C765" s="6"/>
+      <c r="C765" s="7"/>
     </row>
     <row r="766">
-      <c r="C766" s="6"/>
+      <c r="C766" s="7"/>
     </row>
     <row r="767">
-      <c r="C767" s="6"/>
+      <c r="C767" s="7"/>
     </row>
     <row r="768">
-      <c r="C768" s="6"/>
+      <c r="C768" s="7"/>
     </row>
     <row r="769">
-      <c r="C769" s="6"/>
+      <c r="C769" s="7"/>
     </row>
     <row r="770">
-      <c r="C770" s="6"/>
+      <c r="C770" s="7"/>
     </row>
     <row r="771">
-      <c r="C771" s="6"/>
+      <c r="C771" s="7"/>
     </row>
     <row r="772">
-      <c r="C772" s="6"/>
+      <c r="C772" s="7"/>
     </row>
     <row r="773">
-      <c r="C773" s="6"/>
+      <c r="C773" s="7"/>
     </row>
     <row r="774">
-      <c r="C774" s="6"/>
+      <c r="C774" s="7"/>
     </row>
     <row r="775">
-      <c r="C775" s="6"/>
+      <c r="C775" s="7"/>
     </row>
     <row r="776">
-      <c r="C776" s="6"/>
+      <c r="C776" s="7"/>
     </row>
     <row r="777">
-      <c r="C777" s="6"/>
+      <c r="C777" s="7"/>
     </row>
     <row r="778">
-      <c r="C778" s="6"/>
+      <c r="C778" s="7"/>
     </row>
     <row r="779">
-      <c r="C779" s="6"/>
+      <c r="C779" s="7"/>
     </row>
     <row r="780">
-      <c r="C780" s="6"/>
+      <c r="C780" s="7"/>
     </row>
     <row r="781">
-      <c r="C781" s="6"/>
+      <c r="C781" s="7"/>
     </row>
     <row r="782">
-      <c r="C782" s="6"/>
+      <c r="C782" s="7"/>
     </row>
     <row r="783">
-      <c r="C783" s="6"/>
+      <c r="C783" s="7"/>
     </row>
     <row r="784">
-      <c r="C784" s="6"/>
+      <c r="C784" s="7"/>
     </row>
     <row r="785">
-      <c r="C785" s="6"/>
+      <c r="C785" s="7"/>
     </row>
     <row r="786">
-      <c r="C786" s="6"/>
+      <c r="C786" s="7"/>
     </row>
     <row r="787">
-      <c r="C787" s="6"/>
+      <c r="C787" s="7"/>
     </row>
     <row r="788">
-      <c r="C788" s="6"/>
+      <c r="C788" s="7"/>
     </row>
     <row r="789">
-      <c r="C789" s="6"/>
+      <c r="C789" s="7"/>
     </row>
     <row r="790">
-      <c r="C790" s="6"/>
+      <c r="C790" s="7"/>
     </row>
     <row r="791">
-      <c r="C791" s="6"/>
+      <c r="C791" s="7"/>
     </row>
     <row r="792">
-      <c r="C792" s="6"/>
+      <c r="C792" s="7"/>
     </row>
     <row r="793">
-      <c r="C793" s="6"/>
+      <c r="C793" s="7"/>
     </row>
     <row r="794">
-      <c r="C794" s="6"/>
+      <c r="C794" s="7"/>
     </row>
     <row r="795">
-      <c r="C795" s="6"/>
+      <c r="C795" s="7"/>
     </row>
     <row r="796">
-      <c r="C796" s="6"/>
+      <c r="C796" s="7"/>
     </row>
     <row r="797">
-      <c r="C797" s="6"/>
+      <c r="C797" s="7"/>
     </row>
     <row r="798">
-      <c r="C798" s="6"/>
+      <c r="C798" s="7"/>
     </row>
     <row r="799">
-      <c r="C799" s="6"/>
+      <c r="C799" s="7"/>
     </row>
     <row r="800">
-      <c r="C800" s="6"/>
+      <c r="C800" s="7"/>
     </row>
     <row r="801">
-      <c r="C801" s="6"/>
+      <c r="C801" s="7"/>
     </row>
     <row r="802">
-      <c r="C802" s="6"/>
+      <c r="C802" s="7"/>
     </row>
     <row r="803">
-      <c r="C803" s="6"/>
+      <c r="C803" s="7"/>
     </row>
     <row r="804">
-      <c r="C804" s="6"/>
+      <c r="C804" s="7"/>
     </row>
     <row r="805">
-      <c r="C805" s="6"/>
+      <c r="C805" s="7"/>
     </row>
     <row r="806">
-      <c r="C806" s="6"/>
+      <c r="C806" s="7"/>
     </row>
     <row r="807">
-      <c r="C807" s="6"/>
+      <c r="C807" s="7"/>
     </row>
     <row r="808">
-      <c r="C808" s="6"/>
+      <c r="C808" s="7"/>
     </row>
     <row r="809">
-      <c r="C809" s="6"/>
+      <c r="C809" s="7"/>
     </row>
     <row r="810">
-      <c r="C810" s="6"/>
+      <c r="C810" s="7"/>
     </row>
     <row r="811">
-      <c r="C811" s="6"/>
+      <c r="C811" s="7"/>
     </row>
     <row r="812">
-      <c r="C812" s="6"/>
+      <c r="C812" s="7"/>
     </row>
     <row r="813">
-      <c r="C813" s="6"/>
+      <c r="C813" s="7"/>
     </row>
     <row r="814">
-      <c r="C814" s="6"/>
+      <c r="C814" s="7"/>
     </row>
     <row r="815">
-      <c r="C815" s="6"/>
+      <c r="C815" s="7"/>
     </row>
     <row r="816">
-      <c r="C816" s="6"/>
+      <c r="C816" s="7"/>
     </row>
     <row r="817">
-      <c r="C817" s="6"/>
+      <c r="C817" s="7"/>
     </row>
     <row r="818">
-      <c r="C818" s="6"/>
+      <c r="C818" s="7"/>
     </row>
     <row r="819">
-      <c r="C819" s="6"/>
+      <c r="C819" s="7"/>
     </row>
     <row r="820">
-      <c r="C820" s="6"/>
+      <c r="C820" s="7"/>
     </row>
     <row r="821">
-      <c r="C821" s="6"/>
+      <c r="C821" s="7"/>
     </row>
     <row r="822">
-      <c r="C822" s="6"/>
+      <c r="C822" s="7"/>
     </row>
     <row r="823">
-      <c r="C823" s="6"/>
+      <c r="C823" s="7"/>
     </row>
     <row r="824">
-      <c r="C824" s="6"/>
+      <c r="C824" s="7"/>
     </row>
     <row r="825">
-      <c r="C825" s="6"/>
+      <c r="C825" s="7"/>
     </row>
     <row r="826">
-      <c r="C826" s="6"/>
+      <c r="C826" s="7"/>
     </row>
     <row r="827">
-      <c r="C827" s="6"/>
+      <c r="C827" s="7"/>
     </row>
     <row r="828">
-      <c r="C828" s="6"/>
+      <c r="C828" s="7"/>
     </row>
     <row r="829">
-      <c r="C829" s="6"/>
+      <c r="C829" s="7"/>
     </row>
     <row r="830">
-      <c r="C830" s="6"/>
+      <c r="C830" s="7"/>
     </row>
     <row r="831">
-      <c r="C831" s="6"/>
+      <c r="C831" s="7"/>
     </row>
     <row r="832">
-      <c r="C832" s="6"/>
+      <c r="C832" s="7"/>
     </row>
     <row r="833">
-      <c r="C833" s="6"/>
+      <c r="C833" s="7"/>
     </row>
     <row r="834">
-      <c r="C834" s="6"/>
+      <c r="C834" s="7"/>
     </row>
     <row r="835">
-      <c r="C835" s="6"/>
+      <c r="C835" s="7"/>
     </row>
     <row r="836">
-      <c r="C836" s="6"/>
+      <c r="C836" s="7"/>
     </row>
     <row r="837">
-      <c r="C837" s="6"/>
+      <c r="C837" s="7"/>
     </row>
     <row r="838">
-      <c r="C838" s="6"/>
+      <c r="C838" s="7"/>
     </row>
     <row r="839">
-      <c r="C839" s="6"/>
+      <c r="C839" s="7"/>
     </row>
     <row r="840">
-      <c r="C840" s="6"/>
+      <c r="C840" s="7"/>
     </row>
     <row r="841">
-      <c r="C841" s="6"/>
+      <c r="C841" s="7"/>
     </row>
     <row r="842">
-      <c r="C842" s="6"/>
+      <c r="C842" s="7"/>
     </row>
     <row r="843">
-      <c r="C843" s="6"/>
+      <c r="C843" s="7"/>
     </row>
     <row r="844">
-      <c r="C844" s="6"/>
+      <c r="C844" s="7"/>
     </row>
     <row r="845">
-      <c r="C845" s="6"/>
+      <c r="C845" s="7"/>
     </row>
     <row r="846">
-      <c r="C846" s="6"/>
+      <c r="C846" s="7"/>
     </row>
     <row r="847">
-      <c r="C847" s="6"/>
+      <c r="C847" s="7"/>
     </row>
     <row r="848">
-      <c r="C848" s="6"/>
+      <c r="C848" s="7"/>
     </row>
     <row r="849">
-      <c r="C849" s="6"/>
+      <c r="C849" s="7"/>
     </row>
     <row r="850">
-      <c r="C850" s="6"/>
+      <c r="C850" s="7"/>
     </row>
     <row r="851">
-      <c r="C851" s="6"/>
+      <c r="C851" s="7"/>
     </row>
     <row r="852">
-      <c r="C852" s="6"/>
+      <c r="C852" s="7"/>
     </row>
     <row r="853">
-      <c r="C853" s="6"/>
+      <c r="C853" s="7"/>
     </row>
     <row r="854">
-      <c r="C854" s="6"/>
+      <c r="C854" s="7"/>
     </row>
     <row r="855">
-      <c r="C855" s="6"/>
+      <c r="C855" s="7"/>
     </row>
     <row r="856">
-      <c r="C856" s="6"/>
+      <c r="C856" s="7"/>
     </row>
     <row r="857">
-      <c r="C857" s="6"/>
+      <c r="C857" s="7"/>
     </row>
     <row r="858">
-      <c r="C858" s="6"/>
+      <c r="C858" s="7"/>
     </row>
     <row r="859">
-      <c r="C859" s="6"/>
+      <c r="C859" s="7"/>
     </row>
     <row r="860">
-      <c r="C860" s="6"/>
+      <c r="C860" s="7"/>
     </row>
     <row r="861">
-      <c r="C861" s="6"/>
+      <c r="C861" s="7"/>
     </row>
     <row r="862">
-      <c r="C862" s="6"/>
+      <c r="C862" s="7"/>
     </row>
     <row r="863">
-      <c r="C863" s="6"/>
+      <c r="C863" s="7"/>
     </row>
     <row r="864">
-      <c r="C864" s="6"/>
+      <c r="C864" s="7"/>
     </row>
     <row r="865">
-      <c r="C865" s="6"/>
+      <c r="C865" s="7"/>
     </row>
     <row r="866">
-      <c r="C866" s="6"/>
+      <c r="C866" s="7"/>
     </row>
     <row r="867">
-      <c r="C867" s="6"/>
+      <c r="C867" s="7"/>
     </row>
     <row r="868">
-      <c r="C868" s="6"/>
+      <c r="C868" s="7"/>
     </row>
     <row r="869">
-      <c r="C869" s="6"/>
+      <c r="C869" s="7"/>
     </row>
     <row r="870">
-      <c r="C870" s="6"/>
+      <c r="C870" s="7"/>
     </row>
     <row r="871">
-      <c r="C871" s="6"/>
+      <c r="C871" s="7"/>
     </row>
     <row r="872">
-      <c r="C872" s="6"/>
+      <c r="C872" s="7"/>
     </row>
     <row r="873">
-      <c r="C873" s="6"/>
+      <c r="C873" s="7"/>
     </row>
     <row r="874">
-      <c r="C874" s="6"/>
+      <c r="C874" s="7"/>
     </row>
     <row r="875">
-      <c r="C875" s="6"/>
+      <c r="C875" s="7"/>
     </row>
     <row r="876">
-      <c r="C876" s="6"/>
+      <c r="C876" s="7"/>
     </row>
     <row r="877">
-      <c r="C877" s="6"/>
+      <c r="C877" s="7"/>
     </row>
     <row r="878">
-      <c r="C878" s="6"/>
+      <c r="C878" s="7"/>
     </row>
     <row r="879">
-      <c r="C879" s="6"/>
+      <c r="C879" s="7"/>
     </row>
     <row r="880">
-      <c r="C880" s="6"/>
+      <c r="C880" s="7"/>
     </row>
     <row r="881">
-      <c r="C881" s="6"/>
+      <c r="C881" s="7"/>
     </row>
     <row r="882">
-      <c r="C882" s="6"/>
+      <c r="C882" s="7"/>
     </row>
     <row r="883">
-      <c r="C883" s="6"/>
+      <c r="C883" s="7"/>
     </row>
     <row r="884">
-      <c r="C884" s="6"/>
+      <c r="C884" s="7"/>
     </row>
     <row r="885">
-      <c r="C885" s="6"/>
+      <c r="C885" s="7"/>
     </row>
     <row r="886">
-      <c r="C886" s="6"/>
+      <c r="C886" s="7"/>
     </row>
     <row r="887">
-      <c r="C887" s="6"/>
+      <c r="C887" s="7"/>
     </row>
     <row r="888">
-      <c r="C888" s="6"/>
+      <c r="C888" s="7"/>
     </row>
     <row r="889">
-      <c r="C889" s="6"/>
+      <c r="C889" s="7"/>
     </row>
     <row r="890">
-      <c r="C890" s="6"/>
+      <c r="C890" s="7"/>
     </row>
     <row r="891">
-      <c r="C891" s="6"/>
+      <c r="C891" s="7"/>
     </row>
     <row r="892">
-      <c r="C892" s="6"/>
+      <c r="C892" s="7"/>
     </row>
     <row r="893">
-      <c r="C893" s="6"/>
+      <c r="C893" s="7"/>
     </row>
     <row r="894">
-      <c r="C894" s="6"/>
+      <c r="C894" s="7"/>
     </row>
     <row r="895">
-      <c r="C895" s="6"/>
+      <c r="C895" s="7"/>
     </row>
     <row r="896">
-      <c r="C896" s="6"/>
+      <c r="C896" s="7"/>
     </row>
     <row r="897">
-      <c r="C897" s="6"/>
+      <c r="C897" s="7"/>
     </row>
     <row r="898">
-      <c r="C898" s="6"/>
+      <c r="C898" s="7"/>
     </row>
     <row r="899">
-      <c r="C899" s="6"/>
+      <c r="C899" s="7"/>
     </row>
     <row r="900">
-      <c r="C900" s="6"/>
+      <c r="C900" s="7"/>
     </row>
     <row r="901">
-      <c r="C901" s="6"/>
+      <c r="C901" s="7"/>
     </row>
     <row r="902">
-      <c r="C902" s="6"/>
+      <c r="C902" s="7"/>
     </row>
     <row r="903">
-      <c r="C903" s="6"/>
+      <c r="C903" s="7"/>
     </row>
     <row r="904">
-      <c r="C904" s="6"/>
+      <c r="C904" s="7"/>
     </row>
     <row r="905">
-      <c r="C905" s="6"/>
+      <c r="C905" s="7"/>
     </row>
     <row r="906">
-      <c r="C906" s="6"/>
+      <c r="C906" s="7"/>
     </row>
     <row r="907">
-      <c r="C907" s="6"/>
+      <c r="C907" s="7"/>
     </row>
     <row r="908">
-      <c r="C908" s="6"/>
+      <c r="C908" s="7"/>
     </row>
     <row r="909">
-      <c r="C909" s="6"/>
+      <c r="C909" s="7"/>
     </row>
     <row r="910">
-      <c r="C910" s="6"/>
+      <c r="C910" s="7"/>
     </row>
     <row r="911">
-      <c r="C911" s="6"/>
+      <c r="C911" s="7"/>
     </row>
     <row r="912">
-      <c r="C912" s="6"/>
+      <c r="C912" s="7"/>
     </row>
     <row r="913">
-      <c r="C913" s="6"/>
+      <c r="C913" s="7"/>
     </row>
     <row r="914">
-      <c r="C914" s="6"/>
+      <c r="C914" s="7"/>
     </row>
     <row r="915">
-      <c r="C915" s="6"/>
+      <c r="C915" s="7"/>
     </row>
     <row r="916">
-      <c r="C916" s="6"/>
+      <c r="C916" s="7"/>
     </row>
     <row r="917">
-      <c r="C917" s="6"/>
+      <c r="C917" s="7"/>
     </row>
     <row r="918">
-      <c r="C918" s="6"/>
+      <c r="C918" s="7"/>
     </row>
     <row r="919">
-      <c r="C919" s="6"/>
+      <c r="C919" s="7"/>
     </row>
     <row r="920">
-      <c r="C920" s="6"/>
+      <c r="C920" s="7"/>
     </row>
     <row r="921">
-      <c r="C921" s="6"/>
+      <c r="C921" s="7"/>
     </row>
     <row r="922">
-      <c r="C922" s="6"/>
+      <c r="C922" s="7"/>
     </row>
     <row r="923">
-      <c r="C923" s="6"/>
+      <c r="C923" s="7"/>
     </row>
     <row r="924">
-      <c r="C924" s="6"/>
+      <c r="C924" s="7"/>
     </row>
     <row r="925">
-      <c r="C925" s="6"/>
+      <c r="C925" s="7"/>
     </row>
     <row r="926">
-      <c r="C926" s="6"/>
+      <c r="C926" s="7"/>
     </row>
     <row r="927">
-      <c r="C927" s="6"/>
+      <c r="C927" s="7"/>
     </row>
     <row r="928">
-      <c r="C928" s="6"/>
+      <c r="C928" s="7"/>
     </row>
     <row r="929">
-      <c r="C929" s="6"/>
+      <c r="C929" s="7"/>
     </row>
     <row r="930">
-      <c r="C930" s="6"/>
+      <c r="C930" s="7"/>
     </row>
     <row r="931">
-      <c r="C931" s="6"/>
+      <c r="C931" s="7"/>
     </row>
     <row r="932">
-      <c r="C932" s="6"/>
+      <c r="C932" s="7"/>
     </row>
     <row r="933">
-      <c r="C933" s="6"/>
+      <c r="C933" s="7"/>
     </row>
     <row r="934">
-      <c r="C934" s="6"/>
+      <c r="C934" s="7"/>
     </row>
     <row r="935">
-      <c r="C935" s="6"/>
+      <c r="C935" s="7"/>
     </row>
     <row r="936">
-      <c r="C936" s="6"/>
+      <c r="C936" s="7"/>
     </row>
     <row r="937">
-      <c r="C937" s="6"/>
+      <c r="C937" s="7"/>
     </row>
     <row r="938">
-      <c r="C938" s="6"/>
+      <c r="C938" s="7"/>
     </row>
     <row r="939">
-      <c r="C939" s="6"/>
+      <c r="C939" s="7"/>
     </row>
     <row r="940">
-      <c r="C940" s="6"/>
+      <c r="C940" s="7"/>
     </row>
     <row r="941">
-      <c r="C941" s="6"/>
+      <c r="C941" s="7"/>
     </row>
     <row r="942">
-      <c r="C942" s="6"/>
+      <c r="C942" s="7"/>
     </row>
     <row r="943">
-      <c r="C943" s="6"/>
+      <c r="C943" s="7"/>
     </row>
     <row r="944">
-      <c r="C944" s="6"/>
+      <c r="C944" s="7"/>
     </row>
     <row r="945">
-      <c r="C945" s="6"/>
+      <c r="C945" s="7"/>
     </row>
     <row r="946">
-      <c r="C946" s="6"/>
+      <c r="C946" s="7"/>
     </row>
     <row r="947">
-      <c r="C947" s="6"/>
+      <c r="C947" s="7"/>
     </row>
     <row r="948">
-      <c r="C948" s="6"/>
+      <c r="C948" s="7"/>
     </row>
     <row r="949">
-      <c r="C949" s="6"/>
+      <c r="C949" s="7"/>
     </row>
     <row r="950">
-      <c r="C950" s="6"/>
+      <c r="C950" s="7"/>
     </row>
     <row r="951">
-      <c r="C951" s="6"/>
+      <c r="C951" s="7"/>
     </row>
     <row r="952">
-      <c r="C952" s="6"/>
+      <c r="C952" s="7"/>
     </row>
     <row r="953">
-      <c r="C953" s="6"/>
+      <c r="C953" s="7"/>
     </row>
     <row r="954">
-      <c r="C954" s="6"/>
+      <c r="C954" s="7"/>
     </row>
     <row r="955">
-      <c r="C955" s="6"/>
+      <c r="C955" s="7"/>
     </row>
     <row r="956">
-      <c r="C956" s="6"/>
+      <c r="C956" s="7"/>
     </row>
     <row r="957">
-      <c r="C957" s="6"/>
+      <c r="C957" s="7"/>
     </row>
     <row r="958">
-      <c r="C958" s="6"/>
+      <c r="C958" s="7"/>
     </row>
     <row r="959">
-      <c r="C959" s="6"/>
+      <c r="C959" s="7"/>
     </row>
     <row r="960">
-      <c r="C960" s="6"/>
+      <c r="C960" s="7"/>
     </row>
     <row r="961">
-      <c r="C961" s="6"/>
+      <c r="C961" s="7"/>
     </row>
     <row r="962">
-      <c r="C962" s="6"/>
+      <c r="C962" s="7"/>
     </row>
     <row r="963">
-      <c r="C963" s="6"/>
+      <c r="C963" s="7"/>
     </row>
     <row r="964">
-      <c r="C964" s="6"/>
+      <c r="C964" s="7"/>
     </row>
     <row r="965">
-      <c r="C965" s="6"/>
+      <c r="C965" s="7"/>
     </row>
     <row r="966">
-      <c r="C966" s="6"/>
+      <c r="C966" s="7"/>
     </row>
     <row r="967">
-      <c r="C967" s="6"/>
+      <c r="C967" s="7"/>
     </row>
     <row r="968">
-      <c r="C968" s="6"/>
+      <c r="C968" s="7"/>
     </row>
     <row r="969">
-      <c r="C969" s="6"/>
+      <c r="C969" s="7"/>
     </row>
     <row r="970">
-      <c r="C970" s="6"/>
+      <c r="C970" s="7"/>
     </row>
     <row r="971">
-      <c r="C971" s="6"/>
+      <c r="C971" s="7"/>
     </row>
     <row r="972">
-      <c r="C972" s="6"/>
+      <c r="C972" s="7"/>
     </row>
     <row r="973">
-      <c r="C973" s="6"/>
+      <c r="C973" s="7"/>
     </row>
     <row r="974">
-      <c r="C974" s="6"/>
+      <c r="C974" s="7"/>
     </row>
     <row r="975">
-      <c r="C975" s="6"/>
+      <c r="C975" s="7"/>
     </row>
     <row r="976">
-      <c r="C976" s="6"/>
+      <c r="C976" s="7"/>
     </row>
     <row r="977">
-      <c r="C977" s="6"/>
+      <c r="C977" s="7"/>
     </row>
     <row r="978">
-      <c r="C978" s="6"/>
+      <c r="C978" s="7"/>
     </row>
     <row r="979">
-      <c r="C979" s="6"/>
+      <c r="C979" s="7"/>
     </row>
     <row r="980">
-      <c r="C980" s="6"/>
+      <c r="C980" s="7"/>
     </row>
     <row r="981">
-      <c r="C981" s="6"/>
+      <c r="C981" s="7"/>
     </row>
     <row r="982">
-      <c r="C982" s="6"/>
+      <c r="C982" s="7"/>
     </row>
     <row r="983">
-      <c r="C983" s="6"/>
+      <c r="C983" s="7"/>
     </row>
     <row r="984">
-      <c r="C984" s="6"/>
+      <c r="C984" s="7"/>
     </row>
     <row r="985">
-      <c r="C985" s="6"/>
+      <c r="C985" s="7"/>
     </row>
     <row r="986">
-      <c r="C986" s="6"/>
+      <c r="C986" s="7"/>
     </row>
     <row r="987">
-      <c r="C987" s="6"/>
+      <c r="C987" s="7"/>
     </row>
     <row r="988">
-      <c r="C988" s="6"/>
+      <c r="C988" s="7"/>
     </row>
     <row r="989">
-      <c r="C989" s="6"/>
+      <c r="C989" s="7"/>
     </row>
     <row r="990">
-      <c r="C990" s="6"/>
+      <c r="C990" s="7"/>
     </row>
     <row r="991">
-      <c r="C991" s="6"/>
+      <c r="C991" s="7"/>
     </row>
     <row r="992">
-      <c r="C992" s="6"/>
+      <c r="C992" s="7"/>
     </row>
     <row r="993">
-      <c r="C993" s="6"/>
+      <c r="C993" s="7"/>
     </row>
     <row r="994">
-      <c r="C994" s="6"/>
+      <c r="C994" s="7"/>
     </row>
     <row r="995">
-      <c r="C995" s="6"/>
+      <c r="C995" s="7"/>
     </row>
     <row r="996">
-      <c r="C996" s="6"/>
+      <c r="C996" s="7"/>
     </row>
     <row r="997">
-      <c r="C997" s="6"/>
+      <c r="C997" s="7"/>
     </row>
     <row r="998">
-      <c r="C998" s="6"/>
+      <c r="C998" s="7"/>
     </row>
     <row r="999">
-      <c r="C999" s="6"/>
+      <c r="C999" s="7"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="6"/>
+      <c r="C1000" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3880,3901 +3978,3985 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>65</v>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
         <v>40.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
         <v>30.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
         <v>40.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
         <v>10.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
         <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8">
         <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
         <v>0.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8">
         <v>2.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
         <v>120.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8">
         <v>2.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8">
         <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8">
         <v>8.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>0.25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
         <v>2.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8">
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="7">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8">
         <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8">
         <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <v>0.75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>0.75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="7">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8">
         <v>2.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <v>1.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <v>1.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="7">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8">
         <v>60.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="7">
+        <v>46</v>
+      </c>
+      <c r="C37" s="8">
         <v>30.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8">
         <v>20.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="7">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8">
         <v>30.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
         <v>30.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="9">
+        <v>50</v>
+      </c>
+      <c r="C41" s="10">
         <v>22.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="7">
+        <v>50</v>
+      </c>
+      <c r="C42" s="8">
         <v>15.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="7">
+        <v>50</v>
+      </c>
+      <c r="C43" s="8">
         <v>2.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="7">
+        <v>53</v>
+      </c>
+      <c r="C44" s="8">
         <v>0.75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="7">
+        <v>53</v>
+      </c>
+      <c r="C45" s="8">
         <v>0.75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="7">
+        <v>53</v>
+      </c>
+      <c r="C46" s="8">
         <v>2.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="7">
+        <v>56</v>
+      </c>
+      <c r="C47" s="8">
         <v>0.75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="7">
+        <v>56</v>
+      </c>
+      <c r="C48" s="8">
         <v>0.75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="7">
+        <v>56</v>
+      </c>
+      <c r="C49" s="8">
         <v>2.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="A50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="8">
         <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="A51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="11">
         <v>3.0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="A52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="8">
         <v>1.0</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>86</v>
+      <c r="D52" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="10">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="11">
         <v>2.0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>57</v>
+      <c r="A54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C54" s="1">
         <v>30.0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>97</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1">
         <v>30.0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G55" s="12"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1">
         <v>22.5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G56" s="12"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="5">
+        <v>62</v>
+      </c>
+      <c r="C57" s="4">
         <v>15.0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G57" s="12"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1">
         <v>5.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>103</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G58" s="12"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="10">
+        <v>65</v>
+      </c>
+      <c r="C59" s="11">
         <v>1.0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="10">
+        <v>65</v>
+      </c>
+      <c r="C60" s="11">
         <v>2.0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>62</v>
+      <c r="A61" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="10">
+        <v>68</v>
+      </c>
+      <c r="C61" s="11">
         <v>3.0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="10">
+        <v>68</v>
+      </c>
+      <c r="C62" s="11">
         <v>1.0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="10">
+        <v>68</v>
+      </c>
+      <c r="C63" s="11">
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="10">
+        <v>68</v>
+      </c>
+      <c r="C64" s="11">
         <v>2.0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
-      <c r="C65" s="8"/>
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="66">
-      <c r="C66" s="8"/>
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="67">
-      <c r="C67" s="8"/>
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
-      <c r="C68" s="8"/>
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="69">
-      <c r="C69" s="8"/>
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="70">
-      <c r="C70" s="8"/>
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71">
-      <c r="C71" s="8"/>
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="72">
-      <c r="C72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73">
-      <c r="C73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74">
-      <c r="C74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75">
-      <c r="C75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76">
-      <c r="C76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77">
-      <c r="C77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78">
-      <c r="C78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79">
-      <c r="C79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80">
-      <c r="C80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81">
-      <c r="C81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82">
-      <c r="C82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83">
-      <c r="C83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84">
-      <c r="C84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85">
-      <c r="C85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86">
-      <c r="C86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87">
-      <c r="C87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88">
-      <c r="C88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89">
-      <c r="C89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90">
-      <c r="C90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91">
-      <c r="C91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92">
-      <c r="C92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93">
-      <c r="C93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94">
-      <c r="C94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95">
-      <c r="C95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96">
-      <c r="C96" s="8"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97">
-      <c r="C97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98">
-      <c r="C98" s="8"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99">
-      <c r="C99" s="8"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100">
-      <c r="C100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101">
-      <c r="C101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102">
-      <c r="C102" s="8"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103">
-      <c r="C103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104">
-      <c r="C104" s="8"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105">
-      <c r="C105" s="8"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106">
-      <c r="C106" s="8"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107">
-      <c r="C107" s="8"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108">
-      <c r="C108" s="8"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109">
-      <c r="C109" s="8"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110">
-      <c r="C110" s="8"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111">
-      <c r="C111" s="8"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112">
-      <c r="C112" s="8"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113">
-      <c r="C113" s="8"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114">
-      <c r="C114" s="8"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115">
-      <c r="C115" s="8"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116">
-      <c r="C116" s="8"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117">
-      <c r="C117" s="8"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118">
-      <c r="C118" s="8"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119">
-      <c r="C119" s="8"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120">
-      <c r="C120" s="8"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121">
-      <c r="C121" s="8"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122">
-      <c r="C122" s="8"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123">
-      <c r="C123" s="8"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124">
-      <c r="C124" s="8"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125">
-      <c r="C125" s="8"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126">
-      <c r="C126" s="8"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127">
-      <c r="C127" s="8"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128">
-      <c r="C128" s="8"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129">
-      <c r="C129" s="8"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130">
-      <c r="C130" s="8"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131">
-      <c r="C131" s="8"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132">
-      <c r="C132" s="8"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133">
-      <c r="C133" s="8"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134">
-      <c r="C134" s="8"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135">
-      <c r="C135" s="8"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136">
-      <c r="C136" s="8"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137">
-      <c r="C137" s="8"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138">
-      <c r="C138" s="8"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139">
-      <c r="C139" s="8"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140">
-      <c r="C140" s="8"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141">
-      <c r="C141" s="8"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142">
-      <c r="C142" s="8"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143">
-      <c r="C143" s="8"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144">
-      <c r="C144" s="8"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145">
-      <c r="C145" s="8"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146">
-      <c r="C146" s="8"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147">
-      <c r="C147" s="8"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148">
-      <c r="C148" s="8"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149">
-      <c r="C149" s="8"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150">
-      <c r="C150" s="8"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151">
-      <c r="C151" s="8"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152">
-      <c r="C152" s="8"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153">
-      <c r="C153" s="8"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154">
-      <c r="C154" s="8"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155">
-      <c r="C155" s="8"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156">
-      <c r="C156" s="8"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157">
-      <c r="C157" s="8"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158">
-      <c r="C158" s="8"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159">
-      <c r="C159" s="8"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160">
-      <c r="C160" s="8"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161">
-      <c r="C161" s="8"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162">
-      <c r="C162" s="8"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163">
-      <c r="C163" s="8"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164">
-      <c r="C164" s="8"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165">
-      <c r="C165" s="8"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166">
-      <c r="C166" s="8"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167">
-      <c r="C167" s="8"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168">
-      <c r="C168" s="8"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169">
-      <c r="C169" s="8"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170">
-      <c r="C170" s="8"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171">
-      <c r="C171" s="8"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172">
-      <c r="C172" s="8"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173">
-      <c r="C173" s="8"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174">
-      <c r="C174" s="8"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175">
-      <c r="C175" s="8"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176">
-      <c r="C176" s="8"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177">
-      <c r="C177" s="8"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178">
-      <c r="C178" s="8"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179">
-      <c r="C179" s="8"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180">
-      <c r="C180" s="8"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181">
-      <c r="C181" s="8"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182">
-      <c r="C182" s="8"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183">
-      <c r="C183" s="8"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184">
-      <c r="C184" s="8"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185">
-      <c r="C185" s="8"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186">
-      <c r="C186" s="8"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187">
-      <c r="C187" s="8"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188">
-      <c r="C188" s="8"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189">
-      <c r="C189" s="8"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190">
-      <c r="C190" s="8"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191">
-      <c r="C191" s="8"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192">
-      <c r="C192" s="8"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193">
-      <c r="C193" s="8"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194">
-      <c r="C194" s="8"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195">
-      <c r="C195" s="8"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196">
-      <c r="C196" s="8"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197">
-      <c r="C197" s="8"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198">
-      <c r="C198" s="8"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199">
-      <c r="C199" s="8"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200">
-      <c r="C200" s="8"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201">
-      <c r="C201" s="8"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202">
-      <c r="C202" s="8"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203">
-      <c r="C203" s="8"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204">
-      <c r="C204" s="8"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205">
-      <c r="C205" s="8"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206">
-      <c r="C206" s="8"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207">
-      <c r="C207" s="8"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208">
-      <c r="C208" s="8"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209">
-      <c r="C209" s="8"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210">
-      <c r="C210" s="8"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211">
-      <c r="C211" s="8"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212">
-      <c r="C212" s="8"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213">
-      <c r="C213" s="8"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214">
-      <c r="C214" s="8"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215">
-      <c r="C215" s="8"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216">
-      <c r="C216" s="8"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217">
-      <c r="C217" s="8"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218">
-      <c r="C218" s="8"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219">
-      <c r="C219" s="8"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220">
-      <c r="C220" s="8"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221">
-      <c r="C221" s="8"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222">
-      <c r="C222" s="8"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223">
-      <c r="C223" s="8"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224">
-      <c r="C224" s="8"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225">
-      <c r="C225" s="8"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226">
-      <c r="C226" s="8"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227">
-      <c r="C227" s="8"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228">
-      <c r="C228" s="8"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229">
-      <c r="C229" s="8"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230">
-      <c r="C230" s="8"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231">
-      <c r="C231" s="8"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232">
-      <c r="C232" s="8"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233">
-      <c r="C233" s="8"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234">
-      <c r="C234" s="8"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235">
-      <c r="C235" s="8"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236">
-      <c r="C236" s="8"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237">
-      <c r="C237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238">
-      <c r="C238" s="8"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239">
-      <c r="C239" s="8"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240">
-      <c r="C240" s="8"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241">
-      <c r="C241" s="8"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242">
-      <c r="C242" s="8"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243">
-      <c r="C243" s="8"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244">
-      <c r="C244" s="8"/>
+      <c r="C244" s="9"/>
     </row>
     <row r="245">
-      <c r="C245" s="8"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246">
-      <c r="C246" s="8"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247">
-      <c r="C247" s="8"/>
+      <c r="C247" s="9"/>
     </row>
     <row r="248">
-      <c r="C248" s="8"/>
+      <c r="C248" s="9"/>
     </row>
     <row r="249">
-      <c r="C249" s="8"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250">
-      <c r="C250" s="8"/>
+      <c r="C250" s="9"/>
     </row>
     <row r="251">
-      <c r="C251" s="8"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252">
-      <c r="C252" s="8"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253">
-      <c r="C253" s="8"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254">
-      <c r="C254" s="8"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255">
-      <c r="C255" s="8"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256">
-      <c r="C256" s="8"/>
+      <c r="C256" s="9"/>
     </row>
     <row r="257">
-      <c r="C257" s="8"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258">
-      <c r="C258" s="8"/>
+      <c r="C258" s="9"/>
     </row>
     <row r="259">
-      <c r="C259" s="8"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260">
-      <c r="C260" s="8"/>
+      <c r="C260" s="9"/>
     </row>
     <row r="261">
-      <c r="C261" s="8"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262">
-      <c r="C262" s="8"/>
+      <c r="C262" s="9"/>
     </row>
     <row r="263">
-      <c r="C263" s="8"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264">
-      <c r="C264" s="8"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265">
-      <c r="C265" s="8"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266">
-      <c r="C266" s="8"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267">
-      <c r="C267" s="8"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268">
-      <c r="C268" s="8"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269">
-      <c r="C269" s="8"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270">
-      <c r="C270" s="8"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271">
-      <c r="C271" s="8"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272">
-      <c r="C272" s="8"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273">
-      <c r="C273" s="8"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274">
-      <c r="C274" s="8"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275">
-      <c r="C275" s="8"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276">
-      <c r="C276" s="8"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277">
-      <c r="C277" s="8"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278">
-      <c r="C278" s="8"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279">
-      <c r="C279" s="8"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280">
-      <c r="C280" s="8"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281">
-      <c r="C281" s="8"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282">
-      <c r="C282" s="8"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283">
-      <c r="C283" s="8"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284">
-      <c r="C284" s="8"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285">
-      <c r="C285" s="8"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286">
-      <c r="C286" s="8"/>
+      <c r="C286" s="9"/>
     </row>
     <row r="287">
-      <c r="C287" s="8"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288">
-      <c r="C288" s="8"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289">
-      <c r="C289" s="8"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290">
-      <c r="C290" s="8"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291">
-      <c r="C291" s="8"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292">
-      <c r="C292" s="8"/>
+      <c r="C292" s="9"/>
     </row>
     <row r="293">
-      <c r="C293" s="8"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294">
-      <c r="C294" s="8"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295">
-      <c r="C295" s="8"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296">
-      <c r="C296" s="8"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297">
-      <c r="C297" s="8"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298">
-      <c r="C298" s="8"/>
+      <c r="C298" s="9"/>
     </row>
     <row r="299">
-      <c r="C299" s="8"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300">
-      <c r="C300" s="8"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301">
-      <c r="C301" s="8"/>
+      <c r="C301" s="9"/>
     </row>
     <row r="302">
-      <c r="C302" s="8"/>
+      <c r="C302" s="9"/>
     </row>
     <row r="303">
-      <c r="C303" s="8"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304">
-      <c r="C304" s="8"/>
+      <c r="C304" s="9"/>
     </row>
     <row r="305">
-      <c r="C305" s="8"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306">
-      <c r="C306" s="8"/>
+      <c r="C306" s="9"/>
     </row>
     <row r="307">
-      <c r="C307" s="8"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308">
-      <c r="C308" s="8"/>
+      <c r="C308" s="9"/>
     </row>
     <row r="309">
-      <c r="C309" s="8"/>
+      <c r="C309" s="9"/>
     </row>
     <row r="310">
-      <c r="C310" s="8"/>
+      <c r="C310" s="9"/>
     </row>
     <row r="311">
-      <c r="C311" s="8"/>
+      <c r="C311" s="9"/>
     </row>
     <row r="312">
-      <c r="C312" s="8"/>
+      <c r="C312" s="9"/>
     </row>
     <row r="313">
-      <c r="C313" s="8"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314">
-      <c r="C314" s="8"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315">
-      <c r="C315" s="8"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316">
-      <c r="C316" s="8"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317">
-      <c r="C317" s="8"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318">
-      <c r="C318" s="8"/>
+      <c r="C318" s="9"/>
     </row>
     <row r="319">
-      <c r="C319" s="8"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320">
-      <c r="C320" s="8"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321">
-      <c r="C321" s="8"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322">
-      <c r="C322" s="8"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323">
-      <c r="C323" s="8"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324">
-      <c r="C324" s="8"/>
+      <c r="C324" s="9"/>
     </row>
     <row r="325">
-      <c r="C325" s="8"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326">
-      <c r="C326" s="8"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327">
-      <c r="C327" s="8"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328">
-      <c r="C328" s="8"/>
+      <c r="C328" s="9"/>
     </row>
     <row r="329">
-      <c r="C329" s="8"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330">
-      <c r="C330" s="8"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331">
-      <c r="C331" s="8"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332">
-      <c r="C332" s="8"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333">
-      <c r="C333" s="8"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334">
-      <c r="C334" s="8"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335">
-      <c r="C335" s="8"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336">
-      <c r="C336" s="8"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337">
-      <c r="C337" s="8"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338">
-      <c r="C338" s="8"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339">
-      <c r="C339" s="8"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340">
-      <c r="C340" s="8"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341">
-      <c r="C341" s="8"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342">
-      <c r="C342" s="8"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343">
-      <c r="C343" s="8"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344">
-      <c r="C344" s="8"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345">
-      <c r="C345" s="8"/>
+      <c r="C345" s="9"/>
     </row>
     <row r="346">
-      <c r="C346" s="8"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347">
-      <c r="C347" s="8"/>
+      <c r="C347" s="9"/>
     </row>
     <row r="348">
-      <c r="C348" s="8"/>
+      <c r="C348" s="9"/>
     </row>
     <row r="349">
-      <c r="C349" s="8"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350">
-      <c r="C350" s="8"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351">
-      <c r="C351" s="8"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352">
-      <c r="C352" s="8"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353">
-      <c r="C353" s="8"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354">
-      <c r="C354" s="8"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355">
-      <c r="C355" s="8"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356">
-      <c r="C356" s="8"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357">
-      <c r="C357" s="8"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358">
-      <c r="C358" s="8"/>
+      <c r="C358" s="9"/>
     </row>
     <row r="359">
-      <c r="C359" s="8"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360">
-      <c r="C360" s="8"/>
+      <c r="C360" s="9"/>
     </row>
     <row r="361">
-      <c r="C361" s="8"/>
+      <c r="C361" s="9"/>
     </row>
     <row r="362">
-      <c r="C362" s="8"/>
+      <c r="C362" s="9"/>
     </row>
     <row r="363">
-      <c r="C363" s="8"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364">
-      <c r="C364" s="8"/>
+      <c r="C364" s="9"/>
     </row>
     <row r="365">
-      <c r="C365" s="8"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366">
-      <c r="C366" s="8"/>
+      <c r="C366" s="9"/>
     </row>
     <row r="367">
-      <c r="C367" s="8"/>
+      <c r="C367" s="9"/>
     </row>
     <row r="368">
-      <c r="C368" s="8"/>
+      <c r="C368" s="9"/>
     </row>
     <row r="369">
-      <c r="C369" s="8"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370">
-      <c r="C370" s="8"/>
+      <c r="C370" s="9"/>
     </row>
     <row r="371">
-      <c r="C371" s="8"/>
+      <c r="C371" s="9"/>
     </row>
     <row r="372">
-      <c r="C372" s="8"/>
+      <c r="C372" s="9"/>
     </row>
     <row r="373">
-      <c r="C373" s="8"/>
+      <c r="C373" s="9"/>
     </row>
     <row r="374">
-      <c r="C374" s="8"/>
+      <c r="C374" s="9"/>
     </row>
     <row r="375">
-      <c r="C375" s="8"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376">
-      <c r="C376" s="8"/>
+      <c r="C376" s="9"/>
     </row>
     <row r="377">
-      <c r="C377" s="8"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378">
-      <c r="C378" s="8"/>
+      <c r="C378" s="9"/>
     </row>
     <row r="379">
-      <c r="C379" s="8"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380">
-      <c r="C380" s="8"/>
+      <c r="C380" s="9"/>
     </row>
     <row r="381">
-      <c r="C381" s="8"/>
+      <c r="C381" s="9"/>
     </row>
     <row r="382">
-      <c r="C382" s="8"/>
+      <c r="C382" s="9"/>
     </row>
     <row r="383">
-      <c r="C383" s="8"/>
+      <c r="C383" s="9"/>
     </row>
     <row r="384">
-      <c r="C384" s="8"/>
+      <c r="C384" s="9"/>
     </row>
     <row r="385">
-      <c r="C385" s="8"/>
+      <c r="C385" s="9"/>
     </row>
     <row r="386">
-      <c r="C386" s="8"/>
+      <c r="C386" s="9"/>
     </row>
     <row r="387">
-      <c r="C387" s="8"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388">
-      <c r="C388" s="8"/>
+      <c r="C388" s="9"/>
     </row>
     <row r="389">
-      <c r="C389" s="8"/>
+      <c r="C389" s="9"/>
     </row>
     <row r="390">
-      <c r="C390" s="8"/>
+      <c r="C390" s="9"/>
     </row>
     <row r="391">
-      <c r="C391" s="8"/>
+      <c r="C391" s="9"/>
     </row>
     <row r="392">
-      <c r="C392" s="8"/>
+      <c r="C392" s="9"/>
     </row>
     <row r="393">
-      <c r="C393" s="8"/>
+      <c r="C393" s="9"/>
     </row>
     <row r="394">
-      <c r="C394" s="8"/>
+      <c r="C394" s="9"/>
     </row>
     <row r="395">
-      <c r="C395" s="8"/>
+      <c r="C395" s="9"/>
     </row>
     <row r="396">
-      <c r="C396" s="8"/>
+      <c r="C396" s="9"/>
     </row>
     <row r="397">
-      <c r="C397" s="8"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398">
-      <c r="C398" s="8"/>
+      <c r="C398" s="9"/>
     </row>
     <row r="399">
-      <c r="C399" s="8"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400">
-      <c r="C400" s="8"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401">
-      <c r="C401" s="8"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402">
-      <c r="C402" s="8"/>
+      <c r="C402" s="9"/>
     </row>
     <row r="403">
-      <c r="C403" s="8"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404">
-      <c r="C404" s="8"/>
+      <c r="C404" s="9"/>
     </row>
     <row r="405">
-      <c r="C405" s="8"/>
+      <c r="C405" s="9"/>
     </row>
     <row r="406">
-      <c r="C406" s="8"/>
+      <c r="C406" s="9"/>
     </row>
     <row r="407">
-      <c r="C407" s="8"/>
+      <c r="C407" s="9"/>
     </row>
     <row r="408">
-      <c r="C408" s="8"/>
+      <c r="C408" s="9"/>
     </row>
     <row r="409">
-      <c r="C409" s="8"/>
+      <c r="C409" s="9"/>
     </row>
     <row r="410">
-      <c r="C410" s="8"/>
+      <c r="C410" s="9"/>
     </row>
     <row r="411">
-      <c r="C411" s="8"/>
+      <c r="C411" s="9"/>
     </row>
     <row r="412">
-      <c r="C412" s="8"/>
+      <c r="C412" s="9"/>
     </row>
     <row r="413">
-      <c r="C413" s="8"/>
+      <c r="C413" s="9"/>
     </row>
     <row r="414">
-      <c r="C414" s="8"/>
+      <c r="C414" s="9"/>
     </row>
     <row r="415">
-      <c r="C415" s="8"/>
+      <c r="C415" s="9"/>
     </row>
     <row r="416">
-      <c r="C416" s="8"/>
+      <c r="C416" s="9"/>
     </row>
     <row r="417">
-      <c r="C417" s="8"/>
+      <c r="C417" s="9"/>
     </row>
     <row r="418">
-      <c r="C418" s="8"/>
+      <c r="C418" s="9"/>
     </row>
     <row r="419">
-      <c r="C419" s="8"/>
+      <c r="C419" s="9"/>
     </row>
     <row r="420">
-      <c r="C420" s="8"/>
+      <c r="C420" s="9"/>
     </row>
     <row r="421">
-      <c r="C421" s="8"/>
+      <c r="C421" s="9"/>
     </row>
     <row r="422">
-      <c r="C422" s="8"/>
+      <c r="C422" s="9"/>
     </row>
     <row r="423">
-      <c r="C423" s="8"/>
+      <c r="C423" s="9"/>
     </row>
     <row r="424">
-      <c r="C424" s="8"/>
+      <c r="C424" s="9"/>
     </row>
     <row r="425">
-      <c r="C425" s="8"/>
+      <c r="C425" s="9"/>
     </row>
     <row r="426">
-      <c r="C426" s="8"/>
+      <c r="C426" s="9"/>
     </row>
     <row r="427">
-      <c r="C427" s="8"/>
+      <c r="C427" s="9"/>
     </row>
     <row r="428">
-      <c r="C428" s="8"/>
+      <c r="C428" s="9"/>
     </row>
     <row r="429">
-      <c r="C429" s="8"/>
+      <c r="C429" s="9"/>
     </row>
     <row r="430">
-      <c r="C430" s="8"/>
+      <c r="C430" s="9"/>
     </row>
     <row r="431">
-      <c r="C431" s="8"/>
+      <c r="C431" s="9"/>
     </row>
     <row r="432">
-      <c r="C432" s="8"/>
+      <c r="C432" s="9"/>
     </row>
     <row r="433">
-      <c r="C433" s="8"/>
+      <c r="C433" s="9"/>
     </row>
     <row r="434">
-      <c r="C434" s="8"/>
+      <c r="C434" s="9"/>
     </row>
     <row r="435">
-      <c r="C435" s="8"/>
+      <c r="C435" s="9"/>
     </row>
     <row r="436">
-      <c r="C436" s="8"/>
+      <c r="C436" s="9"/>
     </row>
     <row r="437">
-      <c r="C437" s="8"/>
+      <c r="C437" s="9"/>
     </row>
     <row r="438">
-      <c r="C438" s="8"/>
+      <c r="C438" s="9"/>
     </row>
     <row r="439">
-      <c r="C439" s="8"/>
+      <c r="C439" s="9"/>
     </row>
     <row r="440">
-      <c r="C440" s="8"/>
+      <c r="C440" s="9"/>
     </row>
     <row r="441">
-      <c r="C441" s="8"/>
+      <c r="C441" s="9"/>
     </row>
     <row r="442">
-      <c r="C442" s="8"/>
+      <c r="C442" s="9"/>
     </row>
     <row r="443">
-      <c r="C443" s="8"/>
+      <c r="C443" s="9"/>
     </row>
     <row r="444">
-      <c r="C444" s="8"/>
+      <c r="C444" s="9"/>
     </row>
     <row r="445">
-      <c r="C445" s="8"/>
+      <c r="C445" s="9"/>
     </row>
     <row r="446">
-      <c r="C446" s="8"/>
+      <c r="C446" s="9"/>
     </row>
     <row r="447">
-      <c r="C447" s="8"/>
+      <c r="C447" s="9"/>
     </row>
     <row r="448">
-      <c r="C448" s="8"/>
+      <c r="C448" s="9"/>
     </row>
     <row r="449">
-      <c r="C449" s="8"/>
+      <c r="C449" s="9"/>
     </row>
     <row r="450">
-      <c r="C450" s="8"/>
+      <c r="C450" s="9"/>
     </row>
     <row r="451">
-      <c r="C451" s="8"/>
+      <c r="C451" s="9"/>
     </row>
     <row r="452">
-      <c r="C452" s="8"/>
+      <c r="C452" s="9"/>
     </row>
     <row r="453">
-      <c r="C453" s="8"/>
+      <c r="C453" s="9"/>
     </row>
     <row r="454">
-      <c r="C454" s="8"/>
+      <c r="C454" s="9"/>
     </row>
     <row r="455">
-      <c r="C455" s="8"/>
+      <c r="C455" s="9"/>
     </row>
     <row r="456">
-      <c r="C456" s="8"/>
+      <c r="C456" s="9"/>
     </row>
     <row r="457">
-      <c r="C457" s="8"/>
+      <c r="C457" s="9"/>
     </row>
     <row r="458">
-      <c r="C458" s="8"/>
+      <c r="C458" s="9"/>
     </row>
     <row r="459">
-      <c r="C459" s="8"/>
+      <c r="C459" s="9"/>
     </row>
     <row r="460">
-      <c r="C460" s="8"/>
+      <c r="C460" s="9"/>
     </row>
     <row r="461">
-      <c r="C461" s="8"/>
+      <c r="C461" s="9"/>
     </row>
     <row r="462">
-      <c r="C462" s="8"/>
+      <c r="C462" s="9"/>
     </row>
     <row r="463">
-      <c r="C463" s="8"/>
+      <c r="C463" s="9"/>
     </row>
     <row r="464">
-      <c r="C464" s="8"/>
+      <c r="C464" s="9"/>
     </row>
     <row r="465">
-      <c r="C465" s="8"/>
+      <c r="C465" s="9"/>
     </row>
     <row r="466">
-      <c r="C466" s="8"/>
+      <c r="C466" s="9"/>
     </row>
     <row r="467">
-      <c r="C467" s="8"/>
+      <c r="C467" s="9"/>
     </row>
     <row r="468">
-      <c r="C468" s="8"/>
+      <c r="C468" s="9"/>
     </row>
     <row r="469">
-      <c r="C469" s="8"/>
+      <c r="C469" s="9"/>
     </row>
     <row r="470">
-      <c r="C470" s="8"/>
+      <c r="C470" s="9"/>
     </row>
     <row r="471">
-      <c r="C471" s="8"/>
+      <c r="C471" s="9"/>
     </row>
     <row r="472">
-      <c r="C472" s="8"/>
+      <c r="C472" s="9"/>
     </row>
     <row r="473">
-      <c r="C473" s="8"/>
+      <c r="C473" s="9"/>
     </row>
     <row r="474">
-      <c r="C474" s="8"/>
+      <c r="C474" s="9"/>
     </row>
     <row r="475">
-      <c r="C475" s="8"/>
+      <c r="C475" s="9"/>
     </row>
     <row r="476">
-      <c r="C476" s="8"/>
+      <c r="C476" s="9"/>
     </row>
     <row r="477">
-      <c r="C477" s="8"/>
+      <c r="C477" s="9"/>
     </row>
     <row r="478">
-      <c r="C478" s="8"/>
+      <c r="C478" s="9"/>
     </row>
     <row r="479">
-      <c r="C479" s="8"/>
+      <c r="C479" s="9"/>
     </row>
     <row r="480">
-      <c r="C480" s="8"/>
+      <c r="C480" s="9"/>
     </row>
     <row r="481">
-      <c r="C481" s="8"/>
+      <c r="C481" s="9"/>
     </row>
     <row r="482">
-      <c r="C482" s="8"/>
+      <c r="C482" s="9"/>
     </row>
     <row r="483">
-      <c r="C483" s="8"/>
+      <c r="C483" s="9"/>
     </row>
     <row r="484">
-      <c r="C484" s="8"/>
+      <c r="C484" s="9"/>
     </row>
     <row r="485">
-      <c r="C485" s="8"/>
+      <c r="C485" s="9"/>
     </row>
     <row r="486">
-      <c r="C486" s="8"/>
+      <c r="C486" s="9"/>
     </row>
     <row r="487">
-      <c r="C487" s="8"/>
+      <c r="C487" s="9"/>
     </row>
     <row r="488">
-      <c r="C488" s="8"/>
+      <c r="C488" s="9"/>
     </row>
     <row r="489">
-      <c r="C489" s="8"/>
+      <c r="C489" s="9"/>
     </row>
     <row r="490">
-      <c r="C490" s="8"/>
+      <c r="C490" s="9"/>
     </row>
     <row r="491">
-      <c r="C491" s="8"/>
+      <c r="C491" s="9"/>
     </row>
     <row r="492">
-      <c r="C492" s="8"/>
+      <c r="C492" s="9"/>
     </row>
     <row r="493">
-      <c r="C493" s="8"/>
+      <c r="C493" s="9"/>
     </row>
     <row r="494">
-      <c r="C494" s="8"/>
+      <c r="C494" s="9"/>
     </row>
     <row r="495">
-      <c r="C495" s="8"/>
+      <c r="C495" s="9"/>
     </row>
     <row r="496">
-      <c r="C496" s="8"/>
+      <c r="C496" s="9"/>
     </row>
     <row r="497">
-      <c r="C497" s="8"/>
+      <c r="C497" s="9"/>
     </row>
     <row r="498">
-      <c r="C498" s="8"/>
+      <c r="C498" s="9"/>
     </row>
     <row r="499">
-      <c r="C499" s="8"/>
+      <c r="C499" s="9"/>
     </row>
     <row r="500">
-      <c r="C500" s="8"/>
+      <c r="C500" s="9"/>
     </row>
     <row r="501">
-      <c r="C501" s="8"/>
+      <c r="C501" s="9"/>
     </row>
     <row r="502">
-      <c r="C502" s="8"/>
+      <c r="C502" s="9"/>
     </row>
     <row r="503">
-      <c r="C503" s="8"/>
+      <c r="C503" s="9"/>
     </row>
     <row r="504">
-      <c r="C504" s="8"/>
+      <c r="C504" s="9"/>
     </row>
     <row r="505">
-      <c r="C505" s="8"/>
+      <c r="C505" s="9"/>
     </row>
     <row r="506">
-      <c r="C506" s="8"/>
+      <c r="C506" s="9"/>
     </row>
     <row r="507">
-      <c r="C507" s="8"/>
+      <c r="C507" s="9"/>
     </row>
     <row r="508">
-      <c r="C508" s="8"/>
+      <c r="C508" s="9"/>
     </row>
     <row r="509">
-      <c r="C509" s="8"/>
+      <c r="C509" s="9"/>
     </row>
     <row r="510">
-      <c r="C510" s="8"/>
+      <c r="C510" s="9"/>
     </row>
     <row r="511">
-      <c r="C511" s="8"/>
+      <c r="C511" s="9"/>
     </row>
     <row r="512">
-      <c r="C512" s="8"/>
+      <c r="C512" s="9"/>
     </row>
     <row r="513">
-      <c r="C513" s="8"/>
+      <c r="C513" s="9"/>
     </row>
     <row r="514">
-      <c r="C514" s="8"/>
+      <c r="C514" s="9"/>
     </row>
     <row r="515">
-      <c r="C515" s="8"/>
+      <c r="C515" s="9"/>
     </row>
     <row r="516">
-      <c r="C516" s="8"/>
+      <c r="C516" s="9"/>
     </row>
     <row r="517">
-      <c r="C517" s="8"/>
+      <c r="C517" s="9"/>
     </row>
     <row r="518">
-      <c r="C518" s="8"/>
+      <c r="C518" s="9"/>
     </row>
     <row r="519">
-      <c r="C519" s="8"/>
+      <c r="C519" s="9"/>
     </row>
     <row r="520">
-      <c r="C520" s="8"/>
+      <c r="C520" s="9"/>
     </row>
     <row r="521">
-      <c r="C521" s="8"/>
+      <c r="C521" s="9"/>
     </row>
     <row r="522">
-      <c r="C522" s="8"/>
+      <c r="C522" s="9"/>
     </row>
     <row r="523">
-      <c r="C523" s="8"/>
+      <c r="C523" s="9"/>
     </row>
     <row r="524">
-      <c r="C524" s="8"/>
+      <c r="C524" s="9"/>
     </row>
     <row r="525">
-      <c r="C525" s="8"/>
+      <c r="C525" s="9"/>
     </row>
     <row r="526">
-      <c r="C526" s="8"/>
+      <c r="C526" s="9"/>
     </row>
     <row r="527">
-      <c r="C527" s="8"/>
+      <c r="C527" s="9"/>
     </row>
     <row r="528">
-      <c r="C528" s="8"/>
+      <c r="C528" s="9"/>
     </row>
     <row r="529">
-      <c r="C529" s="8"/>
+      <c r="C529" s="9"/>
     </row>
     <row r="530">
-      <c r="C530" s="8"/>
+      <c r="C530" s="9"/>
     </row>
     <row r="531">
-      <c r="C531" s="8"/>
+      <c r="C531" s="9"/>
     </row>
     <row r="532">
-      <c r="C532" s="8"/>
+      <c r="C532" s="9"/>
     </row>
     <row r="533">
-      <c r="C533" s="8"/>
+      <c r="C533" s="9"/>
     </row>
     <row r="534">
-      <c r="C534" s="8"/>
+      <c r="C534" s="9"/>
     </row>
     <row r="535">
-      <c r="C535" s="8"/>
+      <c r="C535" s="9"/>
     </row>
     <row r="536">
-      <c r="C536" s="8"/>
+      <c r="C536" s="9"/>
     </row>
     <row r="537">
-      <c r="C537" s="8"/>
+      <c r="C537" s="9"/>
     </row>
     <row r="538">
-      <c r="C538" s="8"/>
+      <c r="C538" s="9"/>
     </row>
     <row r="539">
-      <c r="C539" s="8"/>
+      <c r="C539" s="9"/>
     </row>
     <row r="540">
-      <c r="C540" s="8"/>
+      <c r="C540" s="9"/>
     </row>
     <row r="541">
-      <c r="C541" s="8"/>
+      <c r="C541" s="9"/>
     </row>
     <row r="542">
-      <c r="C542" s="8"/>
+      <c r="C542" s="9"/>
     </row>
     <row r="543">
-      <c r="C543" s="8"/>
+      <c r="C543" s="9"/>
     </row>
     <row r="544">
-      <c r="C544" s="8"/>
+      <c r="C544" s="9"/>
     </row>
     <row r="545">
-      <c r="C545" s="8"/>
+      <c r="C545" s="9"/>
     </row>
     <row r="546">
-      <c r="C546" s="8"/>
+      <c r="C546" s="9"/>
     </row>
     <row r="547">
-      <c r="C547" s="8"/>
+      <c r="C547" s="9"/>
     </row>
     <row r="548">
-      <c r="C548" s="8"/>
+      <c r="C548" s="9"/>
     </row>
     <row r="549">
-      <c r="C549" s="8"/>
+      <c r="C549" s="9"/>
     </row>
     <row r="550">
-      <c r="C550" s="8"/>
+      <c r="C550" s="9"/>
     </row>
     <row r="551">
-      <c r="C551" s="8"/>
+      <c r="C551" s="9"/>
     </row>
     <row r="552">
-      <c r="C552" s="8"/>
+      <c r="C552" s="9"/>
     </row>
     <row r="553">
-      <c r="C553" s="8"/>
+      <c r="C553" s="9"/>
     </row>
     <row r="554">
-      <c r="C554" s="8"/>
+      <c r="C554" s="9"/>
     </row>
     <row r="555">
-      <c r="C555" s="8"/>
+      <c r="C555" s="9"/>
     </row>
     <row r="556">
-      <c r="C556" s="8"/>
+      <c r="C556" s="9"/>
     </row>
     <row r="557">
-      <c r="C557" s="8"/>
+      <c r="C557" s="9"/>
     </row>
     <row r="558">
-      <c r="C558" s="8"/>
+      <c r="C558" s="9"/>
     </row>
     <row r="559">
-      <c r="C559" s="8"/>
+      <c r="C559" s="9"/>
     </row>
     <row r="560">
-      <c r="C560" s="8"/>
+      <c r="C560" s="9"/>
     </row>
     <row r="561">
-      <c r="C561" s="8"/>
+      <c r="C561" s="9"/>
     </row>
     <row r="562">
-      <c r="C562" s="8"/>
+      <c r="C562" s="9"/>
     </row>
     <row r="563">
-      <c r="C563" s="8"/>
+      <c r="C563" s="9"/>
     </row>
     <row r="564">
-      <c r="C564" s="8"/>
+      <c r="C564" s="9"/>
     </row>
     <row r="565">
-      <c r="C565" s="8"/>
+      <c r="C565" s="9"/>
     </row>
     <row r="566">
-      <c r="C566" s="8"/>
+      <c r="C566" s="9"/>
     </row>
     <row r="567">
-      <c r="C567" s="8"/>
+      <c r="C567" s="9"/>
     </row>
     <row r="568">
-      <c r="C568" s="8"/>
+      <c r="C568" s="9"/>
     </row>
     <row r="569">
-      <c r="C569" s="8"/>
+      <c r="C569" s="9"/>
     </row>
     <row r="570">
-      <c r="C570" s="8"/>
+      <c r="C570" s="9"/>
     </row>
     <row r="571">
-      <c r="C571" s="8"/>
+      <c r="C571" s="9"/>
     </row>
     <row r="572">
-      <c r="C572" s="8"/>
+      <c r="C572" s="9"/>
     </row>
     <row r="573">
-      <c r="C573" s="8"/>
+      <c r="C573" s="9"/>
     </row>
     <row r="574">
-      <c r="C574" s="8"/>
+      <c r="C574" s="9"/>
     </row>
     <row r="575">
-      <c r="C575" s="8"/>
+      <c r="C575" s="9"/>
     </row>
     <row r="576">
-      <c r="C576" s="8"/>
+      <c r="C576" s="9"/>
     </row>
     <row r="577">
-      <c r="C577" s="8"/>
+      <c r="C577" s="9"/>
     </row>
     <row r="578">
-      <c r="C578" s="8"/>
+      <c r="C578" s="9"/>
     </row>
     <row r="579">
-      <c r="C579" s="8"/>
+      <c r="C579" s="9"/>
     </row>
     <row r="580">
-      <c r="C580" s="8"/>
+      <c r="C580" s="9"/>
     </row>
     <row r="581">
-      <c r="C581" s="8"/>
+      <c r="C581" s="9"/>
     </row>
     <row r="582">
-      <c r="C582" s="8"/>
+      <c r="C582" s="9"/>
     </row>
     <row r="583">
-      <c r="C583" s="8"/>
+      <c r="C583" s="9"/>
     </row>
     <row r="584">
-      <c r="C584" s="8"/>
+      <c r="C584" s="9"/>
     </row>
     <row r="585">
-      <c r="C585" s="8"/>
+      <c r="C585" s="9"/>
     </row>
     <row r="586">
-      <c r="C586" s="8"/>
+      <c r="C586" s="9"/>
     </row>
     <row r="587">
-      <c r="C587" s="8"/>
+      <c r="C587" s="9"/>
     </row>
     <row r="588">
-      <c r="C588" s="8"/>
+      <c r="C588" s="9"/>
     </row>
     <row r="589">
-      <c r="C589" s="8"/>
+      <c r="C589" s="9"/>
     </row>
     <row r="590">
-      <c r="C590" s="8"/>
+      <c r="C590" s="9"/>
     </row>
     <row r="591">
-      <c r="C591" s="8"/>
+      <c r="C591" s="9"/>
     </row>
     <row r="592">
-      <c r="C592" s="8"/>
+      <c r="C592" s="9"/>
     </row>
     <row r="593">
-      <c r="C593" s="8"/>
+      <c r="C593" s="9"/>
     </row>
     <row r="594">
-      <c r="C594" s="8"/>
+      <c r="C594" s="9"/>
     </row>
     <row r="595">
-      <c r="C595" s="8"/>
+      <c r="C595" s="9"/>
     </row>
     <row r="596">
-      <c r="C596" s="8"/>
+      <c r="C596" s="9"/>
     </row>
     <row r="597">
-      <c r="C597" s="8"/>
+      <c r="C597" s="9"/>
     </row>
     <row r="598">
-      <c r="C598" s="8"/>
+      <c r="C598" s="9"/>
     </row>
     <row r="599">
-      <c r="C599" s="8"/>
+      <c r="C599" s="9"/>
     </row>
     <row r="600">
-      <c r="C600" s="8"/>
+      <c r="C600" s="9"/>
     </row>
     <row r="601">
-      <c r="C601" s="8"/>
+      <c r="C601" s="9"/>
     </row>
     <row r="602">
-      <c r="C602" s="8"/>
+      <c r="C602" s="9"/>
     </row>
     <row r="603">
-      <c r="C603" s="8"/>
+      <c r="C603" s="9"/>
     </row>
     <row r="604">
-      <c r="C604" s="8"/>
+      <c r="C604" s="9"/>
     </row>
     <row r="605">
-      <c r="C605" s="8"/>
+      <c r="C605" s="9"/>
     </row>
     <row r="606">
-      <c r="C606" s="8"/>
+      <c r="C606" s="9"/>
     </row>
     <row r="607">
-      <c r="C607" s="8"/>
+      <c r="C607" s="9"/>
     </row>
     <row r="608">
-      <c r="C608" s="8"/>
+      <c r="C608" s="9"/>
     </row>
     <row r="609">
-      <c r="C609" s="8"/>
+      <c r="C609" s="9"/>
     </row>
     <row r="610">
-      <c r="C610" s="8"/>
+      <c r="C610" s="9"/>
     </row>
     <row r="611">
-      <c r="C611" s="8"/>
+      <c r="C611" s="9"/>
     </row>
     <row r="612">
-      <c r="C612" s="8"/>
+      <c r="C612" s="9"/>
     </row>
     <row r="613">
-      <c r="C613" s="8"/>
+      <c r="C613" s="9"/>
     </row>
     <row r="614">
-      <c r="C614" s="8"/>
+      <c r="C614" s="9"/>
     </row>
     <row r="615">
-      <c r="C615" s="8"/>
+      <c r="C615" s="9"/>
     </row>
     <row r="616">
-      <c r="C616" s="8"/>
+      <c r="C616" s="9"/>
     </row>
     <row r="617">
-      <c r="C617" s="8"/>
+      <c r="C617" s="9"/>
     </row>
     <row r="618">
-      <c r="C618" s="8"/>
+      <c r="C618" s="9"/>
     </row>
     <row r="619">
-      <c r="C619" s="8"/>
+      <c r="C619" s="9"/>
     </row>
     <row r="620">
-      <c r="C620" s="8"/>
+      <c r="C620" s="9"/>
     </row>
     <row r="621">
-      <c r="C621" s="8"/>
+      <c r="C621" s="9"/>
     </row>
     <row r="622">
-      <c r="C622" s="8"/>
+      <c r="C622" s="9"/>
     </row>
     <row r="623">
-      <c r="C623" s="8"/>
+      <c r="C623" s="9"/>
     </row>
     <row r="624">
-      <c r="C624" s="8"/>
+      <c r="C624" s="9"/>
     </row>
     <row r="625">
-      <c r="C625" s="8"/>
+      <c r="C625" s="9"/>
     </row>
     <row r="626">
-      <c r="C626" s="8"/>
+      <c r="C626" s="9"/>
     </row>
     <row r="627">
-      <c r="C627" s="8"/>
+      <c r="C627" s="9"/>
     </row>
     <row r="628">
-      <c r="C628" s="8"/>
+      <c r="C628" s="9"/>
     </row>
     <row r="629">
-      <c r="C629" s="8"/>
+      <c r="C629" s="9"/>
     </row>
     <row r="630">
-      <c r="C630" s="8"/>
+      <c r="C630" s="9"/>
     </row>
     <row r="631">
-      <c r="C631" s="8"/>
+      <c r="C631" s="9"/>
     </row>
     <row r="632">
-      <c r="C632" s="8"/>
+      <c r="C632" s="9"/>
     </row>
     <row r="633">
-      <c r="C633" s="8"/>
+      <c r="C633" s="9"/>
     </row>
     <row r="634">
-      <c r="C634" s="8"/>
+      <c r="C634" s="9"/>
     </row>
     <row r="635">
-      <c r="C635" s="8"/>
+      <c r="C635" s="9"/>
     </row>
     <row r="636">
-      <c r="C636" s="8"/>
+      <c r="C636" s="9"/>
     </row>
     <row r="637">
-      <c r="C637" s="8"/>
+      <c r="C637" s="9"/>
     </row>
     <row r="638">
-      <c r="C638" s="8"/>
+      <c r="C638" s="9"/>
     </row>
     <row r="639">
-      <c r="C639" s="8"/>
+      <c r="C639" s="9"/>
     </row>
     <row r="640">
-      <c r="C640" s="8"/>
+      <c r="C640" s="9"/>
     </row>
     <row r="641">
-      <c r="C641" s="8"/>
+      <c r="C641" s="9"/>
     </row>
     <row r="642">
-      <c r="C642" s="8"/>
+      <c r="C642" s="9"/>
     </row>
     <row r="643">
-      <c r="C643" s="8"/>
+      <c r="C643" s="9"/>
     </row>
     <row r="644">
-      <c r="C644" s="8"/>
+      <c r="C644" s="9"/>
     </row>
     <row r="645">
-      <c r="C645" s="8"/>
+      <c r="C645" s="9"/>
     </row>
     <row r="646">
-      <c r="C646" s="8"/>
+      <c r="C646" s="9"/>
     </row>
     <row r="647">
-      <c r="C647" s="8"/>
+      <c r="C647" s="9"/>
     </row>
     <row r="648">
-      <c r="C648" s="8"/>
+      <c r="C648" s="9"/>
     </row>
     <row r="649">
-      <c r="C649" s="8"/>
+      <c r="C649" s="9"/>
     </row>
     <row r="650">
-      <c r="C650" s="8"/>
+      <c r="C650" s="9"/>
     </row>
     <row r="651">
-      <c r="C651" s="8"/>
+      <c r="C651" s="9"/>
     </row>
     <row r="652">
-      <c r="C652" s="8"/>
+      <c r="C652" s="9"/>
     </row>
     <row r="653">
-      <c r="C653" s="8"/>
+      <c r="C653" s="9"/>
     </row>
     <row r="654">
-      <c r="C654" s="8"/>
+      <c r="C654" s="9"/>
     </row>
     <row r="655">
-      <c r="C655" s="8"/>
+      <c r="C655" s="9"/>
     </row>
     <row r="656">
-      <c r="C656" s="8"/>
+      <c r="C656" s="9"/>
     </row>
     <row r="657">
-      <c r="C657" s="8"/>
+      <c r="C657" s="9"/>
     </row>
     <row r="658">
-      <c r="C658" s="8"/>
+      <c r="C658" s="9"/>
     </row>
     <row r="659">
-      <c r="C659" s="8"/>
+      <c r="C659" s="9"/>
     </row>
     <row r="660">
-      <c r="C660" s="8"/>
+      <c r="C660" s="9"/>
     </row>
     <row r="661">
-      <c r="C661" s="8"/>
+      <c r="C661" s="9"/>
     </row>
     <row r="662">
-      <c r="C662" s="8"/>
+      <c r="C662" s="9"/>
     </row>
     <row r="663">
-      <c r="C663" s="8"/>
+      <c r="C663" s="9"/>
     </row>
     <row r="664">
-      <c r="C664" s="8"/>
+      <c r="C664" s="9"/>
     </row>
     <row r="665">
-      <c r="C665" s="8"/>
+      <c r="C665" s="9"/>
     </row>
     <row r="666">
-      <c r="C666" s="8"/>
+      <c r="C666" s="9"/>
     </row>
     <row r="667">
-      <c r="C667" s="8"/>
+      <c r="C667" s="9"/>
     </row>
     <row r="668">
-      <c r="C668" s="8"/>
+      <c r="C668" s="9"/>
     </row>
     <row r="669">
-      <c r="C669" s="8"/>
+      <c r="C669" s="9"/>
     </row>
     <row r="670">
-      <c r="C670" s="8"/>
+      <c r="C670" s="9"/>
     </row>
     <row r="671">
-      <c r="C671" s="8"/>
+      <c r="C671" s="9"/>
     </row>
     <row r="672">
-      <c r="C672" s="8"/>
+      <c r="C672" s="9"/>
     </row>
     <row r="673">
-      <c r="C673" s="8"/>
+      <c r="C673" s="9"/>
     </row>
     <row r="674">
-      <c r="C674" s="8"/>
+      <c r="C674" s="9"/>
     </row>
     <row r="675">
-      <c r="C675" s="8"/>
+      <c r="C675" s="9"/>
     </row>
     <row r="676">
-      <c r="C676" s="8"/>
+      <c r="C676" s="9"/>
     </row>
     <row r="677">
-      <c r="C677" s="8"/>
+      <c r="C677" s="9"/>
     </row>
     <row r="678">
-      <c r="C678" s="8"/>
+      <c r="C678" s="9"/>
     </row>
     <row r="679">
-      <c r="C679" s="8"/>
+      <c r="C679" s="9"/>
     </row>
     <row r="680">
-      <c r="C680" s="8"/>
+      <c r="C680" s="9"/>
     </row>
     <row r="681">
-      <c r="C681" s="8"/>
+      <c r="C681" s="9"/>
     </row>
     <row r="682">
-      <c r="C682" s="8"/>
+      <c r="C682" s="9"/>
     </row>
     <row r="683">
-      <c r="C683" s="8"/>
+      <c r="C683" s="9"/>
     </row>
     <row r="684">
-      <c r="C684" s="8"/>
+      <c r="C684" s="9"/>
     </row>
     <row r="685">
-      <c r="C685" s="8"/>
+      <c r="C685" s="9"/>
     </row>
     <row r="686">
-      <c r="C686" s="8"/>
+      <c r="C686" s="9"/>
     </row>
     <row r="687">
-      <c r="C687" s="8"/>
+      <c r="C687" s="9"/>
     </row>
     <row r="688">
-      <c r="C688" s="8"/>
+      <c r="C688" s="9"/>
     </row>
     <row r="689">
-      <c r="C689" s="8"/>
+      <c r="C689" s="9"/>
     </row>
     <row r="690">
-      <c r="C690" s="8"/>
+      <c r="C690" s="9"/>
     </row>
     <row r="691">
-      <c r="C691" s="8"/>
+      <c r="C691" s="9"/>
     </row>
     <row r="692">
-      <c r="C692" s="8"/>
+      <c r="C692" s="9"/>
     </row>
     <row r="693">
-      <c r="C693" s="8"/>
+      <c r="C693" s="9"/>
     </row>
     <row r="694">
-      <c r="C694" s="8"/>
+      <c r="C694" s="9"/>
     </row>
     <row r="695">
-      <c r="C695" s="8"/>
+      <c r="C695" s="9"/>
     </row>
     <row r="696">
-      <c r="C696" s="8"/>
+      <c r="C696" s="9"/>
     </row>
     <row r="697">
-      <c r="C697" s="8"/>
+      <c r="C697" s="9"/>
     </row>
     <row r="698">
-      <c r="C698" s="8"/>
+      <c r="C698" s="9"/>
     </row>
     <row r="699">
-      <c r="C699" s="8"/>
+      <c r="C699" s="9"/>
     </row>
     <row r="700">
-      <c r="C700" s="8"/>
+      <c r="C700" s="9"/>
     </row>
     <row r="701">
-      <c r="C701" s="8"/>
+      <c r="C701" s="9"/>
     </row>
     <row r="702">
-      <c r="C702" s="8"/>
+      <c r="C702" s="9"/>
     </row>
     <row r="703">
-      <c r="C703" s="8"/>
+      <c r="C703" s="9"/>
     </row>
     <row r="704">
-      <c r="C704" s="8"/>
+      <c r="C704" s="9"/>
     </row>
     <row r="705">
-      <c r="C705" s="8"/>
+      <c r="C705" s="9"/>
     </row>
     <row r="706">
-      <c r="C706" s="8"/>
+      <c r="C706" s="9"/>
     </row>
     <row r="707">
-      <c r="C707" s="8"/>
+      <c r="C707" s="9"/>
     </row>
     <row r="708">
-      <c r="C708" s="8"/>
+      <c r="C708" s="9"/>
     </row>
     <row r="709">
-      <c r="C709" s="8"/>
+      <c r="C709" s="9"/>
     </row>
     <row r="710">
-      <c r="C710" s="8"/>
+      <c r="C710" s="9"/>
     </row>
     <row r="711">
-      <c r="C711" s="8"/>
+      <c r="C711" s="9"/>
     </row>
     <row r="712">
-      <c r="C712" s="8"/>
+      <c r="C712" s="9"/>
     </row>
     <row r="713">
-      <c r="C713" s="8"/>
+      <c r="C713" s="9"/>
     </row>
     <row r="714">
-      <c r="C714" s="8"/>
+      <c r="C714" s="9"/>
     </row>
     <row r="715">
-      <c r="C715" s="8"/>
+      <c r="C715" s="9"/>
     </row>
     <row r="716">
-      <c r="C716" s="8"/>
+      <c r="C716" s="9"/>
     </row>
     <row r="717">
-      <c r="C717" s="8"/>
+      <c r="C717" s="9"/>
     </row>
     <row r="718">
-      <c r="C718" s="8"/>
+      <c r="C718" s="9"/>
     </row>
     <row r="719">
-      <c r="C719" s="8"/>
+      <c r="C719" s="9"/>
     </row>
     <row r="720">
-      <c r="C720" s="8"/>
+      <c r="C720" s="9"/>
     </row>
     <row r="721">
-      <c r="C721" s="8"/>
+      <c r="C721" s="9"/>
     </row>
     <row r="722">
-      <c r="C722" s="8"/>
+      <c r="C722" s="9"/>
     </row>
     <row r="723">
-      <c r="C723" s="8"/>
+      <c r="C723" s="9"/>
     </row>
     <row r="724">
-      <c r="C724" s="8"/>
+      <c r="C724" s="9"/>
     </row>
     <row r="725">
-      <c r="C725" s="8"/>
+      <c r="C725" s="9"/>
     </row>
     <row r="726">
-      <c r="C726" s="8"/>
+      <c r="C726" s="9"/>
     </row>
     <row r="727">
-      <c r="C727" s="8"/>
+      <c r="C727" s="9"/>
     </row>
     <row r="728">
-      <c r="C728" s="8"/>
+      <c r="C728" s="9"/>
     </row>
     <row r="729">
-      <c r="C729" s="8"/>
+      <c r="C729" s="9"/>
     </row>
     <row r="730">
-      <c r="C730" s="8"/>
+      <c r="C730" s="9"/>
     </row>
     <row r="731">
-      <c r="C731" s="8"/>
+      <c r="C731" s="9"/>
     </row>
     <row r="732">
-      <c r="C732" s="8"/>
+      <c r="C732" s="9"/>
     </row>
     <row r="733">
-      <c r="C733" s="8"/>
+      <c r="C733" s="9"/>
     </row>
     <row r="734">
-      <c r="C734" s="8"/>
+      <c r="C734" s="9"/>
     </row>
     <row r="735">
-      <c r="C735" s="8"/>
+      <c r="C735" s="9"/>
     </row>
     <row r="736">
-      <c r="C736" s="8"/>
+      <c r="C736" s="9"/>
     </row>
     <row r="737">
-      <c r="C737" s="8"/>
+      <c r="C737" s="9"/>
     </row>
     <row r="738">
-      <c r="C738" s="8"/>
+      <c r="C738" s="9"/>
     </row>
     <row r="739">
-      <c r="C739" s="8"/>
+      <c r="C739" s="9"/>
     </row>
     <row r="740">
-      <c r="C740" s="8"/>
+      <c r="C740" s="9"/>
     </row>
     <row r="741">
-      <c r="C741" s="8"/>
+      <c r="C741" s="9"/>
     </row>
     <row r="742">
-      <c r="C742" s="8"/>
+      <c r="C742" s="9"/>
     </row>
     <row r="743">
-      <c r="C743" s="8"/>
+      <c r="C743" s="9"/>
     </row>
     <row r="744">
-      <c r="C744" s="8"/>
+      <c r="C744" s="9"/>
     </row>
     <row r="745">
-      <c r="C745" s="8"/>
+      <c r="C745" s="9"/>
     </row>
     <row r="746">
-      <c r="C746" s="8"/>
+      <c r="C746" s="9"/>
     </row>
     <row r="747">
-      <c r="C747" s="8"/>
+      <c r="C747" s="9"/>
     </row>
     <row r="748">
-      <c r="C748" s="8"/>
+      <c r="C748" s="9"/>
     </row>
     <row r="749">
-      <c r="C749" s="8"/>
+      <c r="C749" s="9"/>
     </row>
     <row r="750">
-      <c r="C750" s="8"/>
+      <c r="C750" s="9"/>
     </row>
     <row r="751">
-      <c r="C751" s="8"/>
+      <c r="C751" s="9"/>
     </row>
     <row r="752">
-      <c r="C752" s="8"/>
+      <c r="C752" s="9"/>
     </row>
     <row r="753">
-      <c r="C753" s="8"/>
+      <c r="C753" s="9"/>
     </row>
     <row r="754">
-      <c r="C754" s="8"/>
+      <c r="C754" s="9"/>
     </row>
     <row r="755">
-      <c r="C755" s="8"/>
+      <c r="C755" s="9"/>
     </row>
     <row r="756">
-      <c r="C756" s="8"/>
+      <c r="C756" s="9"/>
     </row>
     <row r="757">
-      <c r="C757" s="8"/>
+      <c r="C757" s="9"/>
     </row>
     <row r="758">
-      <c r="C758" s="8"/>
+      <c r="C758" s="9"/>
     </row>
     <row r="759">
-      <c r="C759" s="8"/>
+      <c r="C759" s="9"/>
     </row>
     <row r="760">
-      <c r="C760" s="8"/>
+      <c r="C760" s="9"/>
     </row>
     <row r="761">
-      <c r="C761" s="8"/>
+      <c r="C761" s="9"/>
     </row>
     <row r="762">
-      <c r="C762" s="8"/>
+      <c r="C762" s="9"/>
     </row>
     <row r="763">
-      <c r="C763" s="8"/>
+      <c r="C763" s="9"/>
     </row>
     <row r="764">
-      <c r="C764" s="8"/>
+      <c r="C764" s="9"/>
     </row>
     <row r="765">
-      <c r="C765" s="8"/>
+      <c r="C765" s="9"/>
     </row>
     <row r="766">
-      <c r="C766" s="8"/>
+      <c r="C766" s="9"/>
     </row>
     <row r="767">
-      <c r="C767" s="8"/>
+      <c r="C767" s="9"/>
     </row>
     <row r="768">
-      <c r="C768" s="8"/>
+      <c r="C768" s="9"/>
     </row>
     <row r="769">
-      <c r="C769" s="8"/>
+      <c r="C769" s="9"/>
     </row>
     <row r="770">
-      <c r="C770" s="8"/>
+      <c r="C770" s="9"/>
     </row>
     <row r="771">
-      <c r="C771" s="8"/>
+      <c r="C771" s="9"/>
     </row>
     <row r="772">
-      <c r="C772" s="8"/>
+      <c r="C772" s="9"/>
     </row>
     <row r="773">
-      <c r="C773" s="8"/>
+      <c r="C773" s="9"/>
     </row>
     <row r="774">
-      <c r="C774" s="8"/>
+      <c r="C774" s="9"/>
     </row>
     <row r="775">
-      <c r="C775" s="8"/>
+      <c r="C775" s="9"/>
     </row>
     <row r="776">
-      <c r="C776" s="8"/>
+      <c r="C776" s="9"/>
     </row>
     <row r="777">
-      <c r="C777" s="8"/>
+      <c r="C777" s="9"/>
     </row>
     <row r="778">
-      <c r="C778" s="8"/>
+      <c r="C778" s="9"/>
     </row>
     <row r="779">
-      <c r="C779" s="8"/>
+      <c r="C779" s="9"/>
     </row>
     <row r="780">
-      <c r="C780" s="8"/>
+      <c r="C780" s="9"/>
     </row>
     <row r="781">
-      <c r="C781" s="8"/>
+      <c r="C781" s="9"/>
     </row>
     <row r="782">
-      <c r="C782" s="8"/>
+      <c r="C782" s="9"/>
     </row>
     <row r="783">
-      <c r="C783" s="8"/>
+      <c r="C783" s="9"/>
     </row>
     <row r="784">
-      <c r="C784" s="8"/>
+      <c r="C784" s="9"/>
     </row>
     <row r="785">
-      <c r="C785" s="8"/>
+      <c r="C785" s="9"/>
     </row>
     <row r="786">
-      <c r="C786" s="8"/>
+      <c r="C786" s="9"/>
     </row>
     <row r="787">
-      <c r="C787" s="8"/>
+      <c r="C787" s="9"/>
     </row>
     <row r="788">
-      <c r="C788" s="8"/>
+      <c r="C788" s="9"/>
     </row>
     <row r="789">
-      <c r="C789" s="8"/>
+      <c r="C789" s="9"/>
     </row>
     <row r="790">
-      <c r="C790" s="8"/>
+      <c r="C790" s="9"/>
     </row>
     <row r="791">
-      <c r="C791" s="8"/>
+      <c r="C791" s="9"/>
     </row>
     <row r="792">
-      <c r="C792" s="8"/>
+      <c r="C792" s="9"/>
     </row>
     <row r="793">
-      <c r="C793" s="8"/>
+      <c r="C793" s="9"/>
     </row>
     <row r="794">
-      <c r="C794" s="8"/>
+      <c r="C794" s="9"/>
     </row>
     <row r="795">
-      <c r="C795" s="8"/>
+      <c r="C795" s="9"/>
     </row>
     <row r="796">
-      <c r="C796" s="8"/>
+      <c r="C796" s="9"/>
     </row>
     <row r="797">
-      <c r="C797" s="8"/>
+      <c r="C797" s="9"/>
     </row>
     <row r="798">
-      <c r="C798" s="8"/>
+      <c r="C798" s="9"/>
     </row>
     <row r="799">
-      <c r="C799" s="8"/>
+      <c r="C799" s="9"/>
     </row>
     <row r="800">
-      <c r="C800" s="8"/>
+      <c r="C800" s="9"/>
     </row>
     <row r="801">
-      <c r="C801" s="8"/>
+      <c r="C801" s="9"/>
     </row>
     <row r="802">
-      <c r="C802" s="8"/>
+      <c r="C802" s="9"/>
     </row>
     <row r="803">
-      <c r="C803" s="8"/>
+      <c r="C803" s="9"/>
     </row>
     <row r="804">
-      <c r="C804" s="8"/>
+      <c r="C804" s="9"/>
     </row>
     <row r="805">
-      <c r="C805" s="8"/>
+      <c r="C805" s="9"/>
     </row>
     <row r="806">
-      <c r="C806" s="8"/>
+      <c r="C806" s="9"/>
     </row>
     <row r="807">
-      <c r="C807" s="8"/>
+      <c r="C807" s="9"/>
     </row>
     <row r="808">
-      <c r="C808" s="8"/>
+      <c r="C808" s="9"/>
     </row>
     <row r="809">
-      <c r="C809" s="8"/>
+      <c r="C809" s="9"/>
     </row>
     <row r="810">
-      <c r="C810" s="8"/>
+      <c r="C810" s="9"/>
     </row>
     <row r="811">
-      <c r="C811" s="8"/>
+      <c r="C811" s="9"/>
     </row>
     <row r="812">
-      <c r="C812" s="8"/>
+      <c r="C812" s="9"/>
     </row>
     <row r="813">
-      <c r="C813" s="8"/>
+      <c r="C813" s="9"/>
     </row>
     <row r="814">
-      <c r="C814" s="8"/>
+      <c r="C814" s="9"/>
     </row>
     <row r="815">
-      <c r="C815" s="8"/>
+      <c r="C815" s="9"/>
     </row>
     <row r="816">
-      <c r="C816" s="8"/>
+      <c r="C816" s="9"/>
     </row>
     <row r="817">
-      <c r="C817" s="8"/>
+      <c r="C817" s="9"/>
     </row>
     <row r="818">
-      <c r="C818" s="8"/>
+      <c r="C818" s="9"/>
     </row>
     <row r="819">
-      <c r="C819" s="8"/>
+      <c r="C819" s="9"/>
     </row>
     <row r="820">
-      <c r="C820" s="8"/>
+      <c r="C820" s="9"/>
     </row>
     <row r="821">
-      <c r="C821" s="8"/>
+      <c r="C821" s="9"/>
     </row>
     <row r="822">
-      <c r="C822" s="8"/>
+      <c r="C822" s="9"/>
     </row>
     <row r="823">
-      <c r="C823" s="8"/>
+      <c r="C823" s="9"/>
     </row>
     <row r="824">
-      <c r="C824" s="8"/>
+      <c r="C824" s="9"/>
     </row>
     <row r="825">
-      <c r="C825" s="8"/>
+      <c r="C825" s="9"/>
     </row>
     <row r="826">
-      <c r="C826" s="8"/>
+      <c r="C826" s="9"/>
     </row>
     <row r="827">
-      <c r="C827" s="8"/>
+      <c r="C827" s="9"/>
     </row>
     <row r="828">
-      <c r="C828" s="8"/>
+      <c r="C828" s="9"/>
     </row>
     <row r="829">
-      <c r="C829" s="8"/>
+      <c r="C829" s="9"/>
     </row>
     <row r="830">
-      <c r="C830" s="8"/>
+      <c r="C830" s="9"/>
     </row>
     <row r="831">
-      <c r="C831" s="8"/>
+      <c r="C831" s="9"/>
     </row>
     <row r="832">
-      <c r="C832" s="8"/>
+      <c r="C832" s="9"/>
     </row>
     <row r="833">
-      <c r="C833" s="8"/>
+      <c r="C833" s="9"/>
     </row>
     <row r="834">
-      <c r="C834" s="8"/>
+      <c r="C834" s="9"/>
     </row>
     <row r="835">
-      <c r="C835" s="8"/>
+      <c r="C835" s="9"/>
     </row>
     <row r="836">
-      <c r="C836" s="8"/>
+      <c r="C836" s="9"/>
     </row>
     <row r="837">
-      <c r="C837" s="8"/>
+      <c r="C837" s="9"/>
     </row>
     <row r="838">
-      <c r="C838" s="8"/>
+      <c r="C838" s="9"/>
     </row>
     <row r="839">
-      <c r="C839" s="8"/>
+      <c r="C839" s="9"/>
     </row>
     <row r="840">
-      <c r="C840" s="8"/>
+      <c r="C840" s="9"/>
     </row>
     <row r="841">
-      <c r="C841" s="8"/>
+      <c r="C841" s="9"/>
     </row>
     <row r="842">
-      <c r="C842" s="8"/>
+      <c r="C842" s="9"/>
     </row>
     <row r="843">
-      <c r="C843" s="8"/>
+      <c r="C843" s="9"/>
     </row>
     <row r="844">
-      <c r="C844" s="8"/>
+      <c r="C844" s="9"/>
     </row>
     <row r="845">
-      <c r="C845" s="8"/>
+      <c r="C845" s="9"/>
     </row>
     <row r="846">
-      <c r="C846" s="8"/>
+      <c r="C846" s="9"/>
     </row>
     <row r="847">
-      <c r="C847" s="8"/>
+      <c r="C847" s="9"/>
     </row>
     <row r="848">
-      <c r="C848" s="8"/>
+      <c r="C848" s="9"/>
     </row>
     <row r="849">
-      <c r="C849" s="8"/>
+      <c r="C849" s="9"/>
     </row>
     <row r="850">
-      <c r="C850" s="8"/>
+      <c r="C850" s="9"/>
     </row>
     <row r="851">
-      <c r="C851" s="8"/>
+      <c r="C851" s="9"/>
     </row>
     <row r="852">
-      <c r="C852" s="8"/>
+      <c r="C852" s="9"/>
     </row>
     <row r="853">
-      <c r="C853" s="8"/>
+      <c r="C853" s="9"/>
     </row>
     <row r="854">
-      <c r="C854" s="8"/>
+      <c r="C854" s="9"/>
     </row>
     <row r="855">
-      <c r="C855" s="8"/>
+      <c r="C855" s="9"/>
     </row>
     <row r="856">
-      <c r="C856" s="8"/>
+      <c r="C856" s="9"/>
     </row>
     <row r="857">
-      <c r="C857" s="8"/>
+      <c r="C857" s="9"/>
     </row>
     <row r="858">
-      <c r="C858" s="8"/>
+      <c r="C858" s="9"/>
     </row>
     <row r="859">
-      <c r="C859" s="8"/>
+      <c r="C859" s="9"/>
     </row>
     <row r="860">
-      <c r="C860" s="8"/>
+      <c r="C860" s="9"/>
     </row>
     <row r="861">
-      <c r="C861" s="8"/>
+      <c r="C861" s="9"/>
     </row>
     <row r="862">
-      <c r="C862" s="8"/>
+      <c r="C862" s="9"/>
     </row>
     <row r="863">
-      <c r="C863" s="8"/>
+      <c r="C863" s="9"/>
     </row>
     <row r="864">
-      <c r="C864" s="8"/>
+      <c r="C864" s="9"/>
     </row>
     <row r="865">
-      <c r="C865" s="8"/>
+      <c r="C865" s="9"/>
     </row>
     <row r="866">
-      <c r="C866" s="8"/>
+      <c r="C866" s="9"/>
     </row>
     <row r="867">
-      <c r="C867" s="8"/>
+      <c r="C867" s="9"/>
     </row>
     <row r="868">
-      <c r="C868" s="8"/>
+      <c r="C868" s="9"/>
     </row>
     <row r="869">
-      <c r="C869" s="8"/>
+      <c r="C869" s="9"/>
     </row>
     <row r="870">
-      <c r="C870" s="8"/>
+      <c r="C870" s="9"/>
     </row>
     <row r="871">
-      <c r="C871" s="8"/>
+      <c r="C871" s="9"/>
     </row>
     <row r="872">
-      <c r="C872" s="8"/>
+      <c r="C872" s="9"/>
     </row>
     <row r="873">
-      <c r="C873" s="8"/>
+      <c r="C873" s="9"/>
     </row>
     <row r="874">
-      <c r="C874" s="8"/>
+      <c r="C874" s="9"/>
     </row>
     <row r="875">
-      <c r="C875" s="8"/>
+      <c r="C875" s="9"/>
     </row>
     <row r="876">
-      <c r="C876" s="8"/>
+      <c r="C876" s="9"/>
     </row>
     <row r="877">
-      <c r="C877" s="8"/>
+      <c r="C877" s="9"/>
     </row>
     <row r="878">
-      <c r="C878" s="8"/>
+      <c r="C878" s="9"/>
     </row>
     <row r="879">
-      <c r="C879" s="8"/>
+      <c r="C879" s="9"/>
     </row>
     <row r="880">
-      <c r="C880" s="8"/>
+      <c r="C880" s="9"/>
     </row>
     <row r="881">
-      <c r="C881" s="8"/>
+      <c r="C881" s="9"/>
     </row>
     <row r="882">
-      <c r="C882" s="8"/>
+      <c r="C882" s="9"/>
     </row>
     <row r="883">
-      <c r="C883" s="8"/>
+      <c r="C883" s="9"/>
     </row>
     <row r="884">
-      <c r="C884" s="8"/>
+      <c r="C884" s="9"/>
     </row>
     <row r="885">
-      <c r="C885" s="8"/>
+      <c r="C885" s="9"/>
     </row>
     <row r="886">
-      <c r="C886" s="8"/>
+      <c r="C886" s="9"/>
     </row>
     <row r="887">
-      <c r="C887" s="8"/>
+      <c r="C887" s="9"/>
     </row>
     <row r="888">
-      <c r="C888" s="8"/>
+      <c r="C888" s="9"/>
     </row>
     <row r="889">
-      <c r="C889" s="8"/>
+      <c r="C889" s="9"/>
     </row>
     <row r="890">
-      <c r="C890" s="8"/>
+      <c r="C890" s="9"/>
     </row>
     <row r="891">
-      <c r="C891" s="8"/>
+      <c r="C891" s="9"/>
     </row>
     <row r="892">
-      <c r="C892" s="8"/>
+      <c r="C892" s="9"/>
     </row>
     <row r="893">
-      <c r="C893" s="8"/>
+      <c r="C893" s="9"/>
     </row>
     <row r="894">
-      <c r="C894" s="8"/>
+      <c r="C894" s="9"/>
     </row>
     <row r="895">
-      <c r="C895" s="8"/>
+      <c r="C895" s="9"/>
     </row>
     <row r="896">
-      <c r="C896" s="8"/>
+      <c r="C896" s="9"/>
     </row>
     <row r="897">
-      <c r="C897" s="8"/>
+      <c r="C897" s="9"/>
     </row>
     <row r="898">
-      <c r="C898" s="8"/>
+      <c r="C898" s="9"/>
     </row>
     <row r="899">
-      <c r="C899" s="8"/>
+      <c r="C899" s="9"/>
     </row>
     <row r="900">
-      <c r="C900" s="8"/>
+      <c r="C900" s="9"/>
     </row>
     <row r="901">
-      <c r="C901" s="8"/>
+      <c r="C901" s="9"/>
     </row>
     <row r="902">
-      <c r="C902" s="8"/>
+      <c r="C902" s="9"/>
     </row>
     <row r="903">
-      <c r="C903" s="8"/>
+      <c r="C903" s="9"/>
     </row>
     <row r="904">
-      <c r="C904" s="8"/>
+      <c r="C904" s="9"/>
     </row>
     <row r="905">
-      <c r="C905" s="8"/>
+      <c r="C905" s="9"/>
     </row>
     <row r="906">
-      <c r="C906" s="8"/>
+      <c r="C906" s="9"/>
     </row>
     <row r="907">
-      <c r="C907" s="8"/>
+      <c r="C907" s="9"/>
     </row>
     <row r="908">
-      <c r="C908" s="8"/>
+      <c r="C908" s="9"/>
     </row>
     <row r="909">
-      <c r="C909" s="8"/>
+      <c r="C909" s="9"/>
     </row>
     <row r="910">
-      <c r="C910" s="8"/>
+      <c r="C910" s="9"/>
     </row>
     <row r="911">
-      <c r="C911" s="8"/>
+      <c r="C911" s="9"/>
     </row>
     <row r="912">
-      <c r="C912" s="8"/>
+      <c r="C912" s="9"/>
     </row>
     <row r="913">
-      <c r="C913" s="8"/>
+      <c r="C913" s="9"/>
     </row>
     <row r="914">
-      <c r="C914" s="8"/>
+      <c r="C914" s="9"/>
     </row>
     <row r="915">
-      <c r="C915" s="8"/>
+      <c r="C915" s="9"/>
     </row>
     <row r="916">
-      <c r="C916" s="8"/>
+      <c r="C916" s="9"/>
     </row>
     <row r="917">
-      <c r="C917" s="8"/>
+      <c r="C917" s="9"/>
     </row>
     <row r="918">
-      <c r="C918" s="8"/>
+      <c r="C918" s="9"/>
     </row>
     <row r="919">
-      <c r="C919" s="8"/>
+      <c r="C919" s="9"/>
     </row>
     <row r="920">
-      <c r="C920" s="8"/>
+      <c r="C920" s="9"/>
     </row>
     <row r="921">
-      <c r="C921" s="8"/>
+      <c r="C921" s="9"/>
     </row>
     <row r="922">
-      <c r="C922" s="8"/>
+      <c r="C922" s="9"/>
     </row>
     <row r="923">
-      <c r="C923" s="8"/>
+      <c r="C923" s="9"/>
     </row>
     <row r="924">
-      <c r="C924" s="8"/>
+      <c r="C924" s="9"/>
     </row>
     <row r="925">
-      <c r="C925" s="8"/>
+      <c r="C925" s="9"/>
     </row>
     <row r="926">
-      <c r="C926" s="8"/>
+      <c r="C926" s="9"/>
     </row>
     <row r="927">
-      <c r="C927" s="8"/>
+      <c r="C927" s="9"/>
     </row>
     <row r="928">
-      <c r="C928" s="8"/>
+      <c r="C928" s="9"/>
     </row>
     <row r="929">
-      <c r="C929" s="8"/>
+      <c r="C929" s="9"/>
     </row>
     <row r="930">
-      <c r="C930" s="8"/>
+      <c r="C930" s="9"/>
     </row>
     <row r="931">
-      <c r="C931" s="8"/>
+      <c r="C931" s="9"/>
     </row>
     <row r="932">
-      <c r="C932" s="8"/>
+      <c r="C932" s="9"/>
     </row>
     <row r="933">
-      <c r="C933" s="8"/>
+      <c r="C933" s="9"/>
     </row>
     <row r="934">
-      <c r="C934" s="8"/>
+      <c r="C934" s="9"/>
     </row>
     <row r="935">
-      <c r="C935" s="8"/>
+      <c r="C935" s="9"/>
     </row>
     <row r="936">
-      <c r="C936" s="8"/>
+      <c r="C936" s="9"/>
     </row>
     <row r="937">
-      <c r="C937" s="8"/>
+      <c r="C937" s="9"/>
     </row>
     <row r="938">
-      <c r="C938" s="8"/>
+      <c r="C938" s="9"/>
     </row>
     <row r="939">
-      <c r="C939" s="8"/>
+      <c r="C939" s="9"/>
     </row>
     <row r="940">
-      <c r="C940" s="8"/>
+      <c r="C940" s="9"/>
     </row>
     <row r="941">
-      <c r="C941" s="8"/>
+      <c r="C941" s="9"/>
     </row>
     <row r="942">
-      <c r="C942" s="8"/>
+      <c r="C942" s="9"/>
     </row>
     <row r="943">
-      <c r="C943" s="8"/>
+      <c r="C943" s="9"/>
     </row>
     <row r="944">
-      <c r="C944" s="8"/>
+      <c r="C944" s="9"/>
     </row>
     <row r="945">
-      <c r="C945" s="8"/>
+      <c r="C945" s="9"/>
     </row>
     <row r="946">
-      <c r="C946" s="8"/>
+      <c r="C946" s="9"/>
     </row>
     <row r="947">
-      <c r="C947" s="8"/>
+      <c r="C947" s="9"/>
     </row>
     <row r="948">
-      <c r="C948" s="8"/>
+      <c r="C948" s="9"/>
     </row>
     <row r="949">
-      <c r="C949" s="8"/>
+      <c r="C949" s="9"/>
     </row>
     <row r="950">
-      <c r="C950" s="8"/>
+      <c r="C950" s="9"/>
     </row>
     <row r="951">
-      <c r="C951" s="8"/>
+      <c r="C951" s="9"/>
     </row>
     <row r="952">
-      <c r="C952" s="8"/>
+      <c r="C952" s="9"/>
     </row>
     <row r="953">
-      <c r="C953" s="8"/>
+      <c r="C953" s="9"/>
     </row>
     <row r="954">
-      <c r="C954" s="8"/>
+      <c r="C954" s="9"/>
     </row>
     <row r="955">
-      <c r="C955" s="8"/>
+      <c r="C955" s="9"/>
     </row>
     <row r="956">
-      <c r="C956" s="8"/>
+      <c r="C956" s="9"/>
     </row>
     <row r="957">
-      <c r="C957" s="8"/>
+      <c r="C957" s="9"/>
     </row>
     <row r="958">
-      <c r="C958" s="8"/>
+      <c r="C958" s="9"/>
     </row>
     <row r="959">
-      <c r="C959" s="8"/>
+      <c r="C959" s="9"/>
     </row>
     <row r="960">
-      <c r="C960" s="8"/>
+      <c r="C960" s="9"/>
     </row>
     <row r="961">
-      <c r="C961" s="8"/>
+      <c r="C961" s="9"/>
     </row>
     <row r="962">
-      <c r="C962" s="8"/>
+      <c r="C962" s="9"/>
     </row>
     <row r="963">
-      <c r="C963" s="8"/>
+      <c r="C963" s="9"/>
     </row>
     <row r="964">
-      <c r="C964" s="8"/>
+      <c r="C964" s="9"/>
     </row>
     <row r="965">
-      <c r="C965" s="8"/>
+      <c r="C965" s="9"/>
     </row>
     <row r="966">
-      <c r="C966" s="8"/>
+      <c r="C966" s="9"/>
     </row>
     <row r="967">
-      <c r="C967" s="8"/>
+      <c r="C967" s="9"/>
     </row>
     <row r="968">
-      <c r="C968" s="8"/>
+      <c r="C968" s="9"/>
     </row>
     <row r="969">
-      <c r="C969" s="8"/>
+      <c r="C969" s="9"/>
     </row>
     <row r="970">
-      <c r="C970" s="8"/>
+      <c r="C970" s="9"/>
     </row>
     <row r="971">
-      <c r="C971" s="8"/>
+      <c r="C971" s="9"/>
     </row>
     <row r="972">
-      <c r="C972" s="8"/>
+      <c r="C972" s="9"/>
     </row>
     <row r="973">
-      <c r="C973" s="8"/>
+      <c r="C973" s="9"/>
     </row>
     <row r="974">
-      <c r="C974" s="8"/>
+      <c r="C974" s="9"/>
     </row>
     <row r="975">
-      <c r="C975" s="8"/>
+      <c r="C975" s="9"/>
     </row>
     <row r="976">
-      <c r="C976" s="8"/>
+      <c r="C976" s="9"/>
     </row>
     <row r="977">
-      <c r="C977" s="8"/>
+      <c r="C977" s="9"/>
     </row>
     <row r="978">
-      <c r="C978" s="8"/>
+      <c r="C978" s="9"/>
     </row>
     <row r="979">
-      <c r="C979" s="8"/>
+      <c r="C979" s="9"/>
     </row>
     <row r="980">
-      <c r="C980" s="8"/>
+      <c r="C980" s="9"/>
     </row>
     <row r="981">
-      <c r="C981" s="8"/>
+      <c r="C981" s="9"/>
     </row>
     <row r="982">
-      <c r="C982" s="8"/>
+      <c r="C982" s="9"/>
     </row>
     <row r="983">
-      <c r="C983" s="8"/>
+      <c r="C983" s="9"/>
     </row>
     <row r="984">
-      <c r="C984" s="8"/>
+      <c r="C984" s="9"/>
     </row>
     <row r="985">
-      <c r="C985" s="8"/>
+      <c r="C985" s="9"/>
     </row>
     <row r="986">
-      <c r="C986" s="8"/>
+      <c r="C986" s="9"/>
     </row>
     <row r="987">
-      <c r="C987" s="8"/>
+      <c r="C987" s="9"/>
     </row>
     <row r="988">
-      <c r="C988" s="8"/>
+      <c r="C988" s="9"/>
     </row>
     <row r="989">
-      <c r="C989" s="8"/>
+      <c r="C989" s="9"/>
     </row>
     <row r="990">
-      <c r="C990" s="8"/>
+      <c r="C990" s="9"/>
     </row>
     <row r="991">
-      <c r="C991" s="8"/>
+      <c r="C991" s="9"/>
     </row>
     <row r="992">
-      <c r="C992" s="8"/>
+      <c r="C992" s="9"/>
     </row>
     <row r="993">
-      <c r="C993" s="8"/>
+      <c r="C993" s="9"/>
     </row>
     <row r="994">
-      <c r="C994" s="8"/>
+      <c r="C994" s="9"/>
     </row>
     <row r="995">
-      <c r="C995" s="8"/>
+      <c r="C995" s="9"/>
     </row>
     <row r="996">
-      <c r="C996" s="8"/>
+      <c r="C996" s="9"/>
     </row>
     <row r="997">
-      <c r="C997" s="8"/>
+      <c r="C997" s="9"/>
     </row>
     <row r="998">
-      <c r="C998" s="8"/>
+      <c r="C998" s="9"/>
     </row>
     <row r="999">
-      <c r="C999" s="8"/>
+      <c r="C999" s="9"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="8"/>
+      <c r="C1000" s="9"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="8"/>
+      <c r="C1001" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="G54"/>
-    <hyperlink r:id="rId2" ref="G55"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados/receitas_drinks.xlsx
+++ b/dados/receitas_drinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
   <si>
     <t>drink</t>
   </si>
@@ -323,12 +323,6 @@
     <t>laranja</t>
   </si>
   <si>
-    <t>simple syrup</t>
-  </si>
-  <si>
-    <t>calda de mel</t>
-  </si>
-  <si>
     <t>colher de chá</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
   </si>
   <si>
     <t>chuchadas</t>
-  </si>
-  <si>
-    <t>calda de açúcar</t>
   </si>
   <si>
     <t>uvas brancas</t>
@@ -429,11 +420,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,7 +911,7 @@
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -931,16 +922,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -951,10 +942,10 @@
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -968,10 +959,10 @@
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4599,7 +4590,7 @@
       <c r="D38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4718,8 +4709,8 @@
       <c r="D45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>103</v>
+      <c r="E45" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -4769,8 +4760,8 @@
       <c r="D48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>104</v>
+      <c r="E48" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -4791,50 +4782,50 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="8">
         <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="8">
         <v>1.0</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4842,27 +4833,27 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="8">
         <v>2.0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="1">
@@ -4874,7 +4865,7 @@
       <c r="E54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="12"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -4892,7 +4883,7 @@
       <c r="E55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="12"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -4910,7 +4901,7 @@
       <c r="E56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="12"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -4919,16 +4910,16 @@
       <c r="B57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>15.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="12"/>
+      <c r="E57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -4941,9 +4932,9 @@
         <v>5.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="G58" s="11"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -4952,7 +4943,7 @@
       <c r="B59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="8">
         <v>1.0</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4969,7 +4960,7 @@
       <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="8">
         <v>2.0</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4980,17 +4971,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="8">
         <v>3.0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>87</v>
@@ -5003,11 +4994,11 @@
       <c r="B62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="8">
         <v>1.0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>99</v>
@@ -5020,11 +5011,11 @@
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="8">
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>95</v>
@@ -5037,7 +5028,7 @@
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="8">
         <v>2.0</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -5054,7 +5045,7 @@
       <c r="B65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="8">
         <v>1.0</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5071,7 +5062,7 @@
       <c r="B66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="8">
         <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5088,7 +5079,7 @@
       <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="8">
         <v>1.0</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5105,7 +5096,7 @@
       <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="12">
         <v>60.0</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5122,7 +5113,7 @@
       <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="12">
         <v>30.0</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5139,7 +5130,7 @@
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="12">
         <v>7.5</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -5156,11 +5147,11 @@
       <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="12">
         <v>6.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>98</v>

--- a/dados/receitas_drinks.xlsx
+++ b/dados/receitas_drinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="114">
   <si>
     <t>drink</t>
   </si>
@@ -116,7 +116,7 @@
     <t>id_007</t>
   </si>
   <si>
-    <t>Misturar todos os ingredientes em uma coqueteleira com gelo e diluir. Servir em copo baixo com uma pedra grande de gelo e casca de laranja.</t>
+    <t>Misturar todos os ingredientes em uma coqueteleira com gelo e mexer até gelar. Servir em copo baixo com uma pedra grande de gelo e casca de laranja.</t>
   </si>
   <si>
     <t>Dry Martini</t>
@@ -194,7 +194,7 @@
     <t>id_015</t>
   </si>
   <si>
-    <t>Colocar o açúcar no fundo de um copo baixo. Adicionar a angostura e a água com gás e dissolver com um pilão. Adicionar o uísque, uma pedra grande de gelo e mexer. Servir com uma casca de laranja.</t>
+    <t>Colocar o açúcar no fundo de um copo baixo. Adicionar a angostura e a água com gás e dissolver com um pilão. Adicionar o uísque, uma pedra grande de gelo e mexer até gelar. Servir com uma casca de laranja.</t>
   </si>
   <si>
     <t>Enzoni</t>
@@ -212,7 +212,7 @@
     <t>id_017</t>
   </si>
   <si>
-    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer. Coar e servir com uma casca de limão siciliano.</t>
+    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer até gelar. Coar e servir com uma casca de limão siciliano.</t>
   </si>
   <si>
     <t>Chet Baker</t>
@@ -230,7 +230,7 @@
     <t>id_019</t>
   </si>
   <si>
-    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer. Coar e servir em copo de gelo grande com uma casca de laranja.</t>
+    <t>Adicionar todos em ingredientes na coqueteleira com gelo e mexer até gelar. Coar e servir em copo baixo com gelo grande e uma casca de laranja.</t>
   </si>
   <si>
     <t>Bitter giuseppe</t>
@@ -239,7 +239,16 @@
     <t>id_020</t>
   </si>
   <si>
-    <t>Colocar tudo em uma coqueteleira com gelo e diluir. Coar para um copo com gelo e servir uma casca de limão siciliano.</t>
+    <t>Colocar tudo em uma coqueteleira com gelo e mexer até gelar. Coar para um copo com gelo e servir uma casca de limão siciliano.</t>
+  </si>
+  <si>
+    <t>Rabo de galo</t>
+  </si>
+  <si>
+    <t>id_021</t>
+  </si>
+  <si>
+    <t>Colocar tudo em uma coqueteleira com gelo e mexer até gelar. Coar para um copo e servir com uma casca de limão (opcional).</t>
   </si>
   <si>
     <t>quantidade</t>
@@ -308,37 +317,43 @@
     <t>chuchada</t>
   </si>
   <si>
+    <t>bitter de laranja (opcional)</t>
+  </si>
+  <si>
+    <t>xarope de mel</t>
+  </si>
+  <si>
+    <t>limão siciliano</t>
+  </si>
+  <si>
+    <t>fatias</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>colher de chá</t>
+  </si>
+  <si>
+    <t>açúcar</t>
+  </si>
+  <si>
+    <t>chuchadas</t>
+  </si>
+  <si>
+    <t>uvas brancas</t>
+  </si>
+  <si>
+    <t>colher bailarina</t>
+  </si>
+  <si>
+    <t>colheres bailarina</t>
+  </si>
+  <si>
     <t>bitter de laranja</t>
   </si>
   <si>
-    <t>xarope de mel</t>
-  </si>
-  <si>
-    <t>limão siciliano</t>
-  </si>
-  <si>
-    <t>fatias</t>
-  </si>
-  <si>
-    <t>laranja</t>
-  </si>
-  <si>
-    <t>colher de chá</t>
-  </si>
-  <si>
-    <t>açúcar</t>
-  </si>
-  <si>
-    <t>chuchadas</t>
-  </si>
-  <si>
-    <t>uvas brancas</t>
-  </si>
-  <si>
-    <t>colher bailarina</t>
-  </si>
-  <si>
-    <t>colheres bailarina</t>
+    <t>cachaça branca</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -407,9 +422,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -417,14 +429,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +923,7 @@
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -945,7 +957,7 @@
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1007,2941 +1019,2955 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="6"/>
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24">
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25">
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26">
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27">
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28">
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29">
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31">
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32">
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33">
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34">
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35">
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36">
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37">
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38">
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39">
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40">
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41">
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42">
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43">
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44">
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45">
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46">
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47">
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48">
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49">
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50">
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51">
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52">
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53">
-      <c r="C53" s="7"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54">
-      <c r="C54" s="7"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55">
-      <c r="C55" s="7"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56">
-      <c r="C56" s="7"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57">
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58">
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59">
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60">
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61">
-      <c r="C61" s="7"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62">
-      <c r="C62" s="7"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63">
-      <c r="C63" s="7"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64">
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65">
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66">
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67">
-      <c r="C67" s="7"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68">
-      <c r="C68" s="7"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69">
-      <c r="C69" s="7"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70">
-      <c r="C70" s="7"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71">
-      <c r="C71" s="7"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72">
-      <c r="C72" s="7"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73">
-      <c r="C73" s="7"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74">
-      <c r="C74" s="7"/>
+      <c r="C74" s="6"/>
     </row>
     <row r="75">
-      <c r="C75" s="7"/>
+      <c r="C75" s="6"/>
     </row>
     <row r="76">
-      <c r="C76" s="7"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77">
-      <c r="C77" s="7"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78">
-      <c r="C78" s="7"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79">
-      <c r="C79" s="7"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80">
-      <c r="C80" s="7"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81">
-      <c r="C81" s="7"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82">
-      <c r="C82" s="7"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83">
-      <c r="C83" s="7"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84">
-      <c r="C84" s="7"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85">
-      <c r="C85" s="7"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86">
-      <c r="C86" s="7"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87">
-      <c r="C87" s="7"/>
+      <c r="C87" s="6"/>
     </row>
     <row r="88">
-      <c r="C88" s="7"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89">
-      <c r="C89" s="7"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90">
-      <c r="C90" s="7"/>
+      <c r="C90" s="6"/>
     </row>
     <row r="91">
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
     </row>
     <row r="92">
-      <c r="C92" s="7"/>
+      <c r="C92" s="6"/>
     </row>
     <row r="93">
-      <c r="C93" s="7"/>
+      <c r="C93" s="6"/>
     </row>
     <row r="94">
-      <c r="C94" s="7"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95">
-      <c r="C95" s="7"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96">
-      <c r="C96" s="7"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97">
-      <c r="C97" s="7"/>
+      <c r="C97" s="6"/>
     </row>
     <row r="98">
-      <c r="C98" s="7"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99">
-      <c r="C99" s="7"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100">
-      <c r="C100" s="7"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101">
-      <c r="C101" s="7"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102">
-      <c r="C102" s="7"/>
+      <c r="C102" s="6"/>
     </row>
     <row r="103">
-      <c r="C103" s="7"/>
+      <c r="C103" s="6"/>
     </row>
     <row r="104">
-      <c r="C104" s="7"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105">
-      <c r="C105" s="7"/>
+      <c r="C105" s="6"/>
     </row>
     <row r="106">
-      <c r="C106" s="7"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107">
-      <c r="C107" s="7"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108">
-      <c r="C108" s="7"/>
+      <c r="C108" s="6"/>
     </row>
     <row r="109">
-      <c r="C109" s="7"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110">
-      <c r="C110" s="7"/>
+      <c r="C110" s="6"/>
     </row>
     <row r="111">
-      <c r="C111" s="7"/>
+      <c r="C111" s="6"/>
     </row>
     <row r="112">
-      <c r="C112" s="7"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113">
-      <c r="C113" s="7"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114">
-      <c r="C114" s="7"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115">
-      <c r="C115" s="7"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116">
-      <c r="C116" s="7"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117">
-      <c r="C117" s="7"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118">
-      <c r="C118" s="7"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119">
-      <c r="C119" s="7"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120">
-      <c r="C120" s="7"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121">
-      <c r="C121" s="7"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122">
-      <c r="C122" s="7"/>
+      <c r="C122" s="6"/>
     </row>
     <row r="123">
-      <c r="C123" s="7"/>
+      <c r="C123" s="6"/>
     </row>
     <row r="124">
-      <c r="C124" s="7"/>
+      <c r="C124" s="6"/>
     </row>
     <row r="125">
-      <c r="C125" s="7"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126">
-      <c r="C126" s="7"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127">
-      <c r="C127" s="7"/>
+      <c r="C127" s="6"/>
     </row>
     <row r="128">
-      <c r="C128" s="7"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129">
-      <c r="C129" s="7"/>
+      <c r="C129" s="6"/>
     </row>
     <row r="130">
-      <c r="C130" s="7"/>
+      <c r="C130" s="6"/>
     </row>
     <row r="131">
-      <c r="C131" s="7"/>
+      <c r="C131" s="6"/>
     </row>
     <row r="132">
-      <c r="C132" s="7"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133">
-      <c r="C133" s="7"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134">
-      <c r="C134" s="7"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135">
-      <c r="C135" s="7"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136">
-      <c r="C136" s="7"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137">
-      <c r="C137" s="7"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138">
-      <c r="C138" s="7"/>
+      <c r="C138" s="6"/>
     </row>
     <row r="139">
-      <c r="C139" s="7"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140">
-      <c r="C140" s="7"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141">
-      <c r="C141" s="7"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142">
-      <c r="C142" s="7"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143">
-      <c r="C143" s="7"/>
+      <c r="C143" s="6"/>
     </row>
     <row r="144">
-      <c r="C144" s="7"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145">
-      <c r="C145" s="7"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146">
-      <c r="C146" s="7"/>
+      <c r="C146" s="6"/>
     </row>
     <row r="147">
-      <c r="C147" s="7"/>
+      <c r="C147" s="6"/>
     </row>
     <row r="148">
-      <c r="C148" s="7"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149">
-      <c r="C149" s="7"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150">
-      <c r="C150" s="7"/>
+      <c r="C150" s="6"/>
     </row>
     <row r="151">
-      <c r="C151" s="7"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152">
-      <c r="C152" s="7"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153">
-      <c r="C153" s="7"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154">
-      <c r="C154" s="7"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155">
-      <c r="C155" s="7"/>
+      <c r="C155" s="6"/>
     </row>
     <row r="156">
-      <c r="C156" s="7"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157">
-      <c r="C157" s="7"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158">
-      <c r="C158" s="7"/>
+      <c r="C158" s="6"/>
     </row>
     <row r="159">
-      <c r="C159" s="7"/>
+      <c r="C159" s="6"/>
     </row>
     <row r="160">
-      <c r="C160" s="7"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161">
-      <c r="C161" s="7"/>
+      <c r="C161" s="6"/>
     </row>
     <row r="162">
-      <c r="C162" s="7"/>
+      <c r="C162" s="6"/>
     </row>
     <row r="163">
-      <c r="C163" s="7"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164">
-      <c r="C164" s="7"/>
+      <c r="C164" s="6"/>
     </row>
     <row r="165">
-      <c r="C165" s="7"/>
+      <c r="C165" s="6"/>
     </row>
     <row r="166">
-      <c r="C166" s="7"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167">
-      <c r="C167" s="7"/>
+      <c r="C167" s="6"/>
     </row>
     <row r="168">
-      <c r="C168" s="7"/>
+      <c r="C168" s="6"/>
     </row>
     <row r="169">
-      <c r="C169" s="7"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170">
-      <c r="C170" s="7"/>
+      <c r="C170" s="6"/>
     </row>
     <row r="171">
-      <c r="C171" s="7"/>
+      <c r="C171" s="6"/>
     </row>
     <row r="172">
-      <c r="C172" s="7"/>
+      <c r="C172" s="6"/>
     </row>
     <row r="173">
-      <c r="C173" s="7"/>
+      <c r="C173" s="6"/>
     </row>
     <row r="174">
-      <c r="C174" s="7"/>
+      <c r="C174" s="6"/>
     </row>
     <row r="175">
-      <c r="C175" s="7"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176">
-      <c r="C176" s="7"/>
+      <c r="C176" s="6"/>
     </row>
     <row r="177">
-      <c r="C177" s="7"/>
+      <c r="C177" s="6"/>
     </row>
     <row r="178">
-      <c r="C178" s="7"/>
+      <c r="C178" s="6"/>
     </row>
     <row r="179">
-      <c r="C179" s="7"/>
+      <c r="C179" s="6"/>
     </row>
     <row r="180">
-      <c r="C180" s="7"/>
+      <c r="C180" s="6"/>
     </row>
     <row r="181">
-      <c r="C181" s="7"/>
+      <c r="C181" s="6"/>
     </row>
     <row r="182">
-      <c r="C182" s="7"/>
+      <c r="C182" s="6"/>
     </row>
     <row r="183">
-      <c r="C183" s="7"/>
+      <c r="C183" s="6"/>
     </row>
     <row r="184">
-      <c r="C184" s="7"/>
+      <c r="C184" s="6"/>
     </row>
     <row r="185">
-      <c r="C185" s="7"/>
+      <c r="C185" s="6"/>
     </row>
     <row r="186">
-      <c r="C186" s="7"/>
+      <c r="C186" s="6"/>
     </row>
     <row r="187">
-      <c r="C187" s="7"/>
+      <c r="C187" s="6"/>
     </row>
     <row r="188">
-      <c r="C188" s="7"/>
+      <c r="C188" s="6"/>
     </row>
     <row r="189">
-      <c r="C189" s="7"/>
+      <c r="C189" s="6"/>
     </row>
     <row r="190">
-      <c r="C190" s="7"/>
+      <c r="C190" s="6"/>
     </row>
     <row r="191">
-      <c r="C191" s="7"/>
+      <c r="C191" s="6"/>
     </row>
     <row r="192">
-      <c r="C192" s="7"/>
+      <c r="C192" s="6"/>
     </row>
     <row r="193">
-      <c r="C193" s="7"/>
+      <c r="C193" s="6"/>
     </row>
     <row r="194">
-      <c r="C194" s="7"/>
+      <c r="C194" s="6"/>
     </row>
     <row r="195">
-      <c r="C195" s="7"/>
+      <c r="C195" s="6"/>
     </row>
     <row r="196">
-      <c r="C196" s="7"/>
+      <c r="C196" s="6"/>
     </row>
     <row r="197">
-      <c r="C197" s="7"/>
+      <c r="C197" s="6"/>
     </row>
     <row r="198">
-      <c r="C198" s="7"/>
+      <c r="C198" s="6"/>
     </row>
     <row r="199">
-      <c r="C199" s="7"/>
+      <c r="C199" s="6"/>
     </row>
     <row r="200">
-      <c r="C200" s="7"/>
+      <c r="C200" s="6"/>
     </row>
     <row r="201">
-      <c r="C201" s="7"/>
+      <c r="C201" s="6"/>
     </row>
     <row r="202">
-      <c r="C202" s="7"/>
+      <c r="C202" s="6"/>
     </row>
     <row r="203">
-      <c r="C203" s="7"/>
+      <c r="C203" s="6"/>
     </row>
     <row r="204">
-      <c r="C204" s="7"/>
+      <c r="C204" s="6"/>
     </row>
     <row r="205">
-      <c r="C205" s="7"/>
+      <c r="C205" s="6"/>
     </row>
     <row r="206">
-      <c r="C206" s="7"/>
+      <c r="C206" s="6"/>
     </row>
     <row r="207">
-      <c r="C207" s="7"/>
+      <c r="C207" s="6"/>
     </row>
     <row r="208">
-      <c r="C208" s="7"/>
+      <c r="C208" s="6"/>
     </row>
     <row r="209">
-      <c r="C209" s="7"/>
+      <c r="C209" s="6"/>
     </row>
     <row r="210">
-      <c r="C210" s="7"/>
+      <c r="C210" s="6"/>
     </row>
     <row r="211">
-      <c r="C211" s="7"/>
+      <c r="C211" s="6"/>
     </row>
     <row r="212">
-      <c r="C212" s="7"/>
+      <c r="C212" s="6"/>
     </row>
     <row r="213">
-      <c r="C213" s="7"/>
+      <c r="C213" s="6"/>
     </row>
     <row r="214">
-      <c r="C214" s="7"/>
+      <c r="C214" s="6"/>
     </row>
     <row r="215">
-      <c r="C215" s="7"/>
+      <c r="C215" s="6"/>
     </row>
     <row r="216">
-      <c r="C216" s="7"/>
+      <c r="C216" s="6"/>
     </row>
     <row r="217">
-      <c r="C217" s="7"/>
+      <c r="C217" s="6"/>
     </row>
     <row r="218">
-      <c r="C218" s="7"/>
+      <c r="C218" s="6"/>
     </row>
     <row r="219">
-      <c r="C219" s="7"/>
+      <c r="C219" s="6"/>
     </row>
     <row r="220">
-      <c r="C220" s="7"/>
+      <c r="C220" s="6"/>
     </row>
     <row r="221">
-      <c r="C221" s="7"/>
+      <c r="C221" s="6"/>
     </row>
     <row r="222">
-      <c r="C222" s="7"/>
+      <c r="C222" s="6"/>
     </row>
     <row r="223">
-      <c r="C223" s="7"/>
+      <c r="C223" s="6"/>
     </row>
     <row r="224">
-      <c r="C224" s="7"/>
+      <c r="C224" s="6"/>
     </row>
     <row r="225">
-      <c r="C225" s="7"/>
+      <c r="C225" s="6"/>
     </row>
     <row r="226">
-      <c r="C226" s="7"/>
+      <c r="C226" s="6"/>
     </row>
     <row r="227">
-      <c r="C227" s="7"/>
+      <c r="C227" s="6"/>
     </row>
     <row r="228">
-      <c r="C228" s="7"/>
+      <c r="C228" s="6"/>
     </row>
     <row r="229">
-      <c r="C229" s="7"/>
+      <c r="C229" s="6"/>
     </row>
     <row r="230">
-      <c r="C230" s="7"/>
+      <c r="C230" s="6"/>
     </row>
     <row r="231">
-      <c r="C231" s="7"/>
+      <c r="C231" s="6"/>
     </row>
     <row r="232">
-      <c r="C232" s="7"/>
+      <c r="C232" s="6"/>
     </row>
     <row r="233">
-      <c r="C233" s="7"/>
+      <c r="C233" s="6"/>
     </row>
     <row r="234">
-      <c r="C234" s="7"/>
+      <c r="C234" s="6"/>
     </row>
     <row r="235">
-      <c r="C235" s="7"/>
+      <c r="C235" s="6"/>
     </row>
     <row r="236">
-      <c r="C236" s="7"/>
+      <c r="C236" s="6"/>
     </row>
     <row r="237">
-      <c r="C237" s="7"/>
+      <c r="C237" s="6"/>
     </row>
     <row r="238">
-      <c r="C238" s="7"/>
+      <c r="C238" s="6"/>
     </row>
     <row r="239">
-      <c r="C239" s="7"/>
+      <c r="C239" s="6"/>
     </row>
     <row r="240">
-      <c r="C240" s="7"/>
+      <c r="C240" s="6"/>
     </row>
     <row r="241">
-      <c r="C241" s="7"/>
+      <c r="C241" s="6"/>
     </row>
     <row r="242">
-      <c r="C242" s="7"/>
+      <c r="C242" s="6"/>
     </row>
     <row r="243">
-      <c r="C243" s="7"/>
+      <c r="C243" s="6"/>
     </row>
     <row r="244">
-      <c r="C244" s="7"/>
+      <c r="C244" s="6"/>
     </row>
     <row r="245">
-      <c r="C245" s="7"/>
+      <c r="C245" s="6"/>
     </row>
     <row r="246">
-      <c r="C246" s="7"/>
+      <c r="C246" s="6"/>
     </row>
     <row r="247">
-      <c r="C247" s="7"/>
+      <c r="C247" s="6"/>
     </row>
     <row r="248">
-      <c r="C248" s="7"/>
+      <c r="C248" s="6"/>
     </row>
     <row r="249">
-      <c r="C249" s="7"/>
+      <c r="C249" s="6"/>
     </row>
     <row r="250">
-      <c r="C250" s="7"/>
+      <c r="C250" s="6"/>
     </row>
     <row r="251">
-      <c r="C251" s="7"/>
+      <c r="C251" s="6"/>
     </row>
     <row r="252">
-      <c r="C252" s="7"/>
+      <c r="C252" s="6"/>
     </row>
     <row r="253">
-      <c r="C253" s="7"/>
+      <c r="C253" s="6"/>
     </row>
     <row r="254">
-      <c r="C254" s="7"/>
+      <c r="C254" s="6"/>
     </row>
     <row r="255">
-      <c r="C255" s="7"/>
+      <c r="C255" s="6"/>
     </row>
     <row r="256">
-      <c r="C256" s="7"/>
+      <c r="C256" s="6"/>
     </row>
     <row r="257">
-      <c r="C257" s="7"/>
+      <c r="C257" s="6"/>
     </row>
     <row r="258">
-      <c r="C258" s="7"/>
+      <c r="C258" s="6"/>
     </row>
     <row r="259">
-      <c r="C259" s="7"/>
+      <c r="C259" s="6"/>
     </row>
     <row r="260">
-      <c r="C260" s="7"/>
+      <c r="C260" s="6"/>
     </row>
     <row r="261">
-      <c r="C261" s="7"/>
+      <c r="C261" s="6"/>
     </row>
     <row r="262">
-      <c r="C262" s="7"/>
+      <c r="C262" s="6"/>
     </row>
     <row r="263">
-      <c r="C263" s="7"/>
+      <c r="C263" s="6"/>
     </row>
     <row r="264">
-      <c r="C264" s="7"/>
+      <c r="C264" s="6"/>
     </row>
     <row r="265">
-      <c r="C265" s="7"/>
+      <c r="C265" s="6"/>
     </row>
     <row r="266">
-      <c r="C266" s="7"/>
+      <c r="C266" s="6"/>
     </row>
     <row r="267">
-      <c r="C267" s="7"/>
+      <c r="C267" s="6"/>
     </row>
     <row r="268">
-      <c r="C268" s="7"/>
+      <c r="C268" s="6"/>
     </row>
     <row r="269">
-      <c r="C269" s="7"/>
+      <c r="C269" s="6"/>
     </row>
     <row r="270">
-      <c r="C270" s="7"/>
+      <c r="C270" s="6"/>
     </row>
     <row r="271">
-      <c r="C271" s="7"/>
+      <c r="C271" s="6"/>
     </row>
     <row r="272">
-      <c r="C272" s="7"/>
+      <c r="C272" s="6"/>
     </row>
     <row r="273">
-      <c r="C273" s="7"/>
+      <c r="C273" s="6"/>
     </row>
     <row r="274">
-      <c r="C274" s="7"/>
+      <c r="C274" s="6"/>
     </row>
     <row r="275">
-      <c r="C275" s="7"/>
+      <c r="C275" s="6"/>
     </row>
     <row r="276">
-      <c r="C276" s="7"/>
+      <c r="C276" s="6"/>
     </row>
     <row r="277">
-      <c r="C277" s="7"/>
+      <c r="C277" s="6"/>
     </row>
     <row r="278">
-      <c r="C278" s="7"/>
+      <c r="C278" s="6"/>
     </row>
     <row r="279">
-      <c r="C279" s="7"/>
+      <c r="C279" s="6"/>
     </row>
     <row r="280">
-      <c r="C280" s="7"/>
+      <c r="C280" s="6"/>
     </row>
     <row r="281">
-      <c r="C281" s="7"/>
+      <c r="C281" s="6"/>
     </row>
     <row r="282">
-      <c r="C282" s="7"/>
+      <c r="C282" s="6"/>
     </row>
     <row r="283">
-      <c r="C283" s="7"/>
+      <c r="C283" s="6"/>
     </row>
     <row r="284">
-      <c r="C284" s="7"/>
+      <c r="C284" s="6"/>
     </row>
     <row r="285">
-      <c r="C285" s="7"/>
+      <c r="C285" s="6"/>
     </row>
     <row r="286">
-      <c r="C286" s="7"/>
+      <c r="C286" s="6"/>
     </row>
     <row r="287">
-      <c r="C287" s="7"/>
+      <c r="C287" s="6"/>
     </row>
     <row r="288">
-      <c r="C288" s="7"/>
+      <c r="C288" s="6"/>
     </row>
     <row r="289">
-      <c r="C289" s="7"/>
+      <c r="C289" s="6"/>
     </row>
     <row r="290">
-      <c r="C290" s="7"/>
+      <c r="C290" s="6"/>
     </row>
     <row r="291">
-      <c r="C291" s="7"/>
+      <c r="C291" s="6"/>
     </row>
     <row r="292">
-      <c r="C292" s="7"/>
+      <c r="C292" s="6"/>
     </row>
     <row r="293">
-      <c r="C293" s="7"/>
+      <c r="C293" s="6"/>
     </row>
     <row r="294">
-      <c r="C294" s="7"/>
+      <c r="C294" s="6"/>
     </row>
     <row r="295">
-      <c r="C295" s="7"/>
+      <c r="C295" s="6"/>
     </row>
     <row r="296">
-      <c r="C296" s="7"/>
+      <c r="C296" s="6"/>
     </row>
     <row r="297">
-      <c r="C297" s="7"/>
+      <c r="C297" s="6"/>
     </row>
     <row r="298">
-      <c r="C298" s="7"/>
+      <c r="C298" s="6"/>
     </row>
     <row r="299">
-      <c r="C299" s="7"/>
+      <c r="C299" s="6"/>
     </row>
     <row r="300">
-      <c r="C300" s="7"/>
+      <c r="C300" s="6"/>
     </row>
     <row r="301">
-      <c r="C301" s="7"/>
+      <c r="C301" s="6"/>
     </row>
     <row r="302">
-      <c r="C302" s="7"/>
+      <c r="C302" s="6"/>
     </row>
     <row r="303">
-      <c r="C303" s="7"/>
+      <c r="C303" s="6"/>
     </row>
     <row r="304">
-      <c r="C304" s="7"/>
+      <c r="C304" s="6"/>
     </row>
     <row r="305">
-      <c r="C305" s="7"/>
+      <c r="C305" s="6"/>
     </row>
     <row r="306">
-      <c r="C306" s="7"/>
+      <c r="C306" s="6"/>
     </row>
     <row r="307">
-      <c r="C307" s="7"/>
+      <c r="C307" s="6"/>
     </row>
     <row r="308">
-      <c r="C308" s="7"/>
+      <c r="C308" s="6"/>
     </row>
     <row r="309">
-      <c r="C309" s="7"/>
+      <c r="C309" s="6"/>
     </row>
     <row r="310">
-      <c r="C310" s="7"/>
+      <c r="C310" s="6"/>
     </row>
     <row r="311">
-      <c r="C311" s="7"/>
+      <c r="C311" s="6"/>
     </row>
     <row r="312">
-      <c r="C312" s="7"/>
+      <c r="C312" s="6"/>
     </row>
     <row r="313">
-      <c r="C313" s="7"/>
+      <c r="C313" s="6"/>
     </row>
     <row r="314">
-      <c r="C314" s="7"/>
+      <c r="C314" s="6"/>
     </row>
     <row r="315">
-      <c r="C315" s="7"/>
+      <c r="C315" s="6"/>
     </row>
     <row r="316">
-      <c r="C316" s="7"/>
+      <c r="C316" s="6"/>
     </row>
     <row r="317">
-      <c r="C317" s="7"/>
+      <c r="C317" s="6"/>
     </row>
     <row r="318">
-      <c r="C318" s="7"/>
+      <c r="C318" s="6"/>
     </row>
     <row r="319">
-      <c r="C319" s="7"/>
+      <c r="C319" s="6"/>
     </row>
     <row r="320">
-      <c r="C320" s="7"/>
+      <c r="C320" s="6"/>
     </row>
     <row r="321">
-      <c r="C321" s="7"/>
+      <c r="C321" s="6"/>
     </row>
     <row r="322">
-      <c r="C322" s="7"/>
+      <c r="C322" s="6"/>
     </row>
     <row r="323">
-      <c r="C323" s="7"/>
+      <c r="C323" s="6"/>
     </row>
     <row r="324">
-      <c r="C324" s="7"/>
+      <c r="C324" s="6"/>
     </row>
     <row r="325">
-      <c r="C325" s="7"/>
+      <c r="C325" s="6"/>
     </row>
     <row r="326">
-      <c r="C326" s="7"/>
+      <c r="C326" s="6"/>
     </row>
     <row r="327">
-      <c r="C327" s="7"/>
+      <c r="C327" s="6"/>
     </row>
     <row r="328">
-      <c r="C328" s="7"/>
+      <c r="C328" s="6"/>
     </row>
     <row r="329">
-      <c r="C329" s="7"/>
+      <c r="C329" s="6"/>
     </row>
     <row r="330">
-      <c r="C330" s="7"/>
+      <c r="C330" s="6"/>
     </row>
     <row r="331">
-      <c r="C331" s="7"/>
+      <c r="C331" s="6"/>
     </row>
     <row r="332">
-      <c r="C332" s="7"/>
+      <c r="C332" s="6"/>
     </row>
     <row r="333">
-      <c r="C333" s="7"/>
+      <c r="C333" s="6"/>
     </row>
     <row r="334">
-      <c r="C334" s="7"/>
+      <c r="C334" s="6"/>
     </row>
     <row r="335">
-      <c r="C335" s="7"/>
+      <c r="C335" s="6"/>
     </row>
     <row r="336">
-      <c r="C336" s="7"/>
+      <c r="C336" s="6"/>
     </row>
     <row r="337">
-      <c r="C337" s="7"/>
+      <c r="C337" s="6"/>
     </row>
     <row r="338">
-      <c r="C338" s="7"/>
+      <c r="C338" s="6"/>
     </row>
     <row r="339">
-      <c r="C339" s="7"/>
+      <c r="C339" s="6"/>
     </row>
     <row r="340">
-      <c r="C340" s="7"/>
+      <c r="C340" s="6"/>
     </row>
     <row r="341">
-      <c r="C341" s="7"/>
+      <c r="C341" s="6"/>
     </row>
     <row r="342">
-      <c r="C342" s="7"/>
+      <c r="C342" s="6"/>
     </row>
     <row r="343">
-      <c r="C343" s="7"/>
+      <c r="C343" s="6"/>
     </row>
     <row r="344">
-      <c r="C344" s="7"/>
+      <c r="C344" s="6"/>
     </row>
     <row r="345">
-      <c r="C345" s="7"/>
+      <c r="C345" s="6"/>
     </row>
     <row r="346">
-      <c r="C346" s="7"/>
+      <c r="C346" s="6"/>
     </row>
     <row r="347">
-      <c r="C347" s="7"/>
+      <c r="C347" s="6"/>
     </row>
     <row r="348">
-      <c r="C348" s="7"/>
+      <c r="C348" s="6"/>
     </row>
     <row r="349">
-      <c r="C349" s="7"/>
+      <c r="C349" s="6"/>
     </row>
     <row r="350">
-      <c r="C350" s="7"/>
+      <c r="C350" s="6"/>
     </row>
     <row r="351">
-      <c r="C351" s="7"/>
+      <c r="C351" s="6"/>
     </row>
     <row r="352">
-      <c r="C352" s="7"/>
+      <c r="C352" s="6"/>
     </row>
     <row r="353">
-      <c r="C353" s="7"/>
+      <c r="C353" s="6"/>
     </row>
     <row r="354">
-      <c r="C354" s="7"/>
+      <c r="C354" s="6"/>
     </row>
     <row r="355">
-      <c r="C355" s="7"/>
+      <c r="C355" s="6"/>
     </row>
     <row r="356">
-      <c r="C356" s="7"/>
+      <c r="C356" s="6"/>
     </row>
     <row r="357">
-      <c r="C357" s="7"/>
+      <c r="C357" s="6"/>
     </row>
     <row r="358">
-      <c r="C358" s="7"/>
+      <c r="C358" s="6"/>
     </row>
     <row r="359">
-      <c r="C359" s="7"/>
+      <c r="C359" s="6"/>
     </row>
     <row r="360">
-      <c r="C360" s="7"/>
+      <c r="C360" s="6"/>
     </row>
     <row r="361">
-      <c r="C361" s="7"/>
+      <c r="C361" s="6"/>
     </row>
     <row r="362">
-      <c r="C362" s="7"/>
+      <c r="C362" s="6"/>
     </row>
     <row r="363">
-      <c r="C363" s="7"/>
+      <c r="C363" s="6"/>
     </row>
     <row r="364">
-      <c r="C364" s="7"/>
+      <c r="C364" s="6"/>
     </row>
     <row r="365">
-      <c r="C365" s="7"/>
+      <c r="C365" s="6"/>
     </row>
     <row r="366">
-      <c r="C366" s="7"/>
+      <c r="C366" s="6"/>
     </row>
     <row r="367">
-      <c r="C367" s="7"/>
+      <c r="C367" s="6"/>
     </row>
     <row r="368">
-      <c r="C368" s="7"/>
+      <c r="C368" s="6"/>
     </row>
     <row r="369">
-      <c r="C369" s="7"/>
+      <c r="C369" s="6"/>
     </row>
     <row r="370">
-      <c r="C370" s="7"/>
+      <c r="C370" s="6"/>
     </row>
     <row r="371">
-      <c r="C371" s="7"/>
+      <c r="C371" s="6"/>
     </row>
     <row r="372">
-      <c r="C372" s="7"/>
+      <c r="C372" s="6"/>
     </row>
     <row r="373">
-      <c r="C373" s="7"/>
+      <c r="C373" s="6"/>
     </row>
     <row r="374">
-      <c r="C374" s="7"/>
+      <c r="C374" s="6"/>
     </row>
     <row r="375">
-      <c r="C375" s="7"/>
+      <c r="C375" s="6"/>
     </row>
     <row r="376">
-      <c r="C376" s="7"/>
+      <c r="C376" s="6"/>
     </row>
     <row r="377">
-      <c r="C377" s="7"/>
+      <c r="C377" s="6"/>
     </row>
     <row r="378">
-      <c r="C378" s="7"/>
+      <c r="C378" s="6"/>
     </row>
     <row r="379">
-      <c r="C379" s="7"/>
+      <c r="C379" s="6"/>
     </row>
     <row r="380">
-      <c r="C380" s="7"/>
+      <c r="C380" s="6"/>
     </row>
     <row r="381">
-      <c r="C381" s="7"/>
+      <c r="C381" s="6"/>
     </row>
     <row r="382">
-      <c r="C382" s="7"/>
+      <c r="C382" s="6"/>
     </row>
     <row r="383">
-      <c r="C383" s="7"/>
+      <c r="C383" s="6"/>
     </row>
     <row r="384">
-      <c r="C384" s="7"/>
+      <c r="C384" s="6"/>
     </row>
     <row r="385">
-      <c r="C385" s="7"/>
+      <c r="C385" s="6"/>
     </row>
     <row r="386">
-      <c r="C386" s="7"/>
+      <c r="C386" s="6"/>
     </row>
     <row r="387">
-      <c r="C387" s="7"/>
+      <c r="C387" s="6"/>
     </row>
     <row r="388">
-      <c r="C388" s="7"/>
+      <c r="C388" s="6"/>
     </row>
     <row r="389">
-      <c r="C389" s="7"/>
+      <c r="C389" s="6"/>
     </row>
     <row r="390">
-      <c r="C390" s="7"/>
+      <c r="C390" s="6"/>
     </row>
     <row r="391">
-      <c r="C391" s="7"/>
+      <c r="C391" s="6"/>
     </row>
     <row r="392">
-      <c r="C392" s="7"/>
+      <c r="C392" s="6"/>
     </row>
     <row r="393">
-      <c r="C393" s="7"/>
+      <c r="C393" s="6"/>
     </row>
     <row r="394">
-      <c r="C394" s="7"/>
+      <c r="C394" s="6"/>
     </row>
     <row r="395">
-      <c r="C395" s="7"/>
+      <c r="C395" s="6"/>
     </row>
     <row r="396">
-      <c r="C396" s="7"/>
+      <c r="C396" s="6"/>
     </row>
     <row r="397">
-      <c r="C397" s="7"/>
+      <c r="C397" s="6"/>
     </row>
     <row r="398">
-      <c r="C398" s="7"/>
+      <c r="C398" s="6"/>
     </row>
     <row r="399">
-      <c r="C399" s="7"/>
+      <c r="C399" s="6"/>
     </row>
     <row r="400">
-      <c r="C400" s="7"/>
+      <c r="C400" s="6"/>
     </row>
     <row r="401">
-      <c r="C401" s="7"/>
+      <c r="C401" s="6"/>
     </row>
     <row r="402">
-      <c r="C402" s="7"/>
+      <c r="C402" s="6"/>
     </row>
     <row r="403">
-      <c r="C403" s="7"/>
+      <c r="C403" s="6"/>
     </row>
     <row r="404">
-      <c r="C404" s="7"/>
+      <c r="C404" s="6"/>
     </row>
     <row r="405">
-      <c r="C405" s="7"/>
+      <c r="C405" s="6"/>
     </row>
     <row r="406">
-      <c r="C406" s="7"/>
+      <c r="C406" s="6"/>
     </row>
     <row r="407">
-      <c r="C407" s="7"/>
+      <c r="C407" s="6"/>
     </row>
     <row r="408">
-      <c r="C408" s="7"/>
+      <c r="C408" s="6"/>
     </row>
     <row r="409">
-      <c r="C409" s="7"/>
+      <c r="C409" s="6"/>
     </row>
     <row r="410">
-      <c r="C410" s="7"/>
+      <c r="C410" s="6"/>
     </row>
     <row r="411">
-      <c r="C411" s="7"/>
+      <c r="C411" s="6"/>
     </row>
     <row r="412">
-      <c r="C412" s="7"/>
+      <c r="C412" s="6"/>
     </row>
     <row r="413">
-      <c r="C413" s="7"/>
+      <c r="C413" s="6"/>
     </row>
     <row r="414">
-      <c r="C414" s="7"/>
+      <c r="C414" s="6"/>
     </row>
     <row r="415">
-      <c r="C415" s="7"/>
+      <c r="C415" s="6"/>
     </row>
     <row r="416">
-      <c r="C416" s="7"/>
+      <c r="C416" s="6"/>
     </row>
     <row r="417">
-      <c r="C417" s="7"/>
+      <c r="C417" s="6"/>
     </row>
     <row r="418">
-      <c r="C418" s="7"/>
+      <c r="C418" s="6"/>
     </row>
     <row r="419">
-      <c r="C419" s="7"/>
+      <c r="C419" s="6"/>
     </row>
     <row r="420">
-      <c r="C420" s="7"/>
+      <c r="C420" s="6"/>
     </row>
     <row r="421">
-      <c r="C421" s="7"/>
+      <c r="C421" s="6"/>
     </row>
     <row r="422">
-      <c r="C422" s="7"/>
+      <c r="C422" s="6"/>
     </row>
     <row r="423">
-      <c r="C423" s="7"/>
+      <c r="C423" s="6"/>
     </row>
     <row r="424">
-      <c r="C424" s="7"/>
+      <c r="C424" s="6"/>
     </row>
     <row r="425">
-      <c r="C425" s="7"/>
+      <c r="C425" s="6"/>
     </row>
     <row r="426">
-      <c r="C426" s="7"/>
+      <c r="C426" s="6"/>
     </row>
     <row r="427">
-      <c r="C427" s="7"/>
+      <c r="C427" s="6"/>
     </row>
     <row r="428">
-      <c r="C428" s="7"/>
+      <c r="C428" s="6"/>
     </row>
     <row r="429">
-      <c r="C429" s="7"/>
+      <c r="C429" s="6"/>
     </row>
     <row r="430">
-      <c r="C430" s="7"/>
+      <c r="C430" s="6"/>
     </row>
     <row r="431">
-      <c r="C431" s="7"/>
+      <c r="C431" s="6"/>
     </row>
     <row r="432">
-      <c r="C432" s="7"/>
+      <c r="C432" s="6"/>
     </row>
     <row r="433">
-      <c r="C433" s="7"/>
+      <c r="C433" s="6"/>
     </row>
     <row r="434">
-      <c r="C434" s="7"/>
+      <c r="C434" s="6"/>
     </row>
     <row r="435">
-      <c r="C435" s="7"/>
+      <c r="C435" s="6"/>
     </row>
     <row r="436">
-      <c r="C436" s="7"/>
+      <c r="C436" s="6"/>
     </row>
     <row r="437">
-      <c r="C437" s="7"/>
+      <c r="C437" s="6"/>
     </row>
     <row r="438">
-      <c r="C438" s="7"/>
+      <c r="C438" s="6"/>
     </row>
     <row r="439">
-      <c r="C439" s="7"/>
+      <c r="C439" s="6"/>
     </row>
     <row r="440">
-      <c r="C440" s="7"/>
+      <c r="C440" s="6"/>
     </row>
     <row r="441">
-      <c r="C441" s="7"/>
+      <c r="C441" s="6"/>
     </row>
     <row r="442">
-      <c r="C442" s="7"/>
+      <c r="C442" s="6"/>
     </row>
     <row r="443">
-      <c r="C443" s="7"/>
+      <c r="C443" s="6"/>
     </row>
     <row r="444">
-      <c r="C444" s="7"/>
+      <c r="C444" s="6"/>
     </row>
     <row r="445">
-      <c r="C445" s="7"/>
+      <c r="C445" s="6"/>
     </row>
     <row r="446">
-      <c r="C446" s="7"/>
+      <c r="C446" s="6"/>
     </row>
     <row r="447">
-      <c r="C447" s="7"/>
+      <c r="C447" s="6"/>
     </row>
     <row r="448">
-      <c r="C448" s="7"/>
+      <c r="C448" s="6"/>
     </row>
     <row r="449">
-      <c r="C449" s="7"/>
+      <c r="C449" s="6"/>
     </row>
     <row r="450">
-      <c r="C450" s="7"/>
+      <c r="C450" s="6"/>
     </row>
     <row r="451">
-      <c r="C451" s="7"/>
+      <c r="C451" s="6"/>
     </row>
     <row r="452">
-      <c r="C452" s="7"/>
+      <c r="C452" s="6"/>
     </row>
     <row r="453">
-      <c r="C453" s="7"/>
+      <c r="C453" s="6"/>
     </row>
     <row r="454">
-      <c r="C454" s="7"/>
+      <c r="C454" s="6"/>
     </row>
     <row r="455">
-      <c r="C455" s="7"/>
+      <c r="C455" s="6"/>
     </row>
     <row r="456">
-      <c r="C456" s="7"/>
+      <c r="C456" s="6"/>
     </row>
     <row r="457">
-      <c r="C457" s="7"/>
+      <c r="C457" s="6"/>
     </row>
     <row r="458">
-      <c r="C458" s="7"/>
+      <c r="C458" s="6"/>
     </row>
     <row r="459">
-      <c r="C459" s="7"/>
+      <c r="C459" s="6"/>
     </row>
     <row r="460">
-      <c r="C460" s="7"/>
+      <c r="C460" s="6"/>
     </row>
     <row r="461">
-      <c r="C461" s="7"/>
+      <c r="C461" s="6"/>
     </row>
     <row r="462">
-      <c r="C462" s="7"/>
+      <c r="C462" s="6"/>
     </row>
     <row r="463">
-      <c r="C463" s="7"/>
+      <c r="C463" s="6"/>
     </row>
     <row r="464">
-      <c r="C464" s="7"/>
+      <c r="C464" s="6"/>
     </row>
     <row r="465">
-      <c r="C465" s="7"/>
+      <c r="C465" s="6"/>
     </row>
     <row r="466">
-      <c r="C466" s="7"/>
+      <c r="C466" s="6"/>
     </row>
     <row r="467">
-      <c r="C467" s="7"/>
+      <c r="C467" s="6"/>
     </row>
     <row r="468">
-      <c r="C468" s="7"/>
+      <c r="C468" s="6"/>
     </row>
     <row r="469">
-      <c r="C469" s="7"/>
+      <c r="C469" s="6"/>
     </row>
     <row r="470">
-      <c r="C470" s="7"/>
+      <c r="C470" s="6"/>
     </row>
     <row r="471">
-      <c r="C471" s="7"/>
+      <c r="C471" s="6"/>
     </row>
     <row r="472">
-      <c r="C472" s="7"/>
+      <c r="C472" s="6"/>
     </row>
     <row r="473">
-      <c r="C473" s="7"/>
+      <c r="C473" s="6"/>
     </row>
     <row r="474">
-      <c r="C474" s="7"/>
+      <c r="C474" s="6"/>
     </row>
     <row r="475">
-      <c r="C475" s="7"/>
+      <c r="C475" s="6"/>
     </row>
     <row r="476">
-      <c r="C476" s="7"/>
+      <c r="C476" s="6"/>
     </row>
     <row r="477">
-      <c r="C477" s="7"/>
+      <c r="C477" s="6"/>
     </row>
     <row r="478">
-      <c r="C478" s="7"/>
+      <c r="C478" s="6"/>
     </row>
     <row r="479">
-      <c r="C479" s="7"/>
+      <c r="C479" s="6"/>
     </row>
     <row r="480">
-      <c r="C480" s="7"/>
+      <c r="C480" s="6"/>
     </row>
     <row r="481">
-      <c r="C481" s="7"/>
+      <c r="C481" s="6"/>
     </row>
     <row r="482">
-      <c r="C482" s="7"/>
+      <c r="C482" s="6"/>
     </row>
     <row r="483">
-      <c r="C483" s="7"/>
+      <c r="C483" s="6"/>
     </row>
     <row r="484">
-      <c r="C484" s="7"/>
+      <c r="C484" s="6"/>
     </row>
     <row r="485">
-      <c r="C485" s="7"/>
+      <c r="C485" s="6"/>
     </row>
     <row r="486">
-      <c r="C486" s="7"/>
+      <c r="C486" s="6"/>
     </row>
     <row r="487">
-      <c r="C487" s="7"/>
+      <c r="C487" s="6"/>
     </row>
     <row r="488">
-      <c r="C488" s="7"/>
+      <c r="C488" s="6"/>
     </row>
     <row r="489">
-      <c r="C489" s="7"/>
+      <c r="C489" s="6"/>
     </row>
     <row r="490">
-      <c r="C490" s="7"/>
+      <c r="C490" s="6"/>
     </row>
     <row r="491">
-      <c r="C491" s="7"/>
+      <c r="C491" s="6"/>
     </row>
     <row r="492">
-      <c r="C492" s="7"/>
+      <c r="C492" s="6"/>
     </row>
     <row r="493">
-      <c r="C493" s="7"/>
+      <c r="C493" s="6"/>
     </row>
     <row r="494">
-      <c r="C494" s="7"/>
+      <c r="C494" s="6"/>
     </row>
     <row r="495">
-      <c r="C495" s="7"/>
+      <c r="C495" s="6"/>
     </row>
     <row r="496">
-      <c r="C496" s="7"/>
+      <c r="C496" s="6"/>
     </row>
     <row r="497">
-      <c r="C497" s="7"/>
+      <c r="C497" s="6"/>
     </row>
     <row r="498">
-      <c r="C498" s="7"/>
+      <c r="C498" s="6"/>
     </row>
     <row r="499">
-      <c r="C499" s="7"/>
+      <c r="C499" s="6"/>
     </row>
     <row r="500">
-      <c r="C500" s="7"/>
+      <c r="C500" s="6"/>
     </row>
     <row r="501">
-      <c r="C501" s="7"/>
+      <c r="C501" s="6"/>
     </row>
     <row r="502">
-      <c r="C502" s="7"/>
+      <c r="C502" s="6"/>
     </row>
     <row r="503">
-      <c r="C503" s="7"/>
+      <c r="C503" s="6"/>
     </row>
     <row r="504">
-      <c r="C504" s="7"/>
+      <c r="C504" s="6"/>
     </row>
     <row r="505">
-      <c r="C505" s="7"/>
+      <c r="C505" s="6"/>
     </row>
     <row r="506">
-      <c r="C506" s="7"/>
+      <c r="C506" s="6"/>
     </row>
     <row r="507">
-      <c r="C507" s="7"/>
+      <c r="C507" s="6"/>
     </row>
     <row r="508">
-      <c r="C508" s="7"/>
+      <c r="C508" s="6"/>
     </row>
     <row r="509">
-      <c r="C509" s="7"/>
+      <c r="C509" s="6"/>
     </row>
     <row r="510">
-      <c r="C510" s="7"/>
+      <c r="C510" s="6"/>
     </row>
     <row r="511">
-      <c r="C511" s="7"/>
+      <c r="C511" s="6"/>
     </row>
     <row r="512">
-      <c r="C512" s="7"/>
+      <c r="C512" s="6"/>
     </row>
     <row r="513">
-      <c r="C513" s="7"/>
+      <c r="C513" s="6"/>
     </row>
     <row r="514">
-      <c r="C514" s="7"/>
+      <c r="C514" s="6"/>
     </row>
     <row r="515">
-      <c r="C515" s="7"/>
+      <c r="C515" s="6"/>
     </row>
     <row r="516">
-      <c r="C516" s="7"/>
+      <c r="C516" s="6"/>
     </row>
     <row r="517">
-      <c r="C517" s="7"/>
+      <c r="C517" s="6"/>
     </row>
     <row r="518">
-      <c r="C518" s="7"/>
+      <c r="C518" s="6"/>
     </row>
     <row r="519">
-      <c r="C519" s="7"/>
+      <c r="C519" s="6"/>
     </row>
     <row r="520">
-      <c r="C520" s="7"/>
+      <c r="C520" s="6"/>
     </row>
     <row r="521">
-      <c r="C521" s="7"/>
+      <c r="C521" s="6"/>
     </row>
     <row r="522">
-      <c r="C522" s="7"/>
+      <c r="C522" s="6"/>
     </row>
     <row r="523">
-      <c r="C523" s="7"/>
+      <c r="C523" s="6"/>
     </row>
     <row r="524">
-      <c r="C524" s="7"/>
+      <c r="C524" s="6"/>
     </row>
     <row r="525">
-      <c r="C525" s="7"/>
+      <c r="C525" s="6"/>
     </row>
     <row r="526">
-      <c r="C526" s="7"/>
+      <c r="C526" s="6"/>
     </row>
     <row r="527">
-      <c r="C527" s="7"/>
+      <c r="C527" s="6"/>
     </row>
     <row r="528">
-      <c r="C528" s="7"/>
+      <c r="C528" s="6"/>
     </row>
     <row r="529">
-      <c r="C529" s="7"/>
+      <c r="C529" s="6"/>
     </row>
     <row r="530">
-      <c r="C530" s="7"/>
+      <c r="C530" s="6"/>
     </row>
     <row r="531">
-      <c r="C531" s="7"/>
+      <c r="C531" s="6"/>
     </row>
     <row r="532">
-      <c r="C532" s="7"/>
+      <c r="C532" s="6"/>
     </row>
     <row r="533">
-      <c r="C533" s="7"/>
+      <c r="C533" s="6"/>
     </row>
     <row r="534">
-      <c r="C534" s="7"/>
+      <c r="C534" s="6"/>
     </row>
     <row r="535">
-      <c r="C535" s="7"/>
+      <c r="C535" s="6"/>
     </row>
     <row r="536">
-      <c r="C536" s="7"/>
+      <c r="C536" s="6"/>
     </row>
     <row r="537">
-      <c r="C537" s="7"/>
+      <c r="C537" s="6"/>
     </row>
     <row r="538">
-      <c r="C538" s="7"/>
+      <c r="C538" s="6"/>
     </row>
     <row r="539">
-      <c r="C539" s="7"/>
+      <c r="C539" s="6"/>
     </row>
     <row r="540">
-      <c r="C540" s="7"/>
+      <c r="C540" s="6"/>
     </row>
     <row r="541">
-      <c r="C541" s="7"/>
+      <c r="C541" s="6"/>
     </row>
     <row r="542">
-      <c r="C542" s="7"/>
+      <c r="C542" s="6"/>
     </row>
     <row r="543">
-      <c r="C543" s="7"/>
+      <c r="C543" s="6"/>
     </row>
     <row r="544">
-      <c r="C544" s="7"/>
+      <c r="C544" s="6"/>
     </row>
     <row r="545">
-      <c r="C545" s="7"/>
+      <c r="C545" s="6"/>
     </row>
     <row r="546">
-      <c r="C546" s="7"/>
+      <c r="C546" s="6"/>
     </row>
     <row r="547">
-      <c r="C547" s="7"/>
+      <c r="C547" s="6"/>
     </row>
     <row r="548">
-      <c r="C548" s="7"/>
+      <c r="C548" s="6"/>
     </row>
     <row r="549">
-      <c r="C549" s="7"/>
+      <c r="C549" s="6"/>
     </row>
     <row r="550">
-      <c r="C550" s="7"/>
+      <c r="C550" s="6"/>
     </row>
     <row r="551">
-      <c r="C551" s="7"/>
+      <c r="C551" s="6"/>
     </row>
     <row r="552">
-      <c r="C552" s="7"/>
+      <c r="C552" s="6"/>
     </row>
     <row r="553">
-      <c r="C553" s="7"/>
+      <c r="C553" s="6"/>
     </row>
     <row r="554">
-      <c r="C554" s="7"/>
+      <c r="C554" s="6"/>
     </row>
     <row r="555">
-      <c r="C555" s="7"/>
+      <c r="C555" s="6"/>
     </row>
     <row r="556">
-      <c r="C556" s="7"/>
+      <c r="C556" s="6"/>
     </row>
     <row r="557">
-      <c r="C557" s="7"/>
+      <c r="C557" s="6"/>
     </row>
     <row r="558">
-      <c r="C558" s="7"/>
+      <c r="C558" s="6"/>
     </row>
     <row r="559">
-      <c r="C559" s="7"/>
+      <c r="C559" s="6"/>
     </row>
     <row r="560">
-      <c r="C560" s="7"/>
+      <c r="C560" s="6"/>
     </row>
     <row r="561">
-      <c r="C561" s="7"/>
+      <c r="C561" s="6"/>
     </row>
     <row r="562">
-      <c r="C562" s="7"/>
+      <c r="C562" s="6"/>
     </row>
     <row r="563">
-      <c r="C563" s="7"/>
+      <c r="C563" s="6"/>
     </row>
     <row r="564">
-      <c r="C564" s="7"/>
+      <c r="C564" s="6"/>
     </row>
     <row r="565">
-      <c r="C565" s="7"/>
+      <c r="C565" s="6"/>
     </row>
     <row r="566">
-      <c r="C566" s="7"/>
+      <c r="C566" s="6"/>
     </row>
     <row r="567">
-      <c r="C567" s="7"/>
+      <c r="C567" s="6"/>
     </row>
     <row r="568">
-      <c r="C568" s="7"/>
+      <c r="C568" s="6"/>
     </row>
     <row r="569">
-      <c r="C569" s="7"/>
+      <c r="C569" s="6"/>
     </row>
     <row r="570">
-      <c r="C570" s="7"/>
+      <c r="C570" s="6"/>
     </row>
     <row r="571">
-      <c r="C571" s="7"/>
+      <c r="C571" s="6"/>
     </row>
     <row r="572">
-      <c r="C572" s="7"/>
+      <c r="C572" s="6"/>
     </row>
     <row r="573">
-      <c r="C573" s="7"/>
+      <c r="C573" s="6"/>
     </row>
     <row r="574">
-      <c r="C574" s="7"/>
+      <c r="C574" s="6"/>
     </row>
     <row r="575">
-      <c r="C575" s="7"/>
+      <c r="C575" s="6"/>
     </row>
     <row r="576">
-      <c r="C576" s="7"/>
+      <c r="C576" s="6"/>
     </row>
     <row r="577">
-      <c r="C577" s="7"/>
+      <c r="C577" s="6"/>
     </row>
     <row r="578">
-      <c r="C578" s="7"/>
+      <c r="C578" s="6"/>
     </row>
     <row r="579">
-      <c r="C579" s="7"/>
+      <c r="C579" s="6"/>
     </row>
     <row r="580">
-      <c r="C580" s="7"/>
+      <c r="C580" s="6"/>
     </row>
     <row r="581">
-      <c r="C581" s="7"/>
+      <c r="C581" s="6"/>
     </row>
     <row r="582">
-      <c r="C582" s="7"/>
+      <c r="C582" s="6"/>
     </row>
     <row r="583">
-      <c r="C583" s="7"/>
+      <c r="C583" s="6"/>
     </row>
     <row r="584">
-      <c r="C584" s="7"/>
+      <c r="C584" s="6"/>
     </row>
     <row r="585">
-      <c r="C585" s="7"/>
+      <c r="C585" s="6"/>
     </row>
     <row r="586">
-      <c r="C586" s="7"/>
+      <c r="C586" s="6"/>
     </row>
     <row r="587">
-      <c r="C587" s="7"/>
+      <c r="C587" s="6"/>
     </row>
     <row r="588">
-      <c r="C588" s="7"/>
+      <c r="C588" s="6"/>
     </row>
     <row r="589">
-      <c r="C589" s="7"/>
+      <c r="C589" s="6"/>
     </row>
     <row r="590">
-      <c r="C590" s="7"/>
+      <c r="C590" s="6"/>
     </row>
     <row r="591">
-      <c r="C591" s="7"/>
+      <c r="C591" s="6"/>
     </row>
     <row r="592">
-      <c r="C592" s="7"/>
+      <c r="C592" s="6"/>
     </row>
     <row r="593">
-      <c r="C593" s="7"/>
+      <c r="C593" s="6"/>
     </row>
     <row r="594">
-      <c r="C594" s="7"/>
+      <c r="C594" s="6"/>
     </row>
     <row r="595">
-      <c r="C595" s="7"/>
+      <c r="C595" s="6"/>
     </row>
     <row r="596">
-      <c r="C596" s="7"/>
+      <c r="C596" s="6"/>
     </row>
     <row r="597">
-      <c r="C597" s="7"/>
+      <c r="C597" s="6"/>
     </row>
     <row r="598">
-      <c r="C598" s="7"/>
+      <c r="C598" s="6"/>
     </row>
     <row r="599">
-      <c r="C599" s="7"/>
+      <c r="C599" s="6"/>
     </row>
     <row r="600">
-      <c r="C600" s="7"/>
+      <c r="C600" s="6"/>
     </row>
     <row r="601">
-      <c r="C601" s="7"/>
+      <c r="C601" s="6"/>
     </row>
     <row r="602">
-      <c r="C602" s="7"/>
+      <c r="C602" s="6"/>
     </row>
     <row r="603">
-      <c r="C603" s="7"/>
+      <c r="C603" s="6"/>
     </row>
     <row r="604">
-      <c r="C604" s="7"/>
+      <c r="C604" s="6"/>
     </row>
     <row r="605">
-      <c r="C605" s="7"/>
+      <c r="C605" s="6"/>
     </row>
     <row r="606">
-      <c r="C606" s="7"/>
+      <c r="C606" s="6"/>
     </row>
     <row r="607">
-      <c r="C607" s="7"/>
+      <c r="C607" s="6"/>
     </row>
     <row r="608">
-      <c r="C608" s="7"/>
+      <c r="C608" s="6"/>
     </row>
     <row r="609">
-      <c r="C609" s="7"/>
+      <c r="C609" s="6"/>
     </row>
     <row r="610">
-      <c r="C610" s="7"/>
+      <c r="C610" s="6"/>
     </row>
     <row r="611">
-      <c r="C611" s="7"/>
+      <c r="C611" s="6"/>
     </row>
     <row r="612">
-      <c r="C612" s="7"/>
+      <c r="C612" s="6"/>
     </row>
     <row r="613">
-      <c r="C613" s="7"/>
+      <c r="C613" s="6"/>
     </row>
     <row r="614">
-      <c r="C614" s="7"/>
+      <c r="C614" s="6"/>
     </row>
     <row r="615">
-      <c r="C615" s="7"/>
+      <c r="C615" s="6"/>
     </row>
     <row r="616">
-      <c r="C616" s="7"/>
+      <c r="C616" s="6"/>
     </row>
     <row r="617">
-      <c r="C617" s="7"/>
+      <c r="C617" s="6"/>
     </row>
     <row r="618">
-      <c r="C618" s="7"/>
+      <c r="C618" s="6"/>
     </row>
     <row r="619">
-      <c r="C619" s="7"/>
+      <c r="C619" s="6"/>
     </row>
     <row r="620">
-      <c r="C620" s="7"/>
+      <c r="C620" s="6"/>
     </row>
     <row r="621">
-      <c r="C621" s="7"/>
+      <c r="C621" s="6"/>
     </row>
     <row r="622">
-      <c r="C622" s="7"/>
+      <c r="C622" s="6"/>
     </row>
     <row r="623">
-      <c r="C623" s="7"/>
+      <c r="C623" s="6"/>
     </row>
     <row r="624">
-      <c r="C624" s="7"/>
+      <c r="C624" s="6"/>
     </row>
     <row r="625">
-      <c r="C625" s="7"/>
+      <c r="C625" s="6"/>
     </row>
     <row r="626">
-      <c r="C626" s="7"/>
+      <c r="C626" s="6"/>
     </row>
     <row r="627">
-      <c r="C627" s="7"/>
+      <c r="C627" s="6"/>
     </row>
     <row r="628">
-      <c r="C628" s="7"/>
+      <c r="C628" s="6"/>
     </row>
     <row r="629">
-      <c r="C629" s="7"/>
+      <c r="C629" s="6"/>
     </row>
     <row r="630">
-      <c r="C630" s="7"/>
+      <c r="C630" s="6"/>
     </row>
     <row r="631">
-      <c r="C631" s="7"/>
+      <c r="C631" s="6"/>
     </row>
     <row r="632">
-      <c r="C632" s="7"/>
+      <c r="C632" s="6"/>
     </row>
     <row r="633">
-      <c r="C633" s="7"/>
+      <c r="C633" s="6"/>
     </row>
     <row r="634">
-      <c r="C634" s="7"/>
+      <c r="C634" s="6"/>
     </row>
     <row r="635">
-      <c r="C635" s="7"/>
+      <c r="C635" s="6"/>
     </row>
     <row r="636">
-      <c r="C636" s="7"/>
+      <c r="C636" s="6"/>
     </row>
     <row r="637">
-      <c r="C637" s="7"/>
+      <c r="C637" s="6"/>
     </row>
     <row r="638">
-      <c r="C638" s="7"/>
+      <c r="C638" s="6"/>
     </row>
     <row r="639">
-      <c r="C639" s="7"/>
+      <c r="C639" s="6"/>
     </row>
     <row r="640">
-      <c r="C640" s="7"/>
+      <c r="C640" s="6"/>
     </row>
     <row r="641">
-      <c r="C641" s="7"/>
+      <c r="C641" s="6"/>
     </row>
     <row r="642">
-      <c r="C642" s="7"/>
+      <c r="C642" s="6"/>
     </row>
     <row r="643">
-      <c r="C643" s="7"/>
+      <c r="C643" s="6"/>
     </row>
     <row r="644">
-      <c r="C644" s="7"/>
+      <c r="C644" s="6"/>
     </row>
     <row r="645">
-      <c r="C645" s="7"/>
+      <c r="C645" s="6"/>
     </row>
     <row r="646">
-      <c r="C646" s="7"/>
+      <c r="C646" s="6"/>
     </row>
     <row r="647">
-      <c r="C647" s="7"/>
+      <c r="C647" s="6"/>
     </row>
     <row r="648">
-      <c r="C648" s="7"/>
+      <c r="C648" s="6"/>
     </row>
     <row r="649">
-      <c r="C649" s="7"/>
+      <c r="C649" s="6"/>
     </row>
     <row r="650">
-      <c r="C650" s="7"/>
+      <c r="C650" s="6"/>
     </row>
     <row r="651">
-      <c r="C651" s="7"/>
+      <c r="C651" s="6"/>
     </row>
     <row r="652">
-      <c r="C652" s="7"/>
+      <c r="C652" s="6"/>
     </row>
     <row r="653">
-      <c r="C653" s="7"/>
+      <c r="C653" s="6"/>
     </row>
     <row r="654">
-      <c r="C654" s="7"/>
+      <c r="C654" s="6"/>
     </row>
     <row r="655">
-      <c r="C655" s="7"/>
+      <c r="C655" s="6"/>
     </row>
     <row r="656">
-      <c r="C656" s="7"/>
+      <c r="C656" s="6"/>
     </row>
     <row r="657">
-      <c r="C657" s="7"/>
+      <c r="C657" s="6"/>
     </row>
     <row r="658">
-      <c r="C658" s="7"/>
+      <c r="C658" s="6"/>
     </row>
     <row r="659">
-      <c r="C659" s="7"/>
+      <c r="C659" s="6"/>
     </row>
     <row r="660">
-      <c r="C660" s="7"/>
+      <c r="C660" s="6"/>
     </row>
     <row r="661">
-      <c r="C661" s="7"/>
+      <c r="C661" s="6"/>
     </row>
     <row r="662">
-      <c r="C662" s="7"/>
+      <c r="C662" s="6"/>
     </row>
     <row r="663">
-      <c r="C663" s="7"/>
+      <c r="C663" s="6"/>
     </row>
     <row r="664">
-      <c r="C664" s="7"/>
+      <c r="C664" s="6"/>
     </row>
     <row r="665">
-      <c r="C665" s="7"/>
+      <c r="C665" s="6"/>
     </row>
     <row r="666">
-      <c r="C666" s="7"/>
+      <c r="C666" s="6"/>
     </row>
     <row r="667">
-      <c r="C667" s="7"/>
+      <c r="C667" s="6"/>
     </row>
     <row r="668">
-      <c r="C668" s="7"/>
+      <c r="C668" s="6"/>
     </row>
     <row r="669">
-      <c r="C669" s="7"/>
+      <c r="C669" s="6"/>
     </row>
     <row r="670">
-      <c r="C670" s="7"/>
+      <c r="C670" s="6"/>
     </row>
     <row r="671">
-      <c r="C671" s="7"/>
+      <c r="C671" s="6"/>
     </row>
     <row r="672">
-      <c r="C672" s="7"/>
+      <c r="C672" s="6"/>
     </row>
     <row r="673">
-      <c r="C673" s="7"/>
+      <c r="C673" s="6"/>
     </row>
     <row r="674">
-      <c r="C674" s="7"/>
+      <c r="C674" s="6"/>
     </row>
     <row r="675">
-      <c r="C675" s="7"/>
+      <c r="C675" s="6"/>
     </row>
     <row r="676">
-      <c r="C676" s="7"/>
+      <c r="C676" s="6"/>
     </row>
     <row r="677">
-      <c r="C677" s="7"/>
+      <c r="C677" s="6"/>
     </row>
     <row r="678">
-      <c r="C678" s="7"/>
+      <c r="C678" s="6"/>
     </row>
     <row r="679">
-      <c r="C679" s="7"/>
+      <c r="C679" s="6"/>
     </row>
     <row r="680">
-      <c r="C680" s="7"/>
+      <c r="C680" s="6"/>
     </row>
     <row r="681">
-      <c r="C681" s="7"/>
+      <c r="C681" s="6"/>
     </row>
     <row r="682">
-      <c r="C682" s="7"/>
+      <c r="C682" s="6"/>
     </row>
     <row r="683">
-      <c r="C683" s="7"/>
+      <c r="C683" s="6"/>
     </row>
     <row r="684">
-      <c r="C684" s="7"/>
+      <c r="C684" s="6"/>
     </row>
     <row r="685">
-      <c r="C685" s="7"/>
+      <c r="C685" s="6"/>
     </row>
     <row r="686">
-      <c r="C686" s="7"/>
+      <c r="C686" s="6"/>
     </row>
     <row r="687">
-      <c r="C687" s="7"/>
+      <c r="C687" s="6"/>
     </row>
     <row r="688">
-      <c r="C688" s="7"/>
+      <c r="C688" s="6"/>
     </row>
     <row r="689">
-      <c r="C689" s="7"/>
+      <c r="C689" s="6"/>
     </row>
     <row r="690">
-      <c r="C690" s="7"/>
+      <c r="C690" s="6"/>
     </row>
     <row r="691">
-      <c r="C691" s="7"/>
+      <c r="C691" s="6"/>
     </row>
     <row r="692">
-      <c r="C692" s="7"/>
+      <c r="C692" s="6"/>
     </row>
     <row r="693">
-      <c r="C693" s="7"/>
+      <c r="C693" s="6"/>
     </row>
     <row r="694">
-      <c r="C694" s="7"/>
+      <c r="C694" s="6"/>
     </row>
     <row r="695">
-      <c r="C695" s="7"/>
+      <c r="C695" s="6"/>
     </row>
     <row r="696">
-      <c r="C696" s="7"/>
+      <c r="C696" s="6"/>
     </row>
     <row r="697">
-      <c r="C697" s="7"/>
+      <c r="C697" s="6"/>
     </row>
     <row r="698">
-      <c r="C698" s="7"/>
+      <c r="C698" s="6"/>
     </row>
     <row r="699">
-      <c r="C699" s="7"/>
+      <c r="C699" s="6"/>
     </row>
     <row r="700">
-      <c r="C700" s="7"/>
+      <c r="C700" s="6"/>
     </row>
     <row r="701">
-      <c r="C701" s="7"/>
+      <c r="C701" s="6"/>
     </row>
     <row r="702">
-      <c r="C702" s="7"/>
+      <c r="C702" s="6"/>
     </row>
     <row r="703">
-      <c r="C703" s="7"/>
+      <c r="C703" s="6"/>
     </row>
     <row r="704">
-      <c r="C704" s="7"/>
+      <c r="C704" s="6"/>
     </row>
     <row r="705">
-      <c r="C705" s="7"/>
+      <c r="C705" s="6"/>
     </row>
     <row r="706">
-      <c r="C706" s="7"/>
+      <c r="C706" s="6"/>
     </row>
     <row r="707">
-      <c r="C707" s="7"/>
+      <c r="C707" s="6"/>
     </row>
     <row r="708">
-      <c r="C708" s="7"/>
+      <c r="C708" s="6"/>
     </row>
     <row r="709">
-      <c r="C709" s="7"/>
+      <c r="C709" s="6"/>
     </row>
     <row r="710">
-      <c r="C710" s="7"/>
+      <c r="C710" s="6"/>
     </row>
     <row r="711">
-      <c r="C711" s="7"/>
+      <c r="C711" s="6"/>
     </row>
     <row r="712">
-      <c r="C712" s="7"/>
+      <c r="C712" s="6"/>
     </row>
     <row r="713">
-      <c r="C713" s="7"/>
+      <c r="C713" s="6"/>
     </row>
     <row r="714">
-      <c r="C714" s="7"/>
+      <c r="C714" s="6"/>
     </row>
     <row r="715">
-      <c r="C715" s="7"/>
+      <c r="C715" s="6"/>
     </row>
     <row r="716">
-      <c r="C716" s="7"/>
+      <c r="C716" s="6"/>
     </row>
     <row r="717">
-      <c r="C717" s="7"/>
+      <c r="C717" s="6"/>
     </row>
     <row r="718">
-      <c r="C718" s="7"/>
+      <c r="C718" s="6"/>
     </row>
     <row r="719">
-      <c r="C719" s="7"/>
+      <c r="C719" s="6"/>
     </row>
     <row r="720">
-      <c r="C720" s="7"/>
+      <c r="C720" s="6"/>
     </row>
     <row r="721">
-      <c r="C721" s="7"/>
+      <c r="C721" s="6"/>
     </row>
     <row r="722">
-      <c r="C722" s="7"/>
+      <c r="C722" s="6"/>
     </row>
     <row r="723">
-      <c r="C723" s="7"/>
+      <c r="C723" s="6"/>
     </row>
     <row r="724">
-      <c r="C724" s="7"/>
+      <c r="C724" s="6"/>
     </row>
     <row r="725">
-      <c r="C725" s="7"/>
+      <c r="C725" s="6"/>
     </row>
     <row r="726">
-      <c r="C726" s="7"/>
+      <c r="C726" s="6"/>
     </row>
     <row r="727">
-      <c r="C727" s="7"/>
+      <c r="C727" s="6"/>
     </row>
     <row r="728">
-      <c r="C728" s="7"/>
+      <c r="C728" s="6"/>
     </row>
     <row r="729">
-      <c r="C729" s="7"/>
+      <c r="C729" s="6"/>
     </row>
     <row r="730">
-      <c r="C730" s="7"/>
+      <c r="C730" s="6"/>
     </row>
     <row r="731">
-      <c r="C731" s="7"/>
+      <c r="C731" s="6"/>
     </row>
     <row r="732">
-      <c r="C732" s="7"/>
+      <c r="C732" s="6"/>
     </row>
     <row r="733">
-      <c r="C733" s="7"/>
+      <c r="C733" s="6"/>
     </row>
     <row r="734">
-      <c r="C734" s="7"/>
+      <c r="C734" s="6"/>
     </row>
     <row r="735">
-      <c r="C735" s="7"/>
+      <c r="C735" s="6"/>
     </row>
     <row r="736">
-      <c r="C736" s="7"/>
+      <c r="C736" s="6"/>
     </row>
     <row r="737">
-      <c r="C737" s="7"/>
+      <c r="C737" s="6"/>
     </row>
     <row r="738">
-      <c r="C738" s="7"/>
+      <c r="C738" s="6"/>
     </row>
     <row r="739">
-      <c r="C739" s="7"/>
+      <c r="C739" s="6"/>
     </row>
     <row r="740">
-      <c r="C740" s="7"/>
+      <c r="C740" s="6"/>
     </row>
     <row r="741">
-      <c r="C741" s="7"/>
+      <c r="C741" s="6"/>
     </row>
     <row r="742">
-      <c r="C742" s="7"/>
+      <c r="C742" s="6"/>
     </row>
     <row r="743">
-      <c r="C743" s="7"/>
+      <c r="C743" s="6"/>
     </row>
     <row r="744">
-      <c r="C744" s="7"/>
+      <c r="C744" s="6"/>
     </row>
     <row r="745">
-      <c r="C745" s="7"/>
+      <c r="C745" s="6"/>
     </row>
     <row r="746">
-      <c r="C746" s="7"/>
+      <c r="C746" s="6"/>
     </row>
     <row r="747">
-      <c r="C747" s="7"/>
+      <c r="C747" s="6"/>
     </row>
     <row r="748">
-      <c r="C748" s="7"/>
+      <c r="C748" s="6"/>
     </row>
     <row r="749">
-      <c r="C749" s="7"/>
+      <c r="C749" s="6"/>
     </row>
     <row r="750">
-      <c r="C750" s="7"/>
+      <c r="C750" s="6"/>
     </row>
     <row r="751">
-      <c r="C751" s="7"/>
+      <c r="C751" s="6"/>
     </row>
     <row r="752">
-      <c r="C752" s="7"/>
+      <c r="C752" s="6"/>
     </row>
     <row r="753">
-      <c r="C753" s="7"/>
+      <c r="C753" s="6"/>
     </row>
     <row r="754">
-      <c r="C754" s="7"/>
+      <c r="C754" s="6"/>
     </row>
     <row r="755">
-      <c r="C755" s="7"/>
+      <c r="C755" s="6"/>
     </row>
     <row r="756">
-      <c r="C756" s="7"/>
+      <c r="C756" s="6"/>
     </row>
     <row r="757">
-      <c r="C757" s="7"/>
+      <c r="C757" s="6"/>
     </row>
     <row r="758">
-      <c r="C758" s="7"/>
+      <c r="C758" s="6"/>
     </row>
     <row r="759">
-      <c r="C759" s="7"/>
+      <c r="C759" s="6"/>
     </row>
     <row r="760">
-      <c r="C760" s="7"/>
+      <c r="C760" s="6"/>
     </row>
     <row r="761">
-      <c r="C761" s="7"/>
+      <c r="C761" s="6"/>
     </row>
     <row r="762">
-      <c r="C762" s="7"/>
+      <c r="C762" s="6"/>
     </row>
     <row r="763">
-      <c r="C763" s="7"/>
+      <c r="C763" s="6"/>
     </row>
     <row r="764">
-      <c r="C764" s="7"/>
+      <c r="C764" s="6"/>
     </row>
     <row r="765">
-      <c r="C765" s="7"/>
+      <c r="C765" s="6"/>
     </row>
     <row r="766">
-      <c r="C766" s="7"/>
+      <c r="C766" s="6"/>
     </row>
     <row r="767">
-      <c r="C767" s="7"/>
+      <c r="C767" s="6"/>
     </row>
     <row r="768">
-      <c r="C768" s="7"/>
+      <c r="C768" s="6"/>
     </row>
     <row r="769">
-      <c r="C769" s="7"/>
+      <c r="C769" s="6"/>
     </row>
     <row r="770">
-      <c r="C770" s="7"/>
+      <c r="C770" s="6"/>
     </row>
     <row r="771">
-      <c r="C771" s="7"/>
+      <c r="C771" s="6"/>
     </row>
     <row r="772">
-      <c r="C772" s="7"/>
+      <c r="C772" s="6"/>
     </row>
     <row r="773">
-      <c r="C773" s="7"/>
+      <c r="C773" s="6"/>
     </row>
     <row r="774">
-      <c r="C774" s="7"/>
+      <c r="C774" s="6"/>
     </row>
     <row r="775">
-      <c r="C775" s="7"/>
+      <c r="C775" s="6"/>
     </row>
     <row r="776">
-      <c r="C776" s="7"/>
+      <c r="C776" s="6"/>
     </row>
     <row r="777">
-      <c r="C777" s="7"/>
+      <c r="C777" s="6"/>
     </row>
     <row r="778">
-      <c r="C778" s="7"/>
+      <c r="C778" s="6"/>
     </row>
     <row r="779">
-      <c r="C779" s="7"/>
+      <c r="C779" s="6"/>
     </row>
     <row r="780">
-      <c r="C780" s="7"/>
+      <c r="C780" s="6"/>
     </row>
     <row r="781">
-      <c r="C781" s="7"/>
+      <c r="C781" s="6"/>
     </row>
     <row r="782">
-      <c r="C782" s="7"/>
+      <c r="C782" s="6"/>
     </row>
     <row r="783">
-      <c r="C783" s="7"/>
+      <c r="C783" s="6"/>
     </row>
     <row r="784">
-      <c r="C784" s="7"/>
+      <c r="C784" s="6"/>
     </row>
     <row r="785">
-      <c r="C785" s="7"/>
+      <c r="C785" s="6"/>
     </row>
     <row r="786">
-      <c r="C786" s="7"/>
+      <c r="C786" s="6"/>
     </row>
     <row r="787">
-      <c r="C787" s="7"/>
+      <c r="C787" s="6"/>
     </row>
     <row r="788">
-      <c r="C788" s="7"/>
+      <c r="C788" s="6"/>
     </row>
     <row r="789">
-      <c r="C789" s="7"/>
+      <c r="C789" s="6"/>
     </row>
     <row r="790">
-      <c r="C790" s="7"/>
+      <c r="C790" s="6"/>
     </row>
     <row r="791">
-      <c r="C791" s="7"/>
+      <c r="C791" s="6"/>
     </row>
     <row r="792">
-      <c r="C792" s="7"/>
+      <c r="C792" s="6"/>
     </row>
     <row r="793">
-      <c r="C793" s="7"/>
+      <c r="C793" s="6"/>
     </row>
     <row r="794">
-      <c r="C794" s="7"/>
+      <c r="C794" s="6"/>
     </row>
     <row r="795">
-      <c r="C795" s="7"/>
+      <c r="C795" s="6"/>
     </row>
     <row r="796">
-      <c r="C796" s="7"/>
+      <c r="C796" s="6"/>
     </row>
     <row r="797">
-      <c r="C797" s="7"/>
+      <c r="C797" s="6"/>
     </row>
     <row r="798">
-      <c r="C798" s="7"/>
+      <c r="C798" s="6"/>
     </row>
     <row r="799">
-      <c r="C799" s="7"/>
+      <c r="C799" s="6"/>
     </row>
     <row r="800">
-      <c r="C800" s="7"/>
+      <c r="C800" s="6"/>
     </row>
     <row r="801">
-      <c r="C801" s="7"/>
+      <c r="C801" s="6"/>
     </row>
     <row r="802">
-      <c r="C802" s="7"/>
+      <c r="C802" s="6"/>
     </row>
     <row r="803">
-      <c r="C803" s="7"/>
+      <c r="C803" s="6"/>
     </row>
     <row r="804">
-      <c r="C804" s="7"/>
+      <c r="C804" s="6"/>
     </row>
     <row r="805">
-      <c r="C805" s="7"/>
+      <c r="C805" s="6"/>
     </row>
     <row r="806">
-      <c r="C806" s="7"/>
+      <c r="C806" s="6"/>
     </row>
     <row r="807">
-      <c r="C807" s="7"/>
+      <c r="C807" s="6"/>
     </row>
     <row r="808">
-      <c r="C808" s="7"/>
+      <c r="C808" s="6"/>
     </row>
     <row r="809">
-      <c r="C809" s="7"/>
+      <c r="C809" s="6"/>
     </row>
     <row r="810">
-      <c r="C810" s="7"/>
+      <c r="C810" s="6"/>
     </row>
     <row r="811">
-      <c r="C811" s="7"/>
+      <c r="C811" s="6"/>
     </row>
     <row r="812">
-      <c r="C812" s="7"/>
+      <c r="C812" s="6"/>
     </row>
     <row r="813">
-      <c r="C813" s="7"/>
+      <c r="C813" s="6"/>
     </row>
     <row r="814">
-      <c r="C814" s="7"/>
+      <c r="C814" s="6"/>
     </row>
     <row r="815">
-      <c r="C815" s="7"/>
+      <c r="C815" s="6"/>
     </row>
     <row r="816">
-      <c r="C816" s="7"/>
+      <c r="C816" s="6"/>
     </row>
     <row r="817">
-      <c r="C817" s="7"/>
+      <c r="C817" s="6"/>
     </row>
     <row r="818">
-      <c r="C818" s="7"/>
+      <c r="C818" s="6"/>
     </row>
     <row r="819">
-      <c r="C819" s="7"/>
+      <c r="C819" s="6"/>
     </row>
     <row r="820">
-      <c r="C820" s="7"/>
+      <c r="C820" s="6"/>
     </row>
     <row r="821">
-      <c r="C821" s="7"/>
+      <c r="C821" s="6"/>
     </row>
     <row r="822">
-      <c r="C822" s="7"/>
+      <c r="C822" s="6"/>
     </row>
     <row r="823">
-      <c r="C823" s="7"/>
+      <c r="C823" s="6"/>
     </row>
     <row r="824">
-      <c r="C824" s="7"/>
+      <c r="C824" s="6"/>
     </row>
     <row r="825">
-      <c r="C825" s="7"/>
+      <c r="C825" s="6"/>
     </row>
     <row r="826">
-      <c r="C826" s="7"/>
+      <c r="C826" s="6"/>
     </row>
     <row r="827">
-      <c r="C827" s="7"/>
+      <c r="C827" s="6"/>
     </row>
     <row r="828">
-      <c r="C828" s="7"/>
+      <c r="C828" s="6"/>
     </row>
     <row r="829">
-      <c r="C829" s="7"/>
+      <c r="C829" s="6"/>
     </row>
     <row r="830">
-      <c r="C830" s="7"/>
+      <c r="C830" s="6"/>
     </row>
     <row r="831">
-      <c r="C831" s="7"/>
+      <c r="C831" s="6"/>
     </row>
     <row r="832">
-      <c r="C832" s="7"/>
+      <c r="C832" s="6"/>
     </row>
     <row r="833">
-      <c r="C833" s="7"/>
+      <c r="C833" s="6"/>
     </row>
     <row r="834">
-      <c r="C834" s="7"/>
+      <c r="C834" s="6"/>
     </row>
     <row r="835">
-      <c r="C835" s="7"/>
+      <c r="C835" s="6"/>
     </row>
     <row r="836">
-      <c r="C836" s="7"/>
+      <c r="C836" s="6"/>
     </row>
     <row r="837">
-      <c r="C837" s="7"/>
+      <c r="C837" s="6"/>
     </row>
     <row r="838">
-      <c r="C838" s="7"/>
+      <c r="C838" s="6"/>
     </row>
     <row r="839">
-      <c r="C839" s="7"/>
+      <c r="C839" s="6"/>
     </row>
     <row r="840">
-      <c r="C840" s="7"/>
+      <c r="C840" s="6"/>
     </row>
     <row r="841">
-      <c r="C841" s="7"/>
+      <c r="C841" s="6"/>
     </row>
     <row r="842">
-      <c r="C842" s="7"/>
+      <c r="C842" s="6"/>
     </row>
     <row r="843">
-      <c r="C843" s="7"/>
+      <c r="C843" s="6"/>
     </row>
     <row r="844">
-      <c r="C844" s="7"/>
+      <c r="C844" s="6"/>
     </row>
     <row r="845">
-      <c r="C845" s="7"/>
+      <c r="C845" s="6"/>
     </row>
     <row r="846">
-      <c r="C846" s="7"/>
+      <c r="C846" s="6"/>
     </row>
     <row r="847">
-      <c r="C847" s="7"/>
+      <c r="C847" s="6"/>
     </row>
     <row r="848">
-      <c r="C848" s="7"/>
+      <c r="C848" s="6"/>
     </row>
     <row r="849">
-      <c r="C849" s="7"/>
+      <c r="C849" s="6"/>
     </row>
     <row r="850">
-      <c r="C850" s="7"/>
+      <c r="C850" s="6"/>
     </row>
     <row r="851">
-      <c r="C851" s="7"/>
+      <c r="C851" s="6"/>
     </row>
     <row r="852">
-      <c r="C852" s="7"/>
+      <c r="C852" s="6"/>
     </row>
     <row r="853">
-      <c r="C853" s="7"/>
+      <c r="C853" s="6"/>
     </row>
     <row r="854">
-      <c r="C854" s="7"/>
+      <c r="C854" s="6"/>
     </row>
     <row r="855">
-      <c r="C855" s="7"/>
+      <c r="C855" s="6"/>
     </row>
     <row r="856">
-      <c r="C856" s="7"/>
+      <c r="C856" s="6"/>
     </row>
     <row r="857">
-      <c r="C857" s="7"/>
+      <c r="C857" s="6"/>
     </row>
     <row r="858">
-      <c r="C858" s="7"/>
+      <c r="C858" s="6"/>
     </row>
     <row r="859">
-      <c r="C859" s="7"/>
+      <c r="C859" s="6"/>
     </row>
     <row r="860">
-      <c r="C860" s="7"/>
+      <c r="C860" s="6"/>
     </row>
     <row r="861">
-      <c r="C861" s="7"/>
+      <c r="C861" s="6"/>
     </row>
     <row r="862">
-      <c r="C862" s="7"/>
+      <c r="C862" s="6"/>
     </row>
     <row r="863">
-      <c r="C863" s="7"/>
+      <c r="C863" s="6"/>
     </row>
     <row r="864">
-      <c r="C864" s="7"/>
+      <c r="C864" s="6"/>
     </row>
     <row r="865">
-      <c r="C865" s="7"/>
+      <c r="C865" s="6"/>
     </row>
     <row r="866">
-      <c r="C866" s="7"/>
+      <c r="C866" s="6"/>
     </row>
     <row r="867">
-      <c r="C867" s="7"/>
+      <c r="C867" s="6"/>
     </row>
     <row r="868">
-      <c r="C868" s="7"/>
+      <c r="C868" s="6"/>
     </row>
     <row r="869">
-      <c r="C869" s="7"/>
+      <c r="C869" s="6"/>
     </row>
     <row r="870">
-      <c r="C870" s="7"/>
+      <c r="C870" s="6"/>
     </row>
     <row r="871">
-      <c r="C871" s="7"/>
+      <c r="C871" s="6"/>
     </row>
     <row r="872">
-      <c r="C872" s="7"/>
+      <c r="C872" s="6"/>
     </row>
     <row r="873">
-      <c r="C873" s="7"/>
+      <c r="C873" s="6"/>
     </row>
     <row r="874">
-      <c r="C874" s="7"/>
+      <c r="C874" s="6"/>
     </row>
     <row r="875">
-      <c r="C875" s="7"/>
+      <c r="C875" s="6"/>
     </row>
     <row r="876">
-      <c r="C876" s="7"/>
+      <c r="C876" s="6"/>
     </row>
     <row r="877">
-      <c r="C877" s="7"/>
+      <c r="C877" s="6"/>
     </row>
     <row r="878">
-      <c r="C878" s="7"/>
+      <c r="C878" s="6"/>
     </row>
     <row r="879">
-      <c r="C879" s="7"/>
+      <c r="C879" s="6"/>
     </row>
     <row r="880">
-      <c r="C880" s="7"/>
+      <c r="C880" s="6"/>
     </row>
     <row r="881">
-      <c r="C881" s="7"/>
+      <c r="C881" s="6"/>
     </row>
     <row r="882">
-      <c r="C882" s="7"/>
+      <c r="C882" s="6"/>
     </row>
     <row r="883">
-      <c r="C883" s="7"/>
+      <c r="C883" s="6"/>
     </row>
     <row r="884">
-      <c r="C884" s="7"/>
+      <c r="C884" s="6"/>
     </row>
     <row r="885">
-      <c r="C885" s="7"/>
+      <c r="C885" s="6"/>
     </row>
     <row r="886">
-      <c r="C886" s="7"/>
+      <c r="C886" s="6"/>
     </row>
     <row r="887">
-      <c r="C887" s="7"/>
+      <c r="C887" s="6"/>
     </row>
     <row r="888">
-      <c r="C888" s="7"/>
+      <c r="C888" s="6"/>
     </row>
     <row r="889">
-      <c r="C889" s="7"/>
+      <c r="C889" s="6"/>
     </row>
     <row r="890">
-      <c r="C890" s="7"/>
+      <c r="C890" s="6"/>
     </row>
     <row r="891">
-      <c r="C891" s="7"/>
+      <c r="C891" s="6"/>
     </row>
     <row r="892">
-      <c r="C892" s="7"/>
+      <c r="C892" s="6"/>
     </row>
     <row r="893">
-      <c r="C893" s="7"/>
+      <c r="C893" s="6"/>
     </row>
     <row r="894">
-      <c r="C894" s="7"/>
+      <c r="C894" s="6"/>
     </row>
     <row r="895">
-      <c r="C895" s="7"/>
+      <c r="C895" s="6"/>
     </row>
     <row r="896">
-      <c r="C896" s="7"/>
+      <c r="C896" s="6"/>
     </row>
     <row r="897">
-      <c r="C897" s="7"/>
+      <c r="C897" s="6"/>
     </row>
     <row r="898">
-      <c r="C898" s="7"/>
+      <c r="C898" s="6"/>
     </row>
     <row r="899">
-      <c r="C899" s="7"/>
+      <c r="C899" s="6"/>
     </row>
     <row r="900">
-      <c r="C900" s="7"/>
+      <c r="C900" s="6"/>
     </row>
     <row r="901">
-      <c r="C901" s="7"/>
+      <c r="C901" s="6"/>
     </row>
     <row r="902">
-      <c r="C902" s="7"/>
+      <c r="C902" s="6"/>
     </row>
     <row r="903">
-      <c r="C903" s="7"/>
+      <c r="C903" s="6"/>
     </row>
     <row r="904">
-      <c r="C904" s="7"/>
+      <c r="C904" s="6"/>
     </row>
     <row r="905">
-      <c r="C905" s="7"/>
+      <c r="C905" s="6"/>
     </row>
     <row r="906">
-      <c r="C906" s="7"/>
+      <c r="C906" s="6"/>
     </row>
     <row r="907">
-      <c r="C907" s="7"/>
+      <c r="C907" s="6"/>
     </row>
     <row r="908">
-      <c r="C908" s="7"/>
+      <c r="C908" s="6"/>
     </row>
     <row r="909">
-      <c r="C909" s="7"/>
+      <c r="C909" s="6"/>
     </row>
     <row r="910">
-      <c r="C910" s="7"/>
+      <c r="C910" s="6"/>
     </row>
     <row r="911">
-      <c r="C911" s="7"/>
+      <c r="C911" s="6"/>
     </row>
     <row r="912">
-      <c r="C912" s="7"/>
+      <c r="C912" s="6"/>
     </row>
     <row r="913">
-      <c r="C913" s="7"/>
+      <c r="C913" s="6"/>
     </row>
     <row r="914">
-      <c r="C914" s="7"/>
+      <c r="C914" s="6"/>
     </row>
     <row r="915">
-      <c r="C915" s="7"/>
+      <c r="C915" s="6"/>
     </row>
     <row r="916">
-      <c r="C916" s="7"/>
+      <c r="C916" s="6"/>
     </row>
     <row r="917">
-      <c r="C917" s="7"/>
+      <c r="C917" s="6"/>
     </row>
     <row r="918">
-      <c r="C918" s="7"/>
+      <c r="C918" s="6"/>
     </row>
     <row r="919">
-      <c r="C919" s="7"/>
+      <c r="C919" s="6"/>
     </row>
     <row r="920">
-      <c r="C920" s="7"/>
+      <c r="C920" s="6"/>
     </row>
     <row r="921">
-      <c r="C921" s="7"/>
+      <c r="C921" s="6"/>
     </row>
     <row r="922">
-      <c r="C922" s="7"/>
+      <c r="C922" s="6"/>
     </row>
     <row r="923">
-      <c r="C923" s="7"/>
+      <c r="C923" s="6"/>
     </row>
     <row r="924">
-      <c r="C924" s="7"/>
+      <c r="C924" s="6"/>
     </row>
     <row r="925">
-      <c r="C925" s="7"/>
+      <c r="C925" s="6"/>
     </row>
     <row r="926">
-      <c r="C926" s="7"/>
+      <c r="C926" s="6"/>
     </row>
     <row r="927">
-      <c r="C927" s="7"/>
+      <c r="C927" s="6"/>
     </row>
     <row r="928">
-      <c r="C928" s="7"/>
+      <c r="C928" s="6"/>
     </row>
     <row r="929">
-      <c r="C929" s="7"/>
+      <c r="C929" s="6"/>
     </row>
     <row r="930">
-      <c r="C930" s="7"/>
+      <c r="C930" s="6"/>
     </row>
     <row r="931">
-      <c r="C931" s="7"/>
+      <c r="C931" s="6"/>
     </row>
     <row r="932">
-      <c r="C932" s="7"/>
+      <c r="C932" s="6"/>
     </row>
     <row r="933">
-      <c r="C933" s="7"/>
+      <c r="C933" s="6"/>
     </row>
     <row r="934">
-      <c r="C934" s="7"/>
+      <c r="C934" s="6"/>
     </row>
     <row r="935">
-      <c r="C935" s="7"/>
+      <c r="C935" s="6"/>
     </row>
     <row r="936">
-      <c r="C936" s="7"/>
+      <c r="C936" s="6"/>
     </row>
     <row r="937">
-      <c r="C937" s="7"/>
+      <c r="C937" s="6"/>
     </row>
     <row r="938">
-      <c r="C938" s="7"/>
+      <c r="C938" s="6"/>
     </row>
     <row r="939">
-      <c r="C939" s="7"/>
+      <c r="C939" s="6"/>
     </row>
     <row r="940">
-      <c r="C940" s="7"/>
+      <c r="C940" s="6"/>
     </row>
     <row r="941">
-      <c r="C941" s="7"/>
+      <c r="C941" s="6"/>
     </row>
     <row r="942">
-      <c r="C942" s="7"/>
+      <c r="C942" s="6"/>
     </row>
     <row r="943">
-      <c r="C943" s="7"/>
+      <c r="C943" s="6"/>
     </row>
     <row r="944">
-      <c r="C944" s="7"/>
+      <c r="C944" s="6"/>
     </row>
     <row r="945">
-      <c r="C945" s="7"/>
+      <c r="C945" s="6"/>
     </row>
     <row r="946">
-      <c r="C946" s="7"/>
+      <c r="C946" s="6"/>
     </row>
     <row r="947">
-      <c r="C947" s="7"/>
+      <c r="C947" s="6"/>
     </row>
     <row r="948">
-      <c r="C948" s="7"/>
+      <c r="C948" s="6"/>
     </row>
     <row r="949">
-      <c r="C949" s="7"/>
+      <c r="C949" s="6"/>
     </row>
     <row r="950">
-      <c r="C950" s="7"/>
+      <c r="C950" s="6"/>
     </row>
     <row r="951">
-      <c r="C951" s="7"/>
+      <c r="C951" s="6"/>
     </row>
     <row r="952">
-      <c r="C952" s="7"/>
+      <c r="C952" s="6"/>
     </row>
     <row r="953">
-      <c r="C953" s="7"/>
+      <c r="C953" s="6"/>
     </row>
     <row r="954">
-      <c r="C954" s="7"/>
+      <c r="C954" s="6"/>
     </row>
     <row r="955">
-      <c r="C955" s="7"/>
+      <c r="C955" s="6"/>
     </row>
     <row r="956">
-      <c r="C956" s="7"/>
+      <c r="C956" s="6"/>
     </row>
     <row r="957">
-      <c r="C957" s="7"/>
+      <c r="C957" s="6"/>
     </row>
     <row r="958">
-      <c r="C958" s="7"/>
+      <c r="C958" s="6"/>
     </row>
     <row r="959">
-      <c r="C959" s="7"/>
+      <c r="C959" s="6"/>
     </row>
     <row r="960">
-      <c r="C960" s="7"/>
+      <c r="C960" s="6"/>
     </row>
     <row r="961">
-      <c r="C961" s="7"/>
+      <c r="C961" s="6"/>
     </row>
     <row r="962">
-      <c r="C962" s="7"/>
+      <c r="C962" s="6"/>
     </row>
     <row r="963">
-      <c r="C963" s="7"/>
+      <c r="C963" s="6"/>
     </row>
     <row r="964">
-      <c r="C964" s="7"/>
+      <c r="C964" s="6"/>
     </row>
     <row r="965">
-      <c r="C965" s="7"/>
+      <c r="C965" s="6"/>
     </row>
     <row r="966">
-      <c r="C966" s="7"/>
+      <c r="C966" s="6"/>
     </row>
     <row r="967">
-      <c r="C967" s="7"/>
+      <c r="C967" s="6"/>
     </row>
     <row r="968">
-      <c r="C968" s="7"/>
+      <c r="C968" s="6"/>
     </row>
     <row r="969">
-      <c r="C969" s="7"/>
+      <c r="C969" s="6"/>
     </row>
     <row r="970">
-      <c r="C970" s="7"/>
+      <c r="C970" s="6"/>
     </row>
     <row r="971">
-      <c r="C971" s="7"/>
+      <c r="C971" s="6"/>
     </row>
     <row r="972">
-      <c r="C972" s="7"/>
+      <c r="C972" s="6"/>
     </row>
     <row r="973">
-      <c r="C973" s="7"/>
+      <c r="C973" s="6"/>
     </row>
     <row r="974">
-      <c r="C974" s="7"/>
+      <c r="C974" s="6"/>
     </row>
     <row r="975">
-      <c r="C975" s="7"/>
+      <c r="C975" s="6"/>
     </row>
     <row r="976">
-      <c r="C976" s="7"/>
+      <c r="C976" s="6"/>
     </row>
     <row r="977">
-      <c r="C977" s="7"/>
+      <c r="C977" s="6"/>
     </row>
     <row r="978">
-      <c r="C978" s="7"/>
+      <c r="C978" s="6"/>
     </row>
     <row r="979">
-      <c r="C979" s="7"/>
+      <c r="C979" s="6"/>
     </row>
     <row r="980">
-      <c r="C980" s="7"/>
+      <c r="C980" s="6"/>
     </row>
     <row r="981">
-      <c r="C981" s="7"/>
+      <c r="C981" s="6"/>
     </row>
     <row r="982">
-      <c r="C982" s="7"/>
+      <c r="C982" s="6"/>
     </row>
     <row r="983">
-      <c r="C983" s="7"/>
+      <c r="C983" s="6"/>
     </row>
     <row r="984">
-      <c r="C984" s="7"/>
+      <c r="C984" s="6"/>
     </row>
     <row r="985">
-      <c r="C985" s="7"/>
+      <c r="C985" s="6"/>
     </row>
     <row r="986">
-      <c r="C986" s="7"/>
+      <c r="C986" s="6"/>
     </row>
     <row r="987">
-      <c r="C987" s="7"/>
+      <c r="C987" s="6"/>
     </row>
     <row r="988">
-      <c r="C988" s="7"/>
+      <c r="C988" s="6"/>
     </row>
     <row r="989">
-      <c r="C989" s="7"/>
+      <c r="C989" s="6"/>
     </row>
     <row r="990">
-      <c r="C990" s="7"/>
+      <c r="C990" s="6"/>
     </row>
     <row r="991">
-      <c r="C991" s="7"/>
+      <c r="C991" s="6"/>
     </row>
     <row r="992">
-      <c r="C992" s="7"/>
+      <c r="C992" s="6"/>
     </row>
     <row r="993">
-      <c r="C993" s="7"/>
+      <c r="C993" s="6"/>
     </row>
     <row r="994">
-      <c r="C994" s="7"/>
+      <c r="C994" s="6"/>
     </row>
     <row r="995">
-      <c r="C995" s="7"/>
+      <c r="C995" s="6"/>
     </row>
     <row r="996">
-      <c r="C996" s="7"/>
+      <c r="C996" s="6"/>
     </row>
     <row r="997">
-      <c r="C997" s="7"/>
+      <c r="C997" s="6"/>
     </row>
     <row r="998">
-      <c r="C998" s="7"/>
+      <c r="C998" s="6"/>
     </row>
     <row r="999">
-      <c r="C999" s="7"/>
+      <c r="C999" s="6"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="7"/>
+      <c r="C1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3969,14 +3995,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>76</v>
+      <c r="C1" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -3986,14 +4012,14 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>40.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -4003,11 +4029,11 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>30.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -4020,14 +4046,14 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>40.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -4037,14 +4063,14 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>10.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -4054,14 +4080,14 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -4075,10 +4101,10 @@
         <v>0.75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -4092,10 +4118,10 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -4105,11 +4131,11 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -4119,9 +4145,9 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -4131,14 +4157,14 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -4148,14 +4174,14 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -4165,14 +4191,14 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -4182,14 +4208,14 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -4199,14 +4225,14 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -4216,11 +4242,11 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
@@ -4233,14 +4259,14 @@
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>120.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -4250,11 +4276,11 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
@@ -4267,14 +4293,14 @@
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -4288,10 +4314,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -4301,14 +4327,14 @@
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>8.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -4322,10 +4348,10 @@
         <v>0.25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -4335,14 +4361,14 @@
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>2.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -4352,11 +4378,11 @@
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>23</v>
@@ -4369,14 +4395,14 @@
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -4386,14 +4412,14 @@
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4407,7 +4433,7 @@
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>23</v>
@@ -4424,10 +4450,10 @@
         <v>0.75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -4441,10 +4467,10 @@
         <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -4458,7 +4484,7 @@
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -4475,10 +4501,10 @@
         <v>0.75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -4488,14 +4514,14 @@
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>2.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4509,10 +4535,10 @@
         <v>1.5</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4526,10 +4552,10 @@
         <v>1.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -4540,7 +4566,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -4550,11 +4576,11 @@
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>60.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>48</v>
@@ -4567,14 +4593,14 @@
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>30.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -4584,14 +4610,14 @@
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="8">
-        <v>20.0</v>
+      <c r="C38" s="9">
+        <v>30.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -4601,11 +4627,11 @@
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>30.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>23</v>
@@ -4618,11 +4644,11 @@
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>30.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -4639,10 +4665,10 @@
         <v>22.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -4652,14 +4678,14 @@
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>15.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -4669,14 +4695,14 @@
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>2.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -4686,14 +4712,14 @@
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>0.75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -4703,14 +4729,14 @@
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>0.75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -4720,11 +4746,11 @@
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>2.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>23</v>
@@ -4737,14 +4763,14 @@
       <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>0.75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -4754,14 +4780,14 @@
       <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>0.75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
@@ -4771,11 +4797,11 @@
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>2.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>23</v>
@@ -4788,14 +4814,14 @@
       <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
@@ -4805,14 +4831,14 @@
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>3.0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
@@ -4822,14 +4848,14 @@
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>1.0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
@@ -4839,11 +4865,11 @@
       <c r="B53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>2.0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -4860,7 +4886,7 @@
         <v>30.0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>23</v>
@@ -4878,10 +4904,10 @@
         <v>30.0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -4896,10 +4922,10 @@
         <v>22.5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -4914,10 +4940,10 @@
         <v>15.0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G57" s="11"/>
     </row>
@@ -4932,7 +4958,7 @@
         <v>5.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -4943,14 +4969,14 @@
       <c r="B59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>1.0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
@@ -4960,11 +4986,11 @@
       <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>2.0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>23</v>
@@ -4977,14 +5003,14 @@
       <c r="B61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>3.0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
@@ -4994,14 +5020,14 @@
       <c r="B62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1.0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
@@ -5011,14 +5037,14 @@
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
@@ -5028,11 +5054,11 @@
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>2.0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>28</v>
@@ -5045,14 +5071,14 @@
       <c r="B65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>1.0</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -5062,14 +5088,14 @@
       <c r="B66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
@@ -5079,11 +5105,11 @@
       <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>1.0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -5096,11 +5122,11 @@
       <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="9">
         <v>60.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>48</v>
@@ -5113,14 +5139,14 @@
       <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="9">
         <v>30.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
@@ -5130,14 +5156,14 @@
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="9">
         <v>7.5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
@@ -5147,2805 +5173,2847 @@
       <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="9">
         <v>6.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72">
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73">
-      <c r="C73" s="9"/>
-    </row>
     <row r="74">
-      <c r="C74" s="9"/>
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="75">
-      <c r="C75" s="9"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76">
-      <c r="C76" s="9"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77">
-      <c r="C77" s="9"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78">
-      <c r="C78" s="9"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79">
-      <c r="C79" s="9"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80">
-      <c r="C80" s="9"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81">
-      <c r="C81" s="9"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82">
-      <c r="C82" s="9"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83">
-      <c r="C83" s="9"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84">
-      <c r="C84" s="9"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85">
-      <c r="C85" s="9"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86">
-      <c r="C86" s="9"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87">
-      <c r="C87" s="9"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88">
-      <c r="C88" s="9"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89">
-      <c r="C89" s="9"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90">
-      <c r="C90" s="9"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91">
-      <c r="C91" s="9"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92">
-      <c r="C92" s="9"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93">
-      <c r="C93" s="9"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94">
-      <c r="C94" s="9"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95">
-      <c r="C95" s="9"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96">
-      <c r="C96" s="9"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97">
-      <c r="C97" s="9"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98">
-      <c r="C98" s="9"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99">
-      <c r="C99" s="9"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100">
-      <c r="C100" s="9"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101">
-      <c r="C101" s="9"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102">
-      <c r="C102" s="9"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
-      <c r="C103" s="9"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104">
-      <c r="C104" s="9"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105">
-      <c r="C105" s="9"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106">
-      <c r="C106" s="9"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107">
-      <c r="C107" s="9"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108">
-      <c r="C108" s="9"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109">
-      <c r="C109" s="9"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110">
-      <c r="C110" s="9"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111">
-      <c r="C111" s="9"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112">
-      <c r="C112" s="9"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113">
-      <c r="C113" s="9"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114">
-      <c r="C114" s="9"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115">
-      <c r="C115" s="9"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116">
-      <c r="C116" s="9"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117">
-      <c r="C117" s="9"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118">
-      <c r="C118" s="9"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119">
-      <c r="C119" s="9"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120">
-      <c r="C120" s="9"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121">
-      <c r="C121" s="9"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122">
-      <c r="C122" s="9"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123">
-      <c r="C123" s="9"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124">
-      <c r="C124" s="9"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125">
-      <c r="C125" s="9"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126">
-      <c r="C126" s="9"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127">
-      <c r="C127" s="9"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
-      <c r="C128" s="9"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
-      <c r="C129" s="9"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
-      <c r="C130" s="9"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
-      <c r="C131" s="9"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
-      <c r="C132" s="9"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
-      <c r="C133" s="9"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="C134" s="9"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135">
-      <c r="C135" s="9"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
-      <c r="C136" s="9"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
-      <c r="C137" s="9"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
-      <c r="C138" s="9"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
-      <c r="C139" s="9"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
-      <c r="C140" s="9"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="C141" s="9"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142">
-      <c r="C142" s="9"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
-      <c r="C143" s="9"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
-      <c r="C144" s="9"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
-      <c r="C145" s="9"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
-      <c r="C146" s="9"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
-      <c r="C147" s="9"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
-      <c r="C148" s="9"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
-      <c r="C149" s="9"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="C150" s="9"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151">
-      <c r="C151" s="9"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
-      <c r="C152" s="9"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
-      <c r="C153" s="9"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
-      <c r="C154" s="9"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
-      <c r="C155" s="9"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
-      <c r="C156" s="9"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="C157" s="9"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158">
-      <c r="C158" s="9"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
-      <c r="C159" s="9"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
-      <c r="C160" s="9"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
-      <c r="C161" s="9"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
-      <c r="C162" s="9"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
-      <c r="C163" s="9"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
-      <c r="C164" s="9"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
-      <c r="C165" s="9"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
-      <c r="C166" s="9"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="C167" s="9"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168">
-      <c r="C168" s="9"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="C169" s="9"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="C170" s="9"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="C171" s="9"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="C172" s="9"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="C173" s="9"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174">
-      <c r="C174" s="9"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175">
-      <c r="C175" s="9"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176">
-      <c r="C176" s="9"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177">
-      <c r="C177" s="9"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178">
-      <c r="C178" s="9"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179">
-      <c r="C179" s="9"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180">
-      <c r="C180" s="9"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181">
-      <c r="C181" s="9"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182">
-      <c r="C182" s="9"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183">
-      <c r="C183" s="9"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184">
-      <c r="C184" s="9"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185">
-      <c r="C185" s="9"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186">
-      <c r="C186" s="9"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187">
-      <c r="C187" s="9"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188">
-      <c r="C188" s="9"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189">
-      <c r="C189" s="9"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190">
-      <c r="C190" s="9"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191">
-      <c r="C191" s="9"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192">
-      <c r="C192" s="9"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193">
-      <c r="C193" s="9"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194">
-      <c r="C194" s="9"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195">
-      <c r="C195" s="9"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196">
-      <c r="C196" s="9"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197">
-      <c r="C197" s="9"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198">
-      <c r="C198" s="9"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199">
-      <c r="C199" s="9"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200">
-      <c r="C200" s="9"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201">
-      <c r="C201" s="9"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202">
-      <c r="C202" s="9"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203">
-      <c r="C203" s="9"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204">
-      <c r="C204" s="9"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205">
-      <c r="C205" s="9"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206">
-      <c r="C206" s="9"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207">
-      <c r="C207" s="9"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208">
-      <c r="C208" s="9"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209">
-      <c r="C209" s="9"/>
+      <c r="C209" s="8"/>
     </row>
     <row r="210">
-      <c r="C210" s="9"/>
+      <c r="C210" s="8"/>
     </row>
     <row r="211">
-      <c r="C211" s="9"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212">
-      <c r="C212" s="9"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213">
-      <c r="C213" s="9"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214">
-      <c r="C214" s="9"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215">
-      <c r="C215" s="9"/>
+      <c r="C215" s="8"/>
     </row>
     <row r="216">
-      <c r="C216" s="9"/>
+      <c r="C216" s="8"/>
     </row>
     <row r="217">
-      <c r="C217" s="9"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218">
-      <c r="C218" s="9"/>
+      <c r="C218" s="8"/>
     </row>
     <row r="219">
-      <c r="C219" s="9"/>
+      <c r="C219" s="8"/>
     </row>
     <row r="220">
-      <c r="C220" s="9"/>
+      <c r="C220" s="8"/>
     </row>
     <row r="221">
-      <c r="C221" s="9"/>
+      <c r="C221" s="8"/>
     </row>
     <row r="222">
-      <c r="C222" s="9"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223">
-      <c r="C223" s="9"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224">
-      <c r="C224" s="9"/>
+      <c r="C224" s="8"/>
     </row>
     <row r="225">
-      <c r="C225" s="9"/>
+      <c r="C225" s="8"/>
     </row>
     <row r="226">
-      <c r="C226" s="9"/>
+      <c r="C226" s="8"/>
     </row>
     <row r="227">
-      <c r="C227" s="9"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228">
-      <c r="C228" s="9"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229">
-      <c r="C229" s="9"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230">
-      <c r="C230" s="9"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231">
-      <c r="C231" s="9"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232">
-      <c r="C232" s="9"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233">
-      <c r="C233" s="9"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234">
-      <c r="C234" s="9"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235">
-      <c r="C235" s="9"/>
+      <c r="C235" s="8"/>
     </row>
     <row r="236">
-      <c r="C236" s="9"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237">
-      <c r="C237" s="9"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238">
-      <c r="C238" s="9"/>
+      <c r="C238" s="8"/>
     </row>
     <row r="239">
-      <c r="C239" s="9"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240">
-      <c r="C240" s="9"/>
+      <c r="C240" s="8"/>
     </row>
     <row r="241">
-      <c r="C241" s="9"/>
+      <c r="C241" s="8"/>
     </row>
     <row r="242">
-      <c r="C242" s="9"/>
+      <c r="C242" s="8"/>
     </row>
     <row r="243">
-      <c r="C243" s="9"/>
+      <c r="C243" s="8"/>
     </row>
     <row r="244">
-      <c r="C244" s="9"/>
+      <c r="C244" s="8"/>
     </row>
     <row r="245">
-      <c r="C245" s="9"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246">
-      <c r="C246" s="9"/>
+      <c r="C246" s="8"/>
     </row>
     <row r="247">
-      <c r="C247" s="9"/>
+      <c r="C247" s="8"/>
     </row>
     <row r="248">
-      <c r="C248" s="9"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249">
-      <c r="C249" s="9"/>
+      <c r="C249" s="8"/>
     </row>
     <row r="250">
-      <c r="C250" s="9"/>
+      <c r="C250" s="8"/>
     </row>
     <row r="251">
-      <c r="C251" s="9"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252">
-      <c r="C252" s="9"/>
+      <c r="C252" s="8"/>
     </row>
     <row r="253">
-      <c r="C253" s="9"/>
+      <c r="C253" s="8"/>
     </row>
     <row r="254">
-      <c r="C254" s="9"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255">
-      <c r="C255" s="9"/>
+      <c r="C255" s="8"/>
     </row>
     <row r="256">
-      <c r="C256" s="9"/>
+      <c r="C256" s="8"/>
     </row>
     <row r="257">
-      <c r="C257" s="9"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258">
-      <c r="C258" s="9"/>
+      <c r="C258" s="8"/>
     </row>
     <row r="259">
-      <c r="C259" s="9"/>
+      <c r="C259" s="8"/>
     </row>
     <row r="260">
-      <c r="C260" s="9"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261">
-      <c r="C261" s="9"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262">
-      <c r="C262" s="9"/>
+      <c r="C262" s="8"/>
     </row>
     <row r="263">
-      <c r="C263" s="9"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264">
-      <c r="C264" s="9"/>
+      <c r="C264" s="8"/>
     </row>
     <row r="265">
-      <c r="C265" s="9"/>
+      <c r="C265" s="8"/>
     </row>
     <row r="266">
-      <c r="C266" s="9"/>
+      <c r="C266" s="8"/>
     </row>
     <row r="267">
-      <c r="C267" s="9"/>
+      <c r="C267" s="8"/>
     </row>
     <row r="268">
-      <c r="C268" s="9"/>
+      <c r="C268" s="8"/>
     </row>
     <row r="269">
-      <c r="C269" s="9"/>
+      <c r="C269" s="8"/>
     </row>
     <row r="270">
-      <c r="C270" s="9"/>
+      <c r="C270" s="8"/>
     </row>
     <row r="271">
-      <c r="C271" s="9"/>
+      <c r="C271" s="8"/>
     </row>
     <row r="272">
-      <c r="C272" s="9"/>
+      <c r="C272" s="8"/>
     </row>
     <row r="273">
-      <c r="C273" s="9"/>
+      <c r="C273" s="8"/>
     </row>
     <row r="274">
-      <c r="C274" s="9"/>
+      <c r="C274" s="8"/>
     </row>
     <row r="275">
-      <c r="C275" s="9"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276">
-      <c r="C276" s="9"/>
+      <c r="C276" s="8"/>
     </row>
     <row r="277">
-      <c r="C277" s="9"/>
+      <c r="C277" s="8"/>
     </row>
     <row r="278">
-      <c r="C278" s="9"/>
+      <c r="C278" s="8"/>
     </row>
     <row r="279">
-      <c r="C279" s="9"/>
+      <c r="C279" s="8"/>
     </row>
     <row r="280">
-      <c r="C280" s="9"/>
+      <c r="C280" s="8"/>
     </row>
     <row r="281">
-      <c r="C281" s="9"/>
+      <c r="C281" s="8"/>
     </row>
     <row r="282">
-      <c r="C282" s="9"/>
+      <c r="C282" s="8"/>
     </row>
     <row r="283">
-      <c r="C283" s="9"/>
+      <c r="C283" s="8"/>
     </row>
     <row r="284">
-      <c r="C284" s="9"/>
+      <c r="C284" s="8"/>
     </row>
     <row r="285">
-      <c r="C285" s="9"/>
+      <c r="C285" s="8"/>
     </row>
     <row r="286">
-      <c r="C286" s="9"/>
+      <c r="C286" s="8"/>
     </row>
     <row r="287">
-      <c r="C287" s="9"/>
+      <c r="C287" s="8"/>
     </row>
     <row r="288">
-      <c r="C288" s="9"/>
+      <c r="C288" s="8"/>
     </row>
     <row r="289">
-      <c r="C289" s="9"/>
+      <c r="C289" s="8"/>
     </row>
     <row r="290">
-      <c r="C290" s="9"/>
+      <c r="C290" s="8"/>
     </row>
     <row r="291">
-      <c r="C291" s="9"/>
+      <c r="C291" s="8"/>
     </row>
     <row r="292">
-      <c r="C292" s="9"/>
+      <c r="C292" s="8"/>
     </row>
     <row r="293">
-      <c r="C293" s="9"/>
+      <c r="C293" s="8"/>
     </row>
     <row r="294">
-      <c r="C294" s="9"/>
+      <c r="C294" s="8"/>
     </row>
     <row r="295">
-      <c r="C295" s="9"/>
+      <c r="C295" s="8"/>
     </row>
     <row r="296">
-      <c r="C296" s="9"/>
+      <c r="C296" s="8"/>
     </row>
     <row r="297">
-      <c r="C297" s="9"/>
+      <c r="C297" s="8"/>
     </row>
     <row r="298">
-      <c r="C298" s="9"/>
+      <c r="C298" s="8"/>
     </row>
     <row r="299">
-      <c r="C299" s="9"/>
+      <c r="C299" s="8"/>
     </row>
     <row r="300">
-      <c r="C300" s="9"/>
+      <c r="C300" s="8"/>
     </row>
     <row r="301">
-      <c r="C301" s="9"/>
+      <c r="C301" s="8"/>
     </row>
     <row r="302">
-      <c r="C302" s="9"/>
+      <c r="C302" s="8"/>
     </row>
     <row r="303">
-      <c r="C303" s="9"/>
+      <c r="C303" s="8"/>
     </row>
     <row r="304">
-      <c r="C304" s="9"/>
+      <c r="C304" s="8"/>
     </row>
     <row r="305">
-      <c r="C305" s="9"/>
+      <c r="C305" s="8"/>
     </row>
     <row r="306">
-      <c r="C306" s="9"/>
+      <c r="C306" s="8"/>
     </row>
     <row r="307">
-      <c r="C307" s="9"/>
+      <c r="C307" s="8"/>
     </row>
     <row r="308">
-      <c r="C308" s="9"/>
+      <c r="C308" s="8"/>
     </row>
     <row r="309">
-      <c r="C309" s="9"/>
+      <c r="C309" s="8"/>
     </row>
     <row r="310">
-      <c r="C310" s="9"/>
+      <c r="C310" s="8"/>
     </row>
     <row r="311">
-      <c r="C311" s="9"/>
+      <c r="C311" s="8"/>
     </row>
     <row r="312">
-      <c r="C312" s="9"/>
+      <c r="C312" s="8"/>
     </row>
     <row r="313">
-      <c r="C313" s="9"/>
+      <c r="C313" s="8"/>
     </row>
     <row r="314">
-      <c r="C314" s="9"/>
+      <c r="C314" s="8"/>
     </row>
     <row r="315">
-      <c r="C315" s="9"/>
+      <c r="C315" s="8"/>
     </row>
     <row r="316">
-      <c r="C316" s="9"/>
+      <c r="C316" s="8"/>
     </row>
     <row r="317">
-      <c r="C317" s="9"/>
+      <c r="C317" s="8"/>
     </row>
     <row r="318">
-      <c r="C318" s="9"/>
+      <c r="C318" s="8"/>
     </row>
     <row r="319">
-      <c r="C319" s="9"/>
+      <c r="C319" s="8"/>
     </row>
     <row r="320">
-      <c r="C320" s="9"/>
+      <c r="C320" s="8"/>
     </row>
     <row r="321">
-      <c r="C321" s="9"/>
+      <c r="C321" s="8"/>
     </row>
     <row r="322">
-      <c r="C322" s="9"/>
+      <c r="C322" s="8"/>
     </row>
     <row r="323">
-      <c r="C323" s="9"/>
+      <c r="C323" s="8"/>
     </row>
     <row r="324">
-      <c r="C324" s="9"/>
+      <c r="C324" s="8"/>
     </row>
     <row r="325">
-      <c r="C325" s="9"/>
+      <c r="C325" s="8"/>
     </row>
     <row r="326">
-      <c r="C326" s="9"/>
+      <c r="C326" s="8"/>
     </row>
     <row r="327">
-      <c r="C327" s="9"/>
+      <c r="C327" s="8"/>
     </row>
     <row r="328">
-      <c r="C328" s="9"/>
+      <c r="C328" s="8"/>
     </row>
     <row r="329">
-      <c r="C329" s="9"/>
+      <c r="C329" s="8"/>
     </row>
     <row r="330">
-      <c r="C330" s="9"/>
+      <c r="C330" s="8"/>
     </row>
     <row r="331">
-      <c r="C331" s="9"/>
+      <c r="C331" s="8"/>
     </row>
     <row r="332">
-      <c r="C332" s="9"/>
+      <c r="C332" s="8"/>
     </row>
     <row r="333">
-      <c r="C333" s="9"/>
+      <c r="C333" s="8"/>
     </row>
     <row r="334">
-      <c r="C334" s="9"/>
+      <c r="C334" s="8"/>
     </row>
     <row r="335">
-      <c r="C335" s="9"/>
+      <c r="C335" s="8"/>
     </row>
     <row r="336">
-      <c r="C336" s="9"/>
+      <c r="C336" s="8"/>
     </row>
     <row r="337">
-      <c r="C337" s="9"/>
+      <c r="C337" s="8"/>
     </row>
     <row r="338">
-      <c r="C338" s="9"/>
+      <c r="C338" s="8"/>
     </row>
     <row r="339">
-      <c r="C339" s="9"/>
+      <c r="C339" s="8"/>
     </row>
     <row r="340">
-      <c r="C340" s="9"/>
+      <c r="C340" s="8"/>
     </row>
     <row r="341">
-      <c r="C341" s="9"/>
+      <c r="C341" s="8"/>
     </row>
     <row r="342">
-      <c r="C342" s="9"/>
+      <c r="C342" s="8"/>
     </row>
     <row r="343">
-      <c r="C343" s="9"/>
+      <c r="C343" s="8"/>
     </row>
     <row r="344">
-      <c r="C344" s="9"/>
+      <c r="C344" s="8"/>
     </row>
     <row r="345">
-      <c r="C345" s="9"/>
+      <c r="C345" s="8"/>
     </row>
     <row r="346">
-      <c r="C346" s="9"/>
+      <c r="C346" s="8"/>
     </row>
     <row r="347">
-      <c r="C347" s="9"/>
+      <c r="C347" s="8"/>
     </row>
     <row r="348">
-      <c r="C348" s="9"/>
+      <c r="C348" s="8"/>
     </row>
     <row r="349">
-      <c r="C349" s="9"/>
+      <c r="C349" s="8"/>
     </row>
     <row r="350">
-      <c r="C350" s="9"/>
+      <c r="C350" s="8"/>
     </row>
     <row r="351">
-      <c r="C351" s="9"/>
+      <c r="C351" s="8"/>
     </row>
     <row r="352">
-      <c r="C352" s="9"/>
+      <c r="C352" s="8"/>
     </row>
     <row r="353">
-      <c r="C353" s="9"/>
+      <c r="C353" s="8"/>
     </row>
     <row r="354">
-      <c r="C354" s="9"/>
+      <c r="C354" s="8"/>
     </row>
     <row r="355">
-      <c r="C355" s="9"/>
+      <c r="C355" s="8"/>
     </row>
     <row r="356">
-      <c r="C356" s="9"/>
+      <c r="C356" s="8"/>
     </row>
     <row r="357">
-      <c r="C357" s="9"/>
+      <c r="C357" s="8"/>
     </row>
     <row r="358">
-      <c r="C358" s="9"/>
+      <c r="C358" s="8"/>
     </row>
     <row r="359">
-      <c r="C359" s="9"/>
+      <c r="C359" s="8"/>
     </row>
     <row r="360">
-      <c r="C360" s="9"/>
+      <c r="C360" s="8"/>
     </row>
     <row r="361">
-      <c r="C361" s="9"/>
+      <c r="C361" s="8"/>
     </row>
     <row r="362">
-      <c r="C362" s="9"/>
+      <c r="C362" s="8"/>
     </row>
     <row r="363">
-      <c r="C363" s="9"/>
+      <c r="C363" s="8"/>
     </row>
     <row r="364">
-      <c r="C364" s="9"/>
+      <c r="C364" s="8"/>
     </row>
     <row r="365">
-      <c r="C365" s="9"/>
+      <c r="C365" s="8"/>
     </row>
     <row r="366">
-      <c r="C366" s="9"/>
+      <c r="C366" s="8"/>
     </row>
     <row r="367">
-      <c r="C367" s="9"/>
+      <c r="C367" s="8"/>
     </row>
     <row r="368">
-      <c r="C368" s="9"/>
+      <c r="C368" s="8"/>
     </row>
     <row r="369">
-      <c r="C369" s="9"/>
+      <c r="C369" s="8"/>
     </row>
     <row r="370">
-      <c r="C370" s="9"/>
+      <c r="C370" s="8"/>
     </row>
     <row r="371">
-      <c r="C371" s="9"/>
+      <c r="C371" s="8"/>
     </row>
     <row r="372">
-      <c r="C372" s="9"/>
+      <c r="C372" s="8"/>
     </row>
     <row r="373">
-      <c r="C373" s="9"/>
+      <c r="C373" s="8"/>
     </row>
     <row r="374">
-      <c r="C374" s="9"/>
+      <c r="C374" s="8"/>
     </row>
     <row r="375">
-      <c r="C375" s="9"/>
+      <c r="C375" s="8"/>
     </row>
     <row r="376">
-      <c r="C376" s="9"/>
+      <c r="C376" s="8"/>
     </row>
     <row r="377">
-      <c r="C377" s="9"/>
+      <c r="C377" s="8"/>
     </row>
     <row r="378">
-      <c r="C378" s="9"/>
+      <c r="C378" s="8"/>
     </row>
     <row r="379">
-      <c r="C379" s="9"/>
+      <c r="C379" s="8"/>
     </row>
     <row r="380">
-      <c r="C380" s="9"/>
+      <c r="C380" s="8"/>
     </row>
     <row r="381">
-      <c r="C381" s="9"/>
+      <c r="C381" s="8"/>
     </row>
     <row r="382">
-      <c r="C382" s="9"/>
+      <c r="C382" s="8"/>
     </row>
     <row r="383">
-      <c r="C383" s="9"/>
+      <c r="C383" s="8"/>
     </row>
     <row r="384">
-      <c r="C384" s="9"/>
+      <c r="C384" s="8"/>
     </row>
     <row r="385">
-      <c r="C385" s="9"/>
+      <c r="C385" s="8"/>
     </row>
     <row r="386">
-      <c r="C386" s="9"/>
+      <c r="C386" s="8"/>
     </row>
     <row r="387">
-      <c r="C387" s="9"/>
+      <c r="C387" s="8"/>
     </row>
     <row r="388">
-      <c r="C388" s="9"/>
+      <c r="C388" s="8"/>
     </row>
     <row r="389">
-      <c r="C389" s="9"/>
+      <c r="C389" s="8"/>
     </row>
     <row r="390">
-      <c r="C390" s="9"/>
+      <c r="C390" s="8"/>
     </row>
     <row r="391">
-      <c r="C391" s="9"/>
+      <c r="C391" s="8"/>
     </row>
     <row r="392">
-      <c r="C392" s="9"/>
+      <c r="C392" s="8"/>
     </row>
     <row r="393">
-      <c r="C393" s="9"/>
+      <c r="C393" s="8"/>
     </row>
     <row r="394">
-      <c r="C394" s="9"/>
+      <c r="C394" s="8"/>
     </row>
     <row r="395">
-      <c r="C395" s="9"/>
+      <c r="C395" s="8"/>
     </row>
     <row r="396">
-      <c r="C396" s="9"/>
+      <c r="C396" s="8"/>
     </row>
     <row r="397">
-      <c r="C397" s="9"/>
+      <c r="C397" s="8"/>
     </row>
     <row r="398">
-      <c r="C398" s="9"/>
+      <c r="C398" s="8"/>
     </row>
     <row r="399">
-      <c r="C399" s="9"/>
+      <c r="C399" s="8"/>
     </row>
     <row r="400">
-      <c r="C400" s="9"/>
+      <c r="C400" s="8"/>
     </row>
     <row r="401">
-      <c r="C401" s="9"/>
+      <c r="C401" s="8"/>
     </row>
     <row r="402">
-      <c r="C402" s="9"/>
+      <c r="C402" s="8"/>
     </row>
     <row r="403">
-      <c r="C403" s="9"/>
+      <c r="C403" s="8"/>
     </row>
     <row r="404">
-      <c r="C404" s="9"/>
+      <c r="C404" s="8"/>
     </row>
     <row r="405">
-      <c r="C405" s="9"/>
+      <c r="C405" s="8"/>
     </row>
     <row r="406">
-      <c r="C406" s="9"/>
+      <c r="C406" s="8"/>
     </row>
     <row r="407">
-      <c r="C407" s="9"/>
+      <c r="C407" s="8"/>
     </row>
     <row r="408">
-      <c r="C408" s="9"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409">
-      <c r="C409" s="9"/>
+      <c r="C409" s="8"/>
     </row>
     <row r="410">
-      <c r="C410" s="9"/>
+      <c r="C410" s="8"/>
     </row>
     <row r="411">
-      <c r="C411" s="9"/>
+      <c r="C411" s="8"/>
     </row>
     <row r="412">
-      <c r="C412" s="9"/>
+      <c r="C412" s="8"/>
     </row>
     <row r="413">
-      <c r="C413" s="9"/>
+      <c r="C413" s="8"/>
     </row>
     <row r="414">
-      <c r="C414" s="9"/>
+      <c r="C414" s="8"/>
     </row>
     <row r="415">
-      <c r="C415" s="9"/>
+      <c r="C415" s="8"/>
     </row>
     <row r="416">
-      <c r="C416" s="9"/>
+      <c r="C416" s="8"/>
     </row>
     <row r="417">
-      <c r="C417" s="9"/>
+      <c r="C417" s="8"/>
     </row>
     <row r="418">
-      <c r="C418" s="9"/>
+      <c r="C418" s="8"/>
     </row>
     <row r="419">
-      <c r="C419" s="9"/>
+      <c r="C419" s="8"/>
     </row>
     <row r="420">
-      <c r="C420" s="9"/>
+      <c r="C420" s="8"/>
     </row>
     <row r="421">
-      <c r="C421" s="9"/>
+      <c r="C421" s="8"/>
     </row>
     <row r="422">
-      <c r="C422" s="9"/>
+      <c r="C422" s="8"/>
     </row>
     <row r="423">
-      <c r="C423" s="9"/>
+      <c r="C423" s="8"/>
     </row>
     <row r="424">
-      <c r="C424" s="9"/>
+      <c r="C424" s="8"/>
     </row>
     <row r="425">
-      <c r="C425" s="9"/>
+      <c r="C425" s="8"/>
     </row>
     <row r="426">
-      <c r="C426" s="9"/>
+      <c r="C426" s="8"/>
     </row>
     <row r="427">
-      <c r="C427" s="9"/>
+      <c r="C427" s="8"/>
     </row>
     <row r="428">
-      <c r="C428" s="9"/>
+      <c r="C428" s="8"/>
     </row>
     <row r="429">
-      <c r="C429" s="9"/>
+      <c r="C429" s="8"/>
     </row>
     <row r="430">
-      <c r="C430" s="9"/>
+      <c r="C430" s="8"/>
     </row>
     <row r="431">
-      <c r="C431" s="9"/>
+      <c r="C431" s="8"/>
     </row>
     <row r="432">
-      <c r="C432" s="9"/>
+      <c r="C432" s="8"/>
     </row>
     <row r="433">
-      <c r="C433" s="9"/>
+      <c r="C433" s="8"/>
     </row>
     <row r="434">
-      <c r="C434" s="9"/>
+      <c r="C434" s="8"/>
     </row>
     <row r="435">
-      <c r="C435" s="9"/>
+      <c r="C435" s="8"/>
     </row>
     <row r="436">
-      <c r="C436" s="9"/>
+      <c r="C436" s="8"/>
     </row>
     <row r="437">
-      <c r="C437" s="9"/>
+      <c r="C437" s="8"/>
     </row>
     <row r="438">
-      <c r="C438" s="9"/>
+      <c r="C438" s="8"/>
     </row>
     <row r="439">
-      <c r="C439" s="9"/>
+      <c r="C439" s="8"/>
     </row>
     <row r="440">
-      <c r="C440" s="9"/>
+      <c r="C440" s="8"/>
     </row>
     <row r="441">
-      <c r="C441" s="9"/>
+      <c r="C441" s="8"/>
     </row>
     <row r="442">
-      <c r="C442" s="9"/>
+      <c r="C442" s="8"/>
     </row>
     <row r="443">
-      <c r="C443" s="9"/>
+      <c r="C443" s="8"/>
     </row>
     <row r="444">
-      <c r="C444" s="9"/>
+      <c r="C444" s="8"/>
     </row>
     <row r="445">
-      <c r="C445" s="9"/>
+      <c r="C445" s="8"/>
     </row>
     <row r="446">
-      <c r="C446" s="9"/>
+      <c r="C446" s="8"/>
     </row>
     <row r="447">
-      <c r="C447" s="9"/>
+      <c r="C447" s="8"/>
     </row>
     <row r="448">
-      <c r="C448" s="9"/>
+      <c r="C448" s="8"/>
     </row>
     <row r="449">
-      <c r="C449" s="9"/>
+      <c r="C449" s="8"/>
     </row>
     <row r="450">
-      <c r="C450" s="9"/>
+      <c r="C450" s="8"/>
     </row>
     <row r="451">
-      <c r="C451" s="9"/>
+      <c r="C451" s="8"/>
     </row>
     <row r="452">
-      <c r="C452" s="9"/>
+      <c r="C452" s="8"/>
     </row>
     <row r="453">
-      <c r="C453" s="9"/>
+      <c r="C453" s="8"/>
     </row>
     <row r="454">
-      <c r="C454" s="9"/>
+      <c r="C454" s="8"/>
     </row>
     <row r="455">
-      <c r="C455" s="9"/>
+      <c r="C455" s="8"/>
     </row>
     <row r="456">
-      <c r="C456" s="9"/>
+      <c r="C456" s="8"/>
     </row>
     <row r="457">
-      <c r="C457" s="9"/>
+      <c r="C457" s="8"/>
     </row>
     <row r="458">
-      <c r="C458" s="9"/>
+      <c r="C458" s="8"/>
     </row>
     <row r="459">
-      <c r="C459" s="9"/>
+      <c r="C459" s="8"/>
     </row>
     <row r="460">
-      <c r="C460" s="9"/>
+      <c r="C460" s="8"/>
     </row>
     <row r="461">
-      <c r="C461" s="9"/>
+      <c r="C461" s="8"/>
     </row>
     <row r="462">
-      <c r="C462" s="9"/>
+      <c r="C462" s="8"/>
     </row>
     <row r="463">
-      <c r="C463" s="9"/>
+      <c r="C463" s="8"/>
     </row>
     <row r="464">
-      <c r="C464" s="9"/>
+      <c r="C464" s="8"/>
     </row>
     <row r="465">
-      <c r="C465" s="9"/>
+      <c r="C465" s="8"/>
     </row>
     <row r="466">
-      <c r="C466" s="9"/>
+      <c r="C466" s="8"/>
     </row>
     <row r="467">
-      <c r="C467" s="9"/>
+      <c r="C467" s="8"/>
     </row>
     <row r="468">
-      <c r="C468" s="9"/>
+      <c r="C468" s="8"/>
     </row>
     <row r="469">
-      <c r="C469" s="9"/>
+      <c r="C469" s="8"/>
     </row>
     <row r="470">
-      <c r="C470" s="9"/>
+      <c r="C470" s="8"/>
     </row>
     <row r="471">
-      <c r="C471" s="9"/>
+      <c r="C471" s="8"/>
     </row>
     <row r="472">
-      <c r="C472" s="9"/>
+      <c r="C472" s="8"/>
     </row>
     <row r="473">
-      <c r="C473" s="9"/>
+      <c r="C473" s="8"/>
     </row>
     <row r="474">
-      <c r="C474" s="9"/>
+      <c r="C474" s="8"/>
     </row>
     <row r="475">
-      <c r="C475" s="9"/>
+      <c r="C475" s="8"/>
     </row>
     <row r="476">
-      <c r="C476" s="9"/>
+      <c r="C476" s="8"/>
     </row>
     <row r="477">
-      <c r="C477" s="9"/>
+      <c r="C477" s="8"/>
     </row>
     <row r="478">
-      <c r="C478" s="9"/>
+      <c r="C478" s="8"/>
     </row>
     <row r="479">
-      <c r="C479" s="9"/>
+      <c r="C479" s="8"/>
     </row>
     <row r="480">
-      <c r="C480" s="9"/>
+      <c r="C480" s="8"/>
     </row>
     <row r="481">
-      <c r="C481" s="9"/>
+      <c r="C481" s="8"/>
     </row>
     <row r="482">
-      <c r="C482" s="9"/>
+      <c r="C482" s="8"/>
     </row>
     <row r="483">
-      <c r="C483" s="9"/>
+      <c r="C483" s="8"/>
     </row>
     <row r="484">
-      <c r="C484" s="9"/>
+      <c r="C484" s="8"/>
     </row>
     <row r="485">
-      <c r="C485" s="9"/>
+      <c r="C485" s="8"/>
     </row>
     <row r="486">
-      <c r="C486" s="9"/>
+      <c r="C486" s="8"/>
     </row>
     <row r="487">
-      <c r="C487" s="9"/>
+      <c r="C487" s="8"/>
     </row>
     <row r="488">
-      <c r="C488" s="9"/>
+      <c r="C488" s="8"/>
     </row>
     <row r="489">
-      <c r="C489" s="9"/>
+      <c r="C489" s="8"/>
     </row>
     <row r="490">
-      <c r="C490" s="9"/>
+      <c r="C490" s="8"/>
     </row>
     <row r="491">
-      <c r="C491" s="9"/>
+      <c r="C491" s="8"/>
     </row>
     <row r="492">
-      <c r="C492" s="9"/>
+      <c r="C492" s="8"/>
     </row>
     <row r="493">
-      <c r="C493" s="9"/>
+      <c r="C493" s="8"/>
     </row>
     <row r="494">
-      <c r="C494" s="9"/>
+      <c r="C494" s="8"/>
     </row>
     <row r="495">
-      <c r="C495" s="9"/>
+      <c r="C495" s="8"/>
     </row>
     <row r="496">
-      <c r="C496" s="9"/>
+      <c r="C496" s="8"/>
     </row>
     <row r="497">
-      <c r="C497" s="9"/>
+      <c r="C497" s="8"/>
     </row>
     <row r="498">
-      <c r="C498" s="9"/>
+      <c r="C498" s="8"/>
     </row>
     <row r="499">
-      <c r="C499" s="9"/>
+      <c r="C499" s="8"/>
     </row>
     <row r="500">
-      <c r="C500" s="9"/>
+      <c r="C500" s="8"/>
     </row>
     <row r="501">
-      <c r="C501" s="9"/>
+      <c r="C501" s="8"/>
     </row>
     <row r="502">
-      <c r="C502" s="9"/>
+      <c r="C502" s="8"/>
     </row>
     <row r="503">
-      <c r="C503" s="9"/>
+      <c r="C503" s="8"/>
     </row>
     <row r="504">
-      <c r="C504" s="9"/>
+      <c r="C504" s="8"/>
     </row>
     <row r="505">
-      <c r="C505" s="9"/>
+      <c r="C505" s="8"/>
     </row>
     <row r="506">
-      <c r="C506" s="9"/>
+      <c r="C506" s="8"/>
     </row>
     <row r="507">
-      <c r="C507" s="9"/>
+      <c r="C507" s="8"/>
     </row>
     <row r="508">
-      <c r="C508" s="9"/>
+      <c r="C508" s="8"/>
     </row>
     <row r="509">
-      <c r="C509" s="9"/>
+      <c r="C509" s="8"/>
     </row>
     <row r="510">
-      <c r="C510" s="9"/>
+      <c r="C510" s="8"/>
     </row>
     <row r="511">
-      <c r="C511" s="9"/>
+      <c r="C511" s="8"/>
     </row>
     <row r="512">
-      <c r="C512" s="9"/>
+      <c r="C512" s="8"/>
     </row>
     <row r="513">
-      <c r="C513" s="9"/>
+      <c r="C513" s="8"/>
     </row>
     <row r="514">
-      <c r="C514" s="9"/>
+      <c r="C514" s="8"/>
     </row>
     <row r="515">
-      <c r="C515" s="9"/>
+      <c r="C515" s="8"/>
     </row>
     <row r="516">
-      <c r="C516" s="9"/>
+      <c r="C516" s="8"/>
     </row>
     <row r="517">
-      <c r="C517" s="9"/>
+      <c r="C517" s="8"/>
     </row>
     <row r="518">
-      <c r="C518" s="9"/>
+      <c r="C518" s="8"/>
     </row>
     <row r="519">
-      <c r="C519" s="9"/>
+      <c r="C519" s="8"/>
     </row>
     <row r="520">
-      <c r="C520" s="9"/>
+      <c r="C520" s="8"/>
     </row>
     <row r="521">
-      <c r="C521" s="9"/>
+      <c r="C521" s="8"/>
     </row>
     <row r="522">
-      <c r="C522" s="9"/>
+      <c r="C522" s="8"/>
     </row>
     <row r="523">
-      <c r="C523" s="9"/>
+      <c r="C523" s="8"/>
     </row>
     <row r="524">
-      <c r="C524" s="9"/>
+      <c r="C524" s="8"/>
     </row>
     <row r="525">
-      <c r="C525" s="9"/>
+      <c r="C525" s="8"/>
     </row>
     <row r="526">
-      <c r="C526" s="9"/>
+      <c r="C526" s="8"/>
     </row>
     <row r="527">
-      <c r="C527" s="9"/>
+      <c r="C527" s="8"/>
     </row>
     <row r="528">
-      <c r="C528" s="9"/>
+      <c r="C528" s="8"/>
     </row>
     <row r="529">
-      <c r="C529" s="9"/>
+      <c r="C529" s="8"/>
     </row>
     <row r="530">
-      <c r="C530" s="9"/>
+      <c r="C530" s="8"/>
     </row>
     <row r="531">
-      <c r="C531" s="9"/>
+      <c r="C531" s="8"/>
     </row>
     <row r="532">
-      <c r="C532" s="9"/>
+      <c r="C532" s="8"/>
     </row>
     <row r="533">
-      <c r="C533" s="9"/>
+      <c r="C533" s="8"/>
     </row>
     <row r="534">
-      <c r="C534" s="9"/>
+      <c r="C534" s="8"/>
     </row>
     <row r="535">
-      <c r="C535" s="9"/>
+      <c r="C535" s="8"/>
     </row>
     <row r="536">
-      <c r="C536" s="9"/>
+      <c r="C536" s="8"/>
     </row>
     <row r="537">
-      <c r="C537" s="9"/>
+      <c r="C537" s="8"/>
     </row>
     <row r="538">
-      <c r="C538" s="9"/>
+      <c r="C538" s="8"/>
     </row>
     <row r="539">
-      <c r="C539" s="9"/>
+      <c r="C539" s="8"/>
     </row>
     <row r="540">
-      <c r="C540" s="9"/>
+      <c r="C540" s="8"/>
     </row>
     <row r="541">
-      <c r="C541" s="9"/>
+      <c r="C541" s="8"/>
     </row>
     <row r="542">
-      <c r="C542" s="9"/>
+      <c r="C542" s="8"/>
     </row>
     <row r="543">
-      <c r="C543" s="9"/>
+      <c r="C543" s="8"/>
     </row>
     <row r="544">
-      <c r="C544" s="9"/>
+      <c r="C544" s="8"/>
     </row>
     <row r="545">
-      <c r="C545" s="9"/>
+      <c r="C545" s="8"/>
     </row>
     <row r="546">
-      <c r="C546" s="9"/>
+      <c r="C546" s="8"/>
     </row>
     <row r="547">
-      <c r="C547" s="9"/>
+      <c r="C547" s="8"/>
     </row>
     <row r="548">
-      <c r="C548" s="9"/>
+      <c r="C548" s="8"/>
     </row>
     <row r="549">
-      <c r="C549" s="9"/>
+      <c r="C549" s="8"/>
     </row>
     <row r="550">
-      <c r="C550" s="9"/>
+      <c r="C550" s="8"/>
     </row>
     <row r="551">
-      <c r="C551" s="9"/>
+      <c r="C551" s="8"/>
     </row>
     <row r="552">
-      <c r="C552" s="9"/>
+      <c r="C552" s="8"/>
     </row>
     <row r="553">
-      <c r="C553" s="9"/>
+      <c r="C553" s="8"/>
     </row>
     <row r="554">
-      <c r="C554" s="9"/>
+      <c r="C554" s="8"/>
     </row>
     <row r="555">
-      <c r="C555" s="9"/>
+      <c r="C555" s="8"/>
     </row>
     <row r="556">
-      <c r="C556" s="9"/>
+      <c r="C556" s="8"/>
     </row>
     <row r="557">
-      <c r="C557" s="9"/>
+      <c r="C557" s="8"/>
     </row>
     <row r="558">
-      <c r="C558" s="9"/>
+      <c r="C558" s="8"/>
     </row>
     <row r="559">
-      <c r="C559" s="9"/>
+      <c r="C559" s="8"/>
     </row>
     <row r="560">
-      <c r="C560" s="9"/>
+      <c r="C560" s="8"/>
     </row>
     <row r="561">
-      <c r="C561" s="9"/>
+      <c r="C561" s="8"/>
     </row>
     <row r="562">
-      <c r="C562" s="9"/>
+      <c r="C562" s="8"/>
     </row>
     <row r="563">
-      <c r="C563" s="9"/>
+      <c r="C563" s="8"/>
     </row>
     <row r="564">
-      <c r="C564" s="9"/>
+      <c r="C564" s="8"/>
     </row>
     <row r="565">
-      <c r="C565" s="9"/>
+      <c r="C565" s="8"/>
     </row>
     <row r="566">
-      <c r="C566" s="9"/>
+      <c r="C566" s="8"/>
     </row>
     <row r="567">
-      <c r="C567" s="9"/>
+      <c r="C567" s="8"/>
     </row>
     <row r="568">
-      <c r="C568" s="9"/>
+      <c r="C568" s="8"/>
     </row>
     <row r="569">
-      <c r="C569" s="9"/>
+      <c r="C569" s="8"/>
     </row>
     <row r="570">
-      <c r="C570" s="9"/>
+      <c r="C570" s="8"/>
     </row>
     <row r="571">
-      <c r="C571" s="9"/>
+      <c r="C571" s="8"/>
     </row>
     <row r="572">
-      <c r="C572" s="9"/>
+      <c r="C572" s="8"/>
     </row>
     <row r="573">
-      <c r="C573" s="9"/>
+      <c r="C573" s="8"/>
     </row>
     <row r="574">
-      <c r="C574" s="9"/>
+      <c r="C574" s="8"/>
     </row>
     <row r="575">
-      <c r="C575" s="9"/>
+      <c r="C575" s="8"/>
     </row>
     <row r="576">
-      <c r="C576" s="9"/>
+      <c r="C576" s="8"/>
     </row>
     <row r="577">
-      <c r="C577" s="9"/>
+      <c r="C577" s="8"/>
     </row>
     <row r="578">
-      <c r="C578" s="9"/>
+      <c r="C578" s="8"/>
     </row>
     <row r="579">
-      <c r="C579" s="9"/>
+      <c r="C579" s="8"/>
     </row>
     <row r="580">
-      <c r="C580" s="9"/>
+      <c r="C580" s="8"/>
     </row>
     <row r="581">
-      <c r="C581" s="9"/>
+      <c r="C581" s="8"/>
     </row>
     <row r="582">
-      <c r="C582" s="9"/>
+      <c r="C582" s="8"/>
     </row>
     <row r="583">
-      <c r="C583" s="9"/>
+      <c r="C583" s="8"/>
     </row>
     <row r="584">
-      <c r="C584" s="9"/>
+      <c r="C584" s="8"/>
     </row>
     <row r="585">
-      <c r="C585" s="9"/>
+      <c r="C585" s="8"/>
     </row>
     <row r="586">
-      <c r="C586" s="9"/>
+      <c r="C586" s="8"/>
     </row>
     <row r="587">
-      <c r="C587" s="9"/>
+      <c r="C587" s="8"/>
     </row>
     <row r="588">
-      <c r="C588" s="9"/>
+      <c r="C588" s="8"/>
     </row>
     <row r="589">
-      <c r="C589" s="9"/>
+      <c r="C589" s="8"/>
     </row>
     <row r="590">
-      <c r="C590" s="9"/>
+      <c r="C590" s="8"/>
     </row>
     <row r="591">
-      <c r="C591" s="9"/>
+      <c r="C591" s="8"/>
     </row>
     <row r="592">
-      <c r="C592" s="9"/>
+      <c r="C592" s="8"/>
     </row>
     <row r="593">
-      <c r="C593" s="9"/>
+      <c r="C593" s="8"/>
     </row>
     <row r="594">
-      <c r="C594" s="9"/>
+      <c r="C594" s="8"/>
     </row>
     <row r="595">
-      <c r="C595" s="9"/>
+      <c r="C595" s="8"/>
     </row>
     <row r="596">
-      <c r="C596" s="9"/>
+      <c r="C596" s="8"/>
     </row>
     <row r="597">
-      <c r="C597" s="9"/>
+      <c r="C597" s="8"/>
     </row>
     <row r="598">
-      <c r="C598" s="9"/>
+      <c r="C598" s="8"/>
     </row>
     <row r="599">
-      <c r="C599" s="9"/>
+      <c r="C599" s="8"/>
     </row>
     <row r="600">
-      <c r="C600" s="9"/>
+      <c r="C600" s="8"/>
     </row>
     <row r="601">
-      <c r="C601" s="9"/>
+      <c r="C601" s="8"/>
     </row>
     <row r="602">
-      <c r="C602" s="9"/>
+      <c r="C602" s="8"/>
     </row>
     <row r="603">
-      <c r="C603" s="9"/>
+      <c r="C603" s="8"/>
     </row>
     <row r="604">
-      <c r="C604" s="9"/>
+      <c r="C604" s="8"/>
     </row>
     <row r="605">
-      <c r="C605" s="9"/>
+      <c r="C605" s="8"/>
     </row>
     <row r="606">
-      <c r="C606" s="9"/>
+      <c r="C606" s="8"/>
     </row>
     <row r="607">
-      <c r="C607" s="9"/>
+      <c r="C607" s="8"/>
     </row>
     <row r="608">
-      <c r="C608" s="9"/>
+      <c r="C608" s="8"/>
     </row>
     <row r="609">
-      <c r="C609" s="9"/>
+      <c r="C609" s="8"/>
     </row>
     <row r="610">
-      <c r="C610" s="9"/>
+      <c r="C610" s="8"/>
     </row>
     <row r="611">
-      <c r="C611" s="9"/>
+      <c r="C611" s="8"/>
     </row>
     <row r="612">
-      <c r="C612" s="9"/>
+      <c r="C612" s="8"/>
     </row>
     <row r="613">
-      <c r="C613" s="9"/>
+      <c r="C613" s="8"/>
     </row>
     <row r="614">
-      <c r="C614" s="9"/>
+      <c r="C614" s="8"/>
     </row>
     <row r="615">
-      <c r="C615" s="9"/>
+      <c r="C615" s="8"/>
     </row>
     <row r="616">
-      <c r="C616" s="9"/>
+      <c r="C616" s="8"/>
     </row>
     <row r="617">
-      <c r="C617" s="9"/>
+      <c r="C617" s="8"/>
     </row>
     <row r="618">
-      <c r="C618" s="9"/>
+      <c r="C618" s="8"/>
     </row>
     <row r="619">
-      <c r="C619" s="9"/>
+      <c r="C619" s="8"/>
     </row>
     <row r="620">
-      <c r="C620" s="9"/>
+      <c r="C620" s="8"/>
     </row>
     <row r="621">
-      <c r="C621" s="9"/>
+      <c r="C621" s="8"/>
     </row>
     <row r="622">
-      <c r="C622" s="9"/>
+      <c r="C622" s="8"/>
     </row>
     <row r="623">
-      <c r="C623" s="9"/>
+      <c r="C623" s="8"/>
     </row>
     <row r="624">
-      <c r="C624" s="9"/>
+      <c r="C624" s="8"/>
     </row>
     <row r="625">
-      <c r="C625" s="9"/>
+      <c r="C625" s="8"/>
     </row>
     <row r="626">
-      <c r="C626" s="9"/>
+      <c r="C626" s="8"/>
     </row>
     <row r="627">
-      <c r="C627" s="9"/>
+      <c r="C627" s="8"/>
     </row>
     <row r="628">
-      <c r="C628" s="9"/>
+      <c r="C628" s="8"/>
     </row>
     <row r="629">
-      <c r="C629" s="9"/>
+      <c r="C629" s="8"/>
     </row>
     <row r="630">
-      <c r="C630" s="9"/>
+      <c r="C630" s="8"/>
     </row>
     <row r="631">
-      <c r="C631" s="9"/>
+      <c r="C631" s="8"/>
     </row>
     <row r="632">
-      <c r="C632" s="9"/>
+      <c r="C632" s="8"/>
     </row>
     <row r="633">
-      <c r="C633" s="9"/>
+      <c r="C633" s="8"/>
     </row>
     <row r="634">
-      <c r="C634" s="9"/>
+      <c r="C634" s="8"/>
     </row>
     <row r="635">
-      <c r="C635" s="9"/>
+      <c r="C635" s="8"/>
     </row>
     <row r="636">
-      <c r="C636" s="9"/>
+      <c r="C636" s="8"/>
     </row>
     <row r="637">
-      <c r="C637" s="9"/>
+      <c r="C637" s="8"/>
     </row>
     <row r="638">
-      <c r="C638" s="9"/>
+      <c r="C638" s="8"/>
     </row>
     <row r="639">
-      <c r="C639" s="9"/>
+      <c r="C639" s="8"/>
     </row>
     <row r="640">
-      <c r="C640" s="9"/>
+      <c r="C640" s="8"/>
     </row>
     <row r="641">
-      <c r="C641" s="9"/>
+      <c r="C641" s="8"/>
     </row>
     <row r="642">
-      <c r="C642" s="9"/>
+      <c r="C642" s="8"/>
     </row>
     <row r="643">
-      <c r="C643" s="9"/>
+      <c r="C643" s="8"/>
     </row>
     <row r="644">
-      <c r="C644" s="9"/>
+      <c r="C644" s="8"/>
     </row>
     <row r="645">
-      <c r="C645" s="9"/>
+      <c r="C645" s="8"/>
     </row>
     <row r="646">
-      <c r="C646" s="9"/>
+      <c r="C646" s="8"/>
     </row>
     <row r="647">
-      <c r="C647" s="9"/>
+      <c r="C647" s="8"/>
     </row>
     <row r="648">
-      <c r="C648" s="9"/>
+      <c r="C648" s="8"/>
     </row>
     <row r="649">
-      <c r="C649" s="9"/>
+      <c r="C649" s="8"/>
     </row>
     <row r="650">
-      <c r="C650" s="9"/>
+      <c r="C650" s="8"/>
     </row>
     <row r="651">
-      <c r="C651" s="9"/>
+      <c r="C651" s="8"/>
     </row>
     <row r="652">
-      <c r="C652" s="9"/>
+      <c r="C652" s="8"/>
     </row>
     <row r="653">
-      <c r="C653" s="9"/>
+      <c r="C653" s="8"/>
     </row>
     <row r="654">
-      <c r="C654" s="9"/>
+      <c r="C654" s="8"/>
     </row>
     <row r="655">
-      <c r="C655" s="9"/>
+      <c r="C655" s="8"/>
     </row>
     <row r="656">
-      <c r="C656" s="9"/>
+      <c r="C656" s="8"/>
     </row>
     <row r="657">
-      <c r="C657" s="9"/>
+      <c r="C657" s="8"/>
     </row>
     <row r="658">
-      <c r="C658" s="9"/>
+      <c r="C658" s="8"/>
     </row>
     <row r="659">
-      <c r="C659" s="9"/>
+      <c r="C659" s="8"/>
     </row>
     <row r="660">
-      <c r="C660" s="9"/>
+      <c r="C660" s="8"/>
     </row>
     <row r="661">
-      <c r="C661" s="9"/>
+      <c r="C661" s="8"/>
     </row>
     <row r="662">
-      <c r="C662" s="9"/>
+      <c r="C662" s="8"/>
     </row>
     <row r="663">
-      <c r="C663" s="9"/>
+      <c r="C663" s="8"/>
     </row>
     <row r="664">
-      <c r="C664" s="9"/>
+      <c r="C664" s="8"/>
     </row>
     <row r="665">
-      <c r="C665" s="9"/>
+      <c r="C665" s="8"/>
     </row>
     <row r="666">
-      <c r="C666" s="9"/>
+      <c r="C666" s="8"/>
     </row>
     <row r="667">
-      <c r="C667" s="9"/>
+      <c r="C667" s="8"/>
     </row>
     <row r="668">
-      <c r="C668" s="9"/>
+      <c r="C668" s="8"/>
     </row>
     <row r="669">
-      <c r="C669" s="9"/>
+      <c r="C669" s="8"/>
     </row>
     <row r="670">
-      <c r="C670" s="9"/>
+      <c r="C670" s="8"/>
     </row>
     <row r="671">
-      <c r="C671" s="9"/>
+      <c r="C671" s="8"/>
     </row>
     <row r="672">
-      <c r="C672" s="9"/>
+      <c r="C672" s="8"/>
     </row>
     <row r="673">
-      <c r="C673" s="9"/>
+      <c r="C673" s="8"/>
     </row>
     <row r="674">
-      <c r="C674" s="9"/>
+      <c r="C674" s="8"/>
     </row>
     <row r="675">
-      <c r="C675" s="9"/>
+      <c r="C675" s="8"/>
     </row>
     <row r="676">
-      <c r="C676" s="9"/>
+      <c r="C676" s="8"/>
     </row>
     <row r="677">
-      <c r="C677" s="9"/>
+      <c r="C677" s="8"/>
     </row>
     <row r="678">
-      <c r="C678" s="9"/>
+      <c r="C678" s="8"/>
     </row>
     <row r="679">
-      <c r="C679" s="9"/>
+      <c r="C679" s="8"/>
     </row>
     <row r="680">
-      <c r="C680" s="9"/>
+      <c r="C680" s="8"/>
     </row>
     <row r="681">
-      <c r="C681" s="9"/>
+      <c r="C681" s="8"/>
     </row>
     <row r="682">
-      <c r="C682" s="9"/>
+      <c r="C682" s="8"/>
     </row>
     <row r="683">
-      <c r="C683" s="9"/>
+      <c r="C683" s="8"/>
     </row>
     <row r="684">
-      <c r="C684" s="9"/>
+      <c r="C684" s="8"/>
     </row>
     <row r="685">
-      <c r="C685" s="9"/>
+      <c r="C685" s="8"/>
     </row>
     <row r="686">
-      <c r="C686" s="9"/>
+      <c r="C686" s="8"/>
     </row>
     <row r="687">
-      <c r="C687" s="9"/>
+      <c r="C687" s="8"/>
     </row>
     <row r="688">
-      <c r="C688" s="9"/>
+      <c r="C688" s="8"/>
     </row>
     <row r="689">
-      <c r="C689" s="9"/>
+      <c r="C689" s="8"/>
     </row>
     <row r="690">
-      <c r="C690" s="9"/>
+      <c r="C690" s="8"/>
     </row>
     <row r="691">
-      <c r="C691" s="9"/>
+      <c r="C691" s="8"/>
     </row>
     <row r="692">
-      <c r="C692" s="9"/>
+      <c r="C692" s="8"/>
     </row>
     <row r="693">
-      <c r="C693" s="9"/>
+      <c r="C693" s="8"/>
     </row>
     <row r="694">
-      <c r="C694" s="9"/>
+      <c r="C694" s="8"/>
     </row>
     <row r="695">
-      <c r="C695" s="9"/>
+      <c r="C695" s="8"/>
     </row>
     <row r="696">
-      <c r="C696" s="9"/>
+      <c r="C696" s="8"/>
     </row>
     <row r="697">
-      <c r="C697" s="9"/>
+      <c r="C697" s="8"/>
     </row>
     <row r="698">
-      <c r="C698" s="9"/>
+      <c r="C698" s="8"/>
     </row>
     <row r="699">
-      <c r="C699" s="9"/>
+      <c r="C699" s="8"/>
     </row>
     <row r="700">
-      <c r="C700" s="9"/>
+      <c r="C700" s="8"/>
     </row>
     <row r="701">
-      <c r="C701" s="9"/>
+      <c r="C701" s="8"/>
     </row>
     <row r="702">
-      <c r="C702" s="9"/>
+      <c r="C702" s="8"/>
     </row>
     <row r="703">
-      <c r="C703" s="9"/>
+      <c r="C703" s="8"/>
     </row>
     <row r="704">
-      <c r="C704" s="9"/>
+      <c r="C704" s="8"/>
     </row>
     <row r="705">
-      <c r="C705" s="9"/>
+      <c r="C705" s="8"/>
     </row>
     <row r="706">
-      <c r="C706" s="9"/>
+      <c r="C706" s="8"/>
     </row>
     <row r="707">
-      <c r="C707" s="9"/>
+      <c r="C707" s="8"/>
     </row>
     <row r="708">
-      <c r="C708" s="9"/>
+      <c r="C708" s="8"/>
     </row>
     <row r="709">
-      <c r="C709" s="9"/>
+      <c r="C709" s="8"/>
     </row>
     <row r="710">
-      <c r="C710" s="9"/>
+      <c r="C710" s="8"/>
     </row>
     <row r="711">
-      <c r="C711" s="9"/>
+      <c r="C711" s="8"/>
     </row>
     <row r="712">
-      <c r="C712" s="9"/>
+      <c r="C712" s="8"/>
     </row>
     <row r="713">
-      <c r="C713" s="9"/>
+      <c r="C713" s="8"/>
     </row>
     <row r="714">
-      <c r="C714" s="9"/>
+      <c r="C714" s="8"/>
     </row>
     <row r="715">
-      <c r="C715" s="9"/>
+      <c r="C715" s="8"/>
     </row>
     <row r="716">
-      <c r="C716" s="9"/>
+      <c r="C716" s="8"/>
     </row>
     <row r="717">
-      <c r="C717" s="9"/>
+      <c r="C717" s="8"/>
     </row>
     <row r="718">
-      <c r="C718" s="9"/>
+      <c r="C718" s="8"/>
     </row>
     <row r="719">
-      <c r="C719" s="9"/>
+      <c r="C719" s="8"/>
     </row>
     <row r="720">
-      <c r="C720" s="9"/>
+      <c r="C720" s="8"/>
     </row>
     <row r="721">
-      <c r="C721" s="9"/>
+      <c r="C721" s="8"/>
     </row>
     <row r="722">
-      <c r="C722" s="9"/>
+      <c r="C722" s="8"/>
     </row>
     <row r="723">
-      <c r="C723" s="9"/>
+      <c r="C723" s="8"/>
     </row>
     <row r="724">
-      <c r="C724" s="9"/>
+      <c r="C724" s="8"/>
     </row>
     <row r="725">
-      <c r="C725" s="9"/>
+      <c r="C725" s="8"/>
     </row>
     <row r="726">
-      <c r="C726" s="9"/>
+      <c r="C726" s="8"/>
     </row>
     <row r="727">
-      <c r="C727" s="9"/>
+      <c r="C727" s="8"/>
     </row>
     <row r="728">
-      <c r="C728" s="9"/>
+      <c r="C728" s="8"/>
     </row>
     <row r="729">
-      <c r="C729" s="9"/>
+      <c r="C729" s="8"/>
     </row>
     <row r="730">
-      <c r="C730" s="9"/>
+      <c r="C730" s="8"/>
     </row>
     <row r="731">
-      <c r="C731" s="9"/>
+      <c r="C731" s="8"/>
     </row>
     <row r="732">
-      <c r="C732" s="9"/>
+      <c r="C732" s="8"/>
     </row>
     <row r="733">
-      <c r="C733" s="9"/>
+      <c r="C733" s="8"/>
     </row>
     <row r="734">
-      <c r="C734" s="9"/>
+      <c r="C734" s="8"/>
     </row>
     <row r="735">
-      <c r="C735" s="9"/>
+      <c r="C735" s="8"/>
     </row>
     <row r="736">
-      <c r="C736" s="9"/>
+      <c r="C736" s="8"/>
     </row>
     <row r="737">
-      <c r="C737" s="9"/>
+      <c r="C737" s="8"/>
     </row>
     <row r="738">
-      <c r="C738" s="9"/>
+      <c r="C738" s="8"/>
     </row>
     <row r="739">
-      <c r="C739" s="9"/>
+      <c r="C739" s="8"/>
     </row>
     <row r="740">
-      <c r="C740" s="9"/>
+      <c r="C740" s="8"/>
     </row>
     <row r="741">
-      <c r="C741" s="9"/>
+      <c r="C741" s="8"/>
     </row>
     <row r="742">
-      <c r="C742" s="9"/>
+      <c r="C742" s="8"/>
     </row>
     <row r="743">
-      <c r="C743" s="9"/>
+      <c r="C743" s="8"/>
     </row>
     <row r="744">
-      <c r="C744" s="9"/>
+      <c r="C744" s="8"/>
     </row>
     <row r="745">
-      <c r="C745" s="9"/>
+      <c r="C745" s="8"/>
     </row>
     <row r="746">
-      <c r="C746" s="9"/>
+      <c r="C746" s="8"/>
     </row>
     <row r="747">
-      <c r="C747" s="9"/>
+      <c r="C747" s="8"/>
     </row>
     <row r="748">
-      <c r="C748" s="9"/>
+      <c r="C748" s="8"/>
     </row>
     <row r="749">
-      <c r="C749" s="9"/>
+      <c r="C749" s="8"/>
     </row>
     <row r="750">
-      <c r="C750" s="9"/>
+      <c r="C750" s="8"/>
     </row>
     <row r="751">
-      <c r="C751" s="9"/>
+      <c r="C751" s="8"/>
     </row>
     <row r="752">
-      <c r="C752" s="9"/>
+      <c r="C752" s="8"/>
     </row>
     <row r="753">
-      <c r="C753" s="9"/>
+      <c r="C753" s="8"/>
     </row>
     <row r="754">
-      <c r="C754" s="9"/>
+      <c r="C754" s="8"/>
     </row>
     <row r="755">
-      <c r="C755" s="9"/>
+      <c r="C755" s="8"/>
     </row>
     <row r="756">
-      <c r="C756" s="9"/>
+      <c r="C756" s="8"/>
     </row>
     <row r="757">
-      <c r="C757" s="9"/>
+      <c r="C757" s="8"/>
     </row>
     <row r="758">
-      <c r="C758" s="9"/>
+      <c r="C758" s="8"/>
     </row>
     <row r="759">
-      <c r="C759" s="9"/>
+      <c r="C759" s="8"/>
     </row>
     <row r="760">
-      <c r="C760" s="9"/>
+      <c r="C760" s="8"/>
     </row>
     <row r="761">
-      <c r="C761" s="9"/>
+      <c r="C761" s="8"/>
     </row>
     <row r="762">
-      <c r="C762" s="9"/>
+      <c r="C762" s="8"/>
     </row>
     <row r="763">
-      <c r="C763" s="9"/>
+      <c r="C763" s="8"/>
     </row>
     <row r="764">
-      <c r="C764" s="9"/>
+      <c r="C764" s="8"/>
     </row>
     <row r="765">
-      <c r="C765" s="9"/>
+      <c r="C765" s="8"/>
     </row>
     <row r="766">
-      <c r="C766" s="9"/>
+      <c r="C766" s="8"/>
     </row>
     <row r="767">
-      <c r="C767" s="9"/>
+      <c r="C767" s="8"/>
     </row>
     <row r="768">
-      <c r="C768" s="9"/>
+      <c r="C768" s="8"/>
     </row>
     <row r="769">
-      <c r="C769" s="9"/>
+      <c r="C769" s="8"/>
     </row>
     <row r="770">
-      <c r="C770" s="9"/>
+      <c r="C770" s="8"/>
     </row>
     <row r="771">
-      <c r="C771" s="9"/>
+      <c r="C771" s="8"/>
     </row>
     <row r="772">
-      <c r="C772" s="9"/>
+      <c r="C772" s="8"/>
     </row>
     <row r="773">
-      <c r="C773" s="9"/>
+      <c r="C773" s="8"/>
     </row>
     <row r="774">
-      <c r="C774" s="9"/>
+      <c r="C774" s="8"/>
     </row>
     <row r="775">
-      <c r="C775" s="9"/>
+      <c r="C775" s="8"/>
     </row>
     <row r="776">
-      <c r="C776" s="9"/>
+      <c r="C776" s="8"/>
     </row>
     <row r="777">
-      <c r="C777" s="9"/>
+      <c r="C777" s="8"/>
     </row>
     <row r="778">
-      <c r="C778" s="9"/>
+      <c r="C778" s="8"/>
     </row>
     <row r="779">
-      <c r="C779" s="9"/>
+      <c r="C779" s="8"/>
     </row>
     <row r="780">
-      <c r="C780" s="9"/>
+      <c r="C780" s="8"/>
     </row>
     <row r="781">
-      <c r="C781" s="9"/>
+      <c r="C781" s="8"/>
     </row>
     <row r="782">
-      <c r="C782" s="9"/>
+      <c r="C782" s="8"/>
     </row>
     <row r="783">
-      <c r="C783" s="9"/>
+      <c r="C783" s="8"/>
     </row>
     <row r="784">
-      <c r="C784" s="9"/>
+      <c r="C784" s="8"/>
     </row>
     <row r="785">
-      <c r="C785" s="9"/>
+      <c r="C785" s="8"/>
     </row>
     <row r="786">
-      <c r="C786" s="9"/>
+      <c r="C786" s="8"/>
     </row>
     <row r="787">
-      <c r="C787" s="9"/>
+      <c r="C787" s="8"/>
     </row>
     <row r="788">
-      <c r="C788" s="9"/>
+      <c r="C788" s="8"/>
     </row>
     <row r="789">
-      <c r="C789" s="9"/>
+      <c r="C789" s="8"/>
     </row>
     <row r="790">
-      <c r="C790" s="9"/>
+      <c r="C790" s="8"/>
     </row>
     <row r="791">
-      <c r="C791" s="9"/>
+      <c r="C791" s="8"/>
     </row>
     <row r="792">
-      <c r="C792" s="9"/>
+      <c r="C792" s="8"/>
     </row>
     <row r="793">
-      <c r="C793" s="9"/>
+      <c r="C793" s="8"/>
     </row>
     <row r="794">
-      <c r="C794" s="9"/>
+      <c r="C794" s="8"/>
     </row>
     <row r="795">
-      <c r="C795" s="9"/>
+      <c r="C795" s="8"/>
     </row>
     <row r="796">
-      <c r="C796" s="9"/>
+      <c r="C796" s="8"/>
     </row>
     <row r="797">
-      <c r="C797" s="9"/>
+      <c r="C797" s="8"/>
     </row>
     <row r="798">
-      <c r="C798" s="9"/>
+      <c r="C798" s="8"/>
     </row>
     <row r="799">
-      <c r="C799" s="9"/>
+      <c r="C799" s="8"/>
     </row>
     <row r="800">
-      <c r="C800" s="9"/>
+      <c r="C800" s="8"/>
     </row>
     <row r="801">
-      <c r="C801" s="9"/>
+      <c r="C801" s="8"/>
     </row>
     <row r="802">
-      <c r="C802" s="9"/>
+      <c r="C802" s="8"/>
     </row>
     <row r="803">
-      <c r="C803" s="9"/>
+      <c r="C803" s="8"/>
     </row>
     <row r="804">
-      <c r="C804" s="9"/>
+      <c r="C804" s="8"/>
     </row>
     <row r="805">
-      <c r="C805" s="9"/>
+      <c r="C805" s="8"/>
     </row>
     <row r="806">
-      <c r="C806" s="9"/>
+      <c r="C806" s="8"/>
     </row>
     <row r="807">
-      <c r="C807" s="9"/>
+      <c r="C807" s="8"/>
     </row>
     <row r="808">
-      <c r="C808" s="9"/>
+      <c r="C808" s="8"/>
     </row>
     <row r="809">
-      <c r="C809" s="9"/>
+      <c r="C809" s="8"/>
     </row>
     <row r="810">
-      <c r="C810" s="9"/>
+      <c r="C810" s="8"/>
     </row>
     <row r="811">
-      <c r="C811" s="9"/>
+      <c r="C811" s="8"/>
     </row>
     <row r="812">
-      <c r="C812" s="9"/>
+      <c r="C812" s="8"/>
     </row>
     <row r="813">
-      <c r="C813" s="9"/>
+      <c r="C813" s="8"/>
     </row>
     <row r="814">
-      <c r="C814" s="9"/>
+      <c r="C814" s="8"/>
     </row>
     <row r="815">
-      <c r="C815" s="9"/>
+      <c r="C815" s="8"/>
     </row>
     <row r="816">
-      <c r="C816" s="9"/>
+      <c r="C816" s="8"/>
     </row>
     <row r="817">
-      <c r="C817" s="9"/>
+      <c r="C817" s="8"/>
     </row>
     <row r="818">
-      <c r="C818" s="9"/>
+      <c r="C818" s="8"/>
     </row>
     <row r="819">
-      <c r="C819" s="9"/>
+      <c r="C819" s="8"/>
     </row>
     <row r="820">
-      <c r="C820" s="9"/>
+      <c r="C820" s="8"/>
     </row>
     <row r="821">
-      <c r="C821" s="9"/>
+      <c r="C821" s="8"/>
     </row>
     <row r="822">
-      <c r="C822" s="9"/>
+      <c r="C822" s="8"/>
     </row>
     <row r="823">
-      <c r="C823" s="9"/>
+      <c r="C823" s="8"/>
     </row>
     <row r="824">
-      <c r="C824" s="9"/>
+      <c r="C824" s="8"/>
     </row>
     <row r="825">
-      <c r="C825" s="9"/>
+      <c r="C825" s="8"/>
     </row>
     <row r="826">
-      <c r="C826" s="9"/>
+      <c r="C826" s="8"/>
     </row>
     <row r="827">
-      <c r="C827" s="9"/>
+      <c r="C827" s="8"/>
     </row>
     <row r="828">
-      <c r="C828" s="9"/>
+      <c r="C828" s="8"/>
     </row>
     <row r="829">
-      <c r="C829" s="9"/>
+      <c r="C829" s="8"/>
     </row>
     <row r="830">
-      <c r="C830" s="9"/>
+      <c r="C830" s="8"/>
     </row>
     <row r="831">
-      <c r="C831" s="9"/>
+      <c r="C831" s="8"/>
     </row>
     <row r="832">
-      <c r="C832" s="9"/>
+      <c r="C832" s="8"/>
     </row>
     <row r="833">
-      <c r="C833" s="9"/>
+      <c r="C833" s="8"/>
     </row>
     <row r="834">
-      <c r="C834" s="9"/>
+      <c r="C834" s="8"/>
     </row>
     <row r="835">
-      <c r="C835" s="9"/>
+      <c r="C835" s="8"/>
     </row>
     <row r="836">
-      <c r="C836" s="9"/>
+      <c r="C836" s="8"/>
     </row>
     <row r="837">
-      <c r="C837" s="9"/>
+      <c r="C837" s="8"/>
     </row>
     <row r="838">
-      <c r="C838" s="9"/>
+      <c r="C838" s="8"/>
     </row>
     <row r="839">
-      <c r="C839" s="9"/>
+      <c r="C839" s="8"/>
     </row>
     <row r="840">
-      <c r="C840" s="9"/>
+      <c r="C840" s="8"/>
     </row>
     <row r="841">
-      <c r="C841" s="9"/>
+      <c r="C841" s="8"/>
     </row>
     <row r="842">
-      <c r="C842" s="9"/>
+      <c r="C842" s="8"/>
     </row>
     <row r="843">
-      <c r="C843" s="9"/>
+      <c r="C843" s="8"/>
     </row>
     <row r="844">
-      <c r="C844" s="9"/>
+      <c r="C844" s="8"/>
     </row>
     <row r="845">
-      <c r="C845" s="9"/>
+      <c r="C845" s="8"/>
     </row>
     <row r="846">
-      <c r="C846" s="9"/>
+      <c r="C846" s="8"/>
     </row>
     <row r="847">
-      <c r="C847" s="9"/>
+      <c r="C847" s="8"/>
     </row>
     <row r="848">
-      <c r="C848" s="9"/>
+      <c r="C848" s="8"/>
     </row>
     <row r="849">
-      <c r="C849" s="9"/>
+      <c r="C849" s="8"/>
     </row>
     <row r="850">
-      <c r="C850" s="9"/>
+      <c r="C850" s="8"/>
     </row>
     <row r="851">
-      <c r="C851" s="9"/>
+      <c r="C851" s="8"/>
     </row>
     <row r="852">
-      <c r="C852" s="9"/>
+      <c r="C852" s="8"/>
     </row>
     <row r="853">
-      <c r="C853" s="9"/>
+      <c r="C853" s="8"/>
     </row>
     <row r="854">
-      <c r="C854" s="9"/>
+      <c r="C854" s="8"/>
     </row>
     <row r="855">
-      <c r="C855" s="9"/>
+      <c r="C855" s="8"/>
     </row>
     <row r="856">
-      <c r="C856" s="9"/>
+      <c r="C856" s="8"/>
     </row>
     <row r="857">
-      <c r="C857" s="9"/>
+      <c r="C857" s="8"/>
     </row>
     <row r="858">
-      <c r="C858" s="9"/>
+      <c r="C858" s="8"/>
     </row>
     <row r="859">
-      <c r="C859" s="9"/>
+      <c r="C859" s="8"/>
     </row>
     <row r="860">
-      <c r="C860" s="9"/>
+      <c r="C860" s="8"/>
     </row>
     <row r="861">
-      <c r="C861" s="9"/>
+      <c r="C861" s="8"/>
     </row>
     <row r="862">
-      <c r="C862" s="9"/>
+      <c r="C862" s="8"/>
     </row>
     <row r="863">
-      <c r="C863" s="9"/>
+      <c r="C863" s="8"/>
     </row>
     <row r="864">
-      <c r="C864" s="9"/>
+      <c r="C864" s="8"/>
     </row>
     <row r="865">
-      <c r="C865" s="9"/>
+      <c r="C865" s="8"/>
     </row>
     <row r="866">
-      <c r="C866" s="9"/>
+      <c r="C866" s="8"/>
     </row>
     <row r="867">
-      <c r="C867" s="9"/>
+      <c r="C867" s="8"/>
     </row>
     <row r="868">
-      <c r="C868" s="9"/>
+      <c r="C868" s="8"/>
     </row>
     <row r="869">
-      <c r="C869" s="9"/>
+      <c r="C869" s="8"/>
     </row>
     <row r="870">
-      <c r="C870" s="9"/>
+      <c r="C870" s="8"/>
     </row>
     <row r="871">
-      <c r="C871" s="9"/>
+      <c r="C871" s="8"/>
     </row>
     <row r="872">
-      <c r="C872" s="9"/>
+      <c r="C872" s="8"/>
     </row>
     <row r="873">
-      <c r="C873" s="9"/>
+      <c r="C873" s="8"/>
     </row>
     <row r="874">
-      <c r="C874" s="9"/>
+      <c r="C874" s="8"/>
     </row>
     <row r="875">
-      <c r="C875" s="9"/>
+      <c r="C875" s="8"/>
     </row>
     <row r="876">
-      <c r="C876" s="9"/>
+      <c r="C876" s="8"/>
     </row>
     <row r="877">
-      <c r="C877" s="9"/>
+      <c r="C877" s="8"/>
     </row>
     <row r="878">
-      <c r="C878" s="9"/>
+      <c r="C878" s="8"/>
     </row>
     <row r="879">
-      <c r="C879" s="9"/>
+      <c r="C879" s="8"/>
     </row>
     <row r="880">
-      <c r="C880" s="9"/>
+      <c r="C880" s="8"/>
     </row>
     <row r="881">
-      <c r="C881" s="9"/>
+      <c r="C881" s="8"/>
     </row>
     <row r="882">
-      <c r="C882" s="9"/>
+      <c r="C882" s="8"/>
     </row>
     <row r="883">
-      <c r="C883" s="9"/>
+      <c r="C883" s="8"/>
     </row>
     <row r="884">
-      <c r="C884" s="9"/>
+      <c r="C884" s="8"/>
     </row>
     <row r="885">
-      <c r="C885" s="9"/>
+      <c r="C885" s="8"/>
     </row>
     <row r="886">
-      <c r="C886" s="9"/>
+      <c r="C886" s="8"/>
     </row>
     <row r="887">
-      <c r="C887" s="9"/>
+      <c r="C887" s="8"/>
     </row>
     <row r="888">
-      <c r="C888" s="9"/>
+      <c r="C888" s="8"/>
     </row>
     <row r="889">
-      <c r="C889" s="9"/>
+      <c r="C889" s="8"/>
     </row>
     <row r="890">
-      <c r="C890" s="9"/>
+      <c r="C890" s="8"/>
     </row>
     <row r="891">
-      <c r="C891" s="9"/>
+      <c r="C891" s="8"/>
     </row>
     <row r="892">
-      <c r="C892" s="9"/>
+      <c r="C892" s="8"/>
     </row>
     <row r="893">
-      <c r="C893" s="9"/>
+      <c r="C893" s="8"/>
     </row>
     <row r="894">
-      <c r="C894" s="9"/>
+      <c r="C894" s="8"/>
     </row>
     <row r="895">
-      <c r="C895" s="9"/>
+      <c r="C895" s="8"/>
     </row>
     <row r="896">
-      <c r="C896" s="9"/>
+      <c r="C896" s="8"/>
     </row>
     <row r="897">
-      <c r="C897" s="9"/>
+      <c r="C897" s="8"/>
     </row>
     <row r="898">
-      <c r="C898" s="9"/>
+      <c r="C898" s="8"/>
     </row>
     <row r="899">
-      <c r="C899" s="9"/>
+      <c r="C899" s="8"/>
     </row>
     <row r="900">
-      <c r="C900" s="9"/>
+      <c r="C900" s="8"/>
     </row>
     <row r="901">
-      <c r="C901" s="9"/>
+      <c r="C901" s="8"/>
     </row>
     <row r="902">
-      <c r="C902" s="9"/>
+      <c r="C902" s="8"/>
     </row>
     <row r="903">
-      <c r="C903" s="9"/>
+      <c r="C903" s="8"/>
     </row>
     <row r="904">
-      <c r="C904" s="9"/>
+      <c r="C904" s="8"/>
     </row>
     <row r="905">
-      <c r="C905" s="9"/>
+      <c r="C905" s="8"/>
     </row>
     <row r="906">
-      <c r="C906" s="9"/>
+      <c r="C906" s="8"/>
     </row>
     <row r="907">
-      <c r="C907" s="9"/>
+      <c r="C907" s="8"/>
     </row>
     <row r="908">
-      <c r="C908" s="9"/>
+      <c r="C908" s="8"/>
     </row>
     <row r="909">
-      <c r="C909" s="9"/>
+      <c r="C909" s="8"/>
     </row>
     <row r="910">
-      <c r="C910" s="9"/>
+      <c r="C910" s="8"/>
     </row>
     <row r="911">
-      <c r="C911" s="9"/>
+      <c r="C911" s="8"/>
     </row>
     <row r="912">
-      <c r="C912" s="9"/>
+      <c r="C912" s="8"/>
     </row>
     <row r="913">
-      <c r="C913" s="9"/>
+      <c r="C913" s="8"/>
     </row>
     <row r="914">
-      <c r="C914" s="9"/>
+      <c r="C914" s="8"/>
     </row>
     <row r="915">
-      <c r="C915" s="9"/>
+      <c r="C915" s="8"/>
     </row>
     <row r="916">
-      <c r="C916" s="9"/>
+      <c r="C916" s="8"/>
     </row>
     <row r="917">
-      <c r="C917" s="9"/>
+      <c r="C917" s="8"/>
     </row>
     <row r="918">
-      <c r="C918" s="9"/>
+      <c r="C918" s="8"/>
     </row>
     <row r="919">
-      <c r="C919" s="9"/>
+      <c r="C919" s="8"/>
     </row>
     <row r="920">
-      <c r="C920" s="9"/>
+      <c r="C920" s="8"/>
     </row>
     <row r="921">
-      <c r="C921" s="9"/>
+      <c r="C921" s="8"/>
     </row>
     <row r="922">
-      <c r="C922" s="9"/>
+      <c r="C922" s="8"/>
     </row>
     <row r="923">
-      <c r="C923" s="9"/>
+      <c r="C923" s="8"/>
     </row>
     <row r="924">
-      <c r="C924" s="9"/>
+      <c r="C924" s="8"/>
     </row>
     <row r="925">
-      <c r="C925" s="9"/>
+      <c r="C925" s="8"/>
     </row>
     <row r="926">
-      <c r="C926" s="9"/>
+      <c r="C926" s="8"/>
     </row>
     <row r="927">
-      <c r="C927" s="9"/>
+      <c r="C927" s="8"/>
     </row>
     <row r="928">
-      <c r="C928" s="9"/>
+      <c r="C928" s="8"/>
     </row>
     <row r="929">
-      <c r="C929" s="9"/>
+      <c r="C929" s="8"/>
     </row>
     <row r="930">
-      <c r="C930" s="9"/>
+      <c r="C930" s="8"/>
     </row>
     <row r="931">
-      <c r="C931" s="9"/>
+      <c r="C931" s="8"/>
     </row>
     <row r="932">
-      <c r="C932" s="9"/>
+      <c r="C932" s="8"/>
     </row>
     <row r="933">
-      <c r="C933" s="9"/>
+      <c r="C933" s="8"/>
     </row>
     <row r="934">
-      <c r="C934" s="9"/>
+      <c r="C934" s="8"/>
     </row>
     <row r="935">
-      <c r="C935" s="9"/>
+      <c r="C935" s="8"/>
     </row>
     <row r="936">
-      <c r="C936" s="9"/>
+      <c r="C936" s="8"/>
     </row>
     <row r="937">
-      <c r="C937" s="9"/>
+      <c r="C937" s="8"/>
     </row>
     <row r="938">
-      <c r="C938" s="9"/>
+      <c r="C938" s="8"/>
     </row>
     <row r="939">
-      <c r="C939" s="9"/>
+      <c r="C939" s="8"/>
     </row>
     <row r="940">
-      <c r="C940" s="9"/>
+      <c r="C940" s="8"/>
     </row>
     <row r="941">
-      <c r="C941" s="9"/>
+      <c r="C941" s="8"/>
     </row>
     <row r="942">
-      <c r="C942" s="9"/>
+      <c r="C942" s="8"/>
     </row>
     <row r="943">
-      <c r="C943" s="9"/>
+      <c r="C943" s="8"/>
     </row>
     <row r="944">
-      <c r="C944" s="9"/>
+      <c r="C944" s="8"/>
     </row>
     <row r="945">
-      <c r="C945" s="9"/>
+      <c r="C945" s="8"/>
     </row>
     <row r="946">
-      <c r="C946" s="9"/>
+      <c r="C946" s="8"/>
     </row>
     <row r="947">
-      <c r="C947" s="9"/>
+      <c r="C947" s="8"/>
     </row>
     <row r="948">
-      <c r="C948" s="9"/>
+      <c r="C948" s="8"/>
     </row>
     <row r="949">
-      <c r="C949" s="9"/>
+      <c r="C949" s="8"/>
     </row>
     <row r="950">
-      <c r="C950" s="9"/>
+      <c r="C950" s="8"/>
     </row>
     <row r="951">
-      <c r="C951" s="9"/>
+      <c r="C951" s="8"/>
     </row>
     <row r="952">
-      <c r="C952" s="9"/>
+      <c r="C952" s="8"/>
     </row>
     <row r="953">
-      <c r="C953" s="9"/>
+      <c r="C953" s="8"/>
     </row>
     <row r="954">
-      <c r="C954" s="9"/>
+      <c r="C954" s="8"/>
     </row>
     <row r="955">
-      <c r="C955" s="9"/>
+      <c r="C955" s="8"/>
     </row>
     <row r="956">
-      <c r="C956" s="9"/>
+      <c r="C956" s="8"/>
     </row>
     <row r="957">
-      <c r="C957" s="9"/>
+      <c r="C957" s="8"/>
     </row>
     <row r="958">
-      <c r="C958" s="9"/>
+      <c r="C958" s="8"/>
     </row>
     <row r="959">
-      <c r="C959" s="9"/>
+      <c r="C959" s="8"/>
     </row>
     <row r="960">
-      <c r="C960" s="9"/>
+      <c r="C960" s="8"/>
     </row>
     <row r="961">
-      <c r="C961" s="9"/>
+      <c r="C961" s="8"/>
     </row>
     <row r="962">
-      <c r="C962" s="9"/>
+      <c r="C962" s="8"/>
     </row>
     <row r="963">
-      <c r="C963" s="9"/>
+      <c r="C963" s="8"/>
     </row>
     <row r="964">
-      <c r="C964" s="9"/>
+      <c r="C964" s="8"/>
     </row>
     <row r="965">
-      <c r="C965" s="9"/>
+      <c r="C965" s="8"/>
     </row>
     <row r="966">
-      <c r="C966" s="9"/>
+      <c r="C966" s="8"/>
     </row>
     <row r="967">
-      <c r="C967" s="9"/>
+      <c r="C967" s="8"/>
     </row>
     <row r="968">
-      <c r="C968" s="9"/>
+      <c r="C968" s="8"/>
     </row>
     <row r="969">
-      <c r="C969" s="9"/>
+      <c r="C969" s="8"/>
     </row>
     <row r="970">
-      <c r="C970" s="9"/>
+      <c r="C970" s="8"/>
     </row>
     <row r="971">
-      <c r="C971" s="9"/>
+      <c r="C971" s="8"/>
     </row>
     <row r="972">
-      <c r="C972" s="9"/>
+      <c r="C972" s="8"/>
     </row>
     <row r="973">
-      <c r="C973" s="9"/>
+      <c r="C973" s="8"/>
     </row>
     <row r="974">
-      <c r="C974" s="9"/>
+      <c r="C974" s="8"/>
     </row>
     <row r="975">
-      <c r="C975" s="9"/>
+      <c r="C975" s="8"/>
     </row>
     <row r="976">
-      <c r="C976" s="9"/>
+      <c r="C976" s="8"/>
     </row>
     <row r="977">
-      <c r="C977" s="9"/>
+      <c r="C977" s="8"/>
     </row>
     <row r="978">
-      <c r="C978" s="9"/>
+      <c r="C978" s="8"/>
     </row>
     <row r="979">
-      <c r="C979" s="9"/>
+      <c r="C979" s="8"/>
     </row>
     <row r="980">
-      <c r="C980" s="9"/>
+      <c r="C980" s="8"/>
     </row>
     <row r="981">
-      <c r="C981" s="9"/>
+      <c r="C981" s="8"/>
     </row>
     <row r="982">
-      <c r="C982" s="9"/>
+      <c r="C982" s="8"/>
     </row>
     <row r="983">
-      <c r="C983" s="9"/>
+      <c r="C983" s="8"/>
     </row>
     <row r="984">
-      <c r="C984" s="9"/>
+      <c r="C984" s="8"/>
     </row>
     <row r="985">
-      <c r="C985" s="9"/>
+      <c r="C985" s="8"/>
     </row>
     <row r="986">
-      <c r="C986" s="9"/>
+      <c r="C986" s="8"/>
     </row>
     <row r="987">
-      <c r="C987" s="9"/>
+      <c r="C987" s="8"/>
     </row>
     <row r="988">
-      <c r="C988" s="9"/>
+      <c r="C988" s="8"/>
     </row>
     <row r="989">
-      <c r="C989" s="9"/>
+      <c r="C989" s="8"/>
     </row>
     <row r="990">
-      <c r="C990" s="9"/>
+      <c r="C990" s="8"/>
     </row>
     <row r="991">
-      <c r="C991" s="9"/>
+      <c r="C991" s="8"/>
     </row>
     <row r="992">
-      <c r="C992" s="9"/>
+      <c r="C992" s="8"/>
     </row>
     <row r="993">
-      <c r="C993" s="9"/>
+      <c r="C993" s="8"/>
     </row>
     <row r="994">
-      <c r="C994" s="9"/>
+      <c r="C994" s="8"/>
     </row>
     <row r="995">
-      <c r="C995" s="9"/>
+      <c r="C995" s="8"/>
     </row>
     <row r="996">
-      <c r="C996" s="9"/>
+      <c r="C996" s="8"/>
     </row>
     <row r="997">
-      <c r="C997" s="9"/>
+      <c r="C997" s="8"/>
     </row>
     <row r="998">
-      <c r="C998" s="9"/>
+      <c r="C998" s="8"/>
     </row>
     <row r="999">
-      <c r="C999" s="9"/>
+      <c r="C999" s="8"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="9"/>
+      <c r="C1000" s="8"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="9"/>
+      <c r="C1001" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
